--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-iam-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-iam-menu.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="358">
   <si>
     <r>
       <rPr>
@@ -1997,7 +1997,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-04-03</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2507,195 +2507,195 @@
     <t>iam_menu_permission-18</t>
   </si>
   <si>
+    <t>hzero-admin.service-route.pageRoutes</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-19</t>
+  </si>
+  <si>
     <t>hzero-monitor.audit-op-config.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-19</t>
+    <t>iam_menu_permission-20</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-config.delete</t>
   </si>
   <si>
-    <t>iam_menu_permission-20</t>
+    <t>iam_menu_permission-21</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-config.page</t>
   </si>
   <si>
-    <t>iam_menu_permission-21</t>
+    <t>iam_menu_permission-22</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-config.query</t>
   </si>
   <si>
-    <t>iam_menu_permission-22</t>
+    <t>iam_menu_permission-23</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-config.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-23</t>
+    <t>iam_menu_permission-24</t>
   </si>
   <si>
     <t>HIAM.SITE.USER</t>
   </si>
   <si>
-    <t>iam_menu_permission-24</t>
+    <t>iam_menu_permission-25</t>
   </si>
   <si>
     <t>HIAM.TENANT.USER</t>
   </si>
   <si>
-    <t>iam_menu_permission-25</t>
+    <t>iam_menu_permission-26</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-27</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-log.page</t>
   </si>
   <si>
-    <t>iam_menu_permission-26</t>
+    <t>iam_menu_permission-28</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-log.query</t>
   </si>
   <si>
-    <t>iam_menu_permission-27</t>
+    <t>iam_menu_permission-29</t>
   </si>
   <si>
     <t>HPFM.TENANT_PAGING</t>
   </si>
   <si>
-    <t>iam_menu_permission-28</t>
+    <t>iam_menu_permission-30</t>
   </si>
   <si>
     <t>hzero-config.service-route-site-level.detail</t>
   </si>
   <si>
-    <t>iam_menu_permission-29</t>
+    <t>iam_menu_permission-31</t>
   </si>
   <si>
     <t>hzero-config.service-route-site-level.pageRoutes</t>
   </si>
   <si>
-    <t>iam_menu_permission-30</t>
+    <t>iam_menu_permission-32</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config-line-site.enableOrDisable</t>
   </si>
   <si>
-    <t>iam_menu_permission-31</t>
+    <t>iam_menu_permission-33</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config-line-site.list</t>
   </si>
   <si>
-    <t>iam_menu_permission-32</t>
+    <t>iam_menu_permission-34</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config-line-site.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-33</t>
+    <t>iam_menu_permission-35</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config-site.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-34</t>
+    <t>iam_menu_permission-36</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config-site.detail</t>
   </si>
   <si>
-    <t>iam_menu_permission-35</t>
+    <t>iam_menu_permission-37</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config-site.list</t>
   </si>
   <si>
-    <t>iam_menu_permission-36</t>
+    <t>iam_menu_permission-38</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config-site.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-37</t>
+    <t>iam_menu_permission-39</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-40</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-site.selectAuditData</t>
   </si>
   <si>
-    <t>iam_menu_permission-38</t>
+    <t>iam_menu_permission-41</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-site.selectAuditDataDetail</t>
   </si>
   <si>
-    <t>iam_menu_permission-39</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-40</t>
+    <t>iam_menu_permission-42</t>
+  </si>
+  <si>
+    <t>HADM.SERVICE_ROUTE</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-43</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-44</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-45</t>
   </si>
   <si>
     <t>hzero-admin-test.service-route-site-level.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-41</t>
+    <t>iam_menu_permission-46</t>
   </si>
   <si>
     <t>hzero-admin-test.service-route-site-level.detail</t>
   </si>
   <si>
-    <t>iam_menu_permission-42</t>
+    <t>iam_menu_permission-47</t>
   </si>
   <si>
     <t>hzero-admin-test.service-route-site-level.pageRoutes</t>
   </si>
   <si>
-    <t>iam_menu_permission-43</t>
-  </si>
-  <si>
-    <t>hzero-admin-v2.service-route-site-level.detail</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-44</t>
-  </si>
-  <si>
-    <t>hzero-admin-v2.service-route-site-level.pageRoutes</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-45</t>
+    <t>iam_menu_permission-48</t>
   </si>
   <si>
     <t>hzero-admin.service-route-site-level.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-46</t>
+    <t>iam_menu_permission-49</t>
   </si>
   <si>
     <t>hzero-admin.service-route-site-level.detailById</t>
   </si>
   <si>
-    <t>iam_menu_permission-47</t>
+    <t>iam_menu_permission-50</t>
   </si>
   <si>
     <t>hzero-admin.service-route-site-level.pageRoutes</t>
   </si>
   <si>
-    <t>iam_menu_permission-48</t>
+    <t>iam_menu_permission-51</t>
   </si>
   <si>
     <t>hzero-config.service-route-site-level.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-49</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-50</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-51</t>
-  </si>
-  <si>
     <t>iam_menu_permission-52</t>
   </si>
   <si>
@@ -2705,46 +2705,58 @@
     <t>iam_menu_permission-54</t>
   </si>
   <si>
+    <t>iam_menu_permission-55</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-56</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-57</t>
+  </si>
+  <si>
     <t>hzero-monitor.audit-op-config-site.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-55</t>
+    <t>iam_menu_permission-58</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-config-site.delete</t>
   </si>
   <si>
-    <t>iam_menu_permission-56</t>
+    <t>iam_menu_permission-59</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-config-site.page</t>
   </si>
   <si>
-    <t>iam_menu_permission-57</t>
+    <t>iam_menu_permission-60</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-config-site.query</t>
   </si>
   <si>
-    <t>iam_menu_permission-58</t>
+    <t>iam_menu_permission-61</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-config-site.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-59</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-60</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-61</t>
+    <t>iam_menu_permission-62</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-63</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-64</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-65</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-log-site.page</t>
   </si>
   <si>
-    <t>iam_menu_permission-62</t>
+    <t>iam_menu_permission-66</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-log-site.query</t>
@@ -2807,7 +2819,7 @@
     <t>role/site/default/administrator</t>
   </si>
   <si>
-    <t>HZERO.T.role/site/default/administrator</t>
+    <t>abcf</t>
   </si>
   <si>
     <t>iam_role-9</t>
@@ -2822,63 +2834,12 @@
     <t>role/organization/default/administrator</t>
   </si>
   <si>
-    <t>HZERO.T.role/organization/default/administrator</t>
+    <t>abce</t>
   </si>
   <si>
     <t>iam_role-10</t>
   </si>
   <si>
-    <t>组织管理员</t>
-  </si>
-  <si>
-    <t>role/project/default/administrator</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>HZERO.P..role/project/default/administrator</t>
-  </si>
-  <si>
-    <t>iam_role-11</t>
-  </si>
-  <si>
-    <t>游客(平台层)</t>
-  </si>
-  <si>
-    <t>Site Guest</t>
-  </si>
-  <si>
-    <t>role/site/default/guest</t>
-  </si>
-  <si>
-    <t>role/site/default/administrator|HZERO.T.role/site/default/guest</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/site/default/guest</t>
-  </si>
-  <si>
-    <t>iam_role-12</t>
-  </si>
-  <si>
-    <t>游客(租户层)</t>
-  </si>
-  <si>
-    <t>Organization Guest</t>
-  </si>
-  <si>
-    <t>role/organization/default/guest</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/organization/default/guest</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/organization/default/guest</t>
-  </si>
-  <si>
-    <t>iam_role-13</t>
-  </si>
-  <si>
     <t>租户管理员模板</t>
   </si>
   <si>
@@ -2915,18 +2876,27 @@
     <t>#type</t>
   </si>
   <si>
+    <t>iam_role_permission-13</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>iam_role_permission-14</t>
+  </si>
+  <si>
+    <t>iam_role_permission-15</t>
+  </si>
+  <si>
     <t>iam_role_permission-16</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
     <t>iam_role_permission-17</t>
   </si>
   <si>
@@ -2949,15 +2919,6 @@
   </si>
   <si>
     <t>iam_role_permission-24</t>
-  </si>
-  <si>
-    <t>iam_role_permission-25</t>
-  </si>
-  <si>
-    <t>iam_role_permission-26</t>
-  </si>
-  <si>
-    <t>iam_role_permission-27</t>
   </si>
 </sst>
 </file>
@@ -5466,7 +5427,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5690,7 +5651,7 @@
         <v>229</v>
       </c>
       <c r="F23">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="G23" t="s">
         <v>230</v>
@@ -5726,282 +5687,282 @@
         <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="G26" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F27">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="G27" t="s">
         <v>237</v>
-      </c>
-      <c r="F27">
-        <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="G27" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="G28" t="s">
         <v>239</v>
-      </c>
-      <c r="F28">
-        <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="G28" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F29">
         <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="G29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F30">
         <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="G30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F31">
         <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="G31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F32">
         <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="G32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F33">
         <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="G33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F34">
         <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="G34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F35">
         <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="G35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F36">
         <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="G36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="G37" t="s">
         <v>257</v>
-      </c>
-      <c r="F37">
-        <f>菜单SAAS版!$E$24</f>
-      </c>
-      <c r="G37" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
+        <v>258</v>
+      </c>
+      <c r="F38">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="G38" t="s">
         <v>259</v>
-      </c>
-      <c r="F38">
-        <f>菜单SAAS版!$E$24</f>
-      </c>
-      <c r="G38" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F39">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单SAAS版!$E$24</f>
       </c>
       <c r="G39" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40">
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="G40" t="s">
         <v>262</v>
-      </c>
-      <c r="F40">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G40" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
+        <v>263</v>
+      </c>
+      <c r="F41">
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="G41" t="s">
         <v>264</v>
-      </c>
-      <c r="F41">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G41" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F42">
         <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F43">
         <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G43" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F44">
         <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G44" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F45">
         <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G45" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F46">
         <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G46" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F47">
         <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G47" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F48">
         <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G48" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F49">
         <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G49" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F50">
         <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G50" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F51">
         <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G51" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52">
@@ -6012,7 +5973,7 @@
         <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G52" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53">
@@ -6023,7 +5984,7 @@
         <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G53" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54">
@@ -6034,95 +5995,139 @@
         <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G54" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F55">
         <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G55" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F56">
         <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G56" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F57">
         <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G57" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F58">
         <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G58" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F59">
-        <f>菜单SAAS版!$E$29</f>
+        <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G59" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F60">
-        <f>菜单SAAS版!$E$29</f>
+        <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="G60" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
+        <v>296</v>
+      </c>
+      <c r="F61">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G61" t="s">
         <v>297</v>
-      </c>
-      <c r="F61">
-        <f>菜单SAAS版!$E$29</f>
-      </c>
-      <c r="G61" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F62">
         <f>菜单SAAS版!$E$29</f>
       </c>
       <c r="G62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="s">
+        <v>299</v>
+      </c>
+      <c r="F63">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="G63" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="s">
         <v>300</v>
+      </c>
+      <c r="F64">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="G64" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="s">
+        <v>301</v>
+      </c>
+      <c r="F65">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="G65" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="s">
+        <v>303</v>
+      </c>
+      <c r="F66">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="G66" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -6132,7 +6137,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6171,10 +6176,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D7" t="s" s="63">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E7" t="s" s="64">
         <v>54</v>
@@ -6189,63 +6194,66 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="J7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K7" t="s" s="66">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M7" t="s" s="67">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="N7" t="s" s="68">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="O7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="R7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="S7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="T7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="W7" t="s" s="69">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F8" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G8" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H8" t="s">
-        <v>319</v>
+        <v>323</v>
+      </c>
+      <c r="I8" t="s">
+        <v>324</v>
       </c>
       <c r="J8" t="s">
         <v>147</v>
@@ -6281,10 +6289,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="V8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -6292,16 +6300,19 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F9" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G9" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H9" t="s">
-        <v>324</v>
+        <v>328</v>
+      </c>
+      <c r="I9" t="s">
+        <v>329</v>
       </c>
       <c r="J9" t="s">
         <v>80</v>
@@ -6337,10 +6348,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="V9" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -6348,19 +6359,19 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G10" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="H10" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="J10" t="s">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
         <v>81</v>
@@ -6368,11 +6379,11 @@
       <c r="L10" t="s">
         <v>81</v>
       </c>
-      <c r="M10" t="s">
-        <v>81</v>
+      <c r="M10">
+        <f>角色权限!$E$9</f>
       </c>
       <c r="N10" t="s">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="O10" t="s">
         <v>81</v>
@@ -6393,453 +6404,285 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="V10" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11">
-      <c r="E11" t="s">
-        <v>331</v>
-      </c>
-      <c r="F11" t="s">
-        <v>332</v>
-      </c>
-      <c r="G11" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" t="s">
-        <v>334</v>
-      </c>
-      <c r="J11" t="s">
-        <v>147</v>
-      </c>
-      <c r="K11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="N11" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>81</v>
-      </c>
-      <c r="R11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S11" t="s">
-        <v>84</v>
-      </c>
-      <c r="T11" t="s">
-        <v>81</v>
-      </c>
-      <c r="U11" t="s">
-        <v>335</v>
-      </c>
-      <c r="V11" t="s">
+    <row r="12">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
         <v>336</v>
       </c>
-      <c r="W11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
+      <c r="D12" t="s" s="70">
         <v>337</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s" s="71">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s" s="72">
         <v>338</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="73">
         <v>339</v>
       </c>
       <c r="H12" t="s">
         <v>340</v>
       </c>
-      <c r="J12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="N12" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>81</v>
-      </c>
-      <c r="R12" t="s">
-        <v>84</v>
-      </c>
-      <c r="S12" t="s">
-        <v>84</v>
-      </c>
-      <c r="T12" t="s">
-        <v>81</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="I12" t="s">
         <v>341</v>
       </c>
-      <c r="V12" t="s">
+      <c r="J12" t="s" s="74">
         <v>342</v>
-      </c>
-      <c r="W12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
         <v>343</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G13">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="H13" t="s">
         <v>344</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>345</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>346</v>
       </c>
-      <c r="J13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13">
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>347</v>
+      </c>
+      <c r="F14">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G14">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="H14" t="s">
+        <v>344</v>
+      </c>
+      <c r="I14" t="s">
+        <v>345</v>
+      </c>
+      <c r="J14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F15">
         <f>角色权限!$E$9</f>
       </c>
-      <c r="N13" t="s">
-        <v>80</v>
-      </c>
-      <c r="O13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P13" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>81</v>
-      </c>
-      <c r="R13" t="s">
-        <v>84</v>
-      </c>
-      <c r="S13" t="s">
-        <v>84</v>
-      </c>
-      <c r="T13" t="s">
-        <v>81</v>
-      </c>
-      <c r="U13" t="s">
-        <v>347</v>
-      </c>
-      <c r="V13" t="s">
-        <v>348</v>
-      </c>
-      <c r="W13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>349</v>
-      </c>
-      <c r="D15" t="s" s="70">
-        <v>350</v>
-      </c>
-      <c r="E15" t="s" s="71">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s" s="72">
-        <v>351</v>
-      </c>
-      <c r="G15" t="s" s="73">
-        <v>352</v>
+      <c r="G15">
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H15" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="I15" t="s">
-        <v>354</v>
-      </c>
-      <c r="J15" t="s" s="74">
-        <v>355</v>
+        <v>345</v>
+      </c>
+      <c r="J15" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F16">
-        <f>角色权限!$E$9</f>
+        <f>角色权限!$E$10</f>
       </c>
       <c r="G16">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H16" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="I16" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="J16" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F17">
-        <f>角色权限!$E$13</f>
+        <f>角色权限!$E$9</f>
       </c>
       <c r="G17">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="H17" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="I17" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="J17" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F18">
-        <f>角色权限!$E$9</f>
+        <f>角色权限!$E$10</f>
       </c>
       <c r="G18">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="H18" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="I18" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="J18" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F19">
-        <f>角色权限!$E$13</f>
+        <f>角色权限!$E$9</f>
       </c>
       <c r="G19">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="H19" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="I19" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="J19" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F20">
-        <f>角色权限!$E$9</f>
+        <f>角色权限!$E$10</f>
       </c>
       <c r="G20">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="H20" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="I20" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="J20" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F21">
-        <f>角色权限!$E$13</f>
+        <f>角色权限!$E$8</f>
       </c>
       <c r="G21">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$22</f>
       </c>
       <c r="H21" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="I21" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="J21" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F22">
-        <f>角色权限!$E$9</f>
+        <f>角色权限!$E$8</f>
       </c>
       <c r="G22">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$24</f>
       </c>
       <c r="H22" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="I22" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="J22" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F23">
-        <f>角色权限!$E$13</f>
+        <f>角色权限!$E$8</f>
       </c>
       <c r="G23">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$27</f>
       </c>
       <c r="H23" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="I23" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="J23" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F24">
         <f>角色权限!$E$8</f>
       </c>
       <c r="G24">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单SAAS版!$E$29</f>
       </c>
       <c r="H24" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="I24" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="J24" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="s">
-        <v>368</v>
-      </c>
-      <c r="F25">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G25">
-        <f>菜单SAAS版!$E$24</f>
-      </c>
-      <c r="H25" t="s">
-        <v>357</v>
-      </c>
-      <c r="I25" t="s">
-        <v>358</v>
-      </c>
-      <c r="J25" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="s">
-        <v>369</v>
-      </c>
-      <c r="F26">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G26">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="H26" t="s">
-        <v>357</v>
-      </c>
-      <c r="I26" t="s">
-        <v>358</v>
-      </c>
-      <c r="J26" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" t="s">
-        <v>370</v>
-      </c>
-      <c r="F27">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G27">
-        <f>菜单SAAS版!$E$29</f>
-      </c>
-      <c r="H27" t="s">
-        <v>357</v>
-      </c>
-      <c r="I27" t="s">
-        <v>358</v>
-      </c>
-      <c r="J27" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-iam-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-iam-menu.xlsx
@@ -1,34 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-monitor\src\main\resources\script\db\init-data\hzero_monitor\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40C79BD-3698-481D-9A74-8EC01F27D69D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="菜单SAAS版" r:id="rId5" sheetId="2"/>
-    <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
-    <sheet name="角色权限" r:id="rId7" sheetId="4"/>
+    <sheet name="菜单SAAS版" sheetId="2" r:id="rId2"/>
+    <sheet name="菜单标签" sheetId="5" r:id="rId3"/>
+    <sheet name="菜单权限" sheetId="3" r:id="rId4"/>
+    <sheet name="角色权限" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="382">
   <si>
     <r>
       <rPr>
@@ -2919,14 +2929,85 @@
   </si>
   <si>
     <t>iam_role_permission-24</t>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>iam_label</t>
+  </si>
+  <si>
+    <t>#name</t>
+  </si>
+  <si>
+    <t>enabled_flag</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>inherit_flag</t>
+  </si>
+  <si>
+    <t>preset_flag</t>
+  </si>
+  <si>
+    <t>visible_flag</t>
+  </si>
+  <si>
+    <t>iam_label-8</t>
+  </si>
+  <si>
+    <t>HZERO_MENU</t>
+  </si>
+  <si>
+    <t>MENU</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>HZERO菜单标签</t>
+  </si>
+  <si>
+    <t>标签关系表</t>
+  </si>
+  <si>
+    <t>hiam_label_rel</t>
+  </si>
+  <si>
+    <t>*label_rel_id</t>
+  </si>
+  <si>
+    <t>#data_type</t>
+  </si>
+  <si>
+    <t>#data_id</t>
+  </si>
+  <si>
+    <t>#label_id</t>
+  </si>
+  <si>
+    <t>assign_type</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="61">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="59">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2938,6 +3019,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2956,6 +3038,7 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3024,240 +3107,268 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3398,7 +3509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3450,6 +3561,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3465,53 +3619,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3851,36 +3963,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3889,21 +4001,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4014,11 +4126,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -4056,19 +4168,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="70"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="70"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -4085,46 +4197,46 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:25">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:25">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4134,13 +4246,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="53">
+      <c r="D7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="54">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="55">
+      <c r="F7" s="50" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4152,10 +4264,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s" s="56">
+      <c r="J7" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="57">
+      <c r="K7" s="52" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4176,7 +4288,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" t="s" s="58">
+      <c r="R7" s="53" t="s">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4201,7 +4313,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -4254,7 +4366,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>87</v>
       </c>
@@ -4273,8 +4385,9 @@
       <c r="J9" t="s">
         <v>80</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="str">
         <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
         <v>92</v>
@@ -4304,7 +4417,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>95</v>
       </c>
@@ -4323,8 +4436,9 @@
       <c r="J10" t="s">
         <v>80</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
         <v>100</v>
@@ -4357,7 +4471,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>103</v>
       </c>
@@ -4376,8 +4490,9 @@
       <c r="J11" t="s">
         <v>80</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="str">
         <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="L11" t="s">
         <v>107</v>
@@ -4410,7 +4525,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>110</v>
       </c>
@@ -4429,8 +4544,9 @@
       <c r="J12" t="s">
         <v>80</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L12" t="s">
         <v>100</v>
@@ -4463,7 +4579,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>116</v>
       </c>
@@ -4482,8 +4598,9 @@
       <c r="J13" t="s">
         <v>80</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="str">
         <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="L13" t="s">
         <v>107</v>
@@ -4519,7 +4636,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>119</v>
       </c>
@@ -4538,8 +4655,9 @@
       <c r="J14" t="s">
         <v>80</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="str">
         <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L14" t="s">
         <v>92</v>
@@ -4572,7 +4690,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>125</v>
       </c>
@@ -4591,8 +4709,9 @@
       <c r="J15" t="s">
         <v>80</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="str">
         <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="L15" t="s">
         <v>100</v>
@@ -4628,7 +4747,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>131</v>
       </c>
@@ -4647,8 +4766,9 @@
       <c r="J16" t="s">
         <v>80</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="str">
         <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="L16" t="s">
         <v>107</v>
@@ -4678,7 +4798,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:24">
       <c r="E17" t="s">
         <v>134</v>
       </c>
@@ -4697,8 +4817,9 @@
       <c r="J17" t="s">
         <v>80</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="str">
         <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="L17" t="s">
         <v>100</v>
@@ -4734,7 +4855,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:24">
       <c r="E18" t="s">
         <v>141</v>
       </c>
@@ -4753,8 +4874,9 @@
       <c r="J18" t="s">
         <v>80</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="str">
         <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="L18" t="s">
         <v>107</v>
@@ -4784,7 +4906,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:24">
       <c r="E19" t="s">
         <v>144</v>
       </c>
@@ -4837,7 +4959,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:24">
       <c r="E20" t="s">
         <v>149</v>
       </c>
@@ -4856,8 +4978,9 @@
       <c r="J20" t="s">
         <v>147</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="L20" t="s">
         <v>92</v>
@@ -4887,7 +5010,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:24">
       <c r="E21" t="s">
         <v>154</v>
       </c>
@@ -4906,8 +5029,9 @@
       <c r="J21" t="s">
         <v>147</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="L21" t="s">
         <v>100</v>
@@ -4940,7 +5064,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:24">
       <c r="E22" t="s">
         <v>158</v>
       </c>
@@ -4959,8 +5083,9 @@
       <c r="J22" t="s">
         <v>147</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="L22" t="s">
         <v>107</v>
@@ -4993,7 +5118,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:24">
       <c r="E23" t="s">
         <v>161</v>
       </c>
@@ -5012,8 +5137,9 @@
       <c r="J23" t="s">
         <v>147</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="L23" t="s">
         <v>100</v>
@@ -5046,7 +5172,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:24">
       <c r="E24" t="s">
         <v>165</v>
       </c>
@@ -5065,8 +5191,9 @@
       <c r="J24" t="s">
         <v>147</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="str">
         <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-23</v>
       </c>
       <c r="L24" t="s">
         <v>107</v>
@@ -5096,7 +5223,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:24">
       <c r="E25" t="s">
         <v>170</v>
       </c>
@@ -5115,8 +5242,9 @@
       <c r="J25" t="s">
         <v>147</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="L25" t="s">
         <v>92</v>
@@ -5149,7 +5277,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:24">
       <c r="E26" t="s">
         <v>174</v>
       </c>
@@ -5168,8 +5296,9 @@
       <c r="J26" t="s">
         <v>147</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="L26" t="s">
         <v>100</v>
@@ -5205,7 +5334,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:24">
       <c r="E27" t="s">
         <v>178</v>
       </c>
@@ -5224,8 +5353,9 @@
       <c r="J27" t="s">
         <v>147</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L27" t="s">
         <v>107</v>
@@ -5258,7 +5388,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:24">
       <c r="E28" t="s">
         <v>181</v>
       </c>
@@ -5277,8 +5407,9 @@
       <c r="J28" t="s">
         <v>147</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="L28" t="s">
         <v>100</v>
@@ -5314,7 +5445,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:24">
       <c r="E29" t="s">
         <v>186</v>
       </c>
@@ -5333,8 +5464,9 @@
       <c r="J29" t="s">
         <v>147</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="str">
         <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-28</v>
       </c>
       <c r="L29" t="s">
         <v>107</v>
@@ -5364,7 +5496,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:24">
       <c r="E30" t="s">
         <v>189</v>
       </c>
@@ -5383,8 +5515,9 @@
       <c r="J30" t="s">
         <v>147</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="L30" t="s">
         <v>108</v>
@@ -5421,44 +5554,635 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB33E47-8D22-4EB2-8E18-A2514DA2A7EB}">
+  <dimension ref="A1:O33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="E4" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="H7" t="s">
+        <v>361</v>
+      </c>
+      <c r="I7" t="s">
+        <v>308</v>
+      </c>
+      <c r="J7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M7" t="s">
+        <v>365</v>
+      </c>
+      <c r="N7" t="s">
+        <v>366</v>
+      </c>
+      <c r="O7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="E8" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" t="s">
+        <v>370</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>371</v>
+      </c>
+      <c r="J8" t="s">
+        <v>372</v>
+      </c>
+      <c r="K8" t="s">
+        <v>372</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="I10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" t="s">
+        <v>380</v>
+      </c>
+      <c r="F11" t="s">
+        <v>370</v>
+      </c>
+      <c r="G11" t="str">
+        <f>菜单SAAS版!E8</f>
+        <v>iam_menu-8</v>
+      </c>
+      <c r="H11" s="75" t="str">
+        <f>$E$8</f>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="E12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F12" t="s">
+        <v>370</v>
+      </c>
+      <c r="G12" t="str">
+        <f>菜单SAAS版!E9</f>
+        <v>iam_menu-9</v>
+      </c>
+      <c r="H12" s="75" t="str">
+        <f t="shared" ref="H12:H33" si="0">$E$8</f>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13" t="s">
+        <v>380</v>
+      </c>
+      <c r="F13" t="s">
+        <v>370</v>
+      </c>
+      <c r="G13" t="str">
+        <f>菜单SAAS版!E10</f>
+        <v>iam_menu-10</v>
+      </c>
+      <c r="H13" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="E14" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G14" t="str">
+        <f>菜单SAAS版!E11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="H14" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15" t="s">
+        <v>380</v>
+      </c>
+      <c r="F15" t="s">
+        <v>370</v>
+      </c>
+      <c r="G15" t="str">
+        <f>菜单SAAS版!E12</f>
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H15" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="E16" t="s">
+        <v>380</v>
+      </c>
+      <c r="F16" t="s">
+        <v>370</v>
+      </c>
+      <c r="G16" t="str">
+        <f>菜单SAAS版!E13</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="H16" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17" t="s">
+        <v>380</v>
+      </c>
+      <c r="F17" t="s">
+        <v>370</v>
+      </c>
+      <c r="G17" t="str">
+        <f>菜单SAAS版!E14</f>
+        <v>iam_menu-14</v>
+      </c>
+      <c r="H17" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="E18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F18" t="s">
+        <v>370</v>
+      </c>
+      <c r="G18" t="str">
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H18" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
+      <c r="E19" t="s">
+        <v>380</v>
+      </c>
+      <c r="F19" t="s">
+        <v>370</v>
+      </c>
+      <c r="G19" t="str">
+        <f>菜单SAAS版!E16</f>
+        <v>iam_menu-16</v>
+      </c>
+      <c r="H19" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
+      <c r="E20" t="s">
+        <v>380</v>
+      </c>
+      <c r="F20" t="s">
+        <v>370</v>
+      </c>
+      <c r="G20" t="str">
+        <f>菜单SAAS版!E17</f>
+        <v>iam_menu-17</v>
+      </c>
+      <c r="H20" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
+      <c r="E21" t="s">
+        <v>380</v>
+      </c>
+      <c r="F21" t="s">
+        <v>370</v>
+      </c>
+      <c r="G21" t="str">
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="H21" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
+      <c r="E22" t="s">
+        <v>380</v>
+      </c>
+      <c r="F22" t="s">
+        <v>370</v>
+      </c>
+      <c r="G22" t="str">
+        <f>菜单SAAS版!E19</f>
+        <v>iam_menu-19</v>
+      </c>
+      <c r="H22" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
+      <c r="E23" t="s">
+        <v>380</v>
+      </c>
+      <c r="F23" t="s">
+        <v>370</v>
+      </c>
+      <c r="G23" t="str">
+        <f>菜单SAAS版!E20</f>
+        <v>iam_menu-20</v>
+      </c>
+      <c r="H23" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
+      <c r="E24" t="s">
+        <v>380</v>
+      </c>
+      <c r="F24" t="s">
+        <v>370</v>
+      </c>
+      <c r="G24" t="str">
+        <f>菜单SAAS版!E21</f>
+        <v>iam_menu-21</v>
+      </c>
+      <c r="H24" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
+      <c r="E25" t="s">
+        <v>380</v>
+      </c>
+      <c r="F25" t="s">
+        <v>370</v>
+      </c>
+      <c r="G25" t="str">
+        <f>菜单SAAS版!E22</f>
+        <v>iam_menu-22</v>
+      </c>
+      <c r="H25" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
+      <c r="E26" t="s">
+        <v>380</v>
+      </c>
+      <c r="F26" t="s">
+        <v>370</v>
+      </c>
+      <c r="G26" t="str">
+        <f>菜单SAAS版!E23</f>
+        <v>iam_menu-23</v>
+      </c>
+      <c r="H26" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9">
+      <c r="E27" t="s">
+        <v>380</v>
+      </c>
+      <c r="F27" t="s">
+        <v>370</v>
+      </c>
+      <c r="G27" t="str">
+        <f>菜单SAAS版!E24</f>
+        <v>iam_menu-24</v>
+      </c>
+      <c r="H27" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9">
+      <c r="E28" t="s">
+        <v>380</v>
+      </c>
+      <c r="F28" t="s">
+        <v>370</v>
+      </c>
+      <c r="G28" t="str">
+        <f>菜单SAAS版!E25</f>
+        <v>iam_menu-25</v>
+      </c>
+      <c r="H28" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
+      <c r="E29" t="s">
+        <v>380</v>
+      </c>
+      <c r="F29" t="s">
+        <v>370</v>
+      </c>
+      <c r="G29" t="str">
+        <f>菜单SAAS版!E26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="H29" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
+      <c r="E30" t="s">
+        <v>380</v>
+      </c>
+      <c r="F30" t="s">
+        <v>370</v>
+      </c>
+      <c r="G30" t="str">
+        <f>菜单SAAS版!E27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="H30" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
+      <c r="E31" t="s">
+        <v>380</v>
+      </c>
+      <c r="F31" t="s">
+        <v>370</v>
+      </c>
+      <c r="G31" t="str">
+        <f>菜单SAAS版!E28</f>
+        <v>iam_menu-28</v>
+      </c>
+      <c r="H31" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I31" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
+      <c r="E32" t="s">
+        <v>380</v>
+      </c>
+      <c r="F32" t="s">
+        <v>370</v>
+      </c>
+      <c r="G32" t="str">
+        <f>菜单SAAS版!E29</f>
+        <v>iam_menu-29</v>
+      </c>
+      <c r="H32" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9">
+      <c r="E33" t="s">
+        <v>380</v>
+      </c>
+      <c r="F33" t="s">
+        <v>370</v>
+      </c>
+      <c r="G33" t="str">
+        <f>菜单SAAS版!E30</f>
+        <v>iam_menu-30</v>
+      </c>
+      <c r="H33" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I33" t="s">
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="39">
+    <row r="1" spans="1:7">
+      <c r="A1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="40">
+      <c r="B1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="41">
+      <c r="C1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="42">
+      <c r="D1" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="43">
+    <row r="4" spans="1:7">
+      <c r="E4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="44">
+      <c r="F4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="45">
+      <c r="G4" s="40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5468,707 +6192,767 @@
       <c r="C7" t="s">
         <v>195</v>
       </c>
-      <c r="D7" t="s" s="59">
+      <c r="D7" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="E7" t="s" s="60">
+      <c r="E7" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="61">
+      <c r="F7" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="G7" t="s" s="62">
+      <c r="G7" s="57" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>199</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>201</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>203</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G10" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>205</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>207</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>209</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G13" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>211</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>213</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="str">
         <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="G15" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
         <v>215</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="str">
         <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="G16" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:7">
       <c r="E17" t="s">
         <v>217</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="G17" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:7">
       <c r="E18" t="s">
         <v>219</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="G18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:7">
       <c r="E19" t="s">
         <v>221</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="G19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:7">
       <c r="E20" t="s">
         <v>223</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="G20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:7">
       <c r="E21" t="s">
         <v>225</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="G21" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:7">
       <c r="E22" t="s">
         <v>227</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="G22" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:7">
       <c r="E23" t="s">
         <v>229</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="G23" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:7">
       <c r="E24" t="s">
         <v>231</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G24" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:7">
       <c r="E25" t="s">
         <v>233</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G25" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:7">
       <c r="E26" t="s">
         <v>235</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G26" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:7">
       <c r="E27" t="s">
         <v>236</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G27" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:7">
       <c r="E28" t="s">
         <v>238</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G28" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:7">
       <c r="E29" t="s">
         <v>240</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="G29" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:7">
       <c r="E30" t="s">
         <v>242</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="G30" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="5:7">
       <c r="E31" t="s">
         <v>244</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="G31" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="5:7">
       <c r="E32" t="s">
         <v>246</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="G32" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:7">
       <c r="E33" t="s">
         <v>248</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="G33" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:7">
       <c r="E34" t="s">
         <v>250</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="G34" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:7">
       <c r="E35" t="s">
         <v>252</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="G35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:7">
       <c r="E36" t="s">
         <v>254</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="G36" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:7">
       <c r="E37" t="s">
         <v>256</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="G37" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:7">
       <c r="E38" t="s">
         <v>258</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="G38" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:7">
       <c r="E39" t="s">
         <v>260</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="G39" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:7">
       <c r="E40" t="s">
         <v>261</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="G40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:7">
       <c r="E41" t="s">
         <v>263</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="G41" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:7">
       <c r="E42" t="s">
         <v>265</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G42" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:7">
       <c r="E43" t="s">
         <v>267</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G43" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:7">
       <c r="E44" t="s">
         <v>268</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G44" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="5:7">
       <c r="E45" t="s">
         <v>269</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G45" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:7">
       <c r="E46" t="s">
         <v>271</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G46" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="5:7">
       <c r="E47" t="s">
         <v>273</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G47" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:7">
       <c r="E48" t="s">
         <v>275</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G48" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="5:7">
       <c r="E49" t="s">
         <v>277</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G49" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="5:7">
       <c r="E50" t="s">
         <v>279</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G50" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="5:7">
       <c r="E51" t="s">
         <v>281</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G51" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="5:7">
       <c r="E52" t="s">
         <v>283</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G52" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="5:7">
       <c r="E53" t="s">
         <v>284</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G53" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="5:7">
       <c r="E54" t="s">
         <v>285</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G54" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="5:7">
       <c r="E55" t="s">
         <v>286</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G55" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="5:7">
       <c r="E56" t="s">
         <v>287</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G56" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="5:7">
       <c r="E57" t="s">
         <v>288</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G57" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="5:7">
       <c r="E58" t="s">
         <v>290</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G58" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="5:7">
       <c r="E59" t="s">
         <v>292</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G59" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="5:7">
       <c r="E60" t="s">
         <v>294</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G60" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="5:7">
       <c r="E61" t="s">
         <v>296</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G61" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="5:7">
       <c r="E62" t="s">
         <v>298</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="str">
         <f>菜单SAAS版!$E$29</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="G62" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="5:7">
       <c r="E63" t="s">
         <v>299</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="str">
         <f>菜单SAAS版!$E$29</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="G63" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="5:7">
       <c r="E64" t="s">
         <v>300</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="str">
         <f>菜单SAAS版!$E$29</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="G64" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="5:7">
       <c r="E65" t="s">
         <v>301</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="str">
         <f>菜单SAAS版!$E$29</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="G65" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="5:7">
       <c r="E66" t="s">
         <v>303</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="str">
         <f>菜单SAAS版!$E$29</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="G66" t="s">
         <v>304</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="46">
+    <row r="1" spans="1:23">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="47">
+      <c r="B1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="48">
+      <c r="C1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="49">
+      <c r="D1" s="44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="50">
+    <row r="4" spans="1:23">
+      <c r="E4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="51">
+      <c r="F4" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="52">
+      <c r="G4" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -6178,10 +6962,10 @@
       <c r="C7" t="s">
         <v>305</v>
       </c>
-      <c r="D7" t="s" s="63">
+      <c r="D7" s="58" t="s">
         <v>306</v>
       </c>
-      <c r="E7" t="s" s="64">
+      <c r="E7" s="59" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -6190,7 +6974,7 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s" s="65">
+      <c r="H7" s="60" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
@@ -6199,16 +6983,16 @@
       <c r="J7" t="s">
         <v>308</v>
       </c>
-      <c r="K7" t="s" s="66">
+      <c r="K7" s="61" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>309</v>
       </c>
-      <c r="M7" t="s" s="67">
+      <c r="M7" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="N7" t="s" s="68">
+      <c r="N7" s="63" t="s">
         <v>311</v>
       </c>
       <c r="O7" t="s">
@@ -6235,11 +7019,11 @@
       <c r="V7" t="s">
         <v>318</v>
       </c>
-      <c r="W7" t="s" s="69">
+      <c r="W7" s="64" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:23">
       <c r="E8" t="s">
         <v>320</v>
       </c>
@@ -6298,7 +7082,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:23">
       <c r="E9" t="s">
         <v>325</v>
       </c>
@@ -6357,7 +7141,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:23">
       <c r="E10" t="s">
         <v>330</v>
       </c>
@@ -6379,8 +7163,9 @@
       <c r="L10" t="s">
         <v>81</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="str">
         <f>角色权限!$E$9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
         <v>80</v>
@@ -6413,7 +7198,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -6423,16 +7208,16 @@
       <c r="C12" t="s">
         <v>336</v>
       </c>
-      <c r="D12" t="s" s="70">
+      <c r="D12" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="E12" t="s" s="71">
+      <c r="E12" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s" s="72">
+      <c r="F12" s="67" t="s">
         <v>338</v>
       </c>
-      <c r="G12" t="s" s="73">
+      <c r="G12" s="68" t="s">
         <v>339</v>
       </c>
       <c r="H12" t="s">
@@ -6441,19 +7226,21 @@
       <c r="I12" t="s">
         <v>341</v>
       </c>
-      <c r="J12" t="s" s="74">
+      <c r="J12" s="69" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:23">
       <c r="E13" t="s">
         <v>343</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G13">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G13" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H13" t="s">
         <v>344</v>
@@ -6465,15 +7252,17 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:23">
       <c r="E14" t="s">
         <v>347</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G14">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G14" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H14" t="s">
         <v>344</v>
@@ -6485,15 +7274,17 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:23">
       <c r="E15" t="s">
         <v>348</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G15">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G15" t="str">
         <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H15" t="s">
         <v>344</v>
@@ -6505,15 +7296,17 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:23">
       <c r="E16" t="s">
         <v>349</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G16">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G16" t="str">
         <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H16" t="s">
         <v>344</v>
@@ -6525,15 +7318,17 @@
         <v>346</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:10">
       <c r="E17" t="s">
         <v>350</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G17">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G17" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H17" t="s">
         <v>344</v>
@@ -6545,15 +7340,17 @@
         <v>346</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:10">
       <c r="E18" t="s">
         <v>351</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G18">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G18" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H18" t="s">
         <v>344</v>
@@ -6565,15 +7362,17 @@
         <v>346</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:10">
       <c r="E19" t="s">
         <v>352</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G19">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G19" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="H19" t="s">
         <v>344</v>
@@ -6585,15 +7384,17 @@
         <v>346</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:10">
       <c r="E20" t="s">
         <v>353</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G20">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G20" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="H20" t="s">
         <v>344</v>
@@ -6605,15 +7406,17 @@
         <v>346</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:10">
       <c r="E21" t="s">
         <v>354</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G21">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G21" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="H21" t="s">
         <v>344</v>
@@ -6625,15 +7428,17 @@
         <v>346</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:10">
       <c r="E22" t="s">
         <v>355</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G22">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G22" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="H22" t="s">
         <v>344</v>
@@ -6645,15 +7450,17 @@
         <v>346</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:10">
       <c r="E23" t="s">
         <v>356</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G23">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G23" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="H23" t="s">
         <v>344</v>
@@ -6665,15 +7472,17 @@
         <v>346</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:10">
       <c r="E24" t="s">
         <v>357</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G24">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G24" t="str">
         <f>菜单SAAS版!$E$29</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="H24" t="s">
         <v>344</v>
@@ -6686,6 +7495,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-iam-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-iam-menu.xlsx
@@ -1,44 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-monitor\src\main\resources\script\db\init-data\hzero_monitor\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40C79BD-3698-481D-9A74-8EC01F27D69D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="菜单SAAS版" sheetId="2" r:id="rId2"/>
-    <sheet name="菜单标签" sheetId="5" r:id="rId3"/>
-    <sheet name="菜单权限" sheetId="3" r:id="rId4"/>
-    <sheet name="角色权限" sheetId="4" r:id="rId5"/>
+    <sheet name="菜单SAAS版" r:id="rId5" sheetId="2"/>
+    <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
+    <sheet name="角色权限" r:id="rId7" sheetId="4"/>
+    <sheet name="菜单标签数据" r:id="rId8" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="381">
   <si>
     <r>
       <rPr>
@@ -2007,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-07-06</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2424,24 +2415,6 @@
     <t>hzero.site.hmnt|hzero.site.hmnt.op-audit|hzero.site.hmnt.op-audit.audit-query|hzero.site.hmnt.op-audit.audit-query.ps.default</t>
   </si>
   <si>
-    <t>iam_menu-30</t>
-  </si>
-  <si>
-    <t>hzero.site.hmnt.skywalking</t>
-  </si>
-  <si>
-    <t>调用链监控</t>
-  </si>
-  <si>
-    <t>DYLJK</t>
-  </si>
-  <si>
-    <t>http://192.168.11.167:8080</t>
-  </si>
-  <si>
-    <t>hzero.site.hmnt|hzero.site.hmnt.skywalking</t>
-  </si>
-  <si>
     <t>菜单权限</t>
   </si>
   <si>
@@ -2817,6 +2790,12 @@
     <t>#created_by_tenant_id</t>
   </si>
   <si>
+    <t>tpl_role_name:zh_CN</t>
+  </si>
+  <si>
+    <t>tpl_role_name:en_US</t>
+  </si>
+  <si>
     <t>iam_role-8</t>
   </si>
   <si>
@@ -2865,6 +2844,9 @@
     <t>HZERO.T.role/organization/default/template/administrator</t>
   </si>
   <si>
+    <t>Tenant Admin</t>
+  </si>
+  <si>
     <t>角色权限</t>
   </si>
   <si>
@@ -2974,6 +2956,12 @@
   </si>
   <si>
     <t>HZERO菜单标签</t>
+  </si>
+  <si>
+    <t>iam_label-9</t>
+  </si>
+  <si>
+    <t>USER_MENU</t>
   </si>
   <si>
     <t>标签关系表</t>
@@ -3006,12 +2994,103 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="59">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
+  <fonts count="77">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF4B183"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3024,351 +3103,311 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFF4B183"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3509,7 +3548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3561,49 +3600,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3619,11 +3615,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3963,36 +4017,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4001,21 +4055,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="72" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="73"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4126,11 +4180,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -4168,19 +4222,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="70"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="70" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="70"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -4197,46 +4251,46 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4246,13 +4300,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" t="s" s="60">
         <v>53</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" t="s" s="61">
         <v>54</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" t="s" s="62">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4264,10 +4318,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" t="s" s="63">
         <v>59</v>
       </c>
-      <c r="K7" s="52" t="s">
+      <c r="K7" t="s" s="64">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4288,7 +4342,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="53" t="s">
+      <c r="R7" t="s" s="65">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4313,7 +4367,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -4366,7 +4420,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9">
       <c r="E9" t="s">
         <v>87</v>
       </c>
@@ -4385,9 +4439,8 @@
       <c r="J9" t="s">
         <v>80</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9">
         <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
         <v>92</v>
@@ -4417,7 +4470,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10">
       <c r="E10" t="s">
         <v>95</v>
       </c>
@@ -4436,9 +4489,8 @@
       <c r="J10" t="s">
         <v>80</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K10">
         <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
         <v>100</v>
@@ -4471,7 +4523,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11">
       <c r="E11" t="s">
         <v>103</v>
       </c>
@@ -4490,9 +4542,8 @@
       <c r="J11" t="s">
         <v>80</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K11">
         <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
       </c>
       <c r="L11" t="s">
         <v>107</v>
@@ -4525,7 +4576,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12">
       <c r="E12" t="s">
         <v>110</v>
       </c>
@@ -4544,9 +4595,8 @@
       <c r="J12" t="s">
         <v>80</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K12">
         <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L12" t="s">
         <v>100</v>
@@ -4579,7 +4629,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13">
       <c r="E13" t="s">
         <v>116</v>
       </c>
@@ -4598,9 +4648,8 @@
       <c r="J13" t="s">
         <v>80</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K13">
         <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
       </c>
       <c r="L13" t="s">
         <v>107</v>
@@ -4636,7 +4685,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14">
       <c r="E14" t="s">
         <v>119</v>
       </c>
@@ -4655,9 +4704,8 @@
       <c r="J14" t="s">
         <v>80</v>
       </c>
-      <c r="K14" t="str">
+      <c r="K14">
         <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
       </c>
       <c r="L14" t="s">
         <v>92</v>
@@ -4690,7 +4738,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15">
       <c r="E15" t="s">
         <v>125</v>
       </c>
@@ -4709,9 +4757,8 @@
       <c r="J15" t="s">
         <v>80</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K15">
         <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
       </c>
       <c r="L15" t="s">
         <v>100</v>
@@ -4747,7 +4794,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16">
       <c r="E16" t="s">
         <v>131</v>
       </c>
@@ -4766,9 +4813,8 @@
       <c r="J16" t="s">
         <v>80</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K16">
         <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
       </c>
       <c r="L16" t="s">
         <v>107</v>
@@ -4798,7 +4844,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="5:24">
+    <row r="17">
       <c r="E17" t="s">
         <v>134</v>
       </c>
@@ -4817,9 +4863,8 @@
       <c r="J17" t="s">
         <v>80</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K17">
         <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
       </c>
       <c r="L17" t="s">
         <v>100</v>
@@ -4855,7 +4900,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="5:24">
+    <row r="18">
       <c r="E18" t="s">
         <v>141</v>
       </c>
@@ -4874,9 +4919,8 @@
       <c r="J18" t="s">
         <v>80</v>
       </c>
-      <c r="K18" t="str">
+      <c r="K18">
         <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
       </c>
       <c r="L18" t="s">
         <v>107</v>
@@ -4906,7 +4950,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="5:24">
+    <row r="19">
       <c r="E19" t="s">
         <v>144</v>
       </c>
@@ -4959,7 +5003,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="5:24">
+    <row r="20">
       <c r="E20" t="s">
         <v>149</v>
       </c>
@@ -4978,9 +5022,8 @@
       <c r="J20" t="s">
         <v>147</v>
       </c>
-      <c r="K20" t="str">
+      <c r="K20">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
       </c>
       <c r="L20" t="s">
         <v>92</v>
@@ -5010,7 +5053,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="5:24">
+    <row r="21">
       <c r="E21" t="s">
         <v>154</v>
       </c>
@@ -5029,9 +5072,8 @@
       <c r="J21" t="s">
         <v>147</v>
       </c>
-      <c r="K21" t="str">
+      <c r="K21">
         <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
       </c>
       <c r="L21" t="s">
         <v>100</v>
@@ -5064,7 +5106,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="5:24">
+    <row r="22">
       <c r="E22" t="s">
         <v>158</v>
       </c>
@@ -5083,9 +5125,8 @@
       <c r="J22" t="s">
         <v>147</v>
       </c>
-      <c r="K22" t="str">
+      <c r="K22">
         <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
       </c>
       <c r="L22" t="s">
         <v>107</v>
@@ -5118,7 +5159,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="5:24">
+    <row r="23">
       <c r="E23" t="s">
         <v>161</v>
       </c>
@@ -5137,9 +5178,8 @@
       <c r="J23" t="s">
         <v>147</v>
       </c>
-      <c r="K23" t="str">
+      <c r="K23">
         <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
       </c>
       <c r="L23" t="s">
         <v>100</v>
@@ -5172,7 +5212,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="5:24">
+    <row r="24">
       <c r="E24" t="s">
         <v>165</v>
       </c>
@@ -5191,9 +5231,8 @@
       <c r="J24" t="s">
         <v>147</v>
       </c>
-      <c r="K24" t="str">
+      <c r="K24">
         <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
       </c>
       <c r="L24" t="s">
         <v>107</v>
@@ -5223,7 +5262,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="5:24">
+    <row r="25">
       <c r="E25" t="s">
         <v>170</v>
       </c>
@@ -5242,9 +5281,8 @@
       <c r="J25" t="s">
         <v>147</v>
       </c>
-      <c r="K25" t="str">
+      <c r="K25">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
       </c>
       <c r="L25" t="s">
         <v>92</v>
@@ -5277,7 +5315,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="5:24">
+    <row r="26">
       <c r="E26" t="s">
         <v>174</v>
       </c>
@@ -5296,9 +5334,8 @@
       <c r="J26" t="s">
         <v>147</v>
       </c>
-      <c r="K26" t="str">
+      <c r="K26">
         <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
       </c>
       <c r="L26" t="s">
         <v>100</v>
@@ -5334,7 +5371,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="5:24">
+    <row r="27">
       <c r="E27" t="s">
         <v>178</v>
       </c>
@@ -5353,9 +5390,8 @@
       <c r="J27" t="s">
         <v>147</v>
       </c>
-      <c r="K27" t="str">
+      <c r="K27">
         <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
       </c>
       <c r="L27" t="s">
         <v>107</v>
@@ -5388,7 +5424,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="5:24">
+    <row r="28">
       <c r="E28" t="s">
         <v>181</v>
       </c>
@@ -5407,9 +5443,8 @@
       <c r="J28" t="s">
         <v>147</v>
       </c>
-      <c r="K28" t="str">
+      <c r="K28">
         <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
       </c>
       <c r="L28" t="s">
         <v>100</v>
@@ -5445,7 +5480,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="5:24">
+    <row r="29">
       <c r="E29" t="s">
         <v>186</v>
       </c>
@@ -5464,9 +5499,8 @@
       <c r="J29" t="s">
         <v>147</v>
       </c>
-      <c r="K29" t="str">
+      <c r="K29">
         <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-28</v>
       </c>
       <c r="L29" t="s">
         <v>107</v>
@@ -5496,109 +5530,45 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="5:24">
-      <c r="E30" t="s">
-        <v>189</v>
-      </c>
-      <c r="F30" t="s">
-        <v>190</v>
-      </c>
-      <c r="G30" t="s">
-        <v>191</v>
-      </c>
-      <c r="H30" t="s">
-        <v>191</v>
-      </c>
-      <c r="I30" t="s">
-        <v>192</v>
-      </c>
-      <c r="J30" t="s">
-        <v>147</v>
-      </c>
-      <c r="K30" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="L30" t="s">
-        <v>108</v>
-      </c>
-      <c r="M30" t="s">
-        <v>113</v>
-      </c>
-      <c r="N30" t="s">
-        <v>84</v>
-      </c>
-      <c r="O30" t="s">
-        <v>184</v>
-      </c>
-      <c r="P30" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>81</v>
-      </c>
-      <c r="R30" t="s">
-        <v>81</v>
-      </c>
-      <c r="S30" t="s">
-        <v>194</v>
-      </c>
-      <c r="T30" t="s">
-        <v>81</v>
-      </c>
-      <c r="V30" t="s">
-        <v>86</v>
-      </c>
-      <c r="X30" t="s">
-        <v>84</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB33E47-8D22-4EB2-8E18-A2514DA2A7EB}">
-  <dimension ref="A1:O33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <cols>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="39">
         <v>44</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" t="s" s="40">
         <v>45</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" t="s" s="41">
         <v>9</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" t="s" s="42">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="43">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="44">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="45">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5606,583 +5576,709 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>358</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="E7" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" t="s" s="66">
+        <v>190</v>
+      </c>
+      <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="H7" t="s">
-        <v>361</v>
-      </c>
-      <c r="I7" t="s">
-        <v>308</v>
-      </c>
-      <c r="J7" t="s">
-        <v>362</v>
-      </c>
-      <c r="K7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L7" t="s">
-        <v>364</v>
-      </c>
-      <c r="M7" t="s">
-        <v>365</v>
-      </c>
-      <c r="N7" t="s">
-        <v>366</v>
-      </c>
-      <c r="O7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="F7" t="s" s="68">
+        <v>191</v>
+      </c>
+      <c r="G7" t="s" s="69">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="E8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F8" t="s">
-        <v>369</v>
+        <v>193</v>
+      </c>
+      <c r="F8">
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G8" t="s">
-        <v>370</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>371</v>
-      </c>
-      <c r="J8" t="s">
-        <v>372</v>
-      </c>
-      <c r="K8" t="s">
-        <v>372</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>373</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="I10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="G9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="G10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="E11" t="s">
-        <v>380</v>
-      </c>
-      <c r="F11" t="s">
-        <v>370</v>
-      </c>
-      <c r="G11" t="str">
-        <f>菜单SAAS版!E8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H11" s="75" t="str">
-        <f>$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>199</v>
+      </c>
+      <c r="F11">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="G11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="E12" t="s">
-        <v>380</v>
-      </c>
-      <c r="F12" t="s">
-        <v>370</v>
-      </c>
-      <c r="G12" t="str">
-        <f>菜单SAAS版!E9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H12" s="75" t="str">
-        <f t="shared" ref="H12:H33" si="0">$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I12" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>201</v>
+      </c>
+      <c r="F12">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="G12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="E13" t="s">
-        <v>380</v>
-      </c>
-      <c r="F13" t="s">
-        <v>370</v>
-      </c>
-      <c r="G13" t="str">
-        <f>菜单SAAS版!E10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="H13" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>203</v>
+      </c>
+      <c r="F13">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="G13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="E14" t="s">
-        <v>380</v>
-      </c>
-      <c r="F14" t="s">
-        <v>370</v>
-      </c>
-      <c r="G14" t="str">
-        <f>菜单SAAS版!E11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H14" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I14" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>205</v>
+      </c>
+      <c r="F14">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="G14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="E15" t="s">
-        <v>380</v>
-      </c>
-      <c r="F15" t="s">
-        <v>370</v>
-      </c>
-      <c r="G15" t="str">
-        <f>菜单SAAS版!E12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H15" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I15" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>207</v>
+      </c>
+      <c r="F15">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="G15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="E16" t="s">
-        <v>380</v>
-      </c>
-      <c r="F16" t="s">
-        <v>370</v>
-      </c>
-      <c r="G16" t="str">
-        <f>菜单SAAS版!E13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H16" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I16" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9">
+        <v>209</v>
+      </c>
+      <c r="F16">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="G16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="E17" t="s">
-        <v>380</v>
-      </c>
-      <c r="F17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G17" t="str">
-        <f>菜单SAAS版!E14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H17" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I17" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9">
+        <v>211</v>
+      </c>
+      <c r="F17">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="G17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="E18" t="s">
-        <v>380</v>
-      </c>
-      <c r="F18" t="s">
-        <v>370</v>
-      </c>
-      <c r="G18" t="str">
-        <f>菜单SAAS版!E15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H18" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I18" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9">
+        <v>213</v>
+      </c>
+      <c r="F18">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="G18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="E19" t="s">
-        <v>380</v>
-      </c>
-      <c r="F19" t="s">
-        <v>370</v>
-      </c>
-      <c r="G19" t="str">
-        <f>菜单SAAS版!E16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H19" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9">
+        <v>215</v>
+      </c>
+      <c r="F19">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="G19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="E20" t="s">
-        <v>380</v>
-      </c>
-      <c r="F20" t="s">
-        <v>370</v>
-      </c>
-      <c r="G20" t="str">
-        <f>菜单SAAS版!E17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H20" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I20" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9">
+        <v>217</v>
+      </c>
+      <c r="F20">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="G20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="E21" t="s">
-        <v>380</v>
-      </c>
-      <c r="F21" t="s">
-        <v>370</v>
-      </c>
-      <c r="G21" t="str">
-        <f>菜单SAAS版!E18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="H21" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I21" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9">
+        <v>219</v>
+      </c>
+      <c r="F21">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="G21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="E22" t="s">
-        <v>380</v>
-      </c>
-      <c r="F22" t="s">
-        <v>370</v>
-      </c>
-      <c r="G22" t="str">
-        <f>菜单SAAS版!E19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="H22" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I22" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9">
+        <v>221</v>
+      </c>
+      <c r="F22">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="G22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="E23" t="s">
-        <v>380</v>
-      </c>
-      <c r="F23" t="s">
-        <v>370</v>
-      </c>
-      <c r="G23" t="str">
-        <f>菜单SAAS版!E20</f>
-        <v>iam_menu-20</v>
-      </c>
-      <c r="H23" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I23" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9">
+        <v>223</v>
+      </c>
+      <c r="F23">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="G23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="E24" t="s">
-        <v>380</v>
-      </c>
-      <c r="F24" t="s">
-        <v>370</v>
-      </c>
-      <c r="G24" t="str">
-        <f>菜单SAAS版!E21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="H24" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I24" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9">
+        <v>225</v>
+      </c>
+      <c r="F24">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="G24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="E25" t="s">
-        <v>380</v>
-      </c>
-      <c r="F25" t="s">
-        <v>370</v>
-      </c>
-      <c r="G25" t="str">
-        <f>菜单SAAS版!E22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="H25" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I25" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9">
+        <v>227</v>
+      </c>
+      <c r="F25">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="G25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="E26" t="s">
-        <v>380</v>
-      </c>
-      <c r="F26" t="s">
-        <v>370</v>
-      </c>
-      <c r="G26" t="str">
-        <f>菜单SAAS版!E23</f>
-        <v>iam_menu-23</v>
-      </c>
-      <c r="H26" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I26" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9">
+        <v>229</v>
+      </c>
+      <c r="F26">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="G26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="E27" t="s">
-        <v>380</v>
-      </c>
-      <c r="F27" t="s">
-        <v>370</v>
-      </c>
-      <c r="G27" t="str">
-        <f>菜单SAAS版!E24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="H27" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I27" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9">
+        <v>230</v>
+      </c>
+      <c r="F27">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="G27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="E28" t="s">
-        <v>380</v>
-      </c>
-      <c r="F28" t="s">
-        <v>370</v>
-      </c>
-      <c r="G28" t="str">
-        <f>菜单SAAS版!E25</f>
-        <v>iam_menu-25</v>
-      </c>
-      <c r="H28" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I28" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9">
+        <v>232</v>
+      </c>
+      <c r="F28">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="G28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="E29" t="s">
-        <v>380</v>
-      </c>
-      <c r="F29" t="s">
-        <v>370</v>
-      </c>
-      <c r="G29" t="str">
-        <f>菜单SAAS版!E26</f>
-        <v>iam_menu-26</v>
-      </c>
-      <c r="H29" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I29" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9">
+        <v>234</v>
+      </c>
+      <c r="F29">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="G29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="E30" t="s">
-        <v>380</v>
-      </c>
-      <c r="F30" t="s">
-        <v>370</v>
-      </c>
-      <c r="G30" t="str">
-        <f>菜单SAAS版!E27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="H30" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I30" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9">
+        <v>236</v>
+      </c>
+      <c r="F30">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="G30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="E31" t="s">
-        <v>380</v>
-      </c>
-      <c r="F31" t="s">
-        <v>370</v>
-      </c>
-      <c r="G31" t="str">
-        <f>菜单SAAS版!E28</f>
-        <v>iam_menu-28</v>
-      </c>
-      <c r="H31" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I31" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9">
+        <v>238</v>
+      </c>
+      <c r="F31">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="G31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="E32" t="s">
-        <v>380</v>
-      </c>
-      <c r="F32" t="s">
-        <v>370</v>
-      </c>
-      <c r="G32" t="str">
-        <f>菜单SAAS版!E29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="H32" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I32" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
+        <v>240</v>
+      </c>
+      <c r="F32">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="G32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="E33" t="s">
-        <v>380</v>
-      </c>
-      <c r="F33" t="s">
-        <v>370</v>
-      </c>
-      <c r="G33" t="str">
-        <f>菜单SAAS版!E30</f>
-        <v>iam_menu-30</v>
-      </c>
-      <c r="H33" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I33" t="s">
-        <v>381</v>
+        <v>242</v>
+      </c>
+      <c r="F33">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="G33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>244</v>
+      </c>
+      <c r="F34">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="G34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>246</v>
+      </c>
+      <c r="F35">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="G35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>248</v>
+      </c>
+      <c r="F36">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="G36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>250</v>
+      </c>
+      <c r="F37">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="G37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>252</v>
+      </c>
+      <c r="F38">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="G38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>254</v>
+      </c>
+      <c r="F39">
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="G39" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40">
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="G40" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>257</v>
+      </c>
+      <c r="F41">
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="G41" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G42" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>261</v>
+      </c>
+      <c r="F43">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>262</v>
+      </c>
+      <c r="F44">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>263</v>
+      </c>
+      <c r="F45">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G45" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>265</v>
+      </c>
+      <c r="F46">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G46" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>267</v>
+      </c>
+      <c r="F47">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G47" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>269</v>
+      </c>
+      <c r="F48">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G48" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>271</v>
+      </c>
+      <c r="F49">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>273</v>
+      </c>
+      <c r="F50">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G50" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>275</v>
+      </c>
+      <c r="F51">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G51" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="s">
+        <v>277</v>
+      </c>
+      <c r="F52">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G52" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>278</v>
+      </c>
+      <c r="F53">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>279</v>
+      </c>
+      <c r="F54">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G54" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>280</v>
+      </c>
+      <c r="F55">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G55" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
+        <v>281</v>
+      </c>
+      <c r="F56">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G56" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
+        <v>282</v>
+      </c>
+      <c r="F57">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G57" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
+        <v>284</v>
+      </c>
+      <c r="F58">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G58" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
+        <v>286</v>
+      </c>
+      <c r="F59">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G59" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="s">
+        <v>288</v>
+      </c>
+      <c r="F60">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G60" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="s">
+        <v>290</v>
+      </c>
+      <c r="F61">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="G61" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="s">
+        <v>292</v>
+      </c>
+      <c r="F62">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="G62" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="s">
+        <v>293</v>
+      </c>
+      <c r="F63">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="G63" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="s">
+        <v>294</v>
+      </c>
+      <c r="F64">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="G64" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="s">
+        <v>295</v>
+      </c>
+      <c r="F65">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="G65" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="s">
+        <v>297</v>
+      </c>
+      <c r="F66">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="G66" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="46">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" t="s" s="47">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" t="s" s="48">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" t="s" s="49">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="E4" s="38" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="50">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" t="s" s="51">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" t="s" s="52">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -6190,769 +6286,566 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" t="s" s="70">
+        <v>300</v>
+      </c>
+      <c r="E7" t="s" s="71">
         <v>54</v>
       </c>
-      <c r="F7" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s" s="72">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K7" t="s" s="73">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>303</v>
+      </c>
+      <c r="M7" t="s" s="74">
+        <v>304</v>
+      </c>
+      <c r="N7" t="s" s="75">
+        <v>305</v>
+      </c>
+      <c r="O7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>308</v>
+      </c>
+      <c r="R7" t="s">
+        <v>309</v>
+      </c>
+      <c r="S7" t="s">
+        <v>310</v>
+      </c>
+      <c r="T7" t="s">
+        <v>311</v>
+      </c>
+      <c r="U7" t="s">
+        <v>68</v>
+      </c>
+      <c r="V7" t="s">
+        <v>312</v>
+      </c>
+      <c r="W7" t="s" s="76">
+        <v>313</v>
+      </c>
+      <c r="X7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="E8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F8" t="str">
+        <v>316</v>
+      </c>
+      <c r="F8" t="s">
+        <v>317</v>
+      </c>
+      <c r="G8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" t="s">
+        <v>319</v>
+      </c>
+      <c r="V8" t="s">
+        <v>319</v>
+      </c>
+      <c r="W8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H9" t="s">
+        <v>324</v>
+      </c>
+      <c r="I9" t="s">
+        <v>325</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" t="s">
+        <v>84</v>
+      </c>
+      <c r="T9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" t="s">
+        <v>324</v>
+      </c>
+      <c r="V9" t="s">
+        <v>324</v>
+      </c>
+      <c r="W9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" t="s">
+        <v>328</v>
+      </c>
+      <c r="H10" t="s">
+        <v>329</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" t="s">
+        <v>330</v>
+      </c>
+      <c r="V10" t="s">
+        <v>331</v>
+      </c>
+      <c r="W10" t="s">
+        <v>81</v>
+      </c>
+      <c r="X10" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D12" t="s" s="77">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s" s="78">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s" s="79">
+        <v>335</v>
+      </c>
+      <c r="G12" t="s" s="80">
+        <v>336</v>
+      </c>
+      <c r="H12" t="s">
+        <v>337</v>
+      </c>
+      <c r="I12" t="s">
+        <v>338</v>
+      </c>
+      <c r="J12" t="s" s="81">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G13">
         <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="E9" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" t="str">
+      </c>
+      <c r="H13" t="s">
+        <v>341</v>
+      </c>
+      <c r="I13" t="s">
+        <v>342</v>
+      </c>
+      <c r="J13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G14">
         <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="E10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="E11" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="E12" t="s">
-        <v>207</v>
-      </c>
-      <c r="F12" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="E13" t="s">
-        <v>209</v>
-      </c>
-      <c r="F13" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="E14" t="s">
-        <v>211</v>
-      </c>
-      <c r="F14" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      </c>
+      <c r="H14" t="s">
+        <v>341</v>
+      </c>
+      <c r="I14" t="s">
+        <v>342</v>
+      </c>
+      <c r="J14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="E15" t="s">
-        <v>213</v>
-      </c>
-      <c r="F15" t="str">
+        <v>345</v>
+      </c>
+      <c r="F15">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G15">
         <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      </c>
+      <c r="H15" t="s">
+        <v>341</v>
+      </c>
+      <c r="I15" t="s">
+        <v>342</v>
+      </c>
+      <c r="J15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="E16" t="s">
-        <v>215</v>
-      </c>
-      <c r="F16" t="str">
+        <v>346</v>
+      </c>
+      <c r="F16">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G16">
         <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7">
+      </c>
+      <c r="H16" t="s">
+        <v>341</v>
+      </c>
+      <c r="I16" t="s">
+        <v>342</v>
+      </c>
+      <c r="J16" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="E17" t="s">
-        <v>217</v>
-      </c>
-      <c r="F17" t="str">
+        <v>347</v>
+      </c>
+      <c r="F17">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G17">
         <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7">
+      </c>
+      <c r="H17" t="s">
+        <v>341</v>
+      </c>
+      <c r="I17" t="s">
+        <v>342</v>
+      </c>
+      <c r="J17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="E18" t="s">
-        <v>219</v>
-      </c>
-      <c r="F18" t="str">
+        <v>348</v>
+      </c>
+      <c r="F18">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G18">
         <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7">
+      </c>
+      <c r="H18" t="s">
+        <v>341</v>
+      </c>
+      <c r="I18" t="s">
+        <v>342</v>
+      </c>
+      <c r="J18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="E19" t="s">
-        <v>221</v>
-      </c>
-      <c r="F19" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7">
+        <v>349</v>
+      </c>
+      <c r="F19">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G19">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="H19" t="s">
+        <v>341</v>
+      </c>
+      <c r="I19" t="s">
+        <v>342</v>
+      </c>
+      <c r="J19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="E20" t="s">
-        <v>223</v>
-      </c>
-      <c r="F20" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7">
+        <v>350</v>
+      </c>
+      <c r="F20">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G20">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="H20" t="s">
+        <v>341</v>
+      </c>
+      <c r="I20" t="s">
+        <v>342</v>
+      </c>
+      <c r="J20" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="E21" t="s">
-        <v>225</v>
-      </c>
-      <c r="F21" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7">
+        <v>351</v>
+      </c>
+      <c r="F21">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G21">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="H21" t="s">
+        <v>341</v>
+      </c>
+      <c r="I21" t="s">
+        <v>342</v>
+      </c>
+      <c r="J21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="E22" t="s">
-        <v>227</v>
-      </c>
-      <c r="F22" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7">
+        <v>352</v>
+      </c>
+      <c r="F22">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G22">
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="H22" t="s">
+        <v>341</v>
+      </c>
+      <c r="I22" t="s">
+        <v>342</v>
+      </c>
+      <c r="J22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="E23" t="s">
-        <v>229</v>
-      </c>
-      <c r="F23" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7">
+        <v>353</v>
+      </c>
+      <c r="F23">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G23">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="H23" t="s">
+        <v>341</v>
+      </c>
+      <c r="I23" t="s">
+        <v>342</v>
+      </c>
+      <c r="J23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="E24" t="s">
-        <v>231</v>
-      </c>
-      <c r="F24" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7">
-      <c r="E25" t="s">
-        <v>233</v>
-      </c>
-      <c r="F25" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7">
-      <c r="E26" t="s">
-        <v>235</v>
-      </c>
-      <c r="F26" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7">
-      <c r="E27" t="s">
-        <v>236</v>
-      </c>
-      <c r="F27" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="5:7">
-      <c r="E28" t="s">
-        <v>238</v>
-      </c>
-      <c r="F28" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="5:7">
-      <c r="E29" t="s">
-        <v>240</v>
-      </c>
-      <c r="F29" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="30" spans="5:7">
-      <c r="E30" t="s">
-        <v>242</v>
-      </c>
-      <c r="F30" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="31" spans="5:7">
-      <c r="E31" t="s">
-        <v>244</v>
-      </c>
-      <c r="F31" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="5:7">
-      <c r="E32" t="s">
-        <v>246</v>
-      </c>
-      <c r="F32" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7">
-      <c r="E33" t="s">
-        <v>248</v>
-      </c>
-      <c r="F33" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7">
-      <c r="E34" t="s">
-        <v>250</v>
-      </c>
-      <c r="F34" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7">
-      <c r="E35" t="s">
-        <v>252</v>
-      </c>
-      <c r="F35" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7">
-      <c r="E36" t="s">
-        <v>254</v>
-      </c>
-      <c r="F36" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7">
-      <c r="E37" t="s">
-        <v>256</v>
-      </c>
-      <c r="F37" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7">
-      <c r="E38" t="s">
-        <v>258</v>
-      </c>
-      <c r="F38" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7">
-      <c r="E39" t="s">
-        <v>260</v>
-      </c>
-      <c r="F39" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7">
-      <c r="E40" t="s">
-        <v>261</v>
-      </c>
-      <c r="F40" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="G40" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7">
-      <c r="E41" t="s">
-        <v>263</v>
-      </c>
-      <c r="F41" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7">
-      <c r="E42" t="s">
-        <v>265</v>
-      </c>
-      <c r="F42" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G42" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7">
-      <c r="E43" t="s">
-        <v>267</v>
-      </c>
-      <c r="F43" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G43" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7">
-      <c r="E44" t="s">
-        <v>268</v>
-      </c>
-      <c r="F44" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G44" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7">
-      <c r="E45" t="s">
-        <v>269</v>
-      </c>
-      <c r="F45" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G45" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7">
-      <c r="E46" t="s">
-        <v>271</v>
-      </c>
-      <c r="F46" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G46" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7">
-      <c r="E47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F47" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G47" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="48" spans="5:7">
-      <c r="E48" t="s">
-        <v>275</v>
-      </c>
-      <c r="F48" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G48" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="49" spans="5:7">
-      <c r="E49" t="s">
-        <v>277</v>
-      </c>
-      <c r="F49" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G49" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7">
-      <c r="E50" t="s">
-        <v>279</v>
-      </c>
-      <c r="F50" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G50" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7">
-      <c r="E51" t="s">
-        <v>281</v>
-      </c>
-      <c r="F51" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G51" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="52" spans="5:7">
-      <c r="E52" t="s">
-        <v>283</v>
-      </c>
-      <c r="F52" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G52" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="53" spans="5:7">
-      <c r="E53" t="s">
-        <v>284</v>
-      </c>
-      <c r="F53" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G53" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="54" spans="5:7">
-      <c r="E54" t="s">
-        <v>285</v>
-      </c>
-      <c r="F54" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G54" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="55" spans="5:7">
-      <c r="E55" t="s">
-        <v>286</v>
-      </c>
-      <c r="F55" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G55" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="56" spans="5:7">
-      <c r="E56" t="s">
-        <v>287</v>
-      </c>
-      <c r="F56" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G56" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="57" spans="5:7">
-      <c r="E57" t="s">
-        <v>288</v>
-      </c>
-      <c r="F57" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G57" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="58" spans="5:7">
-      <c r="E58" t="s">
-        <v>290</v>
-      </c>
-      <c r="F58" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G58" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="59" spans="5:7">
-      <c r="E59" t="s">
-        <v>292</v>
-      </c>
-      <c r="F59" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G59" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="60" spans="5:7">
-      <c r="E60" t="s">
-        <v>294</v>
-      </c>
-      <c r="F60" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G60" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="61" spans="5:7">
-      <c r="E61" t="s">
-        <v>296</v>
-      </c>
-      <c r="F61" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="G61" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="62" spans="5:7">
-      <c r="E62" t="s">
-        <v>298</v>
-      </c>
-      <c r="F62" t="str">
+        <v>354</v>
+      </c>
+      <c r="F24">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G24">
         <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="G62" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="63" spans="5:7">
-      <c r="E63" t="s">
-        <v>299</v>
-      </c>
-      <c r="F63" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="G63" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="64" spans="5:7">
-      <c r="E64" t="s">
-        <v>300</v>
-      </c>
-      <c r="F64" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="G64" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="65" spans="5:7">
-      <c r="E65" t="s">
-        <v>301</v>
-      </c>
-      <c r="F65" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="G65" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="66" spans="5:7">
-      <c r="E66" t="s">
-        <v>303</v>
-      </c>
-      <c r="F66" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="G66" t="s">
-        <v>304</v>
+      </c>
+      <c r="H24" t="s">
+        <v>341</v>
+      </c>
+      <c r="I24" t="s">
+        <v>342</v>
+      </c>
+      <c r="J24" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:W24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="41" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="53">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" t="s" s="54">
         <v>45</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" t="s" s="55">
         <v>9</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" t="s" s="56">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
-      <c r="E4" s="45" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="57">
         <v>47</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" t="s" s="58">
         <v>48</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" t="s" s="59">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -6960,542 +6853,507 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>306</v>
-      </c>
-      <c r="E7" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" t="s" s="82">
+        <v>356</v>
+      </c>
+      <c r="E7" t="s" s="83">
         <v>54</v>
       </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>55</v>
+      <c r="F7" t="s" s="84">
+        <v>357</v>
+      </c>
+      <c r="G7" t="s" s="85">
+        <v>339</v>
+      </c>
+      <c r="H7" t="s">
+        <v>358</v>
       </c>
       <c r="I7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>67</v>
+        <v>359</v>
+      </c>
+      <c r="K7" t="s">
+        <v>360</v>
       </c>
       <c r="L7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M7" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="N7" s="63" t="s">
-        <v>311</v>
+        <v>361</v>
+      </c>
+      <c r="M7" t="s">
+        <v>362</v>
+      </c>
+      <c r="N7" t="s">
+        <v>363</v>
       </c>
       <c r="O7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>314</v>
-      </c>
-      <c r="R7" t="s">
-        <v>315</v>
-      </c>
-      <c r="S7" t="s">
-        <v>316</v>
-      </c>
-      <c r="T7" t="s">
-        <v>317</v>
-      </c>
-      <c r="U7" t="s">
-        <v>68</v>
-      </c>
-      <c r="V7" t="s">
-        <v>318</v>
-      </c>
-      <c r="W7" s="64" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="E8" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="F8" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="G8" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="H8" t="s">
-        <v>323</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="J8" t="s">
-        <v>147</v>
+        <v>369</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" t="s">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" t="s">
         <v>84</v>
       </c>
-      <c r="Q8" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" t="s">
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>370</v>
+      </c>
+      <c r="F9" t="s">
+        <v>371</v>
+      </c>
+      <c r="G9" t="s">
+        <v>367</v>
+      </c>
+      <c r="H9" t="s">
         <v>84</v>
       </c>
-      <c r="S8" t="s">
+      <c r="I9" t="s">
+        <v>368</v>
+      </c>
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" t="s">
         <v>84</v>
       </c>
-      <c r="T8" t="s">
-        <v>81</v>
-      </c>
-      <c r="U8" t="s">
-        <v>323</v>
-      </c>
-      <c r="V8" t="s">
-        <v>323</v>
-      </c>
-      <c r="W8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="E9" t="s">
-        <v>325</v>
-      </c>
-      <c r="F9" t="s">
-        <v>326</v>
-      </c>
-      <c r="G9" t="s">
-        <v>327</v>
-      </c>
-      <c r="H9" t="s">
-        <v>328</v>
-      </c>
-      <c r="I9" t="s">
-        <v>329</v>
-      </c>
-      <c r="J9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9" t="s">
-        <v>84</v>
-      </c>
-      <c r="S9" t="s">
-        <v>84</v>
-      </c>
-      <c r="T9" t="s">
-        <v>81</v>
-      </c>
-      <c r="U9" t="s">
-        <v>328</v>
-      </c>
-      <c r="V9" t="s">
-        <v>328</v>
-      </c>
-      <c r="W9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="E10" t="s">
-        <v>330</v>
-      </c>
-      <c r="F10" t="s">
-        <v>331</v>
-      </c>
-      <c r="G10" t="s">
-        <v>332</v>
-      </c>
-      <c r="H10" t="s">
-        <v>333</v>
-      </c>
-      <c r="J10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="N10" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>81</v>
-      </c>
-      <c r="R10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T10" t="s">
-        <v>81</v>
-      </c>
-      <c r="U10" t="s">
-        <v>334</v>
-      </c>
-      <c r="V10" t="s">
-        <v>335</v>
-      </c>
-      <c r="W10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
-        <v>336</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>338</v>
-      </c>
-      <c r="G12" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="H12" t="s">
-        <v>340</v>
+      <c r="C11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D11" t="s" s="86">
+        <v>373</v>
+      </c>
+      <c r="E11" t="s" s="87">
+        <v>374</v>
+      </c>
+      <c r="F11" t="s" s="88">
+        <v>375</v>
+      </c>
+      <c r="G11" t="s" s="89">
+        <v>376</v>
+      </c>
+      <c r="H11" t="s" s="90">
+        <v>377</v>
+      </c>
+      <c r="I11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>379</v>
+      </c>
+      <c r="F12" t="s">
+        <v>367</v>
+      </c>
+      <c r="G12">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H12">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I12" t="s">
-        <v>341</v>
-      </c>
-      <c r="J12" s="69" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="E13" t="s">
-        <v>343</v>
-      </c>
-      <c r="F13" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G13" t="str">
+        <v>379</v>
+      </c>
+      <c r="F13" t="s">
+        <v>367</v>
+      </c>
+      <c r="G13">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H13">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>379</v>
+      </c>
+      <c r="F14" t="s">
+        <v>367</v>
+      </c>
+      <c r="G14">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="H14">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>379</v>
+      </c>
+      <c r="F15" t="s">
+        <v>367</v>
+      </c>
+      <c r="G15">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H15">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>379</v>
+      </c>
+      <c r="F16" t="s">
+        <v>367</v>
+      </c>
+      <c r="G16">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="H16">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>379</v>
+      </c>
+      <c r="F17" t="s">
+        <v>367</v>
+      </c>
+      <c r="G17">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="H17">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>379</v>
+      </c>
+      <c r="F18" t="s">
+        <v>367</v>
+      </c>
+      <c r="G18">
         <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>344</v>
-      </c>
-      <c r="I13" t="s">
-        <v>345</v>
-      </c>
-      <c r="J13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="E14" t="s">
-        <v>347</v>
-      </c>
-      <c r="F14" t="str">
-        <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G14" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>344</v>
-      </c>
-      <c r="I14" t="s">
-        <v>345</v>
-      </c>
-      <c r="J14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="E15" t="s">
-        <v>348</v>
-      </c>
-      <c r="F15" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G15" t="str">
+      </c>
+      <c r="H18">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I18" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>379</v>
+      </c>
+      <c r="F19" t="s">
+        <v>367</v>
+      </c>
+      <c r="G19">
         <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>344</v>
-      </c>
-      <c r="I15" t="s">
-        <v>345</v>
-      </c>
-      <c r="J15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="E16" t="s">
-        <v>349</v>
-      </c>
-      <c r="F16" t="str">
-        <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G16" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>344</v>
-      </c>
-      <c r="I16" t="s">
-        <v>345</v>
-      </c>
-      <c r="J16" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10">
-      <c r="E17" t="s">
-        <v>350</v>
-      </c>
-      <c r="F17" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G17" t="str">
+      </c>
+      <c r="H19">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>379</v>
+      </c>
+      <c r="F20" t="s">
+        <v>367</v>
+      </c>
+      <c r="G20">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="H20">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>379</v>
+      </c>
+      <c r="F21" t="s">
+        <v>367</v>
+      </c>
+      <c r="G21">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="H21">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>379</v>
+      </c>
+      <c r="F22" t="s">
+        <v>367</v>
+      </c>
+      <c r="G22">
         <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>344</v>
-      </c>
-      <c r="I17" t="s">
-        <v>345</v>
-      </c>
-      <c r="J17" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10">
-      <c r="E18" t="s">
-        <v>351</v>
-      </c>
-      <c r="F18" t="str">
-        <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G18" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>344</v>
-      </c>
-      <c r="I18" t="s">
-        <v>345</v>
-      </c>
-      <c r="J18" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10">
-      <c r="E19" t="s">
-        <v>352</v>
-      </c>
-      <c r="F19" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G19" t="str">
+      </c>
+      <c r="H22">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>379</v>
+      </c>
+      <c r="F23" t="s">
+        <v>367</v>
+      </c>
+      <c r="G23">
         <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>344</v>
-      </c>
-      <c r="I19" t="s">
-        <v>345</v>
-      </c>
-      <c r="J19" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10">
-      <c r="E20" t="s">
-        <v>353</v>
-      </c>
-      <c r="F20" t="str">
-        <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G20" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>344</v>
-      </c>
-      <c r="I20" t="s">
-        <v>345</v>
-      </c>
-      <c r="J20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10">
-      <c r="E21" t="s">
-        <v>354</v>
-      </c>
-      <c r="F21" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G21" t="str">
+      </c>
+      <c r="H23">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>379</v>
+      </c>
+      <c r="F24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G24">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="H24">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I24" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>379</v>
+      </c>
+      <c r="F25" t="s">
+        <v>367</v>
+      </c>
+      <c r="G25">
+        <f>菜单SAAS版!$E$25</f>
+      </c>
+      <c r="H25">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>379</v>
+      </c>
+      <c r="F26" t="s">
+        <v>367</v>
+      </c>
+      <c r="G26">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="H26">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>379</v>
+      </c>
+      <c r="F27" t="s">
+        <v>367</v>
+      </c>
+      <c r="G27">
+        <f>菜单SAAS版!$E$23</f>
+      </c>
+      <c r="H27">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I27" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>379</v>
+      </c>
+      <c r="F28" t="s">
+        <v>367</v>
+      </c>
+      <c r="G28">
         <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="H21" t="s">
-        <v>344</v>
-      </c>
-      <c r="I21" t="s">
-        <v>345</v>
-      </c>
-      <c r="J21" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10">
-      <c r="E22" t="s">
-        <v>355</v>
-      </c>
-      <c r="F22" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G22" t="str">
+      </c>
+      <c r="H28">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I28" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>379</v>
+      </c>
+      <c r="F29" t="s">
+        <v>367</v>
+      </c>
+      <c r="G29">
         <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="H22" t="s">
-        <v>344</v>
-      </c>
-      <c r="I22" t="s">
-        <v>345</v>
-      </c>
-      <c r="J22" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10">
-      <c r="E23" t="s">
-        <v>356</v>
-      </c>
-      <c r="F23" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G23" t="str">
+      </c>
+      <c r="H29">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>379</v>
+      </c>
+      <c r="F30" t="s">
+        <v>367</v>
+      </c>
+      <c r="G30">
+        <f>菜单SAAS版!$E$26</f>
+      </c>
+      <c r="H30">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I30" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>379</v>
+      </c>
+      <c r="F31" t="s">
+        <v>367</v>
+      </c>
+      <c r="G31">
+        <f>菜单SAAS版!$E$28</f>
+      </c>
+      <c r="H31">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I31" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F32" t="s">
+        <v>367</v>
+      </c>
+      <c r="G32">
         <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="H23" t="s">
-        <v>344</v>
-      </c>
-      <c r="I23" t="s">
-        <v>345</v>
-      </c>
-      <c r="J23" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10">
-      <c r="E24" t="s">
-        <v>357</v>
-      </c>
-      <c r="F24" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G24" t="str">
+      </c>
+      <c r="H32">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I32" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>379</v>
+      </c>
+      <c r="F33" t="s">
+        <v>367</v>
+      </c>
+      <c r="G33">
         <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="H24" t="s">
-        <v>344</v>
-      </c>
-      <c r="I24" t="s">
-        <v>345</v>
-      </c>
-      <c r="J24" t="s">
-        <v>346</v>
+      </c>
+      <c r="H33">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I33" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-iam-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-iam-menu.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="菜单SAAS版" r:id="rId5" sheetId="2"/>
+    <sheet name="菜单" r:id="rId5" sheetId="2"/>
     <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
     <sheet name="角色权限" r:id="rId7" sheetId="4"/>
     <sheet name="菜单标签数据" r:id="rId8" sheetId="5"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="589">
   <si>
     <r>
       <rPr>
@@ -1998,13 +1998,13 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
   </si>
   <si>
-    <t>菜单-saas</t>
+    <t>菜单</t>
   </si>
   <si>
     <t>iam_menu</t>
@@ -2208,6 +2208,225 @@
     <t>iam_menu-14</t>
   </si>
   <si>
+    <t>hzero.hmnt.document-audit</t>
+  </si>
+  <si>
+    <t>单据审计</t>
+  </si>
+  <si>
+    <t>Docuemnt Audit</t>
+  </si>
+  <si>
+    <t>dispatch-platform</t>
+  </si>
+  <si>
+    <t>hzero.hmnt|hzero.hmnt.document-audit</t>
+  </si>
+  <si>
+    <t>iam_menu-15</t>
+  </si>
+  <si>
+    <t>hzero.hmnt.document-audit.audit-log</t>
+  </si>
+  <si>
+    <t>单据审计查询</t>
+  </si>
+  <si>
+    <t>Document Audit Query</t>
+  </si>
+  <si>
+    <t>DJSJRZ</t>
+  </si>
+  <si>
+    <t>file-text</t>
+  </si>
+  <si>
+    <t>/hmnt/document-audit-query</t>
+  </si>
+  <si>
+    <t>hzero.hmnt|hzero.hmnt.document-audit|hzero.hmnt.document-audit.audit-log</t>
+  </si>
+  <si>
+    <t>iam_menu-16</t>
+  </si>
+  <si>
+    <t>hzero.hmnt.document-audit.audit-log.hmnt.document-audit-log.detail</t>
+  </si>
+  <si>
+    <t>单据审计日志-查看详情</t>
+  </si>
+  <si>
+    <t>hzero.hmnt|hzero.hmnt.document-audit|hzero.hmnt.document-audit.audit-log|hzero.hmnt.document-audit.audit-log.hmnt.document-audit-log.detail</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>iam_menu-17</t>
+  </si>
+  <si>
+    <t>hzero.hmnt.document-audit.audit-log.hmnt.document-audit-log.history</t>
+  </si>
+  <si>
+    <t>单据审计日志-历史记录</t>
+  </si>
+  <si>
+    <t>hzero.hmnt|hzero.hmnt.document-audit|hzero.hmnt.document-audit.audit-log|hzero.hmnt.document-audit.audit-log.hmnt.document-audit-log.history</t>
+  </si>
+  <si>
+    <t>iam_menu-18</t>
+  </si>
+  <si>
+    <t>hzero.hmnt.document-audit.audit-log.ps.default</t>
+  </si>
+  <si>
+    <t>hzero.hmnt|hzero.hmnt.document-audit|hzero.hmnt.document-audit.audit-log|hzero.hmnt.document-audit.audit-log.ps.default</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>iam_menu-19</t>
+  </si>
+  <si>
+    <t>hzero.hmnt.document-audit.document-audit-config</t>
+  </si>
+  <si>
+    <t>单据审计配置</t>
+  </si>
+  <si>
+    <t>Document Audit Config</t>
+  </si>
+  <si>
+    <t>DJSJPZ</t>
+  </si>
+  <si>
+    <t>workflow-setting</t>
+  </si>
+  <si>
+    <t>/hmnt/document-audit-config</t>
+  </si>
+  <si>
+    <t>hzero.hmnt|hzero.hmnt.document-audit|hzero.hmnt.document-audit.document-audit-config</t>
+  </si>
+  <si>
+    <t>iam_menu-20</t>
+  </si>
+  <si>
+    <t>hzero.hmnt.document-audit.document-audit-config.hmnt.document-audit-config.copy</t>
+  </si>
+  <si>
+    <t>单据审计配置-复制</t>
+  </si>
+  <si>
+    <t>hzero.hmnt|hzero.hmnt.document-audit|hzero.hmnt.document-audit.document-audit-config|hzero.hmnt.document-audit.document-audit-config.hmnt.document-audit-config.copy</t>
+  </si>
+  <si>
+    <t>iam_menu-21</t>
+  </si>
+  <si>
+    <t>hzero.hmnt.document-audit.document-audit-config.hmnt.document-audit-config.create</t>
+  </si>
+  <si>
+    <t>单据审计配置-新建</t>
+  </si>
+  <si>
+    <t>hzero.hmnt|hzero.hmnt.document-audit|hzero.hmnt.document-audit.document-audit-config|hzero.hmnt.document-audit.document-audit-config.hmnt.document-audit-config.create</t>
+  </si>
+  <si>
+    <t>iam_menu-22</t>
+  </si>
+  <si>
+    <t>hzero.hmnt.document-audit.document-audit-config.hmnt.document-audit-config.delete</t>
+  </si>
+  <si>
+    <t>单据审计配置-删除</t>
+  </si>
+  <si>
+    <t>hzero.hmnt|hzero.hmnt.document-audit|hzero.hmnt.document-audit.document-audit-config|hzero.hmnt.document-audit.document-audit-config.hmnt.document-audit-config.delete</t>
+  </si>
+  <si>
+    <t>iam_menu-23</t>
+  </si>
+  <si>
+    <t>hzero.hmnt.document-audit.document-audit-config.hmnt.document-audit-config.edit</t>
+  </si>
+  <si>
+    <t>单据审计配置-编辑</t>
+  </si>
+  <si>
+    <t>hzero.hmnt|hzero.hmnt.document-audit|hzero.hmnt.document-audit.document-audit-config|hzero.hmnt.document-audit.document-audit-config.hmnt.document-audit-config.edit</t>
+  </si>
+  <si>
+    <t>iam_menu-24</t>
+  </si>
+  <si>
+    <t>hzero.hmnt.document-audit.document-audit-config.hmnt.document-audit-config.table.viewDetail</t>
+  </si>
+  <si>
+    <t>单据审计配置-操作审计-查看明细</t>
+  </si>
+  <si>
+    <t>hzero.hmnt|hzero.hmnt.document-audit|hzero.hmnt.document-audit.document-audit-config|hzero.hmnt.document-audit.document-audit-config.hmnt.document-audit-config.table.viewDetail</t>
+  </si>
+  <si>
+    <t>iam_menu-25</t>
+  </si>
+  <si>
+    <t>hzero.hmnt.document-audit.document-audit-config.hmnt.document-audit-config.view</t>
+  </si>
+  <si>
+    <t>单据审计配置-查看</t>
+  </si>
+  <si>
+    <t>hzero.hmnt|hzero.hmnt.document-audit|hzero.hmnt.document-audit.document-audit-config|hzero.hmnt.document-audit.document-audit-config.hmnt.document-audit-config.view</t>
+  </si>
+  <si>
+    <t>iam_menu-26</t>
+  </si>
+  <si>
+    <t>hzero.hmnt.document-audit.document-audit-config.ps.default</t>
+  </si>
+  <si>
+    <t>hzero.hmnt|hzero.hmnt.document-audit|hzero.hmnt.document-audit.document-audit-config|hzero.hmnt.document-audit.document-audit-config.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-27</t>
+  </si>
+  <si>
+    <t>hzero.hmnt.document-audit.document-audit-log-summary</t>
+  </si>
+  <si>
+    <t>单据审计日志</t>
+  </si>
+  <si>
+    <t>Document audit log</t>
+  </si>
+  <si>
+    <t>DJSJRZHZ</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>/hmnt/document-audit-log</t>
+  </si>
+  <si>
+    <t>hzero.hmnt|hzero.hmnt.document-audit|hzero.hmnt.document-audit.document-audit-log-summary</t>
+  </si>
+  <si>
+    <t>iam_menu-28</t>
+  </si>
+  <si>
+    <t>hzero.hmnt.document-audit.document-audit-log-summary.ps.default</t>
+  </si>
+  <si>
+    <t>hzero.hmnt|hzero.hmnt.document-audit|hzero.hmnt.document-audit.document-audit-log-summary|hzero.hmnt.document-audit.document-audit-log-summary.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-29</t>
+  </si>
+  <si>
     <t>hzero.hmnt.op-audit</t>
   </si>
   <si>
@@ -2223,7 +2442,7 @@
     <t>hzero.hmnt|hzero.hmnt.op-audit</t>
   </si>
   <si>
-    <t>iam_menu-15</t>
+    <t>iam_menu-30</t>
   </si>
   <si>
     <t>hzero.hmnt.op-audit.audit-config</t>
@@ -2241,7 +2460,7 @@
     <t>hzero.hmnt|hzero.hmnt.op-audit|hzero.hmnt.op-audit.audit-config</t>
   </si>
   <si>
-    <t>iam_menu-16</t>
+    <t>iam_menu-31</t>
   </si>
   <si>
     <t>hzero.hmnt.op-audit.audit-config.ps.default</t>
@@ -2250,7 +2469,7 @@
     <t>hzero.hmnt|hzero.hmnt.op-audit|hzero.hmnt.op-audit.audit-config|hzero.hmnt.op-audit.audit-config.ps.default</t>
   </si>
   <si>
-    <t>iam_menu-17</t>
+    <t>iam_menu-32</t>
   </si>
   <si>
     <t>hzero.hmnt.op-audit.audit-query</t>
@@ -2271,7 +2490,7 @@
     <t>hzero.hmnt|hzero.hmnt.op-audit|hzero.hmnt.op-audit.audit-query</t>
   </si>
   <si>
-    <t>iam_menu-18</t>
+    <t>iam_menu-33</t>
   </si>
   <si>
     <t>hzero.hmnt.op-audit.audit-query.ps.default</t>
@@ -2280,7 +2499,7 @@
     <t>hzero.hmnt|hzero.hmnt.op-audit|hzero.hmnt.op-audit.audit-query|hzero.hmnt.op-audit.audit-query.ps.default</t>
   </si>
   <si>
-    <t>iam_menu-19</t>
+    <t>iam_menu-34</t>
   </si>
   <si>
     <t>hzero.site.hmnt</t>
@@ -2295,7 +2514,7 @@
     <t>150</t>
   </si>
   <si>
-    <t>iam_menu-20</t>
+    <t>iam_menu-35</t>
   </si>
   <si>
     <t>hzero.site.hmnt.data-audit</t>
@@ -2304,13 +2523,10 @@
     <t>Data Audit</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>hzero.site.hmnt|hzero.site.hmnt.data-audit</t>
   </si>
   <si>
-    <t>iam_menu-21</t>
+    <t>iam_menu-36</t>
   </si>
   <si>
     <t>hzero.site.hmnt.data-audit.config</t>
@@ -2322,7 +2538,7 @@
     <t>hzero.site.hmnt|hzero.site.hmnt.data-audit|hzero.site.hmnt.data-audit.config</t>
   </si>
   <si>
-    <t>iam_menu-22</t>
+    <t>iam_menu-37</t>
   </si>
   <si>
     <t>hzero.site.hmnt.data-audit.config.ps.default</t>
@@ -2331,7 +2547,7 @@
     <t>hzero.site.hmnt|hzero.site.hmnt.data-audit|hzero.site.hmnt.data-audit.config|hzero.site.hmnt.data-audit.config.ps.default</t>
   </si>
   <si>
-    <t>iam_menu-23</t>
+    <t>iam_menu-38</t>
   </si>
   <si>
     <t>hzero.site.hmnt.data-audit.data-audit</t>
@@ -2343,7 +2559,7 @@
     <t>hzero.site.hmnt|hzero.site.hmnt.data-audit|hzero.site.hmnt.data-audit.data-audit</t>
   </si>
   <si>
-    <t>iam_menu-24</t>
+    <t>iam_menu-39</t>
   </si>
   <si>
     <t>hzero.site.hmnt.data-audit.data-audit.ps.default</t>
@@ -2358,7 +2574,79 @@
     <t>hzero.site.hmnt|hzero.site.hmnt.data-audit|hzero.site.hmnt.data-audit.data-audit|hzero.site.hmnt.data-audit.data-audit.ps.default</t>
   </si>
   <si>
-    <t>iam_menu-25</t>
+    <t>iam_menu-40</t>
+  </si>
+  <si>
+    <t>hzero.site.hmnt.document-audit</t>
+  </si>
+  <si>
+    <t>Document Audit</t>
+  </si>
+  <si>
+    <t>DJSJ</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>hzero.site.hmnt|hzero.site.hmnt.document-audit</t>
+  </si>
+  <si>
+    <t>iam_menu-41</t>
+  </si>
+  <si>
+    <t>hzero.site.hmnt.document-audit.document-audit-config</t>
+  </si>
+  <si>
+    <t>hzero.site.hmnt|hzero.site.hmnt.document-audit|hzero.site.hmnt.document-audit.document-audit-config</t>
+  </si>
+  <si>
+    <t>iam_menu-42</t>
+  </si>
+  <si>
+    <t>hzero.site.hmnt.document-audit.document-audit-config.ps.default</t>
+  </si>
+  <si>
+    <t>hzero.site.hmnt|hzero.site.hmnt.document-audit|hzero.site.hmnt.document-audit.document-audit-config|hzero.site.hmnt.document-audit.document-audit-config.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-43</t>
+  </si>
+  <si>
+    <t>hzero.site.hmnt.document-audit.document-audit-log</t>
+  </si>
+  <si>
+    <t>hzero.site.hmnt|hzero.site.hmnt.document-audit|hzero.site.hmnt.document-audit.document-audit-log</t>
+  </si>
+  <si>
+    <t>iam_menu-44</t>
+  </si>
+  <si>
+    <t>hzero.site.hmnt.document-audit.document-audit-log-summary</t>
+  </si>
+  <si>
+    <t>hzero.site.hmnt|hzero.site.hmnt.document-audit|hzero.site.hmnt.document-audit.document-audit-log-summary</t>
+  </si>
+  <si>
+    <t>iam_menu-45</t>
+  </si>
+  <si>
+    <t>hzero.site.hmnt.document-audit.document-audit-log-summary.ps.default</t>
+  </si>
+  <si>
+    <t>hzero.site.hmnt|hzero.site.hmnt.document-audit|hzero.site.hmnt.document-audit.document-audit-log-summary|hzero.site.hmnt.document-audit.document-audit-log-summary.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-46</t>
+  </si>
+  <si>
+    <t>hzero.site.hmnt.document-audit.document-audit-log.ps.default</t>
+  </si>
+  <si>
+    <t>hzero.site.hmnt|hzero.site.hmnt.document-audit|hzero.site.hmnt.document-audit.document-audit-log|hzero.site.hmnt.document-audit.document-audit-log.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-47</t>
   </si>
   <si>
     <t>hzero.site.hmnt.op-audit</t>
@@ -2370,7 +2658,7 @@
     <t>hzero.site.hmnt|hzero.site.hmnt.op-audit</t>
   </si>
   <si>
-    <t>iam_menu-26</t>
+    <t>iam_menu-48</t>
   </si>
   <si>
     <t>hzero.site.hmnt.op-audit.audit-config</t>
@@ -2382,7 +2670,7 @@
     <t>hzero.site.hmnt|hzero.site.hmnt.op-audit|hzero.site.hmnt.op-audit.audit-config</t>
   </si>
   <si>
-    <t>iam_menu-27</t>
+    <t>iam_menu-49</t>
   </si>
   <si>
     <t>hzero.site.hmnt.op-audit.audit-config.ps.default</t>
@@ -2391,7 +2679,7 @@
     <t>hzero.site.hmnt|hzero.site.hmnt.op-audit|hzero.site.hmnt.op-audit.audit-config|hzero.site.hmnt.op-audit.audit-config.ps.default</t>
   </si>
   <si>
-    <t>iam_menu-28</t>
+    <t>iam_menu-50</t>
   </si>
   <si>
     <t>hzero.site.hmnt.op-audit.audit-query</t>
@@ -2400,13 +2688,10 @@
     <t>Operation Audit Query</t>
   </si>
   <si>
-    <t>dispatch-platform</t>
-  </si>
-  <si>
     <t>hzero.site.hmnt|hzero.site.hmnt.op-audit|hzero.site.hmnt.op-audit.audit-query</t>
   </si>
   <si>
-    <t>iam_menu-29</t>
+    <t>iam_menu-51</t>
   </si>
   <si>
     <t>hzero.site.hmnt.op-audit.audit-query.ps.default</t>
@@ -2427,319 +2712,610 @@
     <t>#permission_code</t>
   </si>
   <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
     <t>iam_menu_permission-8</t>
   </si>
   <si>
+    <t>HMNT.AUDIT_DATA.OP</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-9</t>
+  </si>
+  <si>
     <t>hzero-monitor.audit-data-config-line.enableOrDisable</t>
   </si>
   <si>
-    <t>iam_menu_permission-9</t>
+    <t>iam_menu_permission-10</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config-line.list</t>
   </si>
   <si>
-    <t>iam_menu_permission-10</t>
+    <t>iam_menu_permission-11</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config-line.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-11</t>
+    <t>iam_menu_permission-12</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-12</t>
+    <t>iam_menu_permission-13</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config.detail</t>
   </si>
   <si>
-    <t>iam_menu_permission-13</t>
+    <t>iam_menu_permission-14</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config.list</t>
   </si>
   <si>
-    <t>iam_menu_permission-14</t>
+    <t>iam_menu_permission-15</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-15</t>
+    <t>iam_menu_permission-16</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-data-config.updateSingle</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-17</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-relationship.createRel</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-18</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-relationship.deleteRel</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-19</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-relationship.listDataOperation</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-20</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-data.exportAuditData</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-21</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data.selectAuditData</t>
   </si>
   <si>
-    <t>iam_menu_permission-16</t>
+    <t>iam_menu_permission-22</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data.selectAuditDataDetail</t>
   </si>
   <si>
-    <t>iam_menu_permission-17</t>
+    <t>iam_menu_permission-23</t>
+  </si>
+  <si>
+    <t>HIAM.TENANT.USER</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-24</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document-log.detail</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-25</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document-log.list</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-26</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document-log.summary</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-27</t>
+  </si>
+  <si>
+    <t>HPFM.TENANT_PAGING</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-28</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document.addAuditOp</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-29</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document.copy</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-30</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document.create</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-31</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document.deleteAuditOp</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-32</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document.detail</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-33</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document.detailOp</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-34</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document.list</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-35</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document.listAuditOpData</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-36</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document.page</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-37</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document.remove</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-38</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document.saveAuditOpData</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-39</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document.update</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-40</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-op-config.pageAuditOpConfig</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-41</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-42</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-43</t>
   </si>
   <si>
     <t>HIAM.INTERFACE_PERMISSION</t>
   </si>
   <si>
-    <t>iam_menu_permission-18</t>
+    <t>iam_menu_permission-44</t>
+  </si>
+  <si>
+    <t>HIAM.OAUTH_CLIENT</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-45</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-46</t>
+  </si>
+  <si>
+    <t>HMNT.AUDIT_OP.DATA</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-47</t>
   </si>
   <si>
     <t>hzero-admin.service-route.pageRoutes</t>
   </si>
   <si>
-    <t>iam_menu_permission-19</t>
+    <t>iam_menu_permission-48</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-config.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-20</t>
+    <t>iam_menu_permission-49</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-config.delete</t>
   </si>
   <si>
-    <t>iam_menu_permission-21</t>
+    <t>iam_menu_permission-50</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-config.page</t>
   </si>
   <si>
-    <t>iam_menu_permission-22</t>
+    <t>iam_menu_permission-51</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-config.query</t>
   </si>
   <si>
-    <t>iam_menu_permission-23</t>
+    <t>iam_menu_permission-52</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-config.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-24</t>
+    <t>iam_menu_permission-53</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-relationship.listOperationData</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-54</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-55</t>
   </si>
   <si>
     <t>HIAM.SITE.USER</t>
   </si>
   <si>
-    <t>iam_menu_permission-25</t>
-  </si>
-  <si>
-    <t>HIAM.TENANT.USER</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-26</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-27</t>
+    <t>iam_menu_permission-56</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-57</t>
+  </si>
+  <si>
+    <t>HMNT.AUDIT.ROLE</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-58</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-59</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-op-log.export</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-60</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-log.page</t>
   </si>
   <si>
-    <t>iam_menu_permission-28</t>
+    <t>iam_menu_permission-61</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-log.query</t>
   </si>
   <si>
-    <t>iam_menu_permission-29</t>
-  </si>
-  <si>
-    <t>HPFM.TENANT_PAGING</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-30</t>
+    <t>iam_menu_permission-62</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-63</t>
   </si>
   <si>
     <t>hzero-config.service-route-site-level.detail</t>
   </si>
   <si>
-    <t>iam_menu_permission-31</t>
+    <t>iam_menu_permission-64</t>
   </si>
   <si>
     <t>hzero-config.service-route-site-level.pageRoutes</t>
   </si>
   <si>
-    <t>iam_menu_permission-32</t>
+    <t>iam_menu_permission-65</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config-line-site.enableOrDisable</t>
   </si>
   <si>
-    <t>iam_menu_permission-33</t>
+    <t>iam_menu_permission-66</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config-line-site.list</t>
   </si>
   <si>
-    <t>iam_menu_permission-34</t>
+    <t>iam_menu_permission-67</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config-line-site.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-35</t>
+    <t>iam_menu_permission-68</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config-site.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-36</t>
+    <t>iam_menu_permission-69</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config-site.detail</t>
   </si>
   <si>
-    <t>iam_menu_permission-37</t>
+    <t>iam_menu_permission-70</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config-site.list</t>
   </si>
   <si>
-    <t>iam_menu_permission-38</t>
+    <t>iam_menu_permission-71</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-config-site.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-39</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-40</t>
+    <t>iam_menu_permission-72</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-73</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-data-site.exportAuditData</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-74</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-site.selectAuditData</t>
   </si>
   <si>
-    <t>iam_menu_permission-41</t>
+    <t>iam_menu_permission-75</t>
   </si>
   <si>
     <t>hzero-monitor.audit-data-site.selectAuditDataDetail</t>
   </si>
   <si>
-    <t>iam_menu_permission-42</t>
+    <t>iam_menu_permission-76</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-77</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document-site.addAuditOp</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-78</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document-site.create</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-79</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document-site.deleteAuditOp</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-80</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document-site.detail</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-81</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document-site.detailOp</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-82</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document-site.list</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-83</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document-site.remove</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-84</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document-site.update</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-85</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-op-config-site.pageAuditOpConfig</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-86</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-op-config-site.query</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-87</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-relationship-site.listOperationData</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-88</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-89</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document-log-site.summary</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-90</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-91</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document-log-site.detail</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-92</t>
+  </si>
+  <si>
+    <t>hzero-monitor.audit-document-log-site.list</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-93</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-94</t>
   </si>
   <si>
     <t>HADM.SERVICE_ROUTE</t>
   </si>
   <si>
-    <t>iam_menu_permission-43</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-44</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-45</t>
+    <t>iam_menu_permission-95</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-96</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-97</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-98</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-99</t>
   </si>
   <si>
     <t>hzero-admin-test.service-route-site-level.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-46</t>
+    <t>iam_menu_permission-100</t>
   </si>
   <si>
     <t>hzero-admin-test.service-route-site-level.detail</t>
   </si>
   <si>
-    <t>iam_menu_permission-47</t>
+    <t>iam_menu_permission-101</t>
   </si>
   <si>
     <t>hzero-admin-test.service-route-site-level.pageRoutes</t>
   </si>
   <si>
-    <t>iam_menu_permission-48</t>
+    <t>iam_menu_permission-102</t>
   </si>
   <si>
     <t>hzero-admin.service-route-site-level.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-49</t>
+    <t>iam_menu_permission-103</t>
   </si>
   <si>
     <t>hzero-admin.service-route-site-level.detailById</t>
   </si>
   <si>
-    <t>iam_menu_permission-50</t>
+    <t>iam_menu_permission-104</t>
   </si>
   <si>
     <t>hzero-admin.service-route-site-level.pageRoutes</t>
   </si>
   <si>
-    <t>iam_menu_permission-51</t>
+    <t>iam_menu_permission-105</t>
   </si>
   <si>
     <t>hzero-config.service-route-site-level.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-52</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-53</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-54</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-55</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-56</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-57</t>
+    <t>iam_menu_permission-106</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-107</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-108</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-109</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-110</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-111</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-config-site.create</t>
   </si>
   <si>
-    <t>iam_menu_permission-58</t>
+    <t>iam_menu_permission-112</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-config-site.delete</t>
   </si>
   <si>
-    <t>iam_menu_permission-59</t>
+    <t>iam_menu_permission-113</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-config-site.page</t>
   </si>
   <si>
-    <t>iam_menu_permission-60</t>
-  </si>
-  <si>
-    <t>hzero-monitor.audit-op-config-site.query</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-61</t>
+    <t>iam_menu_permission-114</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-115</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-config-site.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-62</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-63</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-64</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-65</t>
+    <t>iam_menu_permission-116</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-117</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-118</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-119</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-120</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-log-site.page</t>
   </si>
   <si>
-    <t>iam_menu_permission-66</t>
+    <t>iam_menu_permission-121</t>
   </si>
   <si>
     <t>hzero-monitor.audit-op-log-site.query</t>
@@ -2838,10 +3414,7 @@
     <t>role/organization/default/template/administrator</t>
   </si>
   <si>
-    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/administrator</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/organization/default/template/administrator</t>
+    <t>role/organization/default/administrator|HZERO.HZERO.role/organization/default/template/administrator</t>
   </si>
   <si>
     <t>Tenant Admin</t>
@@ -2913,6 +3486,63 @@
     <t>iam_role_permission-24</t>
   </si>
   <si>
+    <t>iam_role_permission-25</t>
+  </si>
+  <si>
+    <t>iam_role_permission-26</t>
+  </si>
+  <si>
+    <t>iam_role_permission-27</t>
+  </si>
+  <si>
+    <t>iam_role_permission-28</t>
+  </si>
+  <si>
+    <t>iam_role_permission-29</t>
+  </si>
+  <si>
+    <t>iam_role_permission-30</t>
+  </si>
+  <si>
+    <t>iam_role_permission-31</t>
+  </si>
+  <si>
+    <t>iam_role_permission-32</t>
+  </si>
+  <si>
+    <t>iam_role_permission-33</t>
+  </si>
+  <si>
+    <t>iam_role_permission-34</t>
+  </si>
+  <si>
+    <t>iam_role_permission-35</t>
+  </si>
+  <si>
+    <t>iam_role_permission-36</t>
+  </si>
+  <si>
+    <t>iam_role_permission-37</t>
+  </si>
+  <si>
+    <t>iam_role_permission-38</t>
+  </si>
+  <si>
+    <t>iam_role_permission-39</t>
+  </si>
+  <si>
+    <t>iam_role_permission-40</t>
+  </si>
+  <si>
+    <t>iam_role_permission-41</t>
+  </si>
+  <si>
+    <t>iam_role_permission-42</t>
+  </si>
+  <si>
+    <t>iam_role_permission-43</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -2956,12 +3586,6 @@
   </si>
   <si>
     <t>HZERO菜单标签</t>
-  </si>
-  <si>
-    <t>iam_label-9</t>
-  </si>
-  <si>
-    <t>USER_MENU</t>
   </si>
   <si>
     <t>标签关系表</t>
@@ -4259,7 +4883,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4440,7 +5064,7 @@
         <v>80</v>
       </c>
       <c r="K9">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单!$E$8</f>
       </c>
       <c r="L9" t="s">
         <v>92</v>
@@ -4490,7 +5114,7 @@
         <v>80</v>
       </c>
       <c r="K10">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单!$E$9</f>
       </c>
       <c r="L10" t="s">
         <v>100</v>
@@ -4543,7 +5167,7 @@
         <v>80</v>
       </c>
       <c r="K11">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单!$E$10</f>
       </c>
       <c r="L11" t="s">
         <v>107</v>
@@ -4596,7 +5220,7 @@
         <v>80</v>
       </c>
       <c r="K12">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单!$E$9</f>
       </c>
       <c r="L12" t="s">
         <v>100</v>
@@ -4649,7 +5273,7 @@
         <v>80</v>
       </c>
       <c r="K13">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单!$E$12</f>
       </c>
       <c r="L13" t="s">
         <v>107</v>
@@ -4698,26 +5322,23 @@
       <c r="H14" t="s">
         <v>122</v>
       </c>
-      <c r="I14" t="s">
-        <v>123</v>
-      </c>
       <c r="J14" t="s">
         <v>80</v>
       </c>
       <c r="K14">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单!$E$8</f>
       </c>
       <c r="L14" t="s">
         <v>92</v>
       </c>
       <c r="M14" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="N14" t="s">
         <v>84</v>
       </c>
       <c r="O14" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="Q14" t="s">
         <v>81</v>
@@ -4749,31 +5370,31 @@
         <v>127</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="J15" t="s">
         <v>80</v>
       </c>
       <c r="K15">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单!$E$14</f>
       </c>
       <c r="L15" t="s">
         <v>100</v>
       </c>
       <c r="M15" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="N15" t="s">
         <v>84</v>
       </c>
       <c r="O15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q15" t="s">
         <v>81</v>
@@ -4782,7 +5403,7 @@
         <v>81</v>
       </c>
       <c r="S15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="T15" t="s">
         <v>81</v>
@@ -4796,34 +5417,34 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="J16" t="s">
         <v>80</v>
       </c>
       <c r="K16">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单!$E$15</f>
       </c>
       <c r="L16" t="s">
         <v>107</v>
       </c>
+      <c r="M16" t="s">
+        <v>81</v>
+      </c>
       <c r="N16" t="s">
         <v>84</v>
       </c>
       <c r="O16" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="Q16" t="s">
         <v>81</v>
@@ -4832,13 +5453,13 @@
         <v>81</v>
       </c>
       <c r="S16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="T16" t="s">
         <v>81</v>
       </c>
       <c r="V16" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="X16" t="s">
         <v>84</v>
@@ -4846,40 +5467,34 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J17" t="s">
         <v>80</v>
       </c>
       <c r="K17">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单!$E$15</f>
       </c>
       <c r="L17" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
         <v>84</v>
       </c>
       <c r="O17" t="s">
-        <v>128</v>
-      </c>
-      <c r="P17" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Q17" t="s">
         <v>81</v>
@@ -4888,13 +5503,13 @@
         <v>81</v>
       </c>
       <c r="S17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T17" t="s">
         <v>81</v>
       </c>
       <c r="V17" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="X17" t="s">
         <v>84</v>
@@ -4902,10 +5517,10 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
         <v>105</v>
@@ -4913,24 +5528,21 @@
       <c r="H18" t="s">
         <v>105</v>
       </c>
-      <c r="I18" t="s">
-        <v>106</v>
-      </c>
       <c r="J18" t="s">
         <v>80</v>
       </c>
       <c r="K18">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单!$E$15</f>
       </c>
       <c r="L18" t="s">
         <v>107</v>
       </c>
+      <c r="M18" t="s">
+        <v>93</v>
+      </c>
       <c r="N18" t="s">
         <v>84</v>
       </c>
-      <c r="O18" t="s">
-        <v>108</v>
-      </c>
       <c r="Q18" t="s">
         <v>81</v>
       </c>
@@ -4938,10 +5550,13 @@
         <v>81</v>
       </c>
       <c r="S18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T18" t="s">
         <v>81</v>
+      </c>
+      <c r="U18" t="s">
+        <v>145</v>
       </c>
       <c r="V18" t="s">
         <v>86</v>
@@ -4952,37 +5567,40 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="I19" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J19" t="s">
-        <v>147</v>
-      </c>
-      <c r="K19" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="K19">
+        <f>菜单!$E$14</f>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M19" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="N19" t="s">
         <v>84</v>
       </c>
       <c r="O19" t="s">
-        <v>85</v>
+        <v>151</v>
+      </c>
+      <c r="P19" t="s">
+        <v>152</v>
       </c>
       <c r="Q19" t="s">
         <v>81</v>
@@ -4991,7 +5609,7 @@
         <v>81</v>
       </c>
       <c r="S19" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="T19" t="s">
         <v>81</v>
@@ -5005,35 +5623,35 @@
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="H20" t="s">
-        <v>151</v>
-      </c>
-      <c r="I20" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="J20" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="K20">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单!$E$19</f>
       </c>
       <c r="L20" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="M20" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="N20" t="s">
         <v>84</v>
       </c>
+      <c r="O20" t="s">
+        <v>151</v>
+      </c>
       <c r="Q20" t="s">
         <v>81</v>
       </c>
@@ -5041,13 +5659,13 @@
         <v>81</v>
       </c>
       <c r="S20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="T20" t="s">
         <v>81</v>
       </c>
       <c r="V20" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="X20" t="s">
         <v>84</v>
@@ -5055,37 +5673,34 @@
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="H21" t="s">
-        <v>156</v>
-      </c>
-      <c r="I21" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="J21" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="K21">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单!$E$19</f>
       </c>
       <c r="L21" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M21" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="N21" t="s">
         <v>84</v>
       </c>
-      <c r="P21" t="s">
-        <v>101</v>
+      <c r="O21" t="s">
+        <v>151</v>
       </c>
       <c r="Q21" t="s">
         <v>81</v>
@@ -5094,13 +5709,13 @@
         <v>81</v>
       </c>
       <c r="S21" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="T21" t="s">
         <v>81</v>
       </c>
       <c r="V21" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="X21" t="s">
         <v>84</v>
@@ -5108,25 +5723,22 @@
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G22" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="J22" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="K22">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单!$E$19</f>
       </c>
       <c r="L22" t="s">
         <v>107</v>
@@ -5138,7 +5750,7 @@
         <v>84</v>
       </c>
       <c r="O22" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="Q22" t="s">
         <v>81</v>
@@ -5147,13 +5759,13 @@
         <v>81</v>
       </c>
       <c r="S22" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="T22" t="s">
         <v>81</v>
       </c>
       <c r="V22" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="X22" t="s">
         <v>84</v>
@@ -5161,37 +5773,34 @@
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="H23" t="s">
-        <v>163</v>
-      </c>
-      <c r="I23" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="J23" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="K23">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单!$E$19</f>
       </c>
       <c r="L23" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M23" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="N23" t="s">
         <v>84</v>
       </c>
-      <c r="P23" t="s">
-        <v>114</v>
+      <c r="O23" t="s">
+        <v>151</v>
       </c>
       <c r="Q23" t="s">
         <v>81</v>
@@ -5200,13 +5809,13 @@
         <v>81</v>
       </c>
       <c r="S23" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="T23" t="s">
         <v>81</v>
       </c>
       <c r="V23" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="X23" t="s">
         <v>84</v>
@@ -5214,34 +5823,34 @@
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G24" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H24" t="s">
-        <v>167</v>
-      </c>
-      <c r="I24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J24" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="K24">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单!$E$19</f>
       </c>
       <c r="L24" t="s">
         <v>107</v>
       </c>
+      <c r="M24" t="s">
+        <v>81</v>
+      </c>
       <c r="N24" t="s">
         <v>84</v>
       </c>
       <c r="O24" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="Q24" t="s">
         <v>81</v>
@@ -5250,13 +5859,13 @@
         <v>81</v>
       </c>
       <c r="S24" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="T24" t="s">
         <v>81</v>
       </c>
       <c r="V24" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="X24" t="s">
         <v>84</v>
@@ -5264,37 +5873,34 @@
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F25" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G25" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
-      </c>
-      <c r="I25" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="J25" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="K25">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单!$E$19</f>
       </c>
       <c r="L25" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="M25" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="N25" t="s">
         <v>84</v>
       </c>
       <c r="O25" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="Q25" t="s">
         <v>81</v>
@@ -5303,13 +5909,13 @@
         <v>81</v>
       </c>
       <c r="S25" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="T25" t="s">
         <v>81</v>
       </c>
       <c r="V25" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="X25" t="s">
         <v>84</v>
@@ -5317,41 +5923,32 @@
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F26" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G26" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="H26" t="s">
-        <v>176</v>
-      </c>
-      <c r="I26" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J26" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="K26">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单!$E$19</f>
       </c>
       <c r="L26" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M26" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N26" t="s">
         <v>84</v>
       </c>
-      <c r="O26" t="s">
-        <v>128</v>
-      </c>
-      <c r="P26" t="s">
-        <v>129</v>
-      </c>
       <c r="Q26" t="s">
         <v>81</v>
       </c>
@@ -5359,10 +5956,13 @@
         <v>81</v>
       </c>
       <c r="S26" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="T26" t="s">
         <v>81</v>
+      </c>
+      <c r="U26" t="s">
+        <v>145</v>
       </c>
       <c r="V26" t="s">
         <v>86</v>
@@ -5373,37 +5973,40 @@
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G27" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="H27" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="I27" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="J27" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="K27">
-        <f>菜单SAAS版!$E$26</f>
+        <f>菜单!$E$14</f>
       </c>
       <c r="L27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M27" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="N27" t="s">
         <v>84</v>
       </c>
       <c r="O27" t="s">
-        <v>108</v>
+        <v>130</v>
+      </c>
+      <c r="P27" t="s">
+        <v>187</v>
       </c>
       <c r="Q27" t="s">
         <v>81</v>
@@ -5412,7 +6015,7 @@
         <v>81</v>
       </c>
       <c r="S27" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="T27" t="s">
         <v>81</v>
@@ -5426,28 +6029,25 @@
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F28" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G28" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="H28" t="s">
-        <v>183</v>
-      </c>
-      <c r="I28" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="J28" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="K28">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单!$E$27</f>
       </c>
       <c r="L28" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M28" t="s">
         <v>93</v>
@@ -5455,12 +6055,6 @@
       <c r="N28" t="s">
         <v>84</v>
       </c>
-      <c r="O28" t="s">
-        <v>184</v>
-      </c>
-      <c r="P28" t="s">
-        <v>139</v>
-      </c>
       <c r="Q28" t="s">
         <v>81</v>
       </c>
@@ -5468,10 +6062,13 @@
         <v>81</v>
       </c>
       <c r="S28" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="T28" t="s">
         <v>81</v>
+      </c>
+      <c r="U28" t="s">
+        <v>145</v>
       </c>
       <c r="V28" t="s">
         <v>86</v>
@@ -5482,34 +6079,37 @@
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="H29" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="I29" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="J29" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="K29">
-        <f>菜单SAAS版!$E$28</f>
+        <f>菜单!$E$8</f>
       </c>
       <c r="L29" t="s">
-        <v>107</v>
+        <v>92</v>
+      </c>
+      <c r="M29" t="s">
+        <v>81</v>
       </c>
       <c r="N29" t="s">
         <v>84</v>
       </c>
       <c r="O29" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="Q29" t="s">
         <v>81</v>
@@ -5518,7 +6118,7 @@
         <v>81</v>
       </c>
       <c r="S29" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="T29" t="s">
         <v>81</v>
@@ -5527,6 +6127,1166 @@
         <v>86</v>
       </c>
       <c r="X29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30">
+        <f>菜单!$E$29</f>
+      </c>
+      <c r="L30" t="s">
+        <v>100</v>
+      </c>
+      <c r="M30" t="s">
+        <v>81</v>
+      </c>
+      <c r="N30" t="s">
+        <v>84</v>
+      </c>
+      <c r="O30" t="s">
+        <v>201</v>
+      </c>
+      <c r="P30" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>81</v>
+      </c>
+      <c r="R30" t="s">
+        <v>81</v>
+      </c>
+      <c r="S30" t="s">
+        <v>203</v>
+      </c>
+      <c r="T30" t="s">
+        <v>81</v>
+      </c>
+      <c r="V30" t="s">
+        <v>86</v>
+      </c>
+      <c r="X30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31">
+        <f>菜单!$E$30</f>
+      </c>
+      <c r="L31" t="s">
+        <v>107</v>
+      </c>
+      <c r="N31" t="s">
+        <v>84</v>
+      </c>
+      <c r="O31" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>81</v>
+      </c>
+      <c r="R31" t="s">
+        <v>81</v>
+      </c>
+      <c r="S31" t="s">
+        <v>206</v>
+      </c>
+      <c r="T31" t="s">
+        <v>81</v>
+      </c>
+      <c r="V31" t="s">
+        <v>86</v>
+      </c>
+      <c r="X31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" t="s">
+        <v>209</v>
+      </c>
+      <c r="H32" t="s">
+        <v>210</v>
+      </c>
+      <c r="I32" t="s">
+        <v>211</v>
+      </c>
+      <c r="J32" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32">
+        <f>菜单!$E$29</f>
+      </c>
+      <c r="L32" t="s">
+        <v>100</v>
+      </c>
+      <c r="M32" t="s">
+        <v>84</v>
+      </c>
+      <c r="N32" t="s">
+        <v>84</v>
+      </c>
+      <c r="O32" t="s">
+        <v>201</v>
+      </c>
+      <c r="P32" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>81</v>
+      </c>
+      <c r="R32" t="s">
+        <v>81</v>
+      </c>
+      <c r="S32" t="s">
+        <v>213</v>
+      </c>
+      <c r="T32" t="s">
+        <v>81</v>
+      </c>
+      <c r="V32" t="s">
+        <v>86</v>
+      </c>
+      <c r="X32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" t="s">
+        <v>106</v>
+      </c>
+      <c r="J33" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33">
+        <f>菜单!$E$32</f>
+      </c>
+      <c r="L33" t="s">
+        <v>107</v>
+      </c>
+      <c r="N33" t="s">
+        <v>84</v>
+      </c>
+      <c r="O33" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>81</v>
+      </c>
+      <c r="R33" t="s">
+        <v>81</v>
+      </c>
+      <c r="S33" t="s">
+        <v>216</v>
+      </c>
+      <c r="T33" t="s">
+        <v>81</v>
+      </c>
+      <c r="V33" t="s">
+        <v>86</v>
+      </c>
+      <c r="X33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" t="s">
+        <v>219</v>
+      </c>
+      <c r="J34" t="s">
+        <v>220</v>
+      </c>
+      <c r="K34" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34" t="s">
+        <v>82</v>
+      </c>
+      <c r="M34" t="s">
+        <v>221</v>
+      </c>
+      <c r="N34" t="s">
+        <v>84</v>
+      </c>
+      <c r="O34" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>81</v>
+      </c>
+      <c r="R34" t="s">
+        <v>81</v>
+      </c>
+      <c r="S34" t="s">
+        <v>218</v>
+      </c>
+      <c r="T34" t="s">
+        <v>81</v>
+      </c>
+      <c r="V34" t="s">
+        <v>86</v>
+      </c>
+      <c r="X34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" t="s">
+        <v>224</v>
+      </c>
+      <c r="I35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J35" t="s">
+        <v>220</v>
+      </c>
+      <c r="K35">
+        <f>菜单!$E$34</f>
+      </c>
+      <c r="L35" t="s">
+        <v>92</v>
+      </c>
+      <c r="M35" t="s">
+        <v>186</v>
+      </c>
+      <c r="N35" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>81</v>
+      </c>
+      <c r="R35" t="s">
+        <v>81</v>
+      </c>
+      <c r="S35" t="s">
+        <v>225</v>
+      </c>
+      <c r="T35" t="s">
+        <v>81</v>
+      </c>
+      <c r="V35" t="s">
+        <v>86</v>
+      </c>
+      <c r="X35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36" t="s">
+        <v>227</v>
+      </c>
+      <c r="G36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" t="s">
+        <v>228</v>
+      </c>
+      <c r="I36" t="s">
+        <v>99</v>
+      </c>
+      <c r="J36" t="s">
+        <v>220</v>
+      </c>
+      <c r="K36">
+        <f>菜单!$E$35</f>
+      </c>
+      <c r="L36" t="s">
+        <v>100</v>
+      </c>
+      <c r="M36" t="s">
+        <v>93</v>
+      </c>
+      <c r="N36" t="s">
+        <v>84</v>
+      </c>
+      <c r="P36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>81</v>
+      </c>
+      <c r="R36" t="s">
+        <v>81</v>
+      </c>
+      <c r="S36" t="s">
+        <v>229</v>
+      </c>
+      <c r="T36" t="s">
+        <v>81</v>
+      </c>
+      <c r="V36" t="s">
+        <v>86</v>
+      </c>
+      <c r="X36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F37" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" t="s">
+        <v>220</v>
+      </c>
+      <c r="K37">
+        <f>菜单!$E$36</f>
+      </c>
+      <c r="L37" t="s">
+        <v>107</v>
+      </c>
+      <c r="M37" t="s">
+        <v>81</v>
+      </c>
+      <c r="N37" t="s">
+        <v>84</v>
+      </c>
+      <c r="O37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>81</v>
+      </c>
+      <c r="R37" t="s">
+        <v>81</v>
+      </c>
+      <c r="S37" t="s">
+        <v>232</v>
+      </c>
+      <c r="T37" t="s">
+        <v>81</v>
+      </c>
+      <c r="V37" t="s">
+        <v>86</v>
+      </c>
+      <c r="X37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>233</v>
+      </c>
+      <c r="F38" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" t="s">
+        <v>235</v>
+      </c>
+      <c r="I38" t="s">
+        <v>91</v>
+      </c>
+      <c r="J38" t="s">
+        <v>220</v>
+      </c>
+      <c r="K38">
+        <f>菜单!$E$35</f>
+      </c>
+      <c r="L38" t="s">
+        <v>100</v>
+      </c>
+      <c r="M38" t="s">
+        <v>113</v>
+      </c>
+      <c r="N38" t="s">
+        <v>84</v>
+      </c>
+      <c r="P38" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>81</v>
+      </c>
+      <c r="R38" t="s">
+        <v>81</v>
+      </c>
+      <c r="S38" t="s">
+        <v>236</v>
+      </c>
+      <c r="T38" t="s">
+        <v>81</v>
+      </c>
+      <c r="V38" t="s">
+        <v>86</v>
+      </c>
+      <c r="X38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>237</v>
+      </c>
+      <c r="F39" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" t="s">
+        <v>239</v>
+      </c>
+      <c r="H39" t="s">
+        <v>239</v>
+      </c>
+      <c r="I39" t="s">
+        <v>240</v>
+      </c>
+      <c r="J39" t="s">
+        <v>220</v>
+      </c>
+      <c r="K39">
+        <f>菜单!$E$38</f>
+      </c>
+      <c r="L39" t="s">
+        <v>107</v>
+      </c>
+      <c r="N39" t="s">
+        <v>84</v>
+      </c>
+      <c r="O39" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>81</v>
+      </c>
+      <c r="R39" t="s">
+        <v>81</v>
+      </c>
+      <c r="S39" t="s">
+        <v>241</v>
+      </c>
+      <c r="T39" t="s">
+        <v>81</v>
+      </c>
+      <c r="V39" t="s">
+        <v>86</v>
+      </c>
+      <c r="X39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>242</v>
+      </c>
+      <c r="F40" t="s">
+        <v>243</v>
+      </c>
+      <c r="G40" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" t="s">
+        <v>244</v>
+      </c>
+      <c r="I40" t="s">
+        <v>245</v>
+      </c>
+      <c r="J40" t="s">
+        <v>220</v>
+      </c>
+      <c r="K40">
+        <f>菜单!$E$34</f>
+      </c>
+      <c r="L40" t="s">
+        <v>92</v>
+      </c>
+      <c r="M40" t="s">
+        <v>246</v>
+      </c>
+      <c r="N40" t="s">
+        <v>84</v>
+      </c>
+      <c r="O40" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>81</v>
+      </c>
+      <c r="R40" t="s">
+        <v>81</v>
+      </c>
+      <c r="S40" t="s">
+        <v>247</v>
+      </c>
+      <c r="T40" t="s">
+        <v>81</v>
+      </c>
+      <c r="V40" t="s">
+        <v>86</v>
+      </c>
+      <c r="X40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" t="s">
+        <v>249</v>
+      </c>
+      <c r="G41" t="s">
+        <v>148</v>
+      </c>
+      <c r="H41" t="s">
+        <v>149</v>
+      </c>
+      <c r="I41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J41" t="s">
+        <v>220</v>
+      </c>
+      <c r="K41">
+        <f>菜单!$E$40</f>
+      </c>
+      <c r="L41" t="s">
+        <v>100</v>
+      </c>
+      <c r="M41" t="s">
+        <v>93</v>
+      </c>
+      <c r="N41" t="s">
+        <v>84</v>
+      </c>
+      <c r="O41" t="s">
+        <v>151</v>
+      </c>
+      <c r="P41" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>81</v>
+      </c>
+      <c r="R41" t="s">
+        <v>81</v>
+      </c>
+      <c r="S41" t="s">
+        <v>250</v>
+      </c>
+      <c r="T41" t="s">
+        <v>81</v>
+      </c>
+      <c r="V41" t="s">
+        <v>86</v>
+      </c>
+      <c r="X41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>251</v>
+      </c>
+      <c r="F42" t="s">
+        <v>252</v>
+      </c>
+      <c r="G42" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" t="s">
+        <v>220</v>
+      </c>
+      <c r="K42">
+        <f>菜单!$E$41</f>
+      </c>
+      <c r="L42" t="s">
+        <v>107</v>
+      </c>
+      <c r="M42" t="s">
+        <v>93</v>
+      </c>
+      <c r="N42" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>81</v>
+      </c>
+      <c r="R42" t="s">
+        <v>81</v>
+      </c>
+      <c r="S42" t="s">
+        <v>253</v>
+      </c>
+      <c r="T42" t="s">
+        <v>81</v>
+      </c>
+      <c r="U42" t="s">
+        <v>145</v>
+      </c>
+      <c r="V42" t="s">
+        <v>86</v>
+      </c>
+      <c r="X42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>254</v>
+      </c>
+      <c r="F43" t="s">
+        <v>255</v>
+      </c>
+      <c r="G43" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43" t="s">
+        <v>128</v>
+      </c>
+      <c r="I43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J43" t="s">
+        <v>220</v>
+      </c>
+      <c r="K43">
+        <f>菜单!$E$40</f>
+      </c>
+      <c r="L43" t="s">
+        <v>100</v>
+      </c>
+      <c r="M43" t="s">
+        <v>113</v>
+      </c>
+      <c r="N43" t="s">
+        <v>84</v>
+      </c>
+      <c r="O43" t="s">
+        <v>130</v>
+      </c>
+      <c r="P43" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>81</v>
+      </c>
+      <c r="R43" t="s">
+        <v>81</v>
+      </c>
+      <c r="S43" t="s">
+        <v>256</v>
+      </c>
+      <c r="T43" t="s">
+        <v>81</v>
+      </c>
+      <c r="V43" t="s">
+        <v>86</v>
+      </c>
+      <c r="X43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>257</v>
+      </c>
+      <c r="F44" t="s">
+        <v>258</v>
+      </c>
+      <c r="G44" t="s">
+        <v>183</v>
+      </c>
+      <c r="H44" t="s">
+        <v>184</v>
+      </c>
+      <c r="J44" t="s">
+        <v>220</v>
+      </c>
+      <c r="K44">
+        <f>菜单!$E$40</f>
+      </c>
+      <c r="L44" t="s">
+        <v>100</v>
+      </c>
+      <c r="M44" t="s">
+        <v>186</v>
+      </c>
+      <c r="N44" t="s">
+        <v>84</v>
+      </c>
+      <c r="O44" t="s">
+        <v>130</v>
+      </c>
+      <c r="P44" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>81</v>
+      </c>
+      <c r="R44" t="s">
+        <v>81</v>
+      </c>
+      <c r="S44" t="s">
+        <v>259</v>
+      </c>
+      <c r="T44" t="s">
+        <v>81</v>
+      </c>
+      <c r="V44" t="s">
+        <v>86</v>
+      </c>
+      <c r="X44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>260</v>
+      </c>
+      <c r="F45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G45" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" t="s">
+        <v>220</v>
+      </c>
+      <c r="K45">
+        <f>菜单!$E$44</f>
+      </c>
+      <c r="L45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M45" t="s">
+        <v>93</v>
+      </c>
+      <c r="N45" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>81</v>
+      </c>
+      <c r="R45" t="s">
+        <v>81</v>
+      </c>
+      <c r="S45" t="s">
+        <v>262</v>
+      </c>
+      <c r="T45" t="s">
+        <v>81</v>
+      </c>
+      <c r="U45" t="s">
+        <v>145</v>
+      </c>
+      <c r="V45" t="s">
+        <v>86</v>
+      </c>
+      <c r="X45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>263</v>
+      </c>
+      <c r="F46" t="s">
+        <v>264</v>
+      </c>
+      <c r="G46" t="s">
+        <v>105</v>
+      </c>
+      <c r="H46" t="s">
+        <v>105</v>
+      </c>
+      <c r="J46" t="s">
+        <v>220</v>
+      </c>
+      <c r="K46">
+        <f>菜单!$E$43</f>
+      </c>
+      <c r="L46" t="s">
+        <v>107</v>
+      </c>
+      <c r="M46" t="s">
+        <v>93</v>
+      </c>
+      <c r="N46" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>81</v>
+      </c>
+      <c r="R46" t="s">
+        <v>81</v>
+      </c>
+      <c r="S46" t="s">
+        <v>265</v>
+      </c>
+      <c r="T46" t="s">
+        <v>81</v>
+      </c>
+      <c r="U46" t="s">
+        <v>145</v>
+      </c>
+      <c r="V46" t="s">
+        <v>86</v>
+      </c>
+      <c r="X46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" t="s">
+        <v>267</v>
+      </c>
+      <c r="G47" t="s">
+        <v>194</v>
+      </c>
+      <c r="H47" t="s">
+        <v>195</v>
+      </c>
+      <c r="I47" t="s">
+        <v>196</v>
+      </c>
+      <c r="J47" t="s">
+        <v>220</v>
+      </c>
+      <c r="K47">
+        <f>菜单!$E$34</f>
+      </c>
+      <c r="L47" t="s">
+        <v>92</v>
+      </c>
+      <c r="M47" t="s">
+        <v>268</v>
+      </c>
+      <c r="N47" t="s">
+        <v>84</v>
+      </c>
+      <c r="O47" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>81</v>
+      </c>
+      <c r="R47" t="s">
+        <v>81</v>
+      </c>
+      <c r="S47" t="s">
+        <v>269</v>
+      </c>
+      <c r="T47" t="s">
+        <v>81</v>
+      </c>
+      <c r="V47" t="s">
+        <v>86</v>
+      </c>
+      <c r="X47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>270</v>
+      </c>
+      <c r="F48" t="s">
+        <v>271</v>
+      </c>
+      <c r="G48" t="s">
+        <v>200</v>
+      </c>
+      <c r="H48" t="s">
+        <v>272</v>
+      </c>
+      <c r="I48" t="s">
+        <v>99</v>
+      </c>
+      <c r="J48" t="s">
+        <v>220</v>
+      </c>
+      <c r="K48">
+        <f>菜单!$E$47</f>
+      </c>
+      <c r="L48" t="s">
+        <v>100</v>
+      </c>
+      <c r="M48" t="s">
+        <v>81</v>
+      </c>
+      <c r="N48" t="s">
+        <v>84</v>
+      </c>
+      <c r="O48" t="s">
+        <v>201</v>
+      </c>
+      <c r="P48" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>81</v>
+      </c>
+      <c r="R48" t="s">
+        <v>81</v>
+      </c>
+      <c r="S48" t="s">
+        <v>273</v>
+      </c>
+      <c r="T48" t="s">
+        <v>81</v>
+      </c>
+      <c r="V48" t="s">
+        <v>86</v>
+      </c>
+      <c r="X48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>274</v>
+      </c>
+      <c r="F49" t="s">
+        <v>275</v>
+      </c>
+      <c r="G49" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" t="s">
+        <v>105</v>
+      </c>
+      <c r="I49" t="s">
+        <v>106</v>
+      </c>
+      <c r="J49" t="s">
+        <v>220</v>
+      </c>
+      <c r="K49">
+        <f>菜单!$E$48</f>
+      </c>
+      <c r="L49" t="s">
+        <v>107</v>
+      </c>
+      <c r="M49" t="s">
+        <v>81</v>
+      </c>
+      <c r="N49" t="s">
+        <v>84</v>
+      </c>
+      <c r="O49" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>81</v>
+      </c>
+      <c r="R49" t="s">
+        <v>81</v>
+      </c>
+      <c r="S49" t="s">
+        <v>276</v>
+      </c>
+      <c r="T49" t="s">
+        <v>81</v>
+      </c>
+      <c r="V49" t="s">
+        <v>86</v>
+      </c>
+      <c r="X49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>277</v>
+      </c>
+      <c r="F50" t="s">
+        <v>278</v>
+      </c>
+      <c r="G50" t="s">
+        <v>209</v>
+      </c>
+      <c r="H50" t="s">
+        <v>279</v>
+      </c>
+      <c r="I50" t="s">
+        <v>196</v>
+      </c>
+      <c r="J50" t="s">
+        <v>220</v>
+      </c>
+      <c r="K50">
+        <f>菜单!$E$47</f>
+      </c>
+      <c r="L50" t="s">
+        <v>100</v>
+      </c>
+      <c r="M50" t="s">
+        <v>93</v>
+      </c>
+      <c r="N50" t="s">
+        <v>84</v>
+      </c>
+      <c r="O50" t="s">
+        <v>123</v>
+      </c>
+      <c r="P50" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>81</v>
+      </c>
+      <c r="R50" t="s">
+        <v>81</v>
+      </c>
+      <c r="S50" t="s">
+        <v>280</v>
+      </c>
+      <c r="T50" t="s">
+        <v>81</v>
+      </c>
+      <c r="V50" t="s">
+        <v>86</v>
+      </c>
+      <c r="X50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>281</v>
+      </c>
+      <c r="F51" t="s">
+        <v>282</v>
+      </c>
+      <c r="G51" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" t="s">
+        <v>105</v>
+      </c>
+      <c r="I51" t="s">
+        <v>106</v>
+      </c>
+      <c r="J51" t="s">
+        <v>220</v>
+      </c>
+      <c r="K51">
+        <f>菜单!$E$50</f>
+      </c>
+      <c r="L51" t="s">
+        <v>107</v>
+      </c>
+      <c r="N51" t="s">
+        <v>84</v>
+      </c>
+      <c r="O51" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>81</v>
+      </c>
+      <c r="R51" t="s">
+        <v>81</v>
+      </c>
+      <c r="S51" t="s">
+        <v>283</v>
+      </c>
+      <c r="T51" t="s">
+        <v>81</v>
+      </c>
+      <c r="V51" t="s">
+        <v>86</v>
+      </c>
+      <c r="X51" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5537,7 +7297,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5576,668 +7336,1618 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>284</v>
       </c>
       <c r="D7" t="s" s="66">
-        <v>190</v>
+        <v>285</v>
       </c>
       <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="68">
-        <v>191</v>
+        <v>286</v>
       </c>
       <c r="G7" t="s" s="69">
-        <v>192</v>
+        <v>287</v>
+      </c>
+      <c r="H7" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>193</v>
+        <v>289</v>
       </c>
       <c r="F8">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单!$E$11</f>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
+        <v>290</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>195</v>
+        <v>291</v>
       </c>
       <c r="F9">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单!$E$11</f>
       </c>
       <c r="G9" t="s">
-        <v>196</v>
+        <v>292</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>197</v>
+        <v>293</v>
       </c>
       <c r="F10">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单!$E$11</f>
       </c>
       <c r="G10" t="s">
-        <v>198</v>
+        <v>294</v>
+      </c>
+      <c r="H10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>199</v>
+        <v>295</v>
       </c>
       <c r="F11">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单!$E$11</f>
       </c>
       <c r="G11" t="s">
-        <v>200</v>
+        <v>296</v>
+      </c>
+      <c r="H11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>201</v>
+        <v>297</v>
       </c>
       <c r="F12">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单!$E$11</f>
       </c>
       <c r="G12" t="s">
-        <v>202</v>
+        <v>298</v>
+      </c>
+      <c r="H12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c r="F13">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单!$E$11</f>
       </c>
       <c r="G13" t="s">
-        <v>204</v>
+        <v>300</v>
+      </c>
+      <c r="H13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="F14">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单!$E$11</f>
       </c>
       <c r="G14" t="s">
-        <v>206</v>
+        <v>302</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="F15">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单!$E$11</f>
       </c>
       <c r="G15" t="s">
-        <v>208</v>
+        <v>304</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
       <c r="F16">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单!$E$11</f>
       </c>
       <c r="G16" t="s">
-        <v>210</v>
+        <v>306</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>211</v>
+        <v>307</v>
       </c>
       <c r="F17">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单!$E$11</f>
       </c>
       <c r="G17" t="s">
-        <v>212</v>
+        <v>308</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>213</v>
+        <v>309</v>
       </c>
       <c r="F18">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单!$E$11</f>
       </c>
       <c r="G18" t="s">
-        <v>214</v>
+        <v>310</v>
+      </c>
+      <c r="H18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>215</v>
+        <v>311</v>
       </c>
       <c r="F19">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单!$E$11</f>
       </c>
       <c r="G19" t="s">
-        <v>216</v>
+        <v>312</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="F20">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单!$E$13</f>
       </c>
       <c r="G20" t="s">
-        <v>218</v>
+        <v>314</v>
+      </c>
+      <c r="H20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="F21">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单!$E$13</f>
       </c>
       <c r="G21" t="s">
-        <v>220</v>
+        <v>316</v>
+      </c>
+      <c r="H21" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>221</v>
+        <v>317</v>
       </c>
       <c r="F22">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单!$E$13</f>
       </c>
       <c r="G22" t="s">
-        <v>222</v>
+        <v>318</v>
+      </c>
+      <c r="H22" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
       <c r="F23">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单!$E$18</f>
       </c>
       <c r="G23" t="s">
-        <v>224</v>
+        <v>320</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="F24">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单!$E$18</f>
       </c>
       <c r="G24" t="s">
-        <v>226</v>
+        <v>322</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="F25">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单!$E$18</f>
       </c>
       <c r="G25" t="s">
-        <v>228</v>
+        <v>324</v>
+      </c>
+      <c r="H25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
       <c r="F26">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单!$E$18</f>
       </c>
       <c r="G26" t="s">
-        <v>214</v>
+        <v>326</v>
+      </c>
+      <c r="H26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>230</v>
+        <v>327</v>
       </c>
       <c r="F27">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单!$E$26</f>
       </c>
       <c r="G27" t="s">
-        <v>231</v>
+        <v>328</v>
+      </c>
+      <c r="H27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>232</v>
+        <v>329</v>
       </c>
       <c r="F28">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单!$E$26</f>
       </c>
       <c r="G28" t="s">
-        <v>233</v>
+        <v>330</v>
+      </c>
+      <c r="H28" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>234</v>
+        <v>331</v>
       </c>
       <c r="F29">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单!$E$26</f>
       </c>
       <c r="G29" t="s">
-        <v>235</v>
+        <v>332</v>
+      </c>
+      <c r="H29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>236</v>
+        <v>333</v>
       </c>
       <c r="F30">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单!$E$26</f>
       </c>
       <c r="G30" t="s">
-        <v>237</v>
+        <v>334</v>
+      </c>
+      <c r="H30" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>238</v>
+        <v>335</v>
       </c>
       <c r="F31">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单!$E$26</f>
       </c>
       <c r="G31" t="s">
-        <v>239</v>
+        <v>336</v>
+      </c>
+      <c r="H31" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>240</v>
+        <v>337</v>
       </c>
       <c r="F32">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单!$E$26</f>
       </c>
       <c r="G32" t="s">
-        <v>241</v>
+        <v>338</v>
+      </c>
+      <c r="H32" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>242</v>
+        <v>339</v>
       </c>
       <c r="F33">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单!$E$26</f>
       </c>
       <c r="G33" t="s">
-        <v>243</v>
+        <v>340</v>
+      </c>
+      <c r="H33" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>244</v>
+        <v>341</v>
       </c>
       <c r="F34">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单!$E$26</f>
       </c>
       <c r="G34" t="s">
-        <v>245</v>
+        <v>342</v>
+      </c>
+      <c r="H34" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>246</v>
+        <v>343</v>
       </c>
       <c r="F35">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单!$E$26</f>
       </c>
       <c r="G35" t="s">
-        <v>247</v>
+        <v>344</v>
+      </c>
+      <c r="H35" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>248</v>
+        <v>345</v>
       </c>
       <c r="F36">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单!$E$26</f>
       </c>
       <c r="G36" t="s">
-        <v>249</v>
+        <v>346</v>
+      </c>
+      <c r="H36" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>250</v>
+        <v>347</v>
       </c>
       <c r="F37">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单!$E$26</f>
       </c>
       <c r="G37" t="s">
-        <v>251</v>
+        <v>348</v>
+      </c>
+      <c r="H37" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>252</v>
+        <v>349</v>
       </c>
       <c r="F38">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单!$E$26</f>
       </c>
       <c r="G38" t="s">
-        <v>253</v>
+        <v>350</v>
+      </c>
+      <c r="H38" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>254</v>
+        <v>351</v>
       </c>
       <c r="F39">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单!$E$26</f>
       </c>
       <c r="G39" t="s">
-        <v>235</v>
+        <v>352</v>
+      </c>
+      <c r="H39" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>255</v>
+        <v>353</v>
       </c>
       <c r="F40">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单!$E$26</f>
       </c>
       <c r="G40" t="s">
-        <v>256</v>
+        <v>354</v>
+      </c>
+      <c r="H40" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>257</v>
+        <v>355</v>
       </c>
       <c r="F41">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单!$E$28</f>
       </c>
       <c r="G41" t="s">
-        <v>258</v>
+        <v>320</v>
+      </c>
+      <c r="H41" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>259</v>
+        <v>356</v>
       </c>
       <c r="F42">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$28</f>
       </c>
       <c r="G42" t="s">
-        <v>260</v>
+        <v>326</v>
+      </c>
+      <c r="H42" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>261</v>
+        <v>357</v>
       </c>
       <c r="F43">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$31</f>
       </c>
       <c r="G43" t="s">
-        <v>212</v>
+        <v>358</v>
+      </c>
+      <c r="H43" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>262</v>
+        <v>359</v>
       </c>
       <c r="F44">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$31</f>
       </c>
       <c r="G44" t="s">
-        <v>235</v>
+        <v>360</v>
+      </c>
+      <c r="H44" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>263</v>
+        <v>361</v>
       </c>
       <c r="F45">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$31</f>
       </c>
       <c r="G45" t="s">
-        <v>264</v>
+        <v>320</v>
+      </c>
+      <c r="H45" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>265</v>
+        <v>362</v>
       </c>
       <c r="F46">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$31</f>
       </c>
       <c r="G46" t="s">
-        <v>266</v>
+        <v>363</v>
+      </c>
+      <c r="H46" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>267</v>
+        <v>364</v>
       </c>
       <c r="F47">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$31</f>
       </c>
       <c r="G47" t="s">
-        <v>268</v>
+        <v>365</v>
+      </c>
+      <c r="H47" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>269</v>
+        <v>366</v>
       </c>
       <c r="F48">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$31</f>
       </c>
       <c r="G48" t="s">
-        <v>270</v>
+        <v>367</v>
+      </c>
+      <c r="H48" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="F49">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$31</f>
       </c>
       <c r="G49" t="s">
-        <v>272</v>
+        <v>369</v>
+      </c>
+      <c r="H49" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>273</v>
+        <v>370</v>
       </c>
       <c r="F50">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$31</f>
       </c>
       <c r="G50" t="s">
-        <v>274</v>
+        <v>371</v>
+      </c>
+      <c r="H50" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>275</v>
+        <v>372</v>
       </c>
       <c r="F51">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$31</f>
       </c>
       <c r="G51" t="s">
-        <v>276</v>
+        <v>373</v>
+      </c>
+      <c r="H51" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="F52">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$31</f>
       </c>
       <c r="G52" t="s">
-        <v>237</v>
+        <v>375</v>
+      </c>
+      <c r="H52" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>278</v>
+        <v>376</v>
       </c>
       <c r="F53">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$31</f>
       </c>
       <c r="G53" t="s">
-        <v>239</v>
+        <v>377</v>
+      </c>
+      <c r="H53" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>279</v>
+        <v>378</v>
       </c>
       <c r="F54">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$33</f>
       </c>
       <c r="G54" t="s">
-        <v>241</v>
+        <v>360</v>
+      </c>
+      <c r="H54" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>280</v>
+        <v>379</v>
       </c>
       <c r="F55">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$33</f>
       </c>
       <c r="G55" t="s">
-        <v>245</v>
+        <v>380</v>
+      </c>
+      <c r="H55" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>281</v>
+        <v>381</v>
       </c>
       <c r="F56">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$33</f>
       </c>
       <c r="G56" t="s">
-        <v>247</v>
+        <v>320</v>
+      </c>
+      <c r="H56" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>282</v>
+        <v>382</v>
       </c>
       <c r="F57">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$33</f>
       </c>
       <c r="G57" t="s">
-        <v>283</v>
+        <v>383</v>
+      </c>
+      <c r="H57" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>284</v>
+        <v>384</v>
       </c>
       <c r="F58">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$33</f>
       </c>
       <c r="G58" t="s">
-        <v>285</v>
+        <v>365</v>
+      </c>
+      <c r="H58" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="F59">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$33</f>
       </c>
       <c r="G59" t="s">
-        <v>287</v>
+        <v>386</v>
+      </c>
+      <c r="H59" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>288</v>
+        <v>387</v>
       </c>
       <c r="F60">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$33</f>
       </c>
       <c r="G60" t="s">
-        <v>289</v>
+        <v>388</v>
+      </c>
+      <c r="H60" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>290</v>
+        <v>389</v>
       </c>
       <c r="F61">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$33</f>
       </c>
       <c r="G61" t="s">
-        <v>291</v>
+        <v>390</v>
+      </c>
+      <c r="H61" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>292</v>
+        <v>391</v>
       </c>
       <c r="F62">
-        <f>菜单SAAS版!$E$29</f>
+        <f>菜单!$E$37</f>
       </c>
       <c r="G62" t="s">
-        <v>226</v>
+        <v>328</v>
+      </c>
+      <c r="H62" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>293</v>
+        <v>392</v>
       </c>
       <c r="F63">
-        <f>菜单SAAS版!$E$29</f>
+        <f>菜单!$E$37</f>
       </c>
       <c r="G63" t="s">
-        <v>228</v>
+        <v>393</v>
+      </c>
+      <c r="H63" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="F64">
-        <f>菜单SAAS版!$E$29</f>
+        <f>菜单!$E$37</f>
       </c>
       <c r="G64" t="s">
-        <v>274</v>
+        <v>395</v>
+      </c>
+      <c r="H64" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>295</v>
+        <v>396</v>
       </c>
       <c r="F65">
-        <f>菜单SAAS版!$E$29</f>
+        <f>菜单!$E$37</f>
       </c>
       <c r="G65" t="s">
-        <v>296</v>
+        <v>397</v>
+      </c>
+      <c r="H65" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>297</v>
+        <v>398</v>
       </c>
       <c r="F66">
-        <f>菜单SAAS版!$E$29</f>
+        <f>菜单!$E$37</f>
       </c>
       <c r="G66" t="s">
-        <v>298</v>
+        <v>399</v>
+      </c>
+      <c r="H66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="s">
+        <v>400</v>
+      </c>
+      <c r="F67">
+        <f>菜单!$E$37</f>
+      </c>
+      <c r="G67" t="s">
+        <v>401</v>
+      </c>
+      <c r="H67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="s">
+        <v>402</v>
+      </c>
+      <c r="F68">
+        <f>菜单!$E$37</f>
+      </c>
+      <c r="G68" t="s">
+        <v>403</v>
+      </c>
+      <c r="H68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="s">
+        <v>404</v>
+      </c>
+      <c r="F69">
+        <f>菜单!$E$37</f>
+      </c>
+      <c r="G69" t="s">
+        <v>405</v>
+      </c>
+      <c r="H69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="s">
+        <v>406</v>
+      </c>
+      <c r="F70">
+        <f>菜单!$E$37</f>
+      </c>
+      <c r="G70" t="s">
+        <v>407</v>
+      </c>
+      <c r="H70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="s">
+        <v>408</v>
+      </c>
+      <c r="F71">
+        <f>菜单!$E$37</f>
+      </c>
+      <c r="G71" t="s">
+        <v>409</v>
+      </c>
+      <c r="H71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="s">
+        <v>410</v>
+      </c>
+      <c r="F72">
+        <f>菜单!$E$39</f>
+      </c>
+      <c r="G72" t="s">
+        <v>328</v>
+      </c>
+      <c r="H72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="s">
+        <v>411</v>
+      </c>
+      <c r="F73">
+        <f>菜单!$E$39</f>
+      </c>
+      <c r="G73" t="s">
+        <v>412</v>
+      </c>
+      <c r="H73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="s">
+        <v>413</v>
+      </c>
+      <c r="F74">
+        <f>菜单!$E$39</f>
+      </c>
+      <c r="G74" t="s">
+        <v>414</v>
+      </c>
+      <c r="H74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="s">
+        <v>415</v>
+      </c>
+      <c r="F75">
+        <f>菜单!$E$39</f>
+      </c>
+      <c r="G75" t="s">
+        <v>416</v>
+      </c>
+      <c r="H75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="s">
+        <v>417</v>
+      </c>
+      <c r="F76">
+        <f>菜单!$E$42</f>
+      </c>
+      <c r="G76" t="s">
+        <v>328</v>
+      </c>
+      <c r="H76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="s">
+        <v>418</v>
+      </c>
+      <c r="F77">
+        <f>菜单!$E$42</f>
+      </c>
+      <c r="G77" t="s">
+        <v>419</v>
+      </c>
+      <c r="H77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="s">
+        <v>420</v>
+      </c>
+      <c r="F78">
+        <f>菜单!$E$42</f>
+      </c>
+      <c r="G78" t="s">
+        <v>421</v>
+      </c>
+      <c r="H78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="s">
+        <v>422</v>
+      </c>
+      <c r="F79">
+        <f>菜单!$E$42</f>
+      </c>
+      <c r="G79" t="s">
+        <v>423</v>
+      </c>
+      <c r="H79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="E80" t="s">
+        <v>424</v>
+      </c>
+      <c r="F80">
+        <f>菜单!$E$42</f>
+      </c>
+      <c r="G80" t="s">
+        <v>425</v>
+      </c>
+      <c r="H80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="s">
+        <v>426</v>
+      </c>
+      <c r="F81">
+        <f>菜单!$E$42</f>
+      </c>
+      <c r="G81" t="s">
+        <v>427</v>
+      </c>
+      <c r="H81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="E82" t="s">
+        <v>428</v>
+      </c>
+      <c r="F82">
+        <f>菜单!$E$42</f>
+      </c>
+      <c r="G82" t="s">
+        <v>429</v>
+      </c>
+      <c r="H82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="E83" t="s">
+        <v>430</v>
+      </c>
+      <c r="F83">
+        <f>菜单!$E$42</f>
+      </c>
+      <c r="G83" t="s">
+        <v>431</v>
+      </c>
+      <c r="H83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="E84" t="s">
+        <v>432</v>
+      </c>
+      <c r="F84">
+        <f>菜单!$E$42</f>
+      </c>
+      <c r="G84" t="s">
+        <v>433</v>
+      </c>
+      <c r="H84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="E85" t="s">
+        <v>434</v>
+      </c>
+      <c r="F85">
+        <f>菜单!$E$42</f>
+      </c>
+      <c r="G85" t="s">
+        <v>435</v>
+      </c>
+      <c r="H85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="E86" t="s">
+        <v>436</v>
+      </c>
+      <c r="F86">
+        <f>菜单!$E$42</f>
+      </c>
+      <c r="G86" t="s">
+        <v>437</v>
+      </c>
+      <c r="H86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="s">
+        <v>438</v>
+      </c>
+      <c r="F87">
+        <f>菜单!$E$42</f>
+      </c>
+      <c r="G87" t="s">
+        <v>439</v>
+      </c>
+      <c r="H87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="E88" t="s">
+        <v>440</v>
+      </c>
+      <c r="F88">
+        <f>菜单!$E$45</f>
+      </c>
+      <c r="G88" t="s">
+        <v>328</v>
+      </c>
+      <c r="H88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" t="s">
+        <v>441</v>
+      </c>
+      <c r="F89">
+        <f>菜单!$E$45</f>
+      </c>
+      <c r="G89" t="s">
+        <v>442</v>
+      </c>
+      <c r="H89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="s">
+        <v>443</v>
+      </c>
+      <c r="F90">
+        <f>菜单!$E$46</f>
+      </c>
+      <c r="G90" t="s">
+        <v>328</v>
+      </c>
+      <c r="H90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="s">
+        <v>444</v>
+      </c>
+      <c r="F91">
+        <f>菜单!$E$46</f>
+      </c>
+      <c r="G91" t="s">
+        <v>445</v>
+      </c>
+      <c r="H91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s">
+        <v>446</v>
+      </c>
+      <c r="F92">
+        <f>菜单!$E$46</f>
+      </c>
+      <c r="G92" t="s">
+        <v>447</v>
+      </c>
+      <c r="H92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" t="s">
+        <v>448</v>
+      </c>
+      <c r="F93">
+        <f>菜单!$E$46</f>
+      </c>
+      <c r="G93" t="s">
+        <v>429</v>
+      </c>
+      <c r="H93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="E94" t="s">
+        <v>449</v>
+      </c>
+      <c r="F94">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G94" t="s">
+        <v>450</v>
+      </c>
+      <c r="H94" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="E95" t="s">
+        <v>451</v>
+      </c>
+      <c r="F95">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G95" t="s">
+        <v>358</v>
+      </c>
+      <c r="H95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="E96" t="s">
+        <v>452</v>
+      </c>
+      <c r="F96">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G96" t="s">
+        <v>360</v>
+      </c>
+      <c r="H96" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" t="s">
+        <v>453</v>
+      </c>
+      <c r="F97">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G97" t="s">
+        <v>380</v>
+      </c>
+      <c r="H97" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" t="s">
+        <v>454</v>
+      </c>
+      <c r="F98">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G98" t="s">
+        <v>328</v>
+      </c>
+      <c r="H98" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" t="s">
+        <v>455</v>
+      </c>
+      <c r="F99">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G99" t="s">
+        <v>456</v>
+      </c>
+      <c r="H99" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" t="s">
+        <v>457</v>
+      </c>
+      <c r="F100">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G100" t="s">
+        <v>458</v>
+      </c>
+      <c r="H100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" t="s">
+        <v>459</v>
+      </c>
+      <c r="F101">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G101" t="s">
+        <v>460</v>
+      </c>
+      <c r="H101" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="E102" t="s">
+        <v>461</v>
+      </c>
+      <c r="F102">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G102" t="s">
+        <v>462</v>
+      </c>
+      <c r="H102" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" t="s">
+        <v>463</v>
+      </c>
+      <c r="F103">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G103" t="s">
+        <v>464</v>
+      </c>
+      <c r="H103" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="E104" t="s">
+        <v>465</v>
+      </c>
+      <c r="F104">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G104" t="s">
+        <v>466</v>
+      </c>
+      <c r="H104" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="E105" t="s">
+        <v>467</v>
+      </c>
+      <c r="F105">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G105" t="s">
+        <v>468</v>
+      </c>
+      <c r="H105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="E106" t="s">
+        <v>469</v>
+      </c>
+      <c r="F106">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G106" t="s">
+        <v>393</v>
+      </c>
+      <c r="H106" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" t="s">
+        <v>470</v>
+      </c>
+      <c r="F107">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G107" t="s">
+        <v>395</v>
+      </c>
+      <c r="H107" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" t="s">
+        <v>471</v>
+      </c>
+      <c r="F108">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G108" t="s">
+        <v>397</v>
+      </c>
+      <c r="H108" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" t="s">
+        <v>472</v>
+      </c>
+      <c r="F109">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G109" t="s">
+        <v>401</v>
+      </c>
+      <c r="H109" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="E110" t="s">
+        <v>473</v>
+      </c>
+      <c r="F110">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G110" t="s">
+        <v>403</v>
+      </c>
+      <c r="H110" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" t="s">
+        <v>474</v>
+      </c>
+      <c r="F111">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G111" t="s">
+        <v>475</v>
+      </c>
+      <c r="H111" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="E112" t="s">
+        <v>476</v>
+      </c>
+      <c r="F112">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G112" t="s">
+        <v>477</v>
+      </c>
+      <c r="H112" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="E113" t="s">
+        <v>478</v>
+      </c>
+      <c r="F113">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G113" t="s">
+        <v>479</v>
+      </c>
+      <c r="H113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="E114" t="s">
+        <v>480</v>
+      </c>
+      <c r="F114">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G114" t="s">
+        <v>437</v>
+      </c>
+      <c r="H114" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" t="s">
+        <v>481</v>
+      </c>
+      <c r="F115">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="G115" t="s">
+        <v>482</v>
+      </c>
+      <c r="H115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" t="s">
+        <v>483</v>
+      </c>
+      <c r="F116">
+        <f>菜单!$E$51</f>
+      </c>
+      <c r="G116" t="s">
+        <v>450</v>
+      </c>
+      <c r="H116" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="s">
+        <v>484</v>
+      </c>
+      <c r="F117">
+        <f>菜单!$E$51</f>
+      </c>
+      <c r="G117" t="s">
+        <v>380</v>
+      </c>
+      <c r="H117" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="s">
+        <v>485</v>
+      </c>
+      <c r="F118">
+        <f>菜单!$E$51</f>
+      </c>
+      <c r="G118" t="s">
+        <v>320</v>
+      </c>
+      <c r="H118" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="s">
+        <v>486</v>
+      </c>
+      <c r="F119">
+        <f>菜单!$E$51</f>
+      </c>
+      <c r="G119" t="s">
+        <v>466</v>
+      </c>
+      <c r="H119" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" t="s">
+        <v>487</v>
+      </c>
+      <c r="F120">
+        <f>菜单!$E$51</f>
+      </c>
+      <c r="G120" t="s">
+        <v>488</v>
+      </c>
+      <c r="H120" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="s">
+        <v>489</v>
+      </c>
+      <c r="F121">
+        <f>菜单!$E$51</f>
+      </c>
+      <c r="G121" t="s">
+        <v>490</v>
+      </c>
+      <c r="H121" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -6247,7 +8957,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6286,10 +8996,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>299</v>
+        <v>491</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>300</v>
+        <v>492</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>54</v>
@@ -6304,75 +9014,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>301</v>
+        <v>493</v>
       </c>
       <c r="J7" t="s">
-        <v>302</v>
+        <v>494</v>
       </c>
       <c r="K7" t="s" s="73">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>303</v>
+        <v>495</v>
       </c>
       <c r="M7" t="s" s="74">
-        <v>304</v>
+        <v>496</v>
       </c>
       <c r="N7" t="s" s="75">
-        <v>305</v>
+        <v>497</v>
       </c>
       <c r="O7" t="s">
-        <v>306</v>
+        <v>498</v>
       </c>
       <c r="P7" t="s">
-        <v>307</v>
+        <v>499</v>
       </c>
       <c r="Q7" t="s">
-        <v>308</v>
+        <v>500</v>
       </c>
       <c r="R7" t="s">
-        <v>309</v>
+        <v>501</v>
       </c>
       <c r="S7" t="s">
-        <v>310</v>
+        <v>502</v>
       </c>
       <c r="T7" t="s">
-        <v>311</v>
+        <v>503</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>312</v>
+        <v>504</v>
       </c>
       <c r="W7" t="s" s="76">
-        <v>313</v>
+        <v>505</v>
       </c>
       <c r="X7" t="s">
-        <v>314</v>
+        <v>506</v>
       </c>
       <c r="Y7" t="s">
-        <v>315</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>316</v>
+        <v>508</v>
       </c>
       <c r="F8" t="s">
-        <v>317</v>
+        <v>509</v>
       </c>
       <c r="G8" t="s">
-        <v>318</v>
+        <v>510</v>
       </c>
       <c r="H8" t="s">
-        <v>319</v>
+        <v>511</v>
       </c>
       <c r="I8" t="s">
-        <v>320</v>
+        <v>512</v>
       </c>
       <c r="J8" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="K8" t="s">
         <v>81</v>
@@ -6405,10 +9115,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>319</v>
+        <v>511</v>
       </c>
       <c r="V8" t="s">
-        <v>319</v>
+        <v>511</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -6416,19 +9126,19 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>321</v>
+        <v>513</v>
       </c>
       <c r="F9" t="s">
-        <v>322</v>
+        <v>514</v>
       </c>
       <c r="G9" t="s">
-        <v>323</v>
+        <v>515</v>
       </c>
       <c r="H9" t="s">
-        <v>324</v>
+        <v>516</v>
       </c>
       <c r="I9" t="s">
-        <v>325</v>
+        <v>517</v>
       </c>
       <c r="J9" t="s">
         <v>80</v>
@@ -6464,10 +9174,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>324</v>
+        <v>516</v>
       </c>
       <c r="V9" t="s">
-        <v>324</v>
+        <v>516</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -6475,16 +9185,16 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>326</v>
+        <v>518</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>519</v>
       </c>
       <c r="G10" t="s">
-        <v>328</v>
+        <v>520</v>
       </c>
       <c r="H10" t="s">
-        <v>329</v>
+        <v>521</v>
       </c>
       <c r="J10" t="s">
         <v>80</v>
@@ -6520,19 +9230,19 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>330</v>
+        <v>522</v>
       </c>
       <c r="V10" t="s">
-        <v>331</v>
+        <v>521</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>322</v>
+        <v>514</v>
       </c>
       <c r="Y10" t="s">
-        <v>332</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12">
@@ -6543,268 +9253,744 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>333</v>
+        <v>524</v>
       </c>
       <c r="D12" t="s" s="77">
-        <v>334</v>
+        <v>525</v>
       </c>
       <c r="E12" t="s" s="78">
         <v>54</v>
       </c>
       <c r="F12" t="s" s="79">
-        <v>335</v>
+        <v>526</v>
       </c>
       <c r="G12" t="s" s="80">
-        <v>336</v>
+        <v>527</v>
       </c>
       <c r="H12" t="s">
-        <v>337</v>
+        <v>528</v>
       </c>
       <c r="I12" t="s">
-        <v>338</v>
+        <v>529</v>
       </c>
       <c r="J12" t="s" s="81">
-        <v>339</v>
+        <v>530</v>
+      </c>
+      <c r="K12" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>340</v>
+        <v>531</v>
       </c>
       <c r="F13">
         <f>角色权限!$E$9</f>
       </c>
       <c r="G13">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单!$E$11</f>
       </c>
       <c r="H13" t="s">
-        <v>341</v>
+        <v>532</v>
       </c>
       <c r="I13" t="s">
-        <v>342</v>
+        <v>533</v>
       </c>
       <c r="J13" t="s">
-        <v>343</v>
+        <v>534</v>
+      </c>
+      <c r="K13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>344</v>
+        <v>535</v>
       </c>
       <c r="F14">
         <f>角色权限!$E$10</f>
       </c>
       <c r="G14">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单!$E$11</f>
       </c>
       <c r="H14" t="s">
-        <v>341</v>
+        <v>532</v>
       </c>
       <c r="I14" t="s">
-        <v>342</v>
+        <v>533</v>
       </c>
       <c r="J14" t="s">
-        <v>343</v>
+        <v>534</v>
+      </c>
+      <c r="K14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>345</v>
+        <v>536</v>
       </c>
       <c r="F15">
         <f>角色权限!$E$9</f>
       </c>
       <c r="G15">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单!$E$13</f>
       </c>
       <c r="H15" t="s">
-        <v>341</v>
+        <v>532</v>
       </c>
       <c r="I15" t="s">
-        <v>342</v>
+        <v>533</v>
       </c>
       <c r="J15" t="s">
-        <v>343</v>
+        <v>534</v>
+      </c>
+      <c r="K15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>346</v>
+        <v>537</v>
       </c>
       <c r="F16">
         <f>角色权限!$E$10</f>
       </c>
       <c r="G16">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单!$E$13</f>
       </c>
       <c r="H16" t="s">
-        <v>341</v>
+        <v>532</v>
       </c>
       <c r="I16" t="s">
-        <v>342</v>
+        <v>533</v>
       </c>
       <c r="J16" t="s">
-        <v>343</v>
+        <v>534</v>
+      </c>
+      <c r="K16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>347</v>
+        <v>538</v>
       </c>
       <c r="F17">
         <f>角色权限!$E$9</f>
       </c>
       <c r="G17">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单!$E$16</f>
       </c>
       <c r="H17" t="s">
-        <v>341</v>
+        <v>532</v>
       </c>
       <c r="I17" t="s">
-        <v>342</v>
+        <v>533</v>
       </c>
       <c r="J17" t="s">
-        <v>343</v>
+        <v>534</v>
+      </c>
+      <c r="K17" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>348</v>
+        <v>539</v>
       </c>
       <c r="F18">
         <f>角色权限!$E$10</f>
       </c>
       <c r="G18">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单!$E$16</f>
       </c>
       <c r="H18" t="s">
-        <v>341</v>
+        <v>532</v>
       </c>
       <c r="I18" t="s">
-        <v>342</v>
+        <v>533</v>
       </c>
       <c r="J18" t="s">
-        <v>343</v>
+        <v>534</v>
+      </c>
+      <c r="K18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>349</v>
+        <v>540</v>
       </c>
       <c r="F19">
         <f>角色权限!$E$9</f>
       </c>
       <c r="G19">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单!$E$17</f>
       </c>
       <c r="H19" t="s">
-        <v>341</v>
+        <v>532</v>
       </c>
       <c r="I19" t="s">
-        <v>342</v>
+        <v>533</v>
       </c>
       <c r="J19" t="s">
-        <v>343</v>
+        <v>534</v>
+      </c>
+      <c r="K19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>350</v>
+        <v>541</v>
       </c>
       <c r="F20">
         <f>角色权限!$E$10</f>
       </c>
       <c r="G20">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单!$E$17</f>
       </c>
       <c r="H20" t="s">
-        <v>341</v>
+        <v>532</v>
       </c>
       <c r="I20" t="s">
-        <v>342</v>
+        <v>533</v>
       </c>
       <c r="J20" t="s">
-        <v>343</v>
+        <v>534</v>
+      </c>
+      <c r="K20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>351</v>
+        <v>542</v>
       </c>
       <c r="F21">
-        <f>角色权限!$E$8</f>
+        <f>角色权限!$E$10</f>
       </c>
       <c r="G21">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单!$E$18</f>
       </c>
       <c r="H21" t="s">
-        <v>341</v>
+        <v>532</v>
       </c>
       <c r="I21" t="s">
-        <v>342</v>
+        <v>533</v>
       </c>
       <c r="J21" t="s">
-        <v>343</v>
+        <v>534</v>
+      </c>
+      <c r="K21" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>352</v>
+        <v>543</v>
       </c>
       <c r="F22">
-        <f>角色权限!$E$8</f>
+        <f>角色权限!$E$9</f>
       </c>
       <c r="G22">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单!$E$20</f>
       </c>
       <c r="H22" t="s">
-        <v>341</v>
+        <v>532</v>
       </c>
       <c r="I22" t="s">
-        <v>342</v>
+        <v>533</v>
       </c>
       <c r="J22" t="s">
-        <v>343</v>
+        <v>534</v>
+      </c>
+      <c r="K22" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>353</v>
+        <v>544</v>
       </c>
       <c r="F23">
-        <f>角色权限!$E$8</f>
+        <f>角色权限!$E$10</f>
       </c>
       <c r="G23">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$20</f>
       </c>
       <c r="H23" t="s">
-        <v>341</v>
+        <v>532</v>
       </c>
       <c r="I23" t="s">
-        <v>342</v>
+        <v>533</v>
       </c>
       <c r="J23" t="s">
-        <v>343</v>
+        <v>534</v>
+      </c>
+      <c r="K23" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>354</v>
+        <v>545</v>
       </c>
       <c r="F24">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G24">
+        <f>菜单!$E$21</f>
+      </c>
+      <c r="H24" t="s">
+        <v>532</v>
+      </c>
+      <c r="I24" t="s">
+        <v>533</v>
+      </c>
+      <c r="J24" t="s">
+        <v>534</v>
+      </c>
+      <c r="K24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>546</v>
+      </c>
+      <c r="F25">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G25">
+        <f>菜单!$E$21</f>
+      </c>
+      <c r="H25" t="s">
+        <v>532</v>
+      </c>
+      <c r="I25" t="s">
+        <v>533</v>
+      </c>
+      <c r="J25" t="s">
+        <v>534</v>
+      </c>
+      <c r="K25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>547</v>
+      </c>
+      <c r="F26">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G26">
+        <f>菜单!$E$22</f>
+      </c>
+      <c r="H26" t="s">
+        <v>532</v>
+      </c>
+      <c r="I26" t="s">
+        <v>533</v>
+      </c>
+      <c r="J26" t="s">
+        <v>534</v>
+      </c>
+      <c r="K26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>548</v>
+      </c>
+      <c r="F27">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G27">
+        <f>菜单!$E$22</f>
+      </c>
+      <c r="H27" t="s">
+        <v>532</v>
+      </c>
+      <c r="I27" t="s">
+        <v>533</v>
+      </c>
+      <c r="J27" t="s">
+        <v>534</v>
+      </c>
+      <c r="K27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>549</v>
+      </c>
+      <c r="F28">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G28">
+        <f>菜单!$E$23</f>
+      </c>
+      <c r="H28" t="s">
+        <v>532</v>
+      </c>
+      <c r="I28" t="s">
+        <v>533</v>
+      </c>
+      <c r="J28" t="s">
+        <v>534</v>
+      </c>
+      <c r="K28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>550</v>
+      </c>
+      <c r="F29">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G29">
+        <f>菜单!$E$23</f>
+      </c>
+      <c r="H29" t="s">
+        <v>532</v>
+      </c>
+      <c r="I29" t="s">
+        <v>533</v>
+      </c>
+      <c r="J29" t="s">
+        <v>534</v>
+      </c>
+      <c r="K29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>551</v>
+      </c>
+      <c r="F30">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G30">
+        <f>菜单!$E$24</f>
+      </c>
+      <c r="H30" t="s">
+        <v>532</v>
+      </c>
+      <c r="I30" t="s">
+        <v>533</v>
+      </c>
+      <c r="J30" t="s">
+        <v>534</v>
+      </c>
+      <c r="K30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>552</v>
+      </c>
+      <c r="F31">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G31">
+        <f>菜单!$E$24</f>
+      </c>
+      <c r="H31" t="s">
+        <v>532</v>
+      </c>
+      <c r="I31" t="s">
+        <v>533</v>
+      </c>
+      <c r="J31" t="s">
+        <v>534</v>
+      </c>
+      <c r="K31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>553</v>
+      </c>
+      <c r="F32">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G32">
+        <f>菜单!$E$25</f>
+      </c>
+      <c r="H32" t="s">
+        <v>532</v>
+      </c>
+      <c r="I32" t="s">
+        <v>533</v>
+      </c>
+      <c r="J32" t="s">
+        <v>534</v>
+      </c>
+      <c r="K32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>554</v>
+      </c>
+      <c r="F33">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G33">
+        <f>菜单!$E$25</f>
+      </c>
+      <c r="H33" t="s">
+        <v>532</v>
+      </c>
+      <c r="I33" t="s">
+        <v>533</v>
+      </c>
+      <c r="J33" t="s">
+        <v>534</v>
+      </c>
+      <c r="K33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>555</v>
+      </c>
+      <c r="F34">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G34">
+        <f>菜单!$E$26</f>
+      </c>
+      <c r="H34" t="s">
+        <v>532</v>
+      </c>
+      <c r="I34" t="s">
+        <v>533</v>
+      </c>
+      <c r="J34" t="s">
+        <v>534</v>
+      </c>
+      <c r="K34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>556</v>
+      </c>
+      <c r="F35">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G35">
+        <f>菜单!$E$28</f>
+      </c>
+      <c r="H35" t="s">
+        <v>532</v>
+      </c>
+      <c r="I35" t="s">
+        <v>533</v>
+      </c>
+      <c r="J35" t="s">
+        <v>534</v>
+      </c>
+      <c r="K35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>557</v>
+      </c>
+      <c r="F36">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G36">
+        <f>菜单!$E$31</f>
+      </c>
+      <c r="H36" t="s">
+        <v>532</v>
+      </c>
+      <c r="I36" t="s">
+        <v>533</v>
+      </c>
+      <c r="J36" t="s">
+        <v>534</v>
+      </c>
+      <c r="K36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>558</v>
+      </c>
+      <c r="F37">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G37">
+        <f>菜单!$E$31</f>
+      </c>
+      <c r="H37" t="s">
+        <v>532</v>
+      </c>
+      <c r="I37" t="s">
+        <v>533</v>
+      </c>
+      <c r="J37" t="s">
+        <v>534</v>
+      </c>
+      <c r="K37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>559</v>
+      </c>
+      <c r="F38">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G38">
+        <f>菜单!$E$33</f>
+      </c>
+      <c r="H38" t="s">
+        <v>532</v>
+      </c>
+      <c r="I38" t="s">
+        <v>533</v>
+      </c>
+      <c r="J38" t="s">
+        <v>534</v>
+      </c>
+      <c r="K38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>560</v>
+      </c>
+      <c r="F39">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G39">
+        <f>菜单!$E$33</f>
+      </c>
+      <c r="H39" t="s">
+        <v>532</v>
+      </c>
+      <c r="I39" t="s">
+        <v>533</v>
+      </c>
+      <c r="J39" t="s">
+        <v>534</v>
+      </c>
+      <c r="K39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>561</v>
+      </c>
+      <c r="F40">
         <f>角色权限!$E$8</f>
       </c>
-      <c r="G24">
-        <f>菜单SAAS版!$E$29</f>
-      </c>
-      <c r="H24" t="s">
-        <v>341</v>
-      </c>
-      <c r="I24" t="s">
-        <v>342</v>
-      </c>
-      <c r="J24" t="s">
-        <v>343</v>
+      <c r="G40">
+        <f>菜单!$E$37</f>
+      </c>
+      <c r="H40" t="s">
+        <v>532</v>
+      </c>
+      <c r="I40" t="s">
+        <v>533</v>
+      </c>
+      <c r="J40" t="s">
+        <v>534</v>
+      </c>
+      <c r="K40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>562</v>
+      </c>
+      <c r="F41">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G41">
+        <f>菜单!$E$39</f>
+      </c>
+      <c r="H41" t="s">
+        <v>532</v>
+      </c>
+      <c r="I41" t="s">
+        <v>533</v>
+      </c>
+      <c r="J41" t="s">
+        <v>534</v>
+      </c>
+      <c r="K41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>563</v>
+      </c>
+      <c r="F42">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G42">
+        <f>菜单!$E$49</f>
+      </c>
+      <c r="H42" t="s">
+        <v>532</v>
+      </c>
+      <c r="I42" t="s">
+        <v>533</v>
+      </c>
+      <c r="J42" t="s">
+        <v>534</v>
+      </c>
+      <c r="K42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>564</v>
+      </c>
+      <c r="F43">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G43">
+        <f>菜单!$E$51</f>
+      </c>
+      <c r="H43" t="s">
+        <v>532</v>
+      </c>
+      <c r="I43" t="s">
+        <v>533</v>
+      </c>
+      <c r="J43" t="s">
+        <v>534</v>
+      </c>
+      <c r="K43" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -6814,7 +10000,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6853,66 +10039,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
+        <v>565</v>
       </c>
       <c r="D7" t="s" s="82">
-        <v>356</v>
+        <v>566</v>
       </c>
       <c r="E7" t="s" s="83">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="84">
-        <v>357</v>
+        <v>567</v>
       </c>
       <c r="G7" t="s" s="85">
-        <v>339</v>
+        <v>530</v>
       </c>
       <c r="H7" t="s">
-        <v>358</v>
+        <v>568</v>
       </c>
       <c r="I7" t="s">
-        <v>302</v>
+        <v>494</v>
       </c>
       <c r="J7" t="s">
-        <v>359</v>
+        <v>569</v>
       </c>
       <c r="K7" t="s">
-        <v>360</v>
+        <v>570</v>
       </c>
       <c r="L7" t="s">
-        <v>361</v>
+        <v>571</v>
       </c>
       <c r="M7" t="s">
-        <v>362</v>
+        <v>572</v>
       </c>
       <c r="N7" t="s">
-        <v>363</v>
+        <v>573</v>
       </c>
       <c r="O7" t="s">
-        <v>364</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>365</v>
+        <v>575</v>
       </c>
       <c r="F8" t="s">
-        <v>366</v>
+        <v>576</v>
       </c>
       <c r="G8" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="H8" t="s">
         <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>368</v>
+        <v>578</v>
       </c>
       <c r="J8" t="s">
-        <v>369</v>
+        <v>579</v>
       </c>
       <c r="K8" t="s">
-        <v>369</v>
+        <v>579</v>
       </c>
       <c r="M8" t="s">
         <v>84</v>
@@ -6924,433 +10110,645 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9">
-      <c r="E9" t="s">
-        <v>370</v>
-      </c>
-      <c r="F9" t="s">
-        <v>371</v>
-      </c>
-      <c r="G9" t="s">
-        <v>367</v>
-      </c>
-      <c r="H9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" t="s">
-        <v>368</v>
-      </c>
-      <c r="M9" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" t="s">
-        <v>84</v>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>580</v>
+      </c>
+      <c r="D10" t="s" s="86">
+        <v>581</v>
+      </c>
+      <c r="E10" t="s" s="87">
+        <v>582</v>
+      </c>
+      <c r="F10" t="s" s="88">
+        <v>583</v>
+      </c>
+      <c r="G10" t="s" s="89">
+        <v>584</v>
+      </c>
+      <c r="H10" t="s" s="90">
+        <v>585</v>
+      </c>
+      <c r="I10" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>372</v>
-      </c>
-      <c r="D11" t="s" s="86">
-        <v>373</v>
-      </c>
-      <c r="E11" t="s" s="87">
-        <v>374</v>
-      </c>
-      <c r="F11" t="s" s="88">
-        <v>375</v>
-      </c>
-      <c r="G11" t="s" s="89">
-        <v>376</v>
-      </c>
-      <c r="H11" t="s" s="90">
-        <v>377</v>
+      <c r="E11" t="s">
+        <v>587</v>
+      </c>
+      <c r="F11" t="s">
+        <v>577</v>
+      </c>
+      <c r="G11">
+        <f>菜单!$E$8</f>
+      </c>
+      <c r="H11">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I11" t="s">
-        <v>378</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F12" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G12">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单!$E$9</f>
       </c>
       <c r="H12">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I12" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F13" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G13">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单!$E$10</f>
       </c>
       <c r="H13">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I13" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F14" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G14">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单!$E$11</f>
       </c>
       <c r="H14">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I14" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F15" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G15">
-        <f>菜单SAAS版!$E$14</f>
+        <f>菜单!$E$12</f>
       </c>
       <c r="H15">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I15" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F16" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G16">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单!$E$13</f>
       </c>
       <c r="H16">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I16" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F17" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G17">
-        <f>菜单SAAS版!$E$12</f>
+        <f>菜单!$E$29</f>
       </c>
       <c r="H17">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I17" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F18" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G18">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单!$E$30</f>
       </c>
       <c r="H18">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I18" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F19" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G19">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单!$E$31</f>
       </c>
       <c r="H19">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I19" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F20" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G20">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单!$E$32</f>
       </c>
       <c r="H20">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I20" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F21" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G21">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单!$E$33</f>
       </c>
       <c r="H21">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I21" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F22" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G22">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单!$E$34</f>
       </c>
       <c r="H22">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I22" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F23" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G23">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单!$E$35</f>
       </c>
       <c r="H23">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I23" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F24" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G24">
-        <f>菜单SAAS版!$E$20</f>
+        <f>菜单!$E$36</f>
       </c>
       <c r="H24">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I24" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F25" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G25">
-        <f>菜单SAAS版!$E$25</f>
+        <f>菜单!$E$37</f>
       </c>
       <c r="H25">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I25" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F26" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G26">
-        <f>菜单SAAS版!$E$21</f>
+        <f>菜单!$E$38</f>
       </c>
       <c r="H26">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I26" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F27" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G27">
-        <f>菜单SAAS版!$E$23</f>
+        <f>菜单!$E$39</f>
       </c>
       <c r="H27">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I27" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F28" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G28">
-        <f>菜单SAAS版!$E$22</f>
+        <f>菜单!$E$47</f>
       </c>
       <c r="H28">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I28" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F29" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G29">
-        <f>菜单SAAS版!$E$24</f>
+        <f>菜单!$E$48</f>
       </c>
       <c r="H29">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I29" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F30" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G30">
-        <f>菜单SAAS版!$E$26</f>
+        <f>菜单!$E$49</f>
       </c>
       <c r="H30">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I30" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F31" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G31">
-        <f>菜单SAAS版!$E$28</f>
+        <f>菜单!$E$50</f>
       </c>
       <c r="H31">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I31" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F32" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G32">
-        <f>菜单SAAS版!$E$27</f>
+        <f>菜单!$E$51</f>
       </c>
       <c r="H32">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I32" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="F33" t="s">
-        <v>367</v>
+        <v>577</v>
       </c>
       <c r="G33">
-        <f>菜单SAAS版!$E$29</f>
+        <f>菜单!$E$14</f>
       </c>
       <c r="H33">
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I33" t="s">
-        <v>380</v>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>587</v>
+      </c>
+      <c r="F34" t="s">
+        <v>577</v>
+      </c>
+      <c r="G34">
+        <f>菜单!$E$15</f>
+      </c>
+      <c r="H34">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I34" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>587</v>
+      </c>
+      <c r="F35" t="s">
+        <v>577</v>
+      </c>
+      <c r="G35">
+        <f>菜单!$E$18</f>
+      </c>
+      <c r="H35">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I35" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>587</v>
+      </c>
+      <c r="F36" t="s">
+        <v>577</v>
+      </c>
+      <c r="G36">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="H36">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I36" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>587</v>
+      </c>
+      <c r="F37" t="s">
+        <v>577</v>
+      </c>
+      <c r="G37">
+        <f>菜单!$E$26</f>
+      </c>
+      <c r="H37">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I37" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>587</v>
+      </c>
+      <c r="F38" t="s">
+        <v>577</v>
+      </c>
+      <c r="G38">
+        <f>菜单!$E$40</f>
+      </c>
+      <c r="H38">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I38" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>587</v>
+      </c>
+      <c r="F39" t="s">
+        <v>577</v>
+      </c>
+      <c r="G39">
+        <f>菜单!$E$41</f>
+      </c>
+      <c r="H39">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I39" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>587</v>
+      </c>
+      <c r="F40" t="s">
+        <v>577</v>
+      </c>
+      <c r="G40">
+        <f>菜单!$E$42</f>
+      </c>
+      <c r="H40">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I40" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>587</v>
+      </c>
+      <c r="F41" t="s">
+        <v>577</v>
+      </c>
+      <c r="G41">
+        <f>菜单!$E$43</f>
+      </c>
+      <c r="H41">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I41" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>587</v>
+      </c>
+      <c r="F42" t="s">
+        <v>577</v>
+      </c>
+      <c r="G42">
+        <f>菜单!$E$46</f>
+      </c>
+      <c r="H42">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I42" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>587</v>
+      </c>
+      <c r="F43" t="s">
+        <v>577</v>
+      </c>
+      <c r="G43">
+        <f>菜单!$E$27</f>
+      </c>
+      <c r="H43">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I43" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>587</v>
+      </c>
+      <c r="F44" t="s">
+        <v>577</v>
+      </c>
+      <c r="G44">
+        <f>菜单!$E$28</f>
+      </c>
+      <c r="H44">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I44" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>587</v>
+      </c>
+      <c r="F45" t="s">
+        <v>577</v>
+      </c>
+      <c r="G45">
+        <f>菜单!$E$44</f>
+      </c>
+      <c r="H45">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I45" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>587</v>
+      </c>
+      <c r="F46" t="s">
+        <v>577</v>
+      </c>
+      <c r="G46">
+        <f>菜单!$E$45</f>
+      </c>
+      <c r="H46">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I46" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-iam-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-iam-menu.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\choerodon\choerodon-monitor\src\main\resources\script\db\init-data\hzero_monitor\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CCCC49-6BC8-4811-88AB-D347905C326F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="菜单SAAS版" r:id="rId5" sheetId="2"/>
-    <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
-    <sheet name="角色权限" r:id="rId7" sheetId="4"/>
-    <sheet name="菜单标签数据" r:id="rId8" sheetId="5"/>
+    <sheet name="菜单SAAS版" sheetId="2" r:id="rId2"/>
+    <sheet name="菜单权限" sheetId="3" r:id="rId3"/>
+    <sheet name="角色权限" sheetId="4" r:id="rId4"/>
+    <sheet name="菜单标签数据" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="382">
   <si>
     <r>
       <rPr>
@@ -2430,57 +2431,30 @@
     <t>iam_menu_permission-8</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-line.enableOrDisable</t>
-  </si>
-  <si>
     <t>iam_menu_permission-9</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-line.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-10</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-line.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-11</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-12</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-13</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-14</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-15</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data.selectAuditData</t>
-  </si>
-  <si>
     <t>iam_menu_permission-16</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data.selectAuditDataDetail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-17</t>
   </si>
   <si>
@@ -2490,39 +2464,21 @@
     <t>iam_menu_permission-18</t>
   </si>
   <si>
-    <t>hzero-admin.service-route.pageRoutes</t>
-  </si>
-  <si>
     <t>iam_menu_permission-19</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-20</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config.delete</t>
-  </si>
-  <si>
     <t>iam_menu_permission-21</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config.page</t>
-  </si>
-  <si>
     <t>iam_menu_permission-22</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config.query</t>
-  </si>
-  <si>
     <t>iam_menu_permission-23</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-24</t>
   </si>
   <si>
@@ -2541,15 +2497,9 @@
     <t>iam_menu_permission-27</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-log.page</t>
-  </si>
-  <si>
     <t>iam_menu_permission-28</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-log.query</t>
-  </si>
-  <si>
     <t>iam_menu_permission-29</t>
   </si>
   <si>
@@ -2571,60 +2521,33 @@
     <t>iam_menu_permission-32</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-line-site.enableOrDisable</t>
-  </si>
-  <si>
     <t>iam_menu_permission-33</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-line-site.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-34</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-line-site.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-35</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-site.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-36</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-site.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-37</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-site.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-38</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-site.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-39</t>
   </si>
   <si>
     <t>iam_menu_permission-40</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-site.selectAuditData</t>
-  </si>
-  <si>
     <t>iam_menu_permission-41</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-site.selectAuditDataDetail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-42</t>
   </si>
   <si>
@@ -2658,21 +2581,12 @@
     <t>iam_menu_permission-48</t>
   </si>
   <si>
-    <t>hzero-admin.service-route-site-level.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-49</t>
   </si>
   <si>
-    <t>hzero-admin.service-route-site-level.detailById</t>
-  </si>
-  <si>
     <t>iam_menu_permission-50</t>
   </si>
   <si>
-    <t>hzero-admin.service-route-site-level.pageRoutes</t>
-  </si>
-  <si>
     <t>iam_menu_permission-51</t>
   </si>
   <si>
@@ -2697,33 +2611,18 @@
     <t>iam_menu_permission-57</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config-site.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-58</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config-site.delete</t>
-  </si>
-  <si>
     <t>iam_menu_permission-59</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config-site.page</t>
-  </si>
-  <si>
     <t>iam_menu_permission-60</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config-site.query</t>
-  </si>
-  <si>
     <t>iam_menu_permission-61</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config-site.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-62</t>
   </si>
   <si>
@@ -2736,15 +2635,9 @@
     <t>iam_menu_permission-65</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-log-site.page</t>
-  </si>
-  <si>
     <t>iam_menu_permission-66</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-log-site.query</t>
-  </si>
-  <si>
     <t>角色</t>
   </si>
   <si>
@@ -2989,13 +2882,124 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-line.enableOrDisable</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-line.list</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-line.update</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config.create</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config.detail</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config.list</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config.update</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data.selectAuditData</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data.selectAuditDataDetail</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config.create</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config.delete</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config.page</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config.query</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config.update</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-log.page</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-log.query</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-line-site.enableOrDisable</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-line-site.list</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-line-site.update</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-site.create</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-site.detail</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-site.list</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-site.update</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-site.selectAuditData</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-site.selectAuditDataDetail</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config-site.create</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config-site.delete</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config-site.page</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config-site.query</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config-site.update</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-log-site.page</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-log-site.query</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-route.pageRoutes</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-route-site-level.create</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-route-site-level.detailById</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-route-site-level.pageRoutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="77">
     <font>
       <sz val="12"/>
@@ -3115,299 +3119,359 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3548,7 +3612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3600,6 +3664,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3615,69 +3737,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4017,36 +4082,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4055,21 +4120,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4180,11 +4245,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -4222,19 +4287,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="85"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="85"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -4258,39 +4323,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:25">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:25">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4300,13 +4365,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="60">
+      <c r="D7" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="61">
+      <c r="E7" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="62">
+      <c r="F7" s="56" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4318,10 +4383,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s" s="63">
+      <c r="J7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="64">
+      <c r="K7" s="58" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4342,7 +4407,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" t="s" s="65">
+      <c r="R7" s="59" t="s">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4367,7 +4432,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -4420,7 +4485,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>87</v>
       </c>
@@ -4439,8 +4504,9 @@
       <c r="J9" t="s">
         <v>80</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="str">
         <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
         <v>92</v>
@@ -4470,7 +4536,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>95</v>
       </c>
@@ -4489,8 +4555,9 @@
       <c r="J10" t="s">
         <v>80</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
         <v>100</v>
@@ -4523,7 +4590,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>103</v>
       </c>
@@ -4542,8 +4609,9 @@
       <c r="J11" t="s">
         <v>80</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="str">
         <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="L11" t="s">
         <v>107</v>
@@ -4576,7 +4644,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>110</v>
       </c>
@@ -4595,8 +4663,9 @@
       <c r="J12" t="s">
         <v>80</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L12" t="s">
         <v>100</v>
@@ -4629,7 +4698,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>116</v>
       </c>
@@ -4648,8 +4717,9 @@
       <c r="J13" t="s">
         <v>80</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="str">
         <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="L13" t="s">
         <v>107</v>
@@ -4685,7 +4755,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>119</v>
       </c>
@@ -4704,8 +4774,9 @@
       <c r="J14" t="s">
         <v>80</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="str">
         <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L14" t="s">
         <v>92</v>
@@ -4738,7 +4809,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>125</v>
       </c>
@@ -4757,8 +4828,9 @@
       <c r="J15" t="s">
         <v>80</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="str">
         <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="L15" t="s">
         <v>100</v>
@@ -4794,7 +4866,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>131</v>
       </c>
@@ -4813,8 +4885,9 @@
       <c r="J16" t="s">
         <v>80</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="str">
         <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="L16" t="s">
         <v>107</v>
@@ -4844,7 +4917,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:24">
       <c r="E17" t="s">
         <v>134</v>
       </c>
@@ -4863,8 +4936,9 @@
       <c r="J17" t="s">
         <v>80</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="str">
         <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="L17" t="s">
         <v>100</v>
@@ -4900,7 +4974,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:24">
       <c r="E18" t="s">
         <v>141</v>
       </c>
@@ -4919,8 +4993,9 @@
       <c r="J18" t="s">
         <v>80</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="str">
         <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="L18" t="s">
         <v>107</v>
@@ -4950,7 +5025,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:24">
       <c r="E19" t="s">
         <v>144</v>
       </c>
@@ -5003,7 +5078,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:24">
       <c r="E20" t="s">
         <v>149</v>
       </c>
@@ -5022,8 +5097,9 @@
       <c r="J20" t="s">
         <v>147</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="L20" t="s">
         <v>92</v>
@@ -5053,7 +5129,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:24">
       <c r="E21" t="s">
         <v>154</v>
       </c>
@@ -5072,8 +5148,9 @@
       <c r="J21" t="s">
         <v>147</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="L21" t="s">
         <v>100</v>
@@ -5106,7 +5183,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:24">
       <c r="E22" t="s">
         <v>158</v>
       </c>
@@ -5125,8 +5202,9 @@
       <c r="J22" t="s">
         <v>147</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="L22" t="s">
         <v>107</v>
@@ -5159,7 +5237,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:24">
       <c r="E23" t="s">
         <v>161</v>
       </c>
@@ -5178,8 +5256,9 @@
       <c r="J23" t="s">
         <v>147</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="L23" t="s">
         <v>100</v>
@@ -5212,7 +5291,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:24">
       <c r="E24" t="s">
         <v>165</v>
       </c>
@@ -5231,8 +5310,9 @@
       <c r="J24" t="s">
         <v>147</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="str">
         <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-23</v>
       </c>
       <c r="L24" t="s">
         <v>107</v>
@@ -5262,7 +5342,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:24">
       <c r="E25" t="s">
         <v>170</v>
       </c>
@@ -5281,8 +5361,9 @@
       <c r="J25" t="s">
         <v>147</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="L25" t="s">
         <v>92</v>
@@ -5315,7 +5396,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:24">
       <c r="E26" t="s">
         <v>174</v>
       </c>
@@ -5334,8 +5415,9 @@
       <c r="J26" t="s">
         <v>147</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="L26" t="s">
         <v>100</v>
@@ -5371,7 +5453,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:24">
       <c r="E27" t="s">
         <v>178</v>
       </c>
@@ -5390,8 +5472,9 @@
       <c r="J27" t="s">
         <v>147</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L27" t="s">
         <v>107</v>
@@ -5424,7 +5507,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:24">
       <c r="E28" t="s">
         <v>181</v>
       </c>
@@ -5443,8 +5526,9 @@
       <c r="J28" t="s">
         <v>147</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="L28" t="s">
         <v>100</v>
@@ -5480,7 +5564,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:24">
       <c r="E29" t="s">
         <v>186</v>
       </c>
@@ -5499,8 +5583,9 @@
       <c r="J29" t="s">
         <v>147</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="str">
         <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-28</v>
       </c>
       <c r="L29" t="s">
         <v>107</v>
@@ -5531,44 +5616,50 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="39">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s" s="40">
+    <row r="1" spans="1:7">
+      <c r="A1" s="90" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="41">
+      <c r="C1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="42">
+      <c r="D1" s="36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="43">
+    <row r="4" spans="1:7">
+      <c r="E4" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="44">
+      <c r="F4" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="45">
+      <c r="G4" s="39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5578,707 +5669,767 @@
       <c r="C7" t="s">
         <v>189</v>
       </c>
-      <c r="D7" t="s" s="66">
+      <c r="D7" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="E7" t="s" s="67">
+      <c r="E7" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="68">
+      <c r="F7" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="G7" t="s" s="69">
+      <c r="G7" s="63" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>193</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="str">
         <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G8" t="s">
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G8" s="91" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="E9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="s">
+      <c r="F9" t="str">
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="E10" t="s">
         <v>195</v>
       </c>
-      <c r="F9">
+      <c r="F10" t="str">
         <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G9" t="s">
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="s">
+      <c r="F11" t="str">
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="E12" t="s">
         <v>197</v>
       </c>
-      <c r="F10">
+      <c r="F12" t="str">
         <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G10" t="s">
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="E13" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s">
+      <c r="F13" t="str">
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" t="s">
         <v>199</v>
       </c>
-      <c r="F11">
+      <c r="F14" t="str">
         <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G11" t="s">
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
+      <c r="F15" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="E16" t="s">
         <v>201</v>
       </c>
-      <c r="F12">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G12" t="s">
+      <c r="F16" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
+      <c r="F17" t="str">
+        <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
+      </c>
+      <c r="G17" t="s">
         <v>203</v>
       </c>
-      <c r="F13">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="s">
+      <c r="F18" t="str">
+        <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" t="s">
         <v>205</v>
       </c>
-      <c r="F14">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G14" t="s">
+      <c r="F19" t="str">
+        <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="s">
+      <c r="F20" t="str">
+        <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" t="s">
         <v>207</v>
       </c>
-      <c r="F15">
-        <f>菜单SAAS版!$E$13</f>
-      </c>
-      <c r="G15" t="s">
+      <c r="F21" t="str">
+        <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="s">
+      <c r="F22" t="str">
+        <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23" t="s">
         <v>209</v>
       </c>
-      <c r="F16">
-        <f>菜单SAAS版!$E$13</f>
-      </c>
-      <c r="G16" t="s">
+      <c r="F23" t="str">
+        <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="s">
+      <c r="F24" t="str">
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="G24" t="s">
         <v>211</v>
       </c>
-      <c r="F17">
-        <f>菜单SAAS版!$E$16</f>
-      </c>
-      <c r="G17" t="s">
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="s">
+      <c r="F25" t="str">
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="G25" t="s">
         <v>213</v>
       </c>
-      <c r="F18">
-        <f>菜单SAAS版!$E$16</f>
-      </c>
-      <c r="G18" t="s">
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="s">
+      <c r="F26" t="str">
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
+      <c r="E27" t="s">
         <v>215</v>
       </c>
-      <c r="F19">
-        <f>菜单SAAS版!$E$16</f>
-      </c>
-      <c r="G19" t="s">
+      <c r="F27" t="str">
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7">
+      <c r="E28" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="s">
+      <c r="F28" t="str">
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7">
+      <c r="E29" t="s">
         <v>217</v>
       </c>
-      <c r="F20">
-        <f>菜单SAAS版!$E$16</f>
-      </c>
-      <c r="G20" t="s">
+      <c r="F29" t="str">
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
+      </c>
+      <c r="G29" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="21">
-      <c r="E21" t="s">
+    <row r="30" spans="5:7">
+      <c r="E30" t="s">
         <v>219</v>
       </c>
-      <c r="F21">
-        <f>菜单SAAS版!$E$16</f>
-      </c>
-      <c r="G21" t="s">
+      <c r="F30" t="str">
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
+      </c>
+      <c r="G30" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="22">
-      <c r="E22" t="s">
+    <row r="31" spans="5:7">
+      <c r="E31" t="s">
         <v>221</v>
       </c>
-      <c r="F22">
-        <f>菜单SAAS版!$E$16</f>
-      </c>
-      <c r="G22" t="s">
+      <c r="F31" t="str">
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
+      </c>
+      <c r="G31" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="23">
-      <c r="E23" t="s">
+    <row r="32" spans="5:7">
+      <c r="E32" t="s">
         <v>223</v>
       </c>
-      <c r="F23">
-        <f>菜单SAAS版!$E$16</f>
-      </c>
-      <c r="G23" t="s">
+      <c r="F32" t="str">
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7">
+      <c r="E33" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="s">
+      <c r="F33" t="str">
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7">
+      <c r="E34" t="s">
         <v>225</v>
       </c>
-      <c r="F24">
-        <f>菜单SAAS版!$E$18</f>
-      </c>
-      <c r="G24" t="s">
+      <c r="F34" t="str">
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7">
+      <c r="E35" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="s">
+      <c r="F35" t="str">
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="E36" t="s">
         <v>227</v>
       </c>
-      <c r="F25">
-        <f>菜单SAAS版!$E$18</f>
-      </c>
-      <c r="G25" t="s">
+      <c r="F36" t="str">
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7">
+      <c r="E37" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="s">
+      <c r="F37" t="str">
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7">
+      <c r="E38" t="s">
         <v>229</v>
       </c>
-      <c r="F26">
-        <f>菜单SAAS版!$E$18</f>
-      </c>
-      <c r="G26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" t="s">
+      <c r="F38" t="str">
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="E39" t="s">
         <v>230</v>
       </c>
-      <c r="F27">
-        <f>菜单SAAS版!$E$18</f>
-      </c>
-      <c r="G27" t="s">
+      <c r="F39" t="str">
+        <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7">
+      <c r="E40" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="E28" t="s">
+      <c r="F40" t="str">
+        <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7">
+      <c r="E41" t="s">
         <v>232</v>
       </c>
-      <c r="F28">
-        <f>菜单SAAS版!$E$18</f>
-      </c>
-      <c r="G28" t="s">
+      <c r="F41" t="str">
+        <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7">
+      <c r="E42" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="E29" t="s">
+      <c r="F42" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G42" t="s">
         <v>234</v>
       </c>
-      <c r="F29">
-        <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="G29" t="s">
+    </row>
+    <row r="43" spans="5:7">
+      <c r="E43" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="E30" t="s">
+      <c r="F43" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7">
+      <c r="E44" t="s">
         <v>236</v>
       </c>
-      <c r="F30">
-        <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="G30" t="s">
+      <c r="F44" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7">
+      <c r="E45" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F45" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G45" t="s">
         <v>238</v>
       </c>
-      <c r="F31">
-        <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="G31" t="s">
+    </row>
+    <row r="46" spans="5:7">
+      <c r="E46" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
+      <c r="F46" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G46" t="s">
         <v>240</v>
       </c>
-      <c r="F32">
-        <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="G32" t="s">
+    </row>
+    <row r="47" spans="5:7">
+      <c r="E47" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
+      <c r="F47" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G47" t="s">
         <v>242</v>
       </c>
-      <c r="F33">
-        <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="G33" t="s">
+    </row>
+    <row r="48" spans="5:7">
+      <c r="E48" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
+      <c r="F48" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G48" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7">
+      <c r="E49" t="s">
         <v>244</v>
       </c>
-      <c r="F34">
-        <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="G34" t="s">
+      <c r="F49" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7">
+      <c r="E50" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
+      <c r="F50" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7">
+      <c r="E51" t="s">
         <v>246</v>
       </c>
-      <c r="F35">
-        <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="G35" t="s">
+      <c r="F51" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G51" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="36">
-      <c r="E36" t="s">
+    <row r="52" spans="5:7">
+      <c r="E52" t="s">
         <v>248</v>
       </c>
-      <c r="F36">
-        <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="G36" t="s">
+      <c r="F52" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7">
+      <c r="E53" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
+      <c r="F53" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7">
+      <c r="E54" t="s">
         <v>250</v>
       </c>
-      <c r="F37">
-        <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="G37" t="s">
+      <c r="F54" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G54" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7">
+      <c r="E55" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
+      <c r="F55" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G55" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7">
+      <c r="E56" t="s">
         <v>252</v>
       </c>
-      <c r="F38">
-        <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="G38" t="s">
+      <c r="F56" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G56" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7">
+      <c r="E57" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
+      <c r="F57" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G57" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7">
+      <c r="E58" t="s">
         <v>254</v>
       </c>
-      <c r="F39">
-        <f>菜单SAAS版!$E$24</f>
-      </c>
-      <c r="G39" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="E40" t="s">
+      <c r="F58" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G58" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7">
+      <c r="E59" t="s">
         <v>255</v>
       </c>
-      <c r="F40">
-        <f>菜单SAAS版!$E$24</f>
-      </c>
-      <c r="G40" t="s">
+      <c r="F59" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7">
+      <c r="E60" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="E41" t="s">
+      <c r="F60" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G60" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7">
+      <c r="E61" t="s">
         <v>257</v>
       </c>
-      <c r="F41">
-        <f>菜单SAAS版!$E$24</f>
-      </c>
-      <c r="G41" t="s">
+      <c r="F61" t="str">
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="G61" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7">
+      <c r="E62" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="E42" t="s">
+      <c r="F62" t="str">
+        <f>菜单SAAS版!$E$29</f>
+        <v>iam_menu-29</v>
+      </c>
+      <c r="G62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7">
+      <c r="E63" t="s">
         <v>259</v>
       </c>
-      <c r="F42">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G42" t="s">
+      <c r="F63" t="str">
+        <f>菜单SAAS版!$E$29</f>
+        <v>iam_menu-29</v>
+      </c>
+      <c r="G63" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7">
+      <c r="E64" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="E43" t="s">
+      <c r="F64" t="str">
+        <f>菜单SAAS版!$E$29</f>
+        <v>iam_menu-29</v>
+      </c>
+      <c r="G64" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7">
+      <c r="E65" t="s">
         <v>261</v>
       </c>
-      <c r="F43">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="E44" t="s">
+      <c r="F65" t="str">
+        <f>菜单SAAS版!$E$29</f>
+        <v>iam_menu-29</v>
+      </c>
+      <c r="G65" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7">
+      <c r="E66" t="s">
         <v>262</v>
       </c>
-      <c r="F44">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G44" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="E45" t="s">
-        <v>263</v>
-      </c>
-      <c r="F45">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G45" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="E46" t="s">
-        <v>265</v>
-      </c>
-      <c r="F46">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G46" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="E47" t="s">
-        <v>267</v>
-      </c>
-      <c r="F47">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G47" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="E48" t="s">
-        <v>269</v>
-      </c>
-      <c r="F48">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G48" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="E49" t="s">
-        <v>271</v>
-      </c>
-      <c r="F49">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G49" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="E50" t="s">
-        <v>273</v>
-      </c>
-      <c r="F50">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G50" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="E51" t="s">
-        <v>275</v>
-      </c>
-      <c r="F51">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G51" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>277</v>
-      </c>
-      <c r="F52">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G52" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>278</v>
-      </c>
-      <c r="F53">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G53" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>279</v>
-      </c>
-      <c r="F54">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G54" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>280</v>
-      </c>
-      <c r="F55">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G55" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>281</v>
-      </c>
-      <c r="F56">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G56" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>282</v>
-      </c>
-      <c r="F57">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G57" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>284</v>
-      </c>
-      <c r="F58">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G58" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>286</v>
-      </c>
-      <c r="F59">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G59" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>288</v>
-      </c>
-      <c r="F60">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G60" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>290</v>
-      </c>
-      <c r="F61">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="G61" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>292</v>
-      </c>
-      <c r="F62">
+      <c r="F66" t="str">
         <f>菜单SAAS版!$E$29</f>
-      </c>
-      <c r="G62" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="E63" t="s">
-        <v>293</v>
-      </c>
-      <c r="F63">
-        <f>菜单SAAS版!$E$29</f>
-      </c>
-      <c r="G63" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="E64" t="s">
-        <v>294</v>
-      </c>
-      <c r="F64">
-        <f>菜单SAAS版!$E$29</f>
-      </c>
-      <c r="G64" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="E65" t="s">
-        <v>295</v>
-      </c>
-      <c r="F65">
-        <f>菜单SAAS版!$E$29</f>
-      </c>
-      <c r="G65" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="E66" t="s">
-        <v>297</v>
-      </c>
-      <c r="F66">
-        <f>菜单SAAS版!$E$29</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="G66" t="s">
-        <v>298</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="46">
+    <row r="1" spans="1:25">
+      <c r="A1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="47">
+      <c r="B1" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="48">
+      <c r="C1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="49">
+      <c r="D1" s="43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="50">
+    <row r="4" spans="1:25">
+      <c r="E4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="51">
+      <c r="F4" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="52">
+      <c r="G4" s="46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -6286,12 +6437,12 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7" t="s" s="70">
-        <v>300</v>
-      </c>
-      <c r="E7" t="s" s="71">
+        <v>263</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" s="65" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -6300,76 +6451,76 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s" s="72">
+      <c r="H7" s="66" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="J7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K7" t="s" s="73">
+        <v>266</v>
+      </c>
+      <c r="K7" s="67" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M7" t="s" s="74">
-        <v>304</v>
-      </c>
-      <c r="N7" t="s" s="75">
-        <v>305</v>
+        <v>267</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="N7" s="69" t="s">
+        <v>269</v>
       </c>
       <c r="O7" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="P7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="Q7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="R7" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="S7" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="T7" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>312</v>
-      </c>
-      <c r="W7" t="s" s="76">
-        <v>313</v>
+        <v>276</v>
+      </c>
+      <c r="W7" s="70" t="s">
+        <v>277</v>
       </c>
       <c r="X7" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="Y7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="F8" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="G8" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="H8" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="I8" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="J8" t="s">
         <v>147</v>
@@ -6405,30 +6556,30 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="V8" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="F9" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="G9" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="H9" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="I9" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="J9" t="s">
         <v>80</v>
@@ -6464,27 +6615,27 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="V9" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="G10" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="H10" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="J10" t="s">
         <v>80</v>
@@ -6495,8 +6646,9 @@
       <c r="L10" t="s">
         <v>81</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="str">
         <f>角色权限!$E$9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
         <v>80</v>
@@ -6520,22 +6672,22 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="V10" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="Y10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -6543,309 +6695,334 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>333</v>
-      </c>
-      <c r="D12" t="s" s="77">
-        <v>334</v>
-      </c>
-      <c r="E12" t="s" s="78">
+        <v>297</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s" s="79">
-        <v>335</v>
-      </c>
-      <c r="G12" t="s" s="80">
-        <v>336</v>
+      <c r="F12" s="73" t="s">
+        <v>299</v>
+      </c>
+      <c r="G12" s="74" t="s">
+        <v>300</v>
       </c>
       <c r="H12" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="I12" t="s">
-        <v>338</v>
-      </c>
-      <c r="J12" t="s" s="81">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>302</v>
+      </c>
+      <c r="J12" s="75" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
-        <v>340</v>
-      </c>
-      <c r="F13">
+        <v>304</v>
+      </c>
+      <c r="F13" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G13">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G13" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H13" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="I13" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="J13" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
-        <v>344</v>
-      </c>
-      <c r="F14">
+        <v>308</v>
+      </c>
+      <c r="F14" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G14">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G14" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H14" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="I14" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="J14" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
-        <v>345</v>
-      </c>
-      <c r="F15">
+        <v>309</v>
+      </c>
+      <c r="F15" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G15">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G15" t="str">
         <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H15" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="I15" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="J15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
-        <v>346</v>
-      </c>
-      <c r="F16">
+        <v>310</v>
+      </c>
+      <c r="F16" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G16">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G16" t="str">
         <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H16" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="I16" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="J16" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>347</v>
-      </c>
-      <c r="F17">
+        <v>311</v>
+      </c>
+      <c r="F17" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G17">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G17" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H17" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="I17" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="J17" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>348</v>
-      </c>
-      <c r="F18">
+        <v>312</v>
+      </c>
+      <c r="F18" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G18">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G18" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H18" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="I18" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="J18" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>349</v>
-      </c>
-      <c r="F19">
+        <v>313</v>
+      </c>
+      <c r="F19" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G19">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G19" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="H19" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="I19" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="J19" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>350</v>
-      </c>
-      <c r="F20">
+        <v>314</v>
+      </c>
+      <c r="F20" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G20">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G20" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="H20" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="I20" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="J20" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>351</v>
-      </c>
-      <c r="F21">
+        <v>315</v>
+      </c>
+      <c r="F21" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G21">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G21" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="H21" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="I21" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="J21" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>352</v>
-      </c>
-      <c r="F22">
+        <v>316</v>
+      </c>
+      <c r="F22" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G22">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G22" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="H22" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="I22" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="J22" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>353</v>
-      </c>
-      <c r="F23">
+        <v>317</v>
+      </c>
+      <c r="F23" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G23">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G23" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="H23" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="I23" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="J23" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>354</v>
-      </c>
-      <c r="F24">
+        <v>318</v>
+      </c>
+      <c r="F24" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G24">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G24" t="str">
         <f>菜单SAAS版!$E$29</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="H24" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="I24" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="J24" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="53">
+    <row r="1" spans="1:15">
+      <c r="A1" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="54">
+      <c r="B1" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="55">
+      <c r="C1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="56">
+      <c r="D1" s="50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="57">
+    <row r="4" spans="1:15">
+      <c r="E4" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="58">
+      <c r="F4" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="59">
+      <c r="G4" s="53" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -6853,66 +7030,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
-      </c>
-      <c r="D7" t="s" s="82">
-        <v>356</v>
-      </c>
-      <c r="E7" t="s" s="83">
+        <v>319</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>320</v>
+      </c>
+      <c r="E7" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="84">
-        <v>357</v>
-      </c>
-      <c r="G7" t="s" s="85">
-        <v>339</v>
+      <c r="F7" s="78" t="s">
+        <v>321</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>303</v>
       </c>
       <c r="H7" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="I7" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="J7" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="K7" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="L7" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="M7" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="N7" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="O7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="F8" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="G8" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="H8" t="s">
         <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="J8" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="K8" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="M8" t="s">
         <v>84</v>
@@ -6924,21 +7101,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="F9" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="G9" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="H9" t="s">
         <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="M9" t="s">
         <v>81</v>
@@ -6950,7 +7127,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -6958,402 +7135,448 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>372</v>
-      </c>
-      <c r="D11" t="s" s="86">
-        <v>373</v>
-      </c>
-      <c r="E11" t="s" s="87">
-        <v>374</v>
-      </c>
-      <c r="F11" t="s" s="88">
-        <v>375</v>
-      </c>
-      <c r="G11" t="s" s="89">
-        <v>376</v>
-      </c>
-      <c r="H11" t="s" s="90">
-        <v>377</v>
+        <v>336</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>339</v>
+      </c>
+      <c r="G11" s="83" t="s">
+        <v>340</v>
+      </c>
+      <c r="H11" s="84" t="s">
+        <v>341</v>
       </c>
       <c r="I11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F12" t="s">
-        <v>367</v>
-      </c>
-      <c r="G12">
+        <v>331</v>
+      </c>
+      <c r="G12" t="str">
         <f>菜单SAAS版!$E$8</f>
-      </c>
-      <c r="H12">
+        <v>iam_menu-8</v>
+      </c>
+      <c r="H12" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I12" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F13" t="s">
-        <v>367</v>
-      </c>
-      <c r="G13">
+        <v>331</v>
+      </c>
+      <c r="G13" t="str">
         <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="H13">
+        <v>iam_menu-19</v>
+      </c>
+      <c r="H13" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I13" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F14" t="s">
-        <v>367</v>
-      </c>
-      <c r="G14">
+        <v>331</v>
+      </c>
+      <c r="G14" t="str">
         <f>菜单SAAS版!$E$9</f>
-      </c>
-      <c r="H14">
+        <v>iam_menu-9</v>
+      </c>
+      <c r="H14" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I14" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F15" t="s">
-        <v>367</v>
-      </c>
-      <c r="G15">
+        <v>331</v>
+      </c>
+      <c r="G15" t="str">
         <f>菜单SAAS版!$E$14</f>
-      </c>
-      <c r="H15">
+        <v>iam_menu-14</v>
+      </c>
+      <c r="H15" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I15" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F16" t="s">
-        <v>367</v>
-      </c>
-      <c r="G16">
+        <v>331</v>
+      </c>
+      <c r="G16" t="str">
         <f>菜单SAAS版!$E$10</f>
-      </c>
-      <c r="H16">
+        <v>iam_menu-10</v>
+      </c>
+      <c r="H16" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F17" t="s">
-        <v>367</v>
-      </c>
-      <c r="G17">
+        <v>331</v>
+      </c>
+      <c r="G17" t="str">
         <f>菜单SAAS版!$E$12</f>
-      </c>
-      <c r="H17">
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H17" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F18" t="s">
-        <v>367</v>
-      </c>
-      <c r="G18">
+        <v>331</v>
+      </c>
+      <c r="G18" t="str">
         <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="H18">
+        <v>iam_menu-11</v>
+      </c>
+      <c r="H18" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F19" t="s">
-        <v>367</v>
-      </c>
-      <c r="G19">
+        <v>331</v>
+      </c>
+      <c r="G19" t="str">
         <f>菜单SAAS版!$E$13</f>
-      </c>
-      <c r="H19">
+        <v>iam_menu-13</v>
+      </c>
+      <c r="H19" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F20" t="s">
-        <v>367</v>
-      </c>
-      <c r="G20">
+        <v>331</v>
+      </c>
+      <c r="G20" t="str">
         <f>菜单SAAS版!$E$15</f>
-      </c>
-      <c r="H20">
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H20" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F21" t="s">
-        <v>367</v>
-      </c>
-      <c r="G21">
+        <v>331</v>
+      </c>
+      <c r="G21" t="str">
         <f>菜单SAAS版!$E$17</f>
-      </c>
-      <c r="H21">
+        <v>iam_menu-17</v>
+      </c>
+      <c r="H21" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I21" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F22" t="s">
-        <v>367</v>
-      </c>
-      <c r="G22">
+        <v>331</v>
+      </c>
+      <c r="G22" t="str">
         <f>菜单SAAS版!$E$16</f>
-      </c>
-      <c r="H22">
+        <v>iam_menu-16</v>
+      </c>
+      <c r="H22" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F23" t="s">
-        <v>367</v>
-      </c>
-      <c r="G23">
+        <v>331</v>
+      </c>
+      <c r="G23" t="str">
         <f>菜单SAAS版!$E$18</f>
-      </c>
-      <c r="H23">
+        <v>iam_menu-18</v>
+      </c>
+      <c r="H23" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I23" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F24" t="s">
-        <v>367</v>
-      </c>
-      <c r="G24">
+        <v>331</v>
+      </c>
+      <c r="G24" t="str">
         <f>菜单SAAS版!$E$20</f>
-      </c>
-      <c r="H24">
+        <v>iam_menu-20</v>
+      </c>
+      <c r="H24" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I24" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F25" t="s">
-        <v>367</v>
-      </c>
-      <c r="G25">
+        <v>331</v>
+      </c>
+      <c r="G25" t="str">
         <f>菜单SAAS版!$E$25</f>
-      </c>
-      <c r="H25">
+        <v>iam_menu-25</v>
+      </c>
+      <c r="H25" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I25" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F26" t="s">
-        <v>367</v>
-      </c>
-      <c r="G26">
+        <v>331</v>
+      </c>
+      <c r="G26" t="str">
         <f>菜单SAAS版!$E$21</f>
-      </c>
-      <c r="H26">
+        <v>iam_menu-21</v>
+      </c>
+      <c r="H26" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I26" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F27" t="s">
-        <v>367</v>
-      </c>
-      <c r="G27">
+        <v>331</v>
+      </c>
+      <c r="G27" t="str">
         <f>菜单SAAS版!$E$23</f>
-      </c>
-      <c r="H27">
+        <v>iam_menu-23</v>
+      </c>
+      <c r="H27" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I27" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F28" t="s">
-        <v>367</v>
-      </c>
-      <c r="G28">
+        <v>331</v>
+      </c>
+      <c r="G28" t="str">
         <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="H28">
+        <v>iam_menu-22</v>
+      </c>
+      <c r="H28" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I28" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F29" t="s">
-        <v>367</v>
-      </c>
-      <c r="G29">
+        <v>331</v>
+      </c>
+      <c r="G29" t="str">
         <f>菜单SAAS版!$E$24</f>
-      </c>
-      <c r="H29">
+        <v>iam_menu-24</v>
+      </c>
+      <c r="H29" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F30" t="s">
-        <v>367</v>
-      </c>
-      <c r="G30">
+        <v>331</v>
+      </c>
+      <c r="G30" t="str">
         <f>菜单SAAS版!$E$26</f>
-      </c>
-      <c r="H30">
+        <v>iam_menu-26</v>
+      </c>
+      <c r="H30" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F31" t="s">
-        <v>367</v>
-      </c>
-      <c r="G31">
+        <v>331</v>
+      </c>
+      <c r="G31" t="str">
         <f>菜单SAAS版!$E$28</f>
-      </c>
-      <c r="H31">
+        <v>iam_menu-28</v>
+      </c>
+      <c r="H31" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I31" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F32" t="s">
-        <v>367</v>
-      </c>
-      <c r="G32">
+        <v>331</v>
+      </c>
+      <c r="G32" t="str">
         <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="H32">
+        <v>iam_menu-27</v>
+      </c>
+      <c r="H32" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I32" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="F33" t="s">
-        <v>367</v>
-      </c>
-      <c r="G33">
+        <v>331</v>
+      </c>
+      <c r="G33" t="str">
         <f>菜单SAAS版!$E$29</f>
-      </c>
-      <c r="H33">
+        <v>iam_menu-29</v>
+      </c>
+      <c r="H33" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I33" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-iam-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-iam-menu.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\choerodon\choerodon-monitor\src\main\resources\script\db\init-data\hzero_monitor\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F074EA-7F70-4B4D-BC1E-3A1CB29FF18D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="菜单" r:id="rId5" sheetId="2"/>
-    <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
-    <sheet name="角色权限" r:id="rId7" sheetId="4"/>
-    <sheet name="菜单标签数据" r:id="rId8" sheetId="5"/>
+    <sheet name="菜单" sheetId="2" r:id="rId2"/>
+    <sheet name="菜单权限" sheetId="3" r:id="rId3"/>
+    <sheet name="角色权限" sheetId="4" r:id="rId4"/>
+    <sheet name="菜单标签数据" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -2724,87 +2725,45 @@
     <t>iam_menu_permission-9</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-line.enableOrDisable</t>
-  </si>
-  <si>
     <t>iam_menu_permission-10</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-line.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-11</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-line.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-12</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-13</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-14</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-15</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-16</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config.updateSingle</t>
-  </si>
-  <si>
     <t>iam_menu_permission-17</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-relationship.createRel</t>
-  </si>
-  <si>
     <t>iam_menu_permission-18</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-relationship.deleteRel</t>
-  </si>
-  <si>
     <t>iam_menu_permission-19</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-relationship.listDataOperation</t>
-  </si>
-  <si>
     <t>iam_menu_permission-20</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data.exportAuditData</t>
-  </si>
-  <si>
     <t>iam_menu_permission-21</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data.selectAuditData</t>
-  </si>
-  <si>
     <t>iam_menu_permission-22</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data.selectAuditDataDetail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-23</t>
   </si>
   <si>
@@ -2814,21 +2773,12 @@
     <t>iam_menu_permission-24</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document-log.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-25</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document-log.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-26</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document-log.summary</t>
-  </si>
-  <si>
     <t>iam_menu_permission-27</t>
   </si>
   <si>
@@ -2838,81 +2788,42 @@
     <t>iam_menu_permission-28</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document.addAuditOp</t>
-  </si>
-  <si>
     <t>iam_menu_permission-29</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document.copy</t>
-  </si>
-  <si>
     <t>iam_menu_permission-30</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-31</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document.deleteAuditOp</t>
-  </si>
-  <si>
     <t>iam_menu_permission-32</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-33</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document.detailOp</t>
-  </si>
-  <si>
     <t>iam_menu_permission-34</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-35</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document.listAuditOpData</t>
-  </si>
-  <si>
     <t>iam_menu_permission-36</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document.page</t>
-  </si>
-  <si>
     <t>iam_menu_permission-37</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document.remove</t>
-  </si>
-  <si>
     <t>iam_menu_permission-38</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document.saveAuditOpData</t>
-  </si>
-  <si>
     <t>iam_menu_permission-39</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-40</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config.pageAuditOpConfig</t>
-  </si>
-  <si>
     <t>iam_menu_permission-41</t>
   </si>
   <si>
@@ -2943,45 +2854,24 @@
     <t>iam_menu_permission-47</t>
   </si>
   <si>
-    <t>hzero-admin.service-route.pageRoutes</t>
-  </si>
-  <si>
     <t>iam_menu_permission-48</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-49</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config.delete</t>
-  </si>
-  <si>
     <t>iam_menu_permission-50</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config.page</t>
-  </si>
-  <si>
     <t>iam_menu_permission-51</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config.query</t>
-  </si>
-  <si>
     <t>iam_menu_permission-52</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-53</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-relationship.listOperationData</t>
-  </si>
-  <si>
     <t>iam_menu_permission-54</t>
   </si>
   <si>
@@ -3006,21 +2896,12 @@
     <t>iam_menu_permission-59</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-log.export</t>
-  </si>
-  <si>
     <t>iam_menu_permission-60</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-log.page</t>
-  </si>
-  <si>
     <t>iam_menu_permission-61</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-log.query</t>
-  </si>
-  <si>
     <t>iam_menu_permission-62</t>
   </si>
   <si>
@@ -3039,159 +2920,87 @@
     <t>iam_menu_permission-65</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-line-site.enableOrDisable</t>
-  </si>
-  <si>
     <t>iam_menu_permission-66</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-line-site.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-67</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-line-site.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-68</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-site.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-69</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-site.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-70</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-site.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-71</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-config-site.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-72</t>
   </si>
   <si>
     <t>iam_menu_permission-73</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-site.exportAuditData</t>
-  </si>
-  <si>
     <t>iam_menu_permission-74</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-site.selectAuditData</t>
-  </si>
-  <si>
     <t>iam_menu_permission-75</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-data-site.selectAuditDataDetail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-76</t>
   </si>
   <si>
     <t>iam_menu_permission-77</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document-site.addAuditOp</t>
-  </si>
-  <si>
     <t>iam_menu_permission-78</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document-site.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-79</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document-site.deleteAuditOp</t>
-  </si>
-  <si>
     <t>iam_menu_permission-80</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document-site.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-81</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document-site.detailOp</t>
-  </si>
-  <si>
     <t>iam_menu_permission-82</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document-site.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-83</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document-site.remove</t>
-  </si>
-  <si>
     <t>iam_menu_permission-84</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document-site.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-85</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config-site.pageAuditOpConfig</t>
-  </si>
-  <si>
     <t>iam_menu_permission-86</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config-site.query</t>
-  </si>
-  <si>
     <t>iam_menu_permission-87</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-relationship-site.listOperationData</t>
-  </si>
-  <si>
     <t>iam_menu_permission-88</t>
   </si>
   <si>
     <t>iam_menu_permission-89</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document-log-site.summary</t>
-  </si>
-  <si>
     <t>iam_menu_permission-90</t>
   </si>
   <si>
     <t>iam_menu_permission-91</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document-log-site.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-92</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-document-log-site.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-93</t>
   </si>
   <si>
@@ -3216,39 +3025,21 @@
     <t>iam_menu_permission-99</t>
   </si>
   <si>
-    <t>hzero-admin-test.service-route-site-level.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-100</t>
   </si>
   <si>
-    <t>hzero-admin-test.service-route-site-level.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-101</t>
   </si>
   <si>
-    <t>hzero-admin-test.service-route-site-level.pageRoutes</t>
-  </si>
-  <si>
     <t>iam_menu_permission-102</t>
   </si>
   <si>
-    <t>hzero-admin.service-route-site-level.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-103</t>
   </si>
   <si>
-    <t>hzero-admin.service-route-site-level.detailById</t>
-  </si>
-  <si>
     <t>iam_menu_permission-104</t>
   </si>
   <si>
-    <t>hzero-admin.service-route-site-level.pageRoutes</t>
-  </si>
-  <si>
     <t>iam_menu_permission-105</t>
   </si>
   <si>
@@ -3273,30 +3064,18 @@
     <t>iam_menu_permission-111</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config-site.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-112</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config-site.delete</t>
-  </si>
-  <si>
     <t>iam_menu_permission-113</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config-site.page</t>
-  </si>
-  <si>
     <t>iam_menu_permission-114</t>
   </si>
   <si>
     <t>iam_menu_permission-115</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-config-site.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-116</t>
   </si>
   <si>
@@ -3312,15 +3091,9 @@
     <t>iam_menu_permission-120</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-log-site.page</t>
-  </si>
-  <si>
     <t>iam_menu_permission-121</t>
   </si>
   <si>
-    <t>hzero-monitor.audit-op-log-site.query</t>
-  </si>
-  <si>
     <t>角色</t>
   </si>
   <si>
@@ -3613,13 +3386,240 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-route.pageRoutes</t>
+  </si>
+  <si>
+    <t>choerodon-admin-test.service-route-site-level.create</t>
+  </si>
+  <si>
+    <t>choerodon-admin-test.service-route-site-level.detail</t>
+  </si>
+  <si>
+    <t>choerodon-admin-test.service-route-site-level.pageRoutes</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-route-site-level.create</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-route-site-level.detailById</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-route-site-level.pageRoutes</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-line.enableOrDisable</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-line.list</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-line.update</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config.create</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config.detail</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config.list</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config.update</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config.updateSingle</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-relationship.createRel</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-relationship.deleteRel</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-relationship.listDataOperation</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data.exportAuditData</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data.selectAuditData</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data.selectAuditDataDetail</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document-log.detail</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document-log.list</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document-log.summary</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document.addAuditOp</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document.copy</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document.create</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document.deleteAuditOp</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document.detail</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document.detailOp</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document.list</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document.listAuditOpData</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document.page</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document.remove</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document.saveAuditOpData</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document.update</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config.pageAuditOpConfig</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config.create</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config.delete</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config.page</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config.query</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config.update</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-relationship.listOperationData</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-log.export</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-log.page</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-log.query</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-line-site.enableOrDisable</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-line-site.list</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-line-site.update</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-site.create</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-site.detail</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-site.list</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-config-site.update</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-site.exportAuditData</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-site.selectAuditData</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-data-site.selectAuditDataDetail</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document-site.addAuditOp</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document-site.create</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document-site.deleteAuditOp</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document-site.detail</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document-site.detailOp</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document-site.list</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document-site.remove</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document-site.update</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config-site.pageAuditOpConfig</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config-site.query</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-relationship-site.listOperationData</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document-log-site.summary</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document-log-site.detail</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-document-log-site.list</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config-site.create</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config-site.delete</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config-site.page</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-config-site.update</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-log-site.page</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-log-site.query</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="77">
     <font>
       <sz val="12"/>
@@ -3739,299 +3739,358 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4224,6 +4283,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4239,69 +4357,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4641,36 +4700,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4679,21 +4738,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="86"/>
+      <c r="E3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4804,11 +4863,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -4846,19 +4905,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="86"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="86"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -4882,39 +4941,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:25">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:25">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4924,13 +4983,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="60">
+      <c r="D7" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="61">
+      <c r="E7" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="62">
+      <c r="F7" s="57" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4942,10 +5001,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s" s="63">
+      <c r="J7" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="64">
+      <c r="K7" s="59" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4966,7 +5025,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" t="s" s="65">
+      <c r="R7" s="60" t="s">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4991,7 +5050,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -5044,7 +5103,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>87</v>
       </c>
@@ -5063,8 +5122,9 @@
       <c r="J9" t="s">
         <v>80</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="str">
         <f>菜单!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
         <v>92</v>
@@ -5094,7 +5154,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>95</v>
       </c>
@@ -5113,8 +5173,9 @@
       <c r="J10" t="s">
         <v>80</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="str">
         <f>菜单!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
         <v>100</v>
@@ -5147,7 +5208,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>103</v>
       </c>
@@ -5166,8 +5227,9 @@
       <c r="J11" t="s">
         <v>80</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="str">
         <f>菜单!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="L11" t="s">
         <v>107</v>
@@ -5200,7 +5262,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>110</v>
       </c>
@@ -5219,8 +5281,9 @@
       <c r="J12" t="s">
         <v>80</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="str">
         <f>菜单!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L12" t="s">
         <v>100</v>
@@ -5253,7 +5316,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>116</v>
       </c>
@@ -5272,8 +5335,9 @@
       <c r="J13" t="s">
         <v>80</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="str">
         <f>菜单!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="L13" t="s">
         <v>107</v>
@@ -5309,7 +5373,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>119</v>
       </c>
@@ -5325,8 +5389,9 @@
       <c r="J14" t="s">
         <v>80</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="str">
         <f>菜单!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L14" t="s">
         <v>92</v>
@@ -5359,7 +5424,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>125</v>
       </c>
@@ -5378,8 +5443,9 @@
       <c r="J15" t="s">
         <v>80</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="str">
         <f>菜单!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="L15" t="s">
         <v>100</v>
@@ -5415,7 +5481,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>133</v>
       </c>
@@ -5431,8 +5497,9 @@
       <c r="J16" t="s">
         <v>80</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="str">
         <f>菜单!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="L16" t="s">
         <v>107</v>
@@ -5465,7 +5532,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:24">
       <c r="E17" t="s">
         <v>138</v>
       </c>
@@ -5481,8 +5548,9 @@
       <c r="J17" t="s">
         <v>80</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="str">
         <f>菜单!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="L17" t="s">
         <v>107</v>
@@ -5515,7 +5583,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:24">
       <c r="E18" t="s">
         <v>142</v>
       </c>
@@ -5531,8 +5599,9 @@
       <c r="J18" t="s">
         <v>80</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="str">
         <f>菜单!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="L18" t="s">
         <v>107</v>
@@ -5565,7 +5634,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:24">
       <c r="E19" t="s">
         <v>146</v>
       </c>
@@ -5584,8 +5653,9 @@
       <c r="J19" t="s">
         <v>80</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="str">
         <f>菜单!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="L19" t="s">
         <v>100</v>
@@ -5621,7 +5691,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:24">
       <c r="E20" t="s">
         <v>154</v>
       </c>
@@ -5637,8 +5707,9 @@
       <c r="J20" t="s">
         <v>80</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="str">
         <f>菜单!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="L20" t="s">
         <v>107</v>
@@ -5671,7 +5742,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:24">
       <c r="E21" t="s">
         <v>158</v>
       </c>
@@ -5687,8 +5758,9 @@
       <c r="J21" t="s">
         <v>80</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="str">
         <f>菜单!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="L21" t="s">
         <v>107</v>
@@ -5721,7 +5793,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:24">
       <c r="E22" t="s">
         <v>162</v>
       </c>
@@ -5737,8 +5809,9 @@
       <c r="J22" t="s">
         <v>80</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="str">
         <f>菜单!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="L22" t="s">
         <v>107</v>
@@ -5771,7 +5844,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:24">
       <c r="E23" t="s">
         <v>166</v>
       </c>
@@ -5787,8 +5860,9 @@
       <c r="J23" t="s">
         <v>80</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="str">
         <f>菜单!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="L23" t="s">
         <v>107</v>
@@ -5821,7 +5895,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:24">
       <c r="E24" t="s">
         <v>170</v>
       </c>
@@ -5837,8 +5911,9 @@
       <c r="J24" t="s">
         <v>80</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="str">
         <f>菜单!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="L24" t="s">
         <v>107</v>
@@ -5871,7 +5946,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:24">
       <c r="E25" t="s">
         <v>174</v>
       </c>
@@ -5887,8 +5962,9 @@
       <c r="J25" t="s">
         <v>80</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="str">
         <f>菜单!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="L25" t="s">
         <v>107</v>
@@ -5921,7 +5997,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:24">
       <c r="E26" t="s">
         <v>178</v>
       </c>
@@ -5937,8 +6013,9 @@
       <c r="J26" t="s">
         <v>80</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="str">
         <f>菜单!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="L26" t="s">
         <v>107</v>
@@ -5971,7 +6048,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:24">
       <c r="E27" t="s">
         <v>181</v>
       </c>
@@ -5990,8 +6067,9 @@
       <c r="J27" t="s">
         <v>80</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="str">
         <f>菜单!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="L27" t="s">
         <v>100</v>
@@ -6027,7 +6105,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:24">
       <c r="E28" t="s">
         <v>189</v>
       </c>
@@ -6043,8 +6121,9 @@
       <c r="J28" t="s">
         <v>80</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="str">
         <f>菜单!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="L28" t="s">
         <v>107</v>
@@ -6077,7 +6156,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:24">
       <c r="E29" t="s">
         <v>192</v>
       </c>
@@ -6096,8 +6175,9 @@
       <c r="J29" t="s">
         <v>80</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="str">
         <f>菜单!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L29" t="s">
         <v>92</v>
@@ -6130,7 +6210,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:24">
       <c r="E30" t="s">
         <v>198</v>
       </c>
@@ -6149,8 +6229,9 @@
       <c r="J30" t="s">
         <v>80</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="str">
         <f>菜单!$E$29</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="L30" t="s">
         <v>100</v>
@@ -6186,7 +6267,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="5:24">
       <c r="E31" t="s">
         <v>204</v>
       </c>
@@ -6205,8 +6286,9 @@
       <c r="J31" t="s">
         <v>80</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="str">
         <f>菜单!$E$30</f>
+        <v>iam_menu-30</v>
       </c>
       <c r="L31" t="s">
         <v>107</v>
@@ -6236,7 +6318,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="5:24">
       <c r="E32" t="s">
         <v>207</v>
       </c>
@@ -6255,8 +6337,9 @@
       <c r="J32" t="s">
         <v>80</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="str">
         <f>菜单!$E$29</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="L32" t="s">
         <v>100</v>
@@ -6292,7 +6375,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:24">
       <c r="E33" t="s">
         <v>214</v>
       </c>
@@ -6311,8 +6394,9 @@
       <c r="J33" t="s">
         <v>80</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="str">
         <f>菜单!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="L33" t="s">
         <v>107</v>
@@ -6342,7 +6426,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:24">
       <c r="E34" t="s">
         <v>217</v>
       </c>
@@ -6395,7 +6479,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:24">
       <c r="E35" t="s">
         <v>222</v>
       </c>
@@ -6414,8 +6498,9 @@
       <c r="J35" t="s">
         <v>220</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="str">
         <f>菜单!$E$34</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="L35" t="s">
         <v>92</v>
@@ -6445,7 +6530,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:24">
       <c r="E36" t="s">
         <v>226</v>
       </c>
@@ -6464,8 +6549,9 @@
       <c r="J36" t="s">
         <v>220</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="str">
         <f>菜单!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L36" t="s">
         <v>100</v>
@@ -6498,7 +6584,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:24">
       <c r="E37" t="s">
         <v>230</v>
       </c>
@@ -6517,8 +6603,9 @@
       <c r="J37" t="s">
         <v>220</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="str">
         <f>菜单!$E$36</f>
+        <v>iam_menu-36</v>
       </c>
       <c r="L37" t="s">
         <v>107</v>
@@ -6551,7 +6638,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:24">
       <c r="E38" t="s">
         <v>233</v>
       </c>
@@ -6570,8 +6657,9 @@
       <c r="J38" t="s">
         <v>220</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="str">
         <f>菜单!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L38" t="s">
         <v>100</v>
@@ -6604,7 +6692,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:24">
       <c r="E39" t="s">
         <v>237</v>
       </c>
@@ -6623,8 +6711,9 @@
       <c r="J39" t="s">
         <v>220</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="str">
         <f>菜单!$E$38</f>
+        <v>iam_menu-38</v>
       </c>
       <c r="L39" t="s">
         <v>107</v>
@@ -6654,7 +6743,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:24">
       <c r="E40" t="s">
         <v>242</v>
       </c>
@@ -6673,8 +6762,9 @@
       <c r="J40" t="s">
         <v>220</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="str">
         <f>菜单!$E$34</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="L40" t="s">
         <v>92</v>
@@ -6707,7 +6797,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:24">
       <c r="E41" t="s">
         <v>248</v>
       </c>
@@ -6726,8 +6816,9 @@
       <c r="J41" t="s">
         <v>220</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="str">
         <f>菜单!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="L41" t="s">
         <v>100</v>
@@ -6763,7 +6854,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:24">
       <c r="E42" t="s">
         <v>251</v>
       </c>
@@ -6779,8 +6870,9 @@
       <c r="J42" t="s">
         <v>220</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="str">
         <f>菜单!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="L42" t="s">
         <v>107</v>
@@ -6813,7 +6905,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:24">
       <c r="E43" t="s">
         <v>254</v>
       </c>
@@ -6832,8 +6924,9 @@
       <c r="J43" t="s">
         <v>220</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="str">
         <f>菜单!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="L43" t="s">
         <v>100</v>
@@ -6869,7 +6962,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:24">
       <c r="E44" t="s">
         <v>257</v>
       </c>
@@ -6885,8 +6978,9 @@
       <c r="J44" t="s">
         <v>220</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="str">
         <f>菜单!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="L44" t="s">
         <v>100</v>
@@ -6922,7 +7016,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="5:24">
       <c r="E45" t="s">
         <v>260</v>
       </c>
@@ -6938,8 +7032,9 @@
       <c r="J45" t="s">
         <v>220</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="str">
         <f>菜单!$E$44</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="L45" t="s">
         <v>107</v>
@@ -6972,7 +7067,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:24">
       <c r="E46" t="s">
         <v>263</v>
       </c>
@@ -6988,8 +7083,9 @@
       <c r="J46" t="s">
         <v>220</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="str">
         <f>菜单!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="L46" t="s">
         <v>107</v>
@@ -7022,7 +7118,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="5:24">
       <c r="E47" t="s">
         <v>266</v>
       </c>
@@ -7041,8 +7137,9 @@
       <c r="J47" t="s">
         <v>220</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="str">
         <f>菜单!$E$34</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="L47" t="s">
         <v>92</v>
@@ -7075,7 +7172,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:24">
       <c r="E48" t="s">
         <v>270</v>
       </c>
@@ -7094,8 +7191,9 @@
       <c r="J48" t="s">
         <v>220</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="str">
         <f>菜单!$E$47</f>
+        <v>iam_menu-47</v>
       </c>
       <c r="L48" t="s">
         <v>100</v>
@@ -7131,7 +7229,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="5:24">
       <c r="E49" t="s">
         <v>274</v>
       </c>
@@ -7150,8 +7248,9 @@
       <c r="J49" t="s">
         <v>220</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="str">
         <f>菜单!$E$48</f>
+        <v>iam_menu-48</v>
       </c>
       <c r="L49" t="s">
         <v>107</v>
@@ -7184,7 +7283,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="5:24">
       <c r="E50" t="s">
         <v>277</v>
       </c>
@@ -7203,8 +7302,9 @@
       <c r="J50" t="s">
         <v>220</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="str">
         <f>菜单!$E$47</f>
+        <v>iam_menu-47</v>
       </c>
       <c r="L50" t="s">
         <v>100</v>
@@ -7240,7 +7340,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="5:24">
       <c r="E51" t="s">
         <v>281</v>
       </c>
@@ -7259,8 +7359,9 @@
       <c r="J51" t="s">
         <v>220</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="str">
         <f>菜单!$E$50</f>
+        <v>iam_menu-50</v>
       </c>
       <c r="L51" t="s">
         <v>107</v>
@@ -7291,44 +7392,50 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="39">
+    <row r="1" spans="1:8">
+      <c r="A1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="40">
+      <c r="B1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="41">
+      <c r="C1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="42">
+      <c r="D1" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="43">
+    <row r="4" spans="1:8">
+      <c r="E4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="44">
+      <c r="F4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="45">
+      <c r="G4" s="40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7338,28 +7445,29 @@
       <c r="C7" t="s">
         <v>284</v>
       </c>
-      <c r="D7" t="s" s="66">
+      <c r="D7" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="E7" t="s" s="67">
+      <c r="E7" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="68">
+      <c r="F7" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="G7" t="s" s="69">
+      <c r="G7" s="64" t="s">
         <v>287</v>
       </c>
       <c r="H7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="E8" t="s">
         <v>289</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="str">
         <f>菜单!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G8" t="s">
         <v>290</v>
@@ -7368,1627 +7476,1741 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="E9" t="s">
         <v>291</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="str">
         <f>菜单!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G9" t="s">
+        <v>520</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="E10" t="s">
         <v>292</v>
       </c>
-      <c r="H9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="s">
+      <c r="F10" t="str">
+        <f>菜单!$E$11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>521</v>
+      </c>
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="E11" t="s">
         <v>293</v>
       </c>
-      <c r="F10">
+      <c r="F11" t="str">
         <f>菜单!$E$11</f>
-      </c>
-      <c r="G10" t="s">
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>522</v>
+      </c>
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="E12" t="s">
         <v>294</v>
       </c>
-      <c r="H10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s">
+      <c r="F12" t="str">
+        <f>菜单!$E$11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>523</v>
+      </c>
+      <c r="H12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="E13" t="s">
         <v>295</v>
       </c>
-      <c r="F11">
+      <c r="F13" t="str">
         <f>菜单!$E$11</f>
-      </c>
-      <c r="G11" t="s">
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>524</v>
+      </c>
+      <c r="H13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="E14" t="s">
         <v>296</v>
       </c>
-      <c r="H11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
+      <c r="F14" t="str">
+        <f>菜单!$E$11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>525</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="E15" t="s">
         <v>297</v>
       </c>
-      <c r="F12">
+      <c r="F15" t="str">
         <f>菜单!$E$11</f>
-      </c>
-      <c r="G12" t="s">
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>526</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="E16" t="s">
         <v>298</v>
       </c>
-      <c r="H12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
+      <c r="F16" t="str">
+        <f>菜单!$E$11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>527</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8">
+      <c r="E17" t="s">
         <v>299</v>
       </c>
-      <c r="F13">
+      <c r="F17" t="str">
         <f>菜单!$E$11</f>
-      </c>
-      <c r="G13" t="s">
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>528</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="E18" t="s">
         <v>300</v>
       </c>
-      <c r="H13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="s">
+      <c r="F18" t="str">
+        <f>菜单!$E$11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>529</v>
+      </c>
+      <c r="H18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="E19" t="s">
         <v>301</v>
       </c>
-      <c r="F14">
+      <c r="F19" t="str">
         <f>菜单!$E$11</f>
-      </c>
-      <c r="G14" t="s">
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>530</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" t="s">
         <v>302</v>
       </c>
-      <c r="H14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="s">
+      <c r="F20" t="str">
+        <f>菜单!$E$13</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>531</v>
+      </c>
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="E21" t="s">
         <v>303</v>
       </c>
-      <c r="F15">
-        <f>菜单!$E$11</f>
-      </c>
-      <c r="G15" t="s">
+      <c r="F21" t="str">
+        <f>菜单!$E$13</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>532</v>
+      </c>
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8">
+      <c r="E22" t="s">
         <v>304</v>
       </c>
-      <c r="H15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="s">
+      <c r="F22" t="str">
+        <f>菜单!$E$13</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>533</v>
+      </c>
+      <c r="H22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8">
+      <c r="E23" t="s">
         <v>305</v>
       </c>
-      <c r="F16">
-        <f>菜单!$E$11</f>
-      </c>
-      <c r="G16" t="s">
+      <c r="F23" t="str">
+        <f>菜单!$E$18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="G23" t="s">
         <v>306</v>
       </c>
-      <c r="H16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="s">
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8">
+      <c r="E24" t="s">
         <v>307</v>
       </c>
-      <c r="F17">
-        <f>菜单!$E$11</f>
-      </c>
-      <c r="G17" t="s">
+      <c r="F24" t="str">
+        <f>菜单!$E$18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>534</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="E25" t="s">
         <v>308</v>
       </c>
-      <c r="H17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="s">
+      <c r="F25" t="str">
+        <f>菜单!$E$18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>535</v>
+      </c>
+      <c r="H25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8">
+      <c r="E26" t="s">
         <v>309</v>
       </c>
-      <c r="F18">
-        <f>菜单!$E$11</f>
-      </c>
-      <c r="G18" t="s">
+      <c r="F26" t="str">
+        <f>菜单!$E$18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>536</v>
+      </c>
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8">
+      <c r="E27" t="s">
         <v>310</v>
       </c>
-      <c r="H18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="s">
+      <c r="F27" t="str">
+        <f>菜单!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="G27" t="s">
         <v>311</v>
       </c>
-      <c r="F19">
-        <f>菜单!$E$11</f>
-      </c>
-      <c r="G19" t="s">
+      <c r="H27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8">
+      <c r="E28" t="s">
         <v>312</v>
       </c>
-      <c r="H19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="s">
+      <c r="F28" t="str">
+        <f>菜单!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>537</v>
+      </c>
+      <c r="H28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8">
+      <c r="E29" t="s">
         <v>313</v>
       </c>
-      <c r="F20">
-        <f>菜单!$E$13</f>
-      </c>
-      <c r="G20" t="s">
+      <c r="F29" t="str">
+        <f>菜单!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>538</v>
+      </c>
+      <c r="H29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8">
+      <c r="E30" t="s">
         <v>314</v>
       </c>
-      <c r="H20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="s">
+      <c r="F30" t="str">
+        <f>菜单!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>539</v>
+      </c>
+      <c r="H30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8">
+      <c r="E31" t="s">
         <v>315</v>
       </c>
-      <c r="F21">
-        <f>菜单!$E$13</f>
-      </c>
-      <c r="G21" t="s">
+      <c r="F31" t="str">
+        <f>菜单!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>540</v>
+      </c>
+      <c r="H31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8">
+      <c r="E32" t="s">
         <v>316</v>
       </c>
-      <c r="H21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s">
+      <c r="F32" t="str">
+        <f>菜单!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>541</v>
+      </c>
+      <c r="H32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8">
+      <c r="E33" t="s">
         <v>317</v>
       </c>
-      <c r="F22">
-        <f>菜单!$E$13</f>
-      </c>
-      <c r="G22" t="s">
+      <c r="F33" t="str">
+        <f>菜单!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>542</v>
+      </c>
+      <c r="H33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8">
+      <c r="E34" t="s">
         <v>318</v>
       </c>
-      <c r="H22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="s">
+      <c r="F34" t="str">
+        <f>菜单!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>543</v>
+      </c>
+      <c r="H34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8">
+      <c r="E35" t="s">
         <v>319</v>
       </c>
-      <c r="F23">
-        <f>菜单!$E$18</f>
-      </c>
-      <c r="G23" t="s">
+      <c r="F35" t="str">
+        <f>菜单!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>544</v>
+      </c>
+      <c r="H35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="E36" t="s">
         <v>320</v>
       </c>
-      <c r="H23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="s">
+      <c r="F36" t="str">
+        <f>菜单!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>545</v>
+      </c>
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8">
+      <c r="E37" t="s">
         <v>321</v>
       </c>
-      <c r="F24">
-        <f>菜单!$E$18</f>
-      </c>
-      <c r="G24" t="s">
+      <c r="F37" t="str">
+        <f>菜单!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>546</v>
+      </c>
+      <c r="H37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8">
+      <c r="E38" t="s">
         <v>322</v>
       </c>
-      <c r="H24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="s">
+      <c r="F38" t="str">
+        <f>菜单!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>547</v>
+      </c>
+      <c r="H38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8">
+      <c r="E39" t="s">
         <v>323</v>
       </c>
-      <c r="F25">
-        <f>菜单!$E$18</f>
-      </c>
-      <c r="G25" t="s">
+      <c r="F39" t="str">
+        <f>菜单!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>548</v>
+      </c>
+      <c r="H39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8">
+      <c r="E40" t="s">
         <v>324</v>
       </c>
-      <c r="H25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="s">
+      <c r="F40" t="str">
+        <f>菜单!$E$26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>549</v>
+      </c>
+      <c r="H40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8">
+      <c r="E41" t="s">
         <v>325</v>
       </c>
-      <c r="F26">
-        <f>菜单!$E$18</f>
-      </c>
-      <c r="G26" t="s">
+      <c r="F41" t="str">
+        <f>菜单!$E$28</f>
+        <v>iam_menu-28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>306</v>
+      </c>
+      <c r="H41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8">
+      <c r="E42" t="s">
         <v>326</v>
       </c>
-      <c r="H26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" t="s">
+      <c r="F42" t="str">
+        <f>菜单!$E$28</f>
+        <v>iam_menu-28</v>
+      </c>
+      <c r="G42" t="s">
+        <v>536</v>
+      </c>
+      <c r="H42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8">
+      <c r="E43" t="s">
         <v>327</v>
       </c>
-      <c r="F27">
-        <f>菜单!$E$26</f>
-      </c>
-      <c r="G27" t="s">
+      <c r="F43" t="str">
+        <f>菜单!$E$31</f>
+        <v>iam_menu-31</v>
+      </c>
+      <c r="G43" t="s">
         <v>328</v>
       </c>
-      <c r="H27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="E28" t="s">
+      <c r="H43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8">
+      <c r="E44" t="s">
         <v>329</v>
       </c>
-      <c r="F28">
-        <f>菜单!$E$26</f>
-      </c>
-      <c r="G28" t="s">
+      <c r="F44" t="str">
+        <f>菜单!$E$31</f>
+        <v>iam_menu-31</v>
+      </c>
+      <c r="G44" t="s">
         <v>330</v>
       </c>
-      <c r="H28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="E29" t="s">
+      <c r="H44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8">
+      <c r="E45" t="s">
         <v>331</v>
       </c>
-      <c r="F29">
-        <f>菜单!$E$26</f>
-      </c>
-      <c r="G29" t="s">
+      <c r="F45" t="str">
+        <f>菜单!$E$31</f>
+        <v>iam_menu-31</v>
+      </c>
+      <c r="G45" t="s">
+        <v>306</v>
+      </c>
+      <c r="H45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8">
+      <c r="E46" t="s">
         <v>332</v>
       </c>
-      <c r="H29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="E30" t="s">
+      <c r="F46" t="str">
+        <f>菜单!$E$31</f>
+        <v>iam_menu-31</v>
+      </c>
+      <c r="G46" t="s">
         <v>333</v>
       </c>
-      <c r="F30">
-        <f>菜单!$E$26</f>
-      </c>
-      <c r="G30" t="s">
+      <c r="H46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8">
+      <c r="E47" t="s">
         <v>334</v>
       </c>
-      <c r="H30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F47" t="str">
+        <f>菜单!$E$31</f>
+        <v>iam_menu-31</v>
+      </c>
+      <c r="G47" t="s">
+        <v>513</v>
+      </c>
+      <c r="H47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8">
+      <c r="E48" t="s">
         <v>335</v>
       </c>
-      <c r="F31">
-        <f>菜单!$E$26</f>
-      </c>
-      <c r="G31" t="s">
+      <c r="F48" t="str">
+        <f>菜单!$E$31</f>
+        <v>iam_menu-31</v>
+      </c>
+      <c r="G48" t="s">
+        <v>550</v>
+      </c>
+      <c r="H48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8">
+      <c r="E49" t="s">
         <v>336</v>
       </c>
-      <c r="H31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
+      <c r="F49" t="str">
+        <f>菜单!$E$31</f>
+        <v>iam_menu-31</v>
+      </c>
+      <c r="G49" t="s">
+        <v>551</v>
+      </c>
+      <c r="H49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8">
+      <c r="E50" t="s">
         <v>337</v>
       </c>
-      <c r="F32">
-        <f>菜单!$E$26</f>
-      </c>
-      <c r="G32" t="s">
+      <c r="F50" t="str">
+        <f>菜单!$E$31</f>
+        <v>iam_menu-31</v>
+      </c>
+      <c r="G50" t="s">
+        <v>552</v>
+      </c>
+      <c r="H50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8">
+      <c r="E51" t="s">
         <v>338</v>
       </c>
-      <c r="H32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
+      <c r="F51" t="str">
+        <f>菜单!$E$31</f>
+        <v>iam_menu-31</v>
+      </c>
+      <c r="G51" t="s">
+        <v>553</v>
+      </c>
+      <c r="H51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8">
+      <c r="E52" t="s">
         <v>339</v>
       </c>
-      <c r="F33">
-        <f>菜单!$E$26</f>
-      </c>
-      <c r="G33" t="s">
+      <c r="F52" t="str">
+        <f>菜单!$E$31</f>
+        <v>iam_menu-31</v>
+      </c>
+      <c r="G52" t="s">
+        <v>554</v>
+      </c>
+      <c r="H52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8">
+      <c r="E53" t="s">
         <v>340</v>
       </c>
-      <c r="H33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
+      <c r="F53" t="str">
+        <f>菜单!$E$31</f>
+        <v>iam_menu-31</v>
+      </c>
+      <c r="G53" t="s">
+        <v>555</v>
+      </c>
+      <c r="H53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="5:8">
+      <c r="E54" t="s">
         <v>341</v>
       </c>
-      <c r="F34">
-        <f>菜单!$E$26</f>
-      </c>
-      <c r="G34" t="s">
+      <c r="F54" t="str">
+        <f>菜单!$E$33</f>
+        <v>iam_menu-33</v>
+      </c>
+      <c r="G54" t="s">
+        <v>330</v>
+      </c>
+      <c r="H54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8">
+      <c r="E55" t="s">
         <v>342</v>
       </c>
-      <c r="H34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
+      <c r="F55" t="str">
+        <f>菜单!$E$33</f>
+        <v>iam_menu-33</v>
+      </c>
+      <c r="G55" t="s">
         <v>343</v>
       </c>
-      <c r="F35">
-        <f>菜单!$E$26</f>
-      </c>
-      <c r="G35" t="s">
+      <c r="H55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="5:8">
+      <c r="E56" t="s">
         <v>344</v>
       </c>
-      <c r="H35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
+      <c r="F56" t="str">
+        <f>菜单!$E$33</f>
+        <v>iam_menu-33</v>
+      </c>
+      <c r="G56" t="s">
+        <v>306</v>
+      </c>
+      <c r="H56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8">
+      <c r="E57" t="s">
         <v>345</v>
       </c>
-      <c r="F36">
-        <f>菜单!$E$26</f>
-      </c>
-      <c r="G36" t="s">
+      <c r="F57" t="str">
+        <f>菜单!$E$33</f>
+        <v>iam_menu-33</v>
+      </c>
+      <c r="G57" t="s">
         <v>346</v>
       </c>
-      <c r="H36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
+      <c r="H57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="5:8">
+      <c r="E58" t="s">
         <v>347</v>
       </c>
-      <c r="F37">
-        <f>菜单!$E$26</f>
-      </c>
-      <c r="G37" t="s">
+      <c r="F58" t="str">
+        <f>菜单!$E$33</f>
+        <v>iam_menu-33</v>
+      </c>
+      <c r="G58" t="s">
+        <v>513</v>
+      </c>
+      <c r="H58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="5:8">
+      <c r="E59" t="s">
         <v>348</v>
       </c>
-      <c r="H37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
+      <c r="F59" t="str">
+        <f>菜单!$E$33</f>
+        <v>iam_menu-33</v>
+      </c>
+      <c r="G59" t="s">
+        <v>556</v>
+      </c>
+      <c r="H59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8">
+      <c r="E60" t="s">
         <v>349</v>
       </c>
-      <c r="F38">
-        <f>菜单!$E$26</f>
-      </c>
-      <c r="G38" t="s">
+      <c r="F60" t="str">
+        <f>菜单!$E$33</f>
+        <v>iam_menu-33</v>
+      </c>
+      <c r="G60" t="s">
+        <v>557</v>
+      </c>
+      <c r="H60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="5:8">
+      <c r="E61" t="s">
         <v>350</v>
       </c>
-      <c r="H38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
+      <c r="F61" t="str">
+        <f>菜单!$E$33</f>
+        <v>iam_menu-33</v>
+      </c>
+      <c r="G61" t="s">
+        <v>558</v>
+      </c>
+      <c r="H61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="5:8">
+      <c r="E62" t="s">
         <v>351</v>
       </c>
-      <c r="F39">
-        <f>菜单!$E$26</f>
-      </c>
-      <c r="G39" t="s">
+      <c r="F62" t="str">
+        <f>菜单!$E$37</f>
+        <v>iam_menu-37</v>
+      </c>
+      <c r="G62" t="s">
+        <v>311</v>
+      </c>
+      <c r="H62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="5:8">
+      <c r="E63" t="s">
         <v>352</v>
       </c>
-      <c r="H39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="E40" t="s">
+      <c r="F63" t="str">
+        <f>菜单!$E$37</f>
+        <v>iam_menu-37</v>
+      </c>
+      <c r="G63" t="s">
         <v>353</v>
       </c>
-      <c r="F40">
-        <f>菜单!$E$26</f>
-      </c>
-      <c r="G40" t="s">
+      <c r="H63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="5:8">
+      <c r="E64" t="s">
         <v>354</v>
       </c>
-      <c r="H40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="E41" t="s">
+      <c r="F64" t="str">
+        <f>菜单!$E$37</f>
+        <v>iam_menu-37</v>
+      </c>
+      <c r="G64" t="s">
         <v>355</v>
       </c>
-      <c r="F41">
-        <f>菜单!$E$28</f>
-      </c>
-      <c r="G41" t="s">
-        <v>320</v>
-      </c>
-      <c r="H41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="E42" t="s">
+      <c r="H64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8">
+      <c r="E65" t="s">
         <v>356</v>
       </c>
-      <c r="F42">
-        <f>菜单!$E$28</f>
-      </c>
-      <c r="G42" t="s">
-        <v>326</v>
-      </c>
-      <c r="H42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="E43" t="s">
+      <c r="F65" t="str">
+        <f>菜单!$E$37</f>
+        <v>iam_menu-37</v>
+      </c>
+      <c r="G65" t="s">
+        <v>559</v>
+      </c>
+      <c r="H65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8">
+      <c r="E66" t="s">
         <v>357</v>
       </c>
-      <c r="F43">
-        <f>菜单!$E$31</f>
-      </c>
-      <c r="G43" t="s">
+      <c r="F66" t="str">
+        <f>菜单!$E$37</f>
+        <v>iam_menu-37</v>
+      </c>
+      <c r="G66" t="s">
+        <v>560</v>
+      </c>
+      <c r="H66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8">
+      <c r="E67" t="s">
         <v>358</v>
       </c>
-      <c r="H43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="E44" t="s">
+      <c r="F67" t="str">
+        <f>菜单!$E$37</f>
+        <v>iam_menu-37</v>
+      </c>
+      <c r="G67" t="s">
+        <v>561</v>
+      </c>
+      <c r="H67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="5:8">
+      <c r="E68" t="s">
         <v>359</v>
       </c>
-      <c r="F44">
-        <f>菜单!$E$31</f>
-      </c>
-      <c r="G44" t="s">
+      <c r="F68" t="str">
+        <f>菜单!$E$37</f>
+        <v>iam_menu-37</v>
+      </c>
+      <c r="G68" t="s">
+        <v>562</v>
+      </c>
+      <c r="H68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8">
+      <c r="E69" t="s">
         <v>360</v>
       </c>
-      <c r="H44" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="E45" t="s">
+      <c r="F69" t="str">
+        <f>菜单!$E$37</f>
+        <v>iam_menu-37</v>
+      </c>
+      <c r="G69" t="s">
+        <v>563</v>
+      </c>
+      <c r="H69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="5:8">
+      <c r="E70" t="s">
         <v>361</v>
       </c>
-      <c r="F45">
-        <f>菜单!$E$31</f>
-      </c>
-      <c r="G45" t="s">
-        <v>320</v>
-      </c>
-      <c r="H45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="E46" t="s">
+      <c r="F70" t="str">
+        <f>菜单!$E$37</f>
+        <v>iam_menu-37</v>
+      </c>
+      <c r="G70" t="s">
+        <v>564</v>
+      </c>
+      <c r="H70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8">
+      <c r="E71" t="s">
         <v>362</v>
       </c>
-      <c r="F46">
-        <f>菜单!$E$31</f>
-      </c>
-      <c r="G46" t="s">
+      <c r="F71" t="str">
+        <f>菜单!$E$37</f>
+        <v>iam_menu-37</v>
+      </c>
+      <c r="G71" t="s">
+        <v>565</v>
+      </c>
+      <c r="H71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="5:8">
+      <c r="E72" t="s">
         <v>363</v>
       </c>
-      <c r="H46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="E47" t="s">
+      <c r="F72" t="str">
+        <f>菜单!$E$39</f>
+        <v>iam_menu-39</v>
+      </c>
+      <c r="G72" t="s">
+        <v>311</v>
+      </c>
+      <c r="H72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="5:8">
+      <c r="E73" t="s">
         <v>364</v>
       </c>
-      <c r="F47">
-        <f>菜单!$E$31</f>
-      </c>
-      <c r="G47" t="s">
+      <c r="F73" t="str">
+        <f>菜单!$E$39</f>
+        <v>iam_menu-39</v>
+      </c>
+      <c r="G73" t="s">
+        <v>566</v>
+      </c>
+      <c r="H73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="5:8">
+      <c r="E74" t="s">
         <v>365</v>
       </c>
-      <c r="H47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="E48" t="s">
+      <c r="F74" t="str">
+        <f>菜单!$E$39</f>
+        <v>iam_menu-39</v>
+      </c>
+      <c r="G74" t="s">
+        <v>567</v>
+      </c>
+      <c r="H74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="5:8">
+      <c r="E75" t="s">
         <v>366</v>
       </c>
-      <c r="F48">
-        <f>菜单!$E$31</f>
-      </c>
-      <c r="G48" t="s">
+      <c r="F75" t="str">
+        <f>菜单!$E$39</f>
+        <v>iam_menu-39</v>
+      </c>
+      <c r="G75" t="s">
+        <v>568</v>
+      </c>
+      <c r="H75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="5:8">
+      <c r="E76" t="s">
         <v>367</v>
       </c>
-      <c r="H48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="E49" t="s">
+      <c r="F76" t="str">
+        <f>菜单!$E$42</f>
+        <v>iam_menu-42</v>
+      </c>
+      <c r="G76" t="s">
+        <v>311</v>
+      </c>
+      <c r="H76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="5:8">
+      <c r="E77" t="s">
         <v>368</v>
       </c>
-      <c r="F49">
-        <f>菜单!$E$31</f>
-      </c>
-      <c r="G49" t="s">
+      <c r="F77" t="str">
+        <f>菜单!$E$42</f>
+        <v>iam_menu-42</v>
+      </c>
+      <c r="G77" t="s">
+        <v>569</v>
+      </c>
+      <c r="H77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="5:8">
+      <c r="E78" t="s">
         <v>369</v>
       </c>
-      <c r="H49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="E50" t="s">
+      <c r="F78" t="str">
+        <f>菜单!$E$42</f>
+        <v>iam_menu-42</v>
+      </c>
+      <c r="G78" t="s">
+        <v>570</v>
+      </c>
+      <c r="H78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="5:8">
+      <c r="E79" t="s">
         <v>370</v>
       </c>
-      <c r="F50">
-        <f>菜单!$E$31</f>
-      </c>
-      <c r="G50" t="s">
+      <c r="F79" t="str">
+        <f>菜单!$E$42</f>
+        <v>iam_menu-42</v>
+      </c>
+      <c r="G79" t="s">
+        <v>571</v>
+      </c>
+      <c r="H79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="5:8">
+      <c r="E80" t="s">
         <v>371</v>
       </c>
-      <c r="H50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="E51" t="s">
+      <c r="F80" t="str">
+        <f>菜单!$E$42</f>
+        <v>iam_menu-42</v>
+      </c>
+      <c r="G80" t="s">
+        <v>572</v>
+      </c>
+      <c r="H80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8">
+      <c r="E81" t="s">
         <v>372</v>
       </c>
-      <c r="F51">
-        <f>菜单!$E$31</f>
-      </c>
-      <c r="G51" t="s">
+      <c r="F81" t="str">
+        <f>菜单!$E$42</f>
+        <v>iam_menu-42</v>
+      </c>
+      <c r="G81" t="s">
+        <v>573</v>
+      </c>
+      <c r="H81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="5:8">
+      <c r="E82" t="s">
         <v>373</v>
       </c>
-      <c r="H51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="E52" t="s">
+      <c r="F82" t="str">
+        <f>菜单!$E$42</f>
+        <v>iam_menu-42</v>
+      </c>
+      <c r="G82" t="s">
+        <v>574</v>
+      </c>
+      <c r="H82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8">
+      <c r="E83" t="s">
         <v>374</v>
       </c>
-      <c r="F52">
-        <f>菜单!$E$31</f>
-      </c>
-      <c r="G52" t="s">
+      <c r="F83" t="str">
+        <f>菜单!$E$42</f>
+        <v>iam_menu-42</v>
+      </c>
+      <c r="G83" t="s">
+        <v>575</v>
+      </c>
+      <c r="H83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="5:8">
+      <c r="E84" t="s">
         <v>375</v>
       </c>
-      <c r="H52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="E53" t="s">
+      <c r="F84" t="str">
+        <f>菜单!$E$42</f>
+        <v>iam_menu-42</v>
+      </c>
+      <c r="G84" t="s">
+        <v>576</v>
+      </c>
+      <c r="H84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="5:8">
+      <c r="E85" t="s">
         <v>376</v>
       </c>
-      <c r="F53">
-        <f>菜单!$E$31</f>
-      </c>
-      <c r="G53" t="s">
+      <c r="F85" t="str">
+        <f>菜单!$E$42</f>
+        <v>iam_menu-42</v>
+      </c>
+      <c r="G85" t="s">
+        <v>577</v>
+      </c>
+      <c r="H85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="5:8">
+      <c r="E86" t="s">
         <v>377</v>
       </c>
-      <c r="H53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="E54" t="s">
+      <c r="F86" t="str">
+        <f>菜单!$E$42</f>
+        <v>iam_menu-42</v>
+      </c>
+      <c r="G86" t="s">
+        <v>578</v>
+      </c>
+      <c r="H86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="5:8">
+      <c r="E87" t="s">
         <v>378</v>
       </c>
-      <c r="F54">
-        <f>菜单!$E$33</f>
-      </c>
-      <c r="G54" t="s">
-        <v>360</v>
-      </c>
-      <c r="H54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="E55" t="s">
+      <c r="F87" t="str">
+        <f>菜单!$E$42</f>
+        <v>iam_menu-42</v>
+      </c>
+      <c r="G87" t="s">
+        <v>579</v>
+      </c>
+      <c r="H87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="5:8">
+      <c r="E88" t="s">
         <v>379</v>
       </c>
-      <c r="F55">
-        <f>菜单!$E$33</f>
-      </c>
-      <c r="G55" t="s">
+      <c r="F88" t="str">
+        <f>菜单!$E$45</f>
+        <v>iam_menu-45</v>
+      </c>
+      <c r="G88" t="s">
+        <v>311</v>
+      </c>
+      <c r="H88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="5:8">
+      <c r="E89" t="s">
         <v>380</v>
       </c>
-      <c r="H55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="E56" t="s">
+      <c r="F89" t="str">
+        <f>菜单!$E$45</f>
+        <v>iam_menu-45</v>
+      </c>
+      <c r="G89" t="s">
+        <v>580</v>
+      </c>
+      <c r="H89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="5:8">
+      <c r="E90" t="s">
         <v>381</v>
       </c>
-      <c r="F56">
-        <f>菜单!$E$33</f>
-      </c>
-      <c r="G56" t="s">
-        <v>320</v>
-      </c>
-      <c r="H56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="E57" t="s">
+      <c r="F90" t="str">
+        <f>菜单!$E$46</f>
+        <v>iam_menu-46</v>
+      </c>
+      <c r="G90" t="s">
+        <v>311</v>
+      </c>
+      <c r="H90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="5:8">
+      <c r="E91" t="s">
         <v>382</v>
       </c>
-      <c r="F57">
-        <f>菜单!$E$33</f>
-      </c>
-      <c r="G57" t="s">
+      <c r="F91" t="str">
+        <f>菜单!$E$46</f>
+        <v>iam_menu-46</v>
+      </c>
+      <c r="G91" t="s">
+        <v>581</v>
+      </c>
+      <c r="H91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="5:8">
+      <c r="E92" t="s">
         <v>383</v>
       </c>
-      <c r="H57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="E58" t="s">
+      <c r="F92" t="str">
+        <f>菜单!$E$46</f>
+        <v>iam_menu-46</v>
+      </c>
+      <c r="G92" t="s">
+        <v>582</v>
+      </c>
+      <c r="H92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="5:8">
+      <c r="E93" t="s">
         <v>384</v>
       </c>
-      <c r="F58">
-        <f>菜单!$E$33</f>
-      </c>
-      <c r="G58" t="s">
-        <v>365</v>
-      </c>
-      <c r="H58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="E59" t="s">
+      <c r="F93" t="str">
+        <f>菜单!$E$46</f>
+        <v>iam_menu-46</v>
+      </c>
+      <c r="G93" t="s">
+        <v>574</v>
+      </c>
+      <c r="H93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="5:8">
+      <c r="E94" t="s">
         <v>385</v>
       </c>
-      <c r="F59">
-        <f>菜单!$E$33</f>
-      </c>
-      <c r="G59" t="s">
+      <c r="F94" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G94" t="s">
         <v>386</v>
       </c>
-      <c r="H59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="E60" t="s">
+      <c r="H94" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="5:8">
+      <c r="E95" t="s">
         <v>387</v>
       </c>
-      <c r="F60">
-        <f>菜单!$E$33</f>
-      </c>
-      <c r="G60" t="s">
+      <c r="F95" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G95" t="s">
+        <v>328</v>
+      </c>
+      <c r="H95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="5:8">
+      <c r="E96" t="s">
         <v>388</v>
       </c>
-      <c r="H60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="E61" t="s">
+      <c r="F96" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G96" t="s">
+        <v>330</v>
+      </c>
+      <c r="H96" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8">
+      <c r="E97" t="s">
         <v>389</v>
       </c>
-      <c r="F61">
-        <f>菜单!$E$33</f>
-      </c>
-      <c r="G61" t="s">
+      <c r="F97" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G97" t="s">
+        <v>343</v>
+      </c>
+      <c r="H97" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="5:8">
+      <c r="E98" t="s">
         <v>390</v>
       </c>
-      <c r="H61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="E62" t="s">
+      <c r="F98" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G98" t="s">
+        <v>311</v>
+      </c>
+      <c r="H98" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="5:8">
+      <c r="E99" t="s">
         <v>391</v>
       </c>
-      <c r="F62">
-        <f>菜单!$E$37</f>
-      </c>
-      <c r="G62" t="s">
-        <v>328</v>
-      </c>
-      <c r="H62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="E63" t="s">
+      <c r="F99" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G99" t="s">
+        <v>514</v>
+      </c>
+      <c r="H99" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="5:8">
+      <c r="E100" t="s">
         <v>392</v>
       </c>
-      <c r="F63">
-        <f>菜单!$E$37</f>
-      </c>
-      <c r="G63" t="s">
+      <c r="F100" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G100" t="s">
+        <v>515</v>
+      </c>
+      <c r="H100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="5:8">
+      <c r="E101" t="s">
         <v>393</v>
       </c>
-      <c r="H63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="E64" t="s">
+      <c r="F101" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G101" t="s">
+        <v>516</v>
+      </c>
+      <c r="H101" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="5:8">
+      <c r="E102" t="s">
         <v>394</v>
       </c>
-      <c r="F64">
-        <f>菜单!$E$37</f>
-      </c>
-      <c r="G64" t="s">
+      <c r="F102" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G102" t="s">
+        <v>517</v>
+      </c>
+      <c r="H102" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="5:8">
+      <c r="E103" t="s">
         <v>395</v>
       </c>
-      <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="E65" t="s">
+      <c r="F103" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G103" t="s">
+        <v>518</v>
+      </c>
+      <c r="H103" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="5:8">
+      <c r="E104" t="s">
         <v>396</v>
       </c>
-      <c r="F65">
-        <f>菜单!$E$37</f>
-      </c>
-      <c r="G65" t="s">
+      <c r="F104" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G104" t="s">
+        <v>519</v>
+      </c>
+      <c r="H104" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="5:8">
+      <c r="E105" t="s">
         <v>397</v>
       </c>
-      <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="E66" t="s">
+      <c r="F105" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G105" t="s">
         <v>398</v>
       </c>
-      <c r="F66">
-        <f>菜单!$E$37</f>
-      </c>
-      <c r="G66" t="s">
+      <c r="H105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="5:8">
+      <c r="E106" t="s">
         <v>399</v>
       </c>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="E67" t="s">
+      <c r="F106" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G106" t="s">
+        <v>353</v>
+      </c>
+      <c r="H106" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="5:8">
+      <c r="E107" t="s">
         <v>400</v>
       </c>
-      <c r="F67">
-        <f>菜单!$E$37</f>
-      </c>
-      <c r="G67" t="s">
+      <c r="F107" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G107" t="s">
+        <v>355</v>
+      </c>
+      <c r="H107" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="5:8">
+      <c r="E108" t="s">
         <v>401</v>
       </c>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="E68" t="s">
+      <c r="F108" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G108" t="s">
+        <v>559</v>
+      </c>
+      <c r="H108" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="5:8">
+      <c r="E109" t="s">
         <v>402</v>
       </c>
-      <c r="F68">
-        <f>菜单!$E$37</f>
-      </c>
-      <c r="G68" t="s">
+      <c r="F109" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G109" t="s">
+        <v>561</v>
+      </c>
+      <c r="H109" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="5:8">
+      <c r="E110" t="s">
         <v>403</v>
       </c>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="E69" t="s">
+      <c r="F110" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G110" t="s">
+        <v>562</v>
+      </c>
+      <c r="H110" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="5:8">
+      <c r="E111" t="s">
         <v>404</v>
       </c>
-      <c r="F69">
-        <f>菜单!$E$37</f>
-      </c>
-      <c r="G69" t="s">
+      <c r="F111" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G111" t="s">
+        <v>583</v>
+      </c>
+      <c r="H111" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="5:8">
+      <c r="E112" t="s">
         <v>405</v>
       </c>
-      <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="E70" t="s">
+      <c r="F112" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G112" t="s">
+        <v>584</v>
+      </c>
+      <c r="H112" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="5:8">
+      <c r="E113" t="s">
         <v>406</v>
       </c>
-      <c r="F70">
-        <f>菜单!$E$37</f>
-      </c>
-      <c r="G70" t="s">
+      <c r="F113" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G113" t="s">
+        <v>585</v>
+      </c>
+      <c r="H113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="5:8">
+      <c r="E114" t="s">
         <v>407</v>
       </c>
-      <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="E71" t="s">
+      <c r="F114" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G114" t="s">
+        <v>578</v>
+      </c>
+      <c r="H114" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="5:8">
+      <c r="E115" t="s">
         <v>408</v>
       </c>
-      <c r="F71">
-        <f>菜单!$E$37</f>
-      </c>
-      <c r="G71" t="s">
+      <c r="F115" t="str">
+        <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="G115" t="s">
+        <v>586</v>
+      </c>
+      <c r="H115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="5:8">
+      <c r="E116" t="s">
         <v>409</v>
       </c>
-      <c r="H71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="E72" t="s">
+      <c r="F116" t="str">
+        <f>菜单!$E$51</f>
+        <v>iam_menu-51</v>
+      </c>
+      <c r="G116" t="s">
+        <v>386</v>
+      </c>
+      <c r="H116" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="5:8">
+      <c r="E117" t="s">
         <v>410</v>
       </c>
-      <c r="F72">
-        <f>菜单!$E$39</f>
-      </c>
-      <c r="G72" t="s">
-        <v>328</v>
-      </c>
-      <c r="H72" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="E73" t="s">
+      <c r="F117" t="str">
+        <f>菜单!$E$51</f>
+        <v>iam_menu-51</v>
+      </c>
+      <c r="G117" t="s">
+        <v>343</v>
+      </c>
+      <c r="H117" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="5:8">
+      <c r="E118" t="s">
         <v>411</v>
       </c>
-      <c r="F73">
-        <f>菜单!$E$39</f>
-      </c>
-      <c r="G73" t="s">
+      <c r="F118" t="str">
+        <f>菜单!$E$51</f>
+        <v>iam_menu-51</v>
+      </c>
+      <c r="G118" t="s">
+        <v>306</v>
+      </c>
+      <c r="H118" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="5:8">
+      <c r="E119" t="s">
         <v>412</v>
       </c>
-      <c r="H73" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="E74" t="s">
+      <c r="F119" t="str">
+        <f>菜单!$E$51</f>
+        <v>iam_menu-51</v>
+      </c>
+      <c r="G119" t="s">
+        <v>519</v>
+      </c>
+      <c r="H119" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="5:8">
+      <c r="E120" t="s">
         <v>413</v>
       </c>
-      <c r="F74">
-        <f>菜单!$E$39</f>
-      </c>
-      <c r="G74" t="s">
+      <c r="F120" t="str">
+        <f>菜单!$E$51</f>
+        <v>iam_menu-51</v>
+      </c>
+      <c r="G120" t="s">
+        <v>587</v>
+      </c>
+      <c r="H120" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="5:8">
+      <c r="E121" t="s">
         <v>414</v>
       </c>
-      <c r="H74" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="E75" t="s">
-        <v>415</v>
-      </c>
-      <c r="F75">
-        <f>菜单!$E$39</f>
-      </c>
-      <c r="G75" t="s">
-        <v>416</v>
-      </c>
-      <c r="H75" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="E76" t="s">
-        <v>417</v>
-      </c>
-      <c r="F76">
-        <f>菜单!$E$42</f>
-      </c>
-      <c r="G76" t="s">
-        <v>328</v>
-      </c>
-      <c r="H76" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="E77" t="s">
-        <v>418</v>
-      </c>
-      <c r="F77">
-        <f>菜单!$E$42</f>
-      </c>
-      <c r="G77" t="s">
-        <v>419</v>
-      </c>
-      <c r="H77" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="E78" t="s">
-        <v>420</v>
-      </c>
-      <c r="F78">
-        <f>菜单!$E$42</f>
-      </c>
-      <c r="G78" t="s">
-        <v>421</v>
-      </c>
-      <c r="H78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="E79" t="s">
-        <v>422</v>
-      </c>
-      <c r="F79">
-        <f>菜单!$E$42</f>
-      </c>
-      <c r="G79" t="s">
-        <v>423</v>
-      </c>
-      <c r="H79" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="E80" t="s">
-        <v>424</v>
-      </c>
-      <c r="F80">
-        <f>菜单!$E$42</f>
-      </c>
-      <c r="G80" t="s">
-        <v>425</v>
-      </c>
-      <c r="H80" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="E81" t="s">
-        <v>426</v>
-      </c>
-      <c r="F81">
-        <f>菜单!$E$42</f>
-      </c>
-      <c r="G81" t="s">
-        <v>427</v>
-      </c>
-      <c r="H81" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="E82" t="s">
-        <v>428</v>
-      </c>
-      <c r="F82">
-        <f>菜单!$E$42</f>
-      </c>
-      <c r="G82" t="s">
-        <v>429</v>
-      </c>
-      <c r="H82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="E83" t="s">
-        <v>430</v>
-      </c>
-      <c r="F83">
-        <f>菜单!$E$42</f>
-      </c>
-      <c r="G83" t="s">
-        <v>431</v>
-      </c>
-      <c r="H83" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="E84" t="s">
-        <v>432</v>
-      </c>
-      <c r="F84">
-        <f>菜单!$E$42</f>
-      </c>
-      <c r="G84" t="s">
-        <v>433</v>
-      </c>
-      <c r="H84" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="E85" t="s">
-        <v>434</v>
-      </c>
-      <c r="F85">
-        <f>菜单!$E$42</f>
-      </c>
-      <c r="G85" t="s">
-        <v>435</v>
-      </c>
-      <c r="H85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="E86" t="s">
-        <v>436</v>
-      </c>
-      <c r="F86">
-        <f>菜单!$E$42</f>
-      </c>
-      <c r="G86" t="s">
-        <v>437</v>
-      </c>
-      <c r="H86" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="E87" t="s">
-        <v>438</v>
-      </c>
-      <c r="F87">
-        <f>菜单!$E$42</f>
-      </c>
-      <c r="G87" t="s">
-        <v>439</v>
-      </c>
-      <c r="H87" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="E88" t="s">
-        <v>440</v>
-      </c>
-      <c r="F88">
-        <f>菜单!$E$45</f>
-      </c>
-      <c r="G88" t="s">
-        <v>328</v>
-      </c>
-      <c r="H88" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="E89" t="s">
-        <v>441</v>
-      </c>
-      <c r="F89">
-        <f>菜单!$E$45</f>
-      </c>
-      <c r="G89" t="s">
-        <v>442</v>
-      </c>
-      <c r="H89" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="E90" t="s">
-        <v>443</v>
-      </c>
-      <c r="F90">
-        <f>菜单!$E$46</f>
-      </c>
-      <c r="G90" t="s">
-        <v>328</v>
-      </c>
-      <c r="H90" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="E91" t="s">
-        <v>444</v>
-      </c>
-      <c r="F91">
-        <f>菜单!$E$46</f>
-      </c>
-      <c r="G91" t="s">
-        <v>445</v>
-      </c>
-      <c r="H91" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="E92" t="s">
-        <v>446</v>
-      </c>
-      <c r="F92">
-        <f>菜单!$E$46</f>
-      </c>
-      <c r="G92" t="s">
-        <v>447</v>
-      </c>
-      <c r="H92" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="E93" t="s">
-        <v>448</v>
-      </c>
-      <c r="F93">
-        <f>菜单!$E$46</f>
-      </c>
-      <c r="G93" t="s">
-        <v>429</v>
-      </c>
-      <c r="H93" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="E94" t="s">
-        <v>449</v>
-      </c>
-      <c r="F94">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G94" t="s">
-        <v>450</v>
-      </c>
-      <c r="H94" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="E95" t="s">
-        <v>451</v>
-      </c>
-      <c r="F95">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G95" t="s">
-        <v>358</v>
-      </c>
-      <c r="H95" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="E96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F96">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G96" t="s">
-        <v>360</v>
-      </c>
-      <c r="H96" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="E97" t="s">
-        <v>453</v>
-      </c>
-      <c r="F97">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G97" t="s">
-        <v>380</v>
-      </c>
-      <c r="H97" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="E98" t="s">
-        <v>454</v>
-      </c>
-      <c r="F98">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G98" t="s">
-        <v>328</v>
-      </c>
-      <c r="H98" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="E99" t="s">
-        <v>455</v>
-      </c>
-      <c r="F99">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G99" t="s">
-        <v>456</v>
-      </c>
-      <c r="H99" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="E100" t="s">
-        <v>457</v>
-      </c>
-      <c r="F100">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G100" t="s">
-        <v>458</v>
-      </c>
-      <c r="H100" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="E101" t="s">
-        <v>459</v>
-      </c>
-      <c r="F101">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G101" t="s">
-        <v>460</v>
-      </c>
-      <c r="H101" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="E102" t="s">
-        <v>461</v>
-      </c>
-      <c r="F102">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G102" t="s">
-        <v>462</v>
-      </c>
-      <c r="H102" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="E103" t="s">
-        <v>463</v>
-      </c>
-      <c r="F103">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G103" t="s">
-        <v>464</v>
-      </c>
-      <c r="H103" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="E104" t="s">
-        <v>465</v>
-      </c>
-      <c r="F104">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G104" t="s">
-        <v>466</v>
-      </c>
-      <c r="H104" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="E105" t="s">
-        <v>467</v>
-      </c>
-      <c r="F105">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G105" t="s">
-        <v>468</v>
-      </c>
-      <c r="H105" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="E106" t="s">
-        <v>469</v>
-      </c>
-      <c r="F106">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G106" t="s">
-        <v>393</v>
-      </c>
-      <c r="H106" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="E107" t="s">
-        <v>470</v>
-      </c>
-      <c r="F107">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G107" t="s">
-        <v>395</v>
-      </c>
-      <c r="H107" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="E108" t="s">
-        <v>471</v>
-      </c>
-      <c r="F108">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G108" t="s">
-        <v>397</v>
-      </c>
-      <c r="H108" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="E109" t="s">
-        <v>472</v>
-      </c>
-      <c r="F109">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G109" t="s">
-        <v>401</v>
-      </c>
-      <c r="H109" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="E110" t="s">
-        <v>473</v>
-      </c>
-      <c r="F110">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G110" t="s">
-        <v>403</v>
-      </c>
-      <c r="H110" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="E111" t="s">
-        <v>474</v>
-      </c>
-      <c r="F111">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G111" t="s">
-        <v>475</v>
-      </c>
-      <c r="H111" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="E112" t="s">
-        <v>476</v>
-      </c>
-      <c r="F112">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G112" t="s">
-        <v>477</v>
-      </c>
-      <c r="H112" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="E113" t="s">
-        <v>478</v>
-      </c>
-      <c r="F113">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G113" t="s">
-        <v>479</v>
-      </c>
-      <c r="H113" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="E114" t="s">
-        <v>480</v>
-      </c>
-      <c r="F114">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G114" t="s">
-        <v>437</v>
-      </c>
-      <c r="H114" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="E115" t="s">
-        <v>481</v>
-      </c>
-      <c r="F115">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="G115" t="s">
-        <v>482</v>
-      </c>
-      <c r="H115" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="E116" t="s">
-        <v>483</v>
-      </c>
-      <c r="F116">
+      <c r="F121" t="str">
         <f>菜单!$E$51</f>
-      </c>
-      <c r="G116" t="s">
-        <v>450</v>
-      </c>
-      <c r="H116" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="E117" t="s">
-        <v>484</v>
-      </c>
-      <c r="F117">
-        <f>菜单!$E$51</f>
-      </c>
-      <c r="G117" t="s">
-        <v>380</v>
-      </c>
-      <c r="H117" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="E118" t="s">
-        <v>485</v>
-      </c>
-      <c r="F118">
-        <f>菜单!$E$51</f>
-      </c>
-      <c r="G118" t="s">
-        <v>320</v>
-      </c>
-      <c r="H118" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="E119" t="s">
-        <v>486</v>
-      </c>
-      <c r="F119">
-        <f>菜单!$E$51</f>
-      </c>
-      <c r="G119" t="s">
-        <v>466</v>
-      </c>
-      <c r="H119" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="E120" t="s">
-        <v>487</v>
-      </c>
-      <c r="F120">
-        <f>菜单!$E$51</f>
-      </c>
-      <c r="G120" t="s">
-        <v>488</v>
-      </c>
-      <c r="H120" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="E121" t="s">
-        <v>489</v>
-      </c>
-      <c r="F121">
-        <f>菜单!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G121" t="s">
-        <v>490</v>
+        <v>588</v>
       </c>
       <c r="H121" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="46">
+    <row r="1" spans="1:25">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="47">
+      <c r="B1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="48">
+      <c r="C1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="49">
+      <c r="D1" s="44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="50">
+    <row r="4" spans="1:25">
+      <c r="E4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="51">
+      <c r="F4" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="52">
+      <c r="G4" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -8996,12 +9218,12 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>491</v>
-      </c>
-      <c r="D7" t="s" s="70">
-        <v>492</v>
-      </c>
-      <c r="E7" t="s" s="71">
+        <v>415</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>416</v>
+      </c>
+      <c r="E7" s="66" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -9010,76 +9232,76 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s" s="72">
+      <c r="H7" s="67" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>493</v>
+        <v>417</v>
       </c>
       <c r="J7" t="s">
-        <v>494</v>
-      </c>
-      <c r="K7" t="s" s="73">
+        <v>418</v>
+      </c>
+      <c r="K7" s="68" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>495</v>
-      </c>
-      <c r="M7" t="s" s="74">
-        <v>496</v>
-      </c>
-      <c r="N7" t="s" s="75">
-        <v>497</v>
+        <v>419</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>420</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>421</v>
       </c>
       <c r="O7" t="s">
-        <v>498</v>
+        <v>422</v>
       </c>
       <c r="P7" t="s">
-        <v>499</v>
+        <v>423</v>
       </c>
       <c r="Q7" t="s">
-        <v>500</v>
+        <v>424</v>
       </c>
       <c r="R7" t="s">
-        <v>501</v>
+        <v>425</v>
       </c>
       <c r="S7" t="s">
-        <v>502</v>
+        <v>426</v>
       </c>
       <c r="T7" t="s">
-        <v>503</v>
+        <v>427</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>504</v>
-      </c>
-      <c r="W7" t="s" s="76">
-        <v>505</v>
+        <v>428</v>
+      </c>
+      <c r="W7" s="71" t="s">
+        <v>429</v>
       </c>
       <c r="X7" t="s">
-        <v>506</v>
+        <v>430</v>
       </c>
       <c r="Y7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="F8" t="s">
-        <v>509</v>
+        <v>433</v>
       </c>
       <c r="G8" t="s">
-        <v>510</v>
+        <v>434</v>
       </c>
       <c r="H8" t="s">
-        <v>511</v>
+        <v>435</v>
       </c>
       <c r="I8" t="s">
-        <v>512</v>
+        <v>436</v>
       </c>
       <c r="J8" t="s">
         <v>220</v>
@@ -9115,30 +9337,30 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>511</v>
+        <v>435</v>
       </c>
       <c r="V8" t="s">
-        <v>511</v>
+        <v>435</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
-        <v>513</v>
+        <v>437</v>
       </c>
       <c r="F9" t="s">
-        <v>514</v>
+        <v>438</v>
       </c>
       <c r="G9" t="s">
-        <v>515</v>
+        <v>439</v>
       </c>
       <c r="H9" t="s">
-        <v>516</v>
+        <v>440</v>
       </c>
       <c r="I9" t="s">
-        <v>517</v>
+        <v>441</v>
       </c>
       <c r="J9" t="s">
         <v>80</v>
@@ -9174,27 +9396,27 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>516</v>
+        <v>440</v>
       </c>
       <c r="V9" t="s">
-        <v>516</v>
+        <v>440</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
-        <v>518</v>
+        <v>442</v>
       </c>
       <c r="F10" t="s">
-        <v>519</v>
+        <v>443</v>
       </c>
       <c r="G10" t="s">
-        <v>520</v>
+        <v>444</v>
       </c>
       <c r="H10" t="s">
-        <v>521</v>
+        <v>445</v>
       </c>
       <c r="J10" t="s">
         <v>80</v>
@@ -9205,8 +9427,9 @@
       <c r="L10" t="s">
         <v>81</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="str">
         <f>角色权限!$E$9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
         <v>80</v>
@@ -9230,22 +9453,22 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>522</v>
+        <v>446</v>
       </c>
       <c r="V10" t="s">
-        <v>521</v>
+        <v>445</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>514</v>
+        <v>438</v>
       </c>
       <c r="Y10" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -9253,785 +9476,848 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>524</v>
-      </c>
-      <c r="D12" t="s" s="77">
-        <v>525</v>
-      </c>
-      <c r="E12" t="s" s="78">
+        <v>448</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>449</v>
+      </c>
+      <c r="E12" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s" s="79">
-        <v>526</v>
-      </c>
-      <c r="G12" t="s" s="80">
-        <v>527</v>
+      <c r="F12" s="74" t="s">
+        <v>450</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>451</v>
       </c>
       <c r="H12" t="s">
-        <v>528</v>
+        <v>452</v>
       </c>
       <c r="I12" t="s">
-        <v>529</v>
-      </c>
-      <c r="J12" t="s" s="81">
-        <v>530</v>
+        <v>453</v>
+      </c>
+      <c r="J12" s="76" t="s">
+        <v>454</v>
       </c>
       <c r="K12" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
-        <v>531</v>
-      </c>
-      <c r="F13">
+        <v>455</v>
+      </c>
+      <c r="F13" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G13">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G13" t="str">
         <f>菜单!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H13" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I13" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J13" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
-        <v>535</v>
-      </c>
-      <c r="F14">
+        <v>459</v>
+      </c>
+      <c r="F14" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G14">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G14" t="str">
         <f>菜单!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H14" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I14" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J14" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
-        <v>536</v>
-      </c>
-      <c r="F15">
+        <v>460</v>
+      </c>
+      <c r="F15" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G15">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G15" t="str">
         <f>菜单!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H15" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I15" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J15" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
-        <v>537</v>
-      </c>
-      <c r="F16">
+        <v>461</v>
+      </c>
+      <c r="F16" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G16">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G16" t="str">
         <f>菜单!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H16" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I16" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J16" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:11">
       <c r="E17" t="s">
-        <v>538</v>
-      </c>
-      <c r="F17">
+        <v>462</v>
+      </c>
+      <c r="F17" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G17">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G17" t="str">
         <f>菜单!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H17" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I17" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J17" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:11">
       <c r="E18" t="s">
-        <v>539</v>
-      </c>
-      <c r="F18">
+        <v>463</v>
+      </c>
+      <c r="F18" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G18">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G18" t="str">
         <f>菜单!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H18" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I18" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J18" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:11">
       <c r="E19" t="s">
-        <v>540</v>
-      </c>
-      <c r="F19">
+        <v>464</v>
+      </c>
+      <c r="F19" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G19">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G19" t="str">
         <f>菜单!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="H19" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I19" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J19" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:11">
       <c r="E20" t="s">
-        <v>541</v>
-      </c>
-      <c r="F20">
+        <v>465</v>
+      </c>
+      <c r="F20" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G20">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G20" t="str">
         <f>菜单!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="H20" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I20" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J20" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:11">
       <c r="E21" t="s">
-        <v>542</v>
-      </c>
-      <c r="F21">
+        <v>466</v>
+      </c>
+      <c r="F21" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G21">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G21" t="str">
         <f>菜单!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="H21" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I21" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J21" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:11">
       <c r="E22" t="s">
-        <v>543</v>
-      </c>
-      <c r="F22">
+        <v>467</v>
+      </c>
+      <c r="F22" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G22">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G22" t="str">
         <f>菜单!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="H22" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I22" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J22" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:11">
       <c r="E23" t="s">
-        <v>544</v>
-      </c>
-      <c r="F23">
+        <v>468</v>
+      </c>
+      <c r="F23" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G23">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G23" t="str">
         <f>菜单!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="H23" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I23" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J23" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:11">
       <c r="E24" t="s">
-        <v>545</v>
-      </c>
-      <c r="F24">
+        <v>469</v>
+      </c>
+      <c r="F24" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G24">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G24" t="str">
         <f>菜单!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="H24" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I24" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J24" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:11">
       <c r="E25" t="s">
-        <v>546</v>
-      </c>
-      <c r="F25">
+        <v>470</v>
+      </c>
+      <c r="F25" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G25">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G25" t="str">
         <f>菜单!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="H25" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I25" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J25" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:11">
       <c r="E26" t="s">
-        <v>547</v>
-      </c>
-      <c r="F26">
+        <v>471</v>
+      </c>
+      <c r="F26" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G26">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G26" t="str">
         <f>菜单!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="H26" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I26" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J26" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:11">
       <c r="E27" t="s">
-        <v>548</v>
-      </c>
-      <c r="F27">
+        <v>472</v>
+      </c>
+      <c r="F27" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G27">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G27" t="str">
         <f>菜单!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="H27" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I27" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J27" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:11">
       <c r="E28" t="s">
-        <v>549</v>
-      </c>
-      <c r="F28">
+        <v>473</v>
+      </c>
+      <c r="F28" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G28">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G28" t="str">
         <f>菜单!$E$23</f>
+        <v>iam_menu-23</v>
       </c>
       <c r="H28" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I28" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J28" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:11">
       <c r="E29" t="s">
-        <v>550</v>
-      </c>
-      <c r="F29">
+        <v>474</v>
+      </c>
+      <c r="F29" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G29">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G29" t="str">
         <f>菜单!$E$23</f>
+        <v>iam_menu-23</v>
       </c>
       <c r="H29" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I29" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J29" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:11">
       <c r="E30" t="s">
-        <v>551</v>
-      </c>
-      <c r="F30">
+        <v>475</v>
+      </c>
+      <c r="F30" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G30">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G30" t="str">
         <f>菜单!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="H30" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I30" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J30" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="5:11">
       <c r="E31" t="s">
-        <v>552</v>
-      </c>
-      <c r="F31">
+        <v>476</v>
+      </c>
+      <c r="F31" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G31">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G31" t="str">
         <f>菜单!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="H31" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I31" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J31" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="5:11">
       <c r="E32" t="s">
-        <v>553</v>
-      </c>
-      <c r="F32">
+        <v>477</v>
+      </c>
+      <c r="F32" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G32">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G32" t="str">
         <f>菜单!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="H32" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I32" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J32" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:11">
       <c r="E33" t="s">
-        <v>554</v>
-      </c>
-      <c r="F33">
+        <v>478</v>
+      </c>
+      <c r="F33" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G33">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G33" t="str">
         <f>菜单!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="H33" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I33" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J33" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:11">
       <c r="E34" t="s">
-        <v>555</v>
-      </c>
-      <c r="F34">
+        <v>479</v>
+      </c>
+      <c r="F34" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G34">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G34" t="str">
         <f>菜单!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="H34" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I34" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J34" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:11">
       <c r="E35" t="s">
-        <v>556</v>
-      </c>
-      <c r="F35">
+        <v>480</v>
+      </c>
+      <c r="F35" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G35">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G35" t="str">
         <f>菜单!$E$28</f>
+        <v>iam_menu-28</v>
       </c>
       <c r="H35" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I35" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J35" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:11">
       <c r="E36" t="s">
-        <v>557</v>
-      </c>
-      <c r="F36">
+        <v>481</v>
+      </c>
+      <c r="F36" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G36">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G36" t="str">
         <f>菜单!$E$31</f>
+        <v>iam_menu-31</v>
       </c>
       <c r="H36" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I36" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J36" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:11">
       <c r="E37" t="s">
-        <v>558</v>
-      </c>
-      <c r="F37">
+        <v>482</v>
+      </c>
+      <c r="F37" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G37">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G37" t="str">
         <f>菜单!$E$31</f>
+        <v>iam_menu-31</v>
       </c>
       <c r="H37" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I37" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J37" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:11">
       <c r="E38" t="s">
-        <v>559</v>
-      </c>
-      <c r="F38">
+        <v>483</v>
+      </c>
+      <c r="F38" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G38">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G38" t="str">
         <f>菜单!$E$33</f>
+        <v>iam_menu-33</v>
       </c>
       <c r="H38" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I38" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J38" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K38" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:11">
       <c r="E39" t="s">
-        <v>560</v>
-      </c>
-      <c r="F39">
+        <v>484</v>
+      </c>
+      <c r="F39" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G39">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G39" t="str">
         <f>菜单!$E$33</f>
+        <v>iam_menu-33</v>
       </c>
       <c r="H39" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I39" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J39" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:11">
       <c r="E40" t="s">
-        <v>561</v>
-      </c>
-      <c r="F40">
+        <v>485</v>
+      </c>
+      <c r="F40" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G40">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G40" t="str">
         <f>菜单!$E$37</f>
+        <v>iam_menu-37</v>
       </c>
       <c r="H40" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I40" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J40" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K40" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:11">
       <c r="E41" t="s">
-        <v>562</v>
-      </c>
-      <c r="F41">
+        <v>486</v>
+      </c>
+      <c r="F41" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G41">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G41" t="str">
         <f>菜单!$E$39</f>
+        <v>iam_menu-39</v>
       </c>
       <c r="H41" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I41" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J41" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:11">
       <c r="E42" t="s">
-        <v>563</v>
-      </c>
-      <c r="F42">
+        <v>487</v>
+      </c>
+      <c r="F42" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G42">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G42" t="str">
         <f>菜单!$E$49</f>
+        <v>iam_menu-49</v>
       </c>
       <c r="H42" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I42" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J42" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K42" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:11">
       <c r="E43" t="s">
-        <v>564</v>
-      </c>
-      <c r="F43">
+        <v>488</v>
+      </c>
+      <c r="F43" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G43">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G43" t="str">
         <f>菜单!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="H43" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="I43" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J43" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K43" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="53">
+    <row r="1" spans="1:15">
+      <c r="A1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="54">
+      <c r="B1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="55">
+      <c r="C1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="56">
+      <c r="D1" s="51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="57">
+    <row r="4" spans="1:15">
+      <c r="E4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="58">
+      <c r="F4" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="59">
+      <c r="G4" s="54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -10039,66 +10325,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>565</v>
-      </c>
-      <c r="D7" t="s" s="82">
-        <v>566</v>
-      </c>
-      <c r="E7" t="s" s="83">
+        <v>489</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>490</v>
+      </c>
+      <c r="E7" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="84">
-        <v>567</v>
-      </c>
-      <c r="G7" t="s" s="85">
-        <v>530</v>
+      <c r="F7" s="79" t="s">
+        <v>491</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>454</v>
       </c>
       <c r="H7" t="s">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="I7" t="s">
+        <v>418</v>
+      </c>
+      <c r="J7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K7" t="s">
         <v>494</v>
       </c>
-      <c r="J7" t="s">
-        <v>569</v>
-      </c>
-      <c r="K7" t="s">
-        <v>570</v>
-      </c>
       <c r="L7" t="s">
-        <v>571</v>
+        <v>495</v>
       </c>
       <c r="M7" t="s">
-        <v>572</v>
+        <v>496</v>
       </c>
       <c r="N7" t="s">
-        <v>573</v>
+        <v>497</v>
       </c>
       <c r="O7" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>575</v>
+        <v>499</v>
       </c>
       <c r="F8" t="s">
-        <v>576</v>
+        <v>500</v>
       </c>
       <c r="G8" t="s">
-        <v>577</v>
+        <v>501</v>
       </c>
       <c r="H8" t="s">
         <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>578</v>
+        <v>502</v>
       </c>
       <c r="J8" t="s">
-        <v>579</v>
+        <v>503</v>
       </c>
       <c r="K8" t="s">
-        <v>579</v>
+        <v>503</v>
       </c>
       <c r="M8" t="s">
         <v>84</v>
@@ -10110,7 +10396,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -10118,640 +10404,714 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>580</v>
-      </c>
-      <c r="D10" t="s" s="86">
-        <v>581</v>
-      </c>
-      <c r="E10" t="s" s="87">
-        <v>582</v>
-      </c>
-      <c r="F10" t="s" s="88">
-        <v>583</v>
-      </c>
-      <c r="G10" t="s" s="89">
-        <v>584</v>
-      </c>
-      <c r="H10" t="s" s="90">
-        <v>585</v>
+        <v>504</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>505</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>506</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="G10" s="84" t="s">
+        <v>508</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>509</v>
       </c>
       <c r="I10" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F11" t="s">
-        <v>577</v>
-      </c>
-      <c r="G11">
+        <v>501</v>
+      </c>
+      <c r="G11" t="str">
         <f>菜单!$E$8</f>
-      </c>
-      <c r="H11">
+        <v>iam_menu-8</v>
+      </c>
+      <c r="H11" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I11" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F12" t="s">
-        <v>577</v>
-      </c>
-      <c r="G12">
+        <v>501</v>
+      </c>
+      <c r="G12" t="str">
         <f>菜单!$E$9</f>
-      </c>
-      <c r="H12">
+        <v>iam_menu-9</v>
+      </c>
+      <c r="H12" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I12" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F13" t="s">
-        <v>577</v>
-      </c>
-      <c r="G13">
+        <v>501</v>
+      </c>
+      <c r="G13" t="str">
         <f>菜单!$E$10</f>
-      </c>
-      <c r="H13">
+        <v>iam_menu-10</v>
+      </c>
+      <c r="H13" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I13" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F14" t="s">
-        <v>577</v>
-      </c>
-      <c r="G14">
+        <v>501</v>
+      </c>
+      <c r="G14" t="str">
         <f>菜单!$E$11</f>
-      </c>
-      <c r="H14">
+        <v>iam_menu-11</v>
+      </c>
+      <c r="H14" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I14" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F15" t="s">
-        <v>577</v>
-      </c>
-      <c r="G15">
+        <v>501</v>
+      </c>
+      <c r="G15" t="str">
         <f>菜单!$E$12</f>
-      </c>
-      <c r="H15">
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H15" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I15" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F16" t="s">
-        <v>577</v>
-      </c>
-      <c r="G16">
+        <v>501</v>
+      </c>
+      <c r="G16" t="str">
         <f>菜单!$E$13</f>
-      </c>
-      <c r="H16">
+        <v>iam_menu-13</v>
+      </c>
+      <c r="H16" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F17" t="s">
-        <v>577</v>
-      </c>
-      <c r="G17">
+        <v>501</v>
+      </c>
+      <c r="G17" t="str">
         <f>菜单!$E$29</f>
-      </c>
-      <c r="H17">
+        <v>iam_menu-29</v>
+      </c>
+      <c r="H17" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F18" t="s">
-        <v>577</v>
-      </c>
-      <c r="G18">
+        <v>501</v>
+      </c>
+      <c r="G18" t="str">
         <f>菜单!$E$30</f>
-      </c>
-      <c r="H18">
+        <v>iam_menu-30</v>
+      </c>
+      <c r="H18" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F19" t="s">
-        <v>577</v>
-      </c>
-      <c r="G19">
+        <v>501</v>
+      </c>
+      <c r="G19" t="str">
         <f>菜单!$E$31</f>
-      </c>
-      <c r="H19">
+        <v>iam_menu-31</v>
+      </c>
+      <c r="H19" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F20" t="s">
-        <v>577</v>
-      </c>
-      <c r="G20">
+        <v>501</v>
+      </c>
+      <c r="G20" t="str">
         <f>菜单!$E$32</f>
-      </c>
-      <c r="H20">
+        <v>iam_menu-32</v>
+      </c>
+      <c r="H20" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I20" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F21" t="s">
-        <v>577</v>
-      </c>
-      <c r="G21">
+        <v>501</v>
+      </c>
+      <c r="G21" t="str">
         <f>菜单!$E$33</f>
-      </c>
-      <c r="H21">
+        <v>iam_menu-33</v>
+      </c>
+      <c r="H21" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I21" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F22" t="s">
-        <v>577</v>
-      </c>
-      <c r="G22">
+        <v>501</v>
+      </c>
+      <c r="G22" t="str">
         <f>菜单!$E$34</f>
-      </c>
-      <c r="H22">
+        <v>iam_menu-34</v>
+      </c>
+      <c r="H22" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F23" t="s">
-        <v>577</v>
-      </c>
-      <c r="G23">
+        <v>501</v>
+      </c>
+      <c r="G23" t="str">
         <f>菜单!$E$35</f>
-      </c>
-      <c r="H23">
+        <v>iam_menu-35</v>
+      </c>
+      <c r="H23" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I23" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F24" t="s">
-        <v>577</v>
-      </c>
-      <c r="G24">
+        <v>501</v>
+      </c>
+      <c r="G24" t="str">
         <f>菜单!$E$36</f>
-      </c>
-      <c r="H24">
+        <v>iam_menu-36</v>
+      </c>
+      <c r="H24" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I24" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F25" t="s">
-        <v>577</v>
-      </c>
-      <c r="G25">
+        <v>501</v>
+      </c>
+      <c r="G25" t="str">
         <f>菜单!$E$37</f>
-      </c>
-      <c r="H25">
+        <v>iam_menu-37</v>
+      </c>
+      <c r="H25" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I25" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F26" t="s">
-        <v>577</v>
-      </c>
-      <c r="G26">
+        <v>501</v>
+      </c>
+      <c r="G26" t="str">
         <f>菜单!$E$38</f>
-      </c>
-      <c r="H26">
+        <v>iam_menu-38</v>
+      </c>
+      <c r="H26" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I26" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F27" t="s">
-        <v>577</v>
-      </c>
-      <c r="G27">
+        <v>501</v>
+      </c>
+      <c r="G27" t="str">
         <f>菜单!$E$39</f>
-      </c>
-      <c r="H27">
+        <v>iam_menu-39</v>
+      </c>
+      <c r="H27" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I27" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F28" t="s">
-        <v>577</v>
-      </c>
-      <c r="G28">
+        <v>501</v>
+      </c>
+      <c r="G28" t="str">
         <f>菜单!$E$47</f>
-      </c>
-      <c r="H28">
+        <v>iam_menu-47</v>
+      </c>
+      <c r="H28" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I28" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F29" t="s">
-        <v>577</v>
-      </c>
-      <c r="G29">
+        <v>501</v>
+      </c>
+      <c r="G29" t="str">
         <f>菜单!$E$48</f>
-      </c>
-      <c r="H29">
+        <v>iam_menu-48</v>
+      </c>
+      <c r="H29" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F30" t="s">
-        <v>577</v>
-      </c>
-      <c r="G30">
+        <v>501</v>
+      </c>
+      <c r="G30" t="str">
         <f>菜单!$E$49</f>
-      </c>
-      <c r="H30">
+        <v>iam_menu-49</v>
+      </c>
+      <c r="H30" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F31" t="s">
-        <v>577</v>
-      </c>
-      <c r="G31">
+        <v>501</v>
+      </c>
+      <c r="G31" t="str">
         <f>菜单!$E$50</f>
-      </c>
-      <c r="H31">
+        <v>iam_menu-50</v>
+      </c>
+      <c r="H31" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I31" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F32" t="s">
-        <v>577</v>
-      </c>
-      <c r="G32">
+        <v>501</v>
+      </c>
+      <c r="G32" t="str">
         <f>菜单!$E$51</f>
-      </c>
-      <c r="H32">
+        <v>iam_menu-51</v>
+      </c>
+      <c r="H32" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I32" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F33" t="s">
-        <v>577</v>
-      </c>
-      <c r="G33">
+        <v>501</v>
+      </c>
+      <c r="G33" t="str">
         <f>菜单!$E$14</f>
-      </c>
-      <c r="H33">
+        <v>iam_menu-14</v>
+      </c>
+      <c r="H33" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I33" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F34" t="s">
-        <v>577</v>
-      </c>
-      <c r="G34">
+        <v>501</v>
+      </c>
+      <c r="G34" t="str">
         <f>菜单!$E$15</f>
-      </c>
-      <c r="H34">
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H34" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I34" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F35" t="s">
-        <v>577</v>
-      </c>
-      <c r="G35">
+        <v>501</v>
+      </c>
+      <c r="G35" t="str">
         <f>菜单!$E$18</f>
-      </c>
-      <c r="H35">
+        <v>iam_menu-18</v>
+      </c>
+      <c r="H35" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I35" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F36" t="s">
-        <v>577</v>
-      </c>
-      <c r="G36">
+        <v>501</v>
+      </c>
+      <c r="G36" t="str">
         <f>菜单!$E$19</f>
-      </c>
-      <c r="H36">
+        <v>iam_menu-19</v>
+      </c>
+      <c r="H36" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I36" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F37" t="s">
-        <v>577</v>
-      </c>
-      <c r="G37">
+        <v>501</v>
+      </c>
+      <c r="G37" t="str">
         <f>菜单!$E$26</f>
-      </c>
-      <c r="H37">
+        <v>iam_menu-26</v>
+      </c>
+      <c r="H37" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I37" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F38" t="s">
-        <v>577</v>
-      </c>
-      <c r="G38">
+        <v>501</v>
+      </c>
+      <c r="G38" t="str">
         <f>菜单!$E$40</f>
-      </c>
-      <c r="H38">
+        <v>iam_menu-40</v>
+      </c>
+      <c r="H38" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I38" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F39" t="s">
-        <v>577</v>
-      </c>
-      <c r="G39">
+        <v>501</v>
+      </c>
+      <c r="G39" t="str">
         <f>菜单!$E$41</f>
-      </c>
-      <c r="H39">
+        <v>iam_menu-41</v>
+      </c>
+      <c r="H39" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I39" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F40" t="s">
-        <v>577</v>
-      </c>
-      <c r="G40">
+        <v>501</v>
+      </c>
+      <c r="G40" t="str">
         <f>菜单!$E$42</f>
-      </c>
-      <c r="H40">
+        <v>iam_menu-42</v>
+      </c>
+      <c r="H40" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I40" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F41" t="s">
-        <v>577</v>
-      </c>
-      <c r="G41">
+        <v>501</v>
+      </c>
+      <c r="G41" t="str">
         <f>菜单!$E$43</f>
-      </c>
-      <c r="H41">
+        <v>iam_menu-43</v>
+      </c>
+      <c r="H41" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I41" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F42" t="s">
-        <v>577</v>
-      </c>
-      <c r="G42">
+        <v>501</v>
+      </c>
+      <c r="G42" t="str">
         <f>菜单!$E$46</f>
-      </c>
-      <c r="H42">
+        <v>iam_menu-46</v>
+      </c>
+      <c r="H42" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I42" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F43" t="s">
-        <v>577</v>
-      </c>
-      <c r="G43">
+        <v>501</v>
+      </c>
+      <c r="G43" t="str">
         <f>菜单!$E$27</f>
-      </c>
-      <c r="H43">
+        <v>iam_menu-27</v>
+      </c>
+      <c r="H43" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I43" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F44" t="s">
-        <v>577</v>
-      </c>
-      <c r="G44">
+        <v>501</v>
+      </c>
+      <c r="G44" t="str">
         <f>菜单!$E$28</f>
-      </c>
-      <c r="H44">
+        <v>iam_menu-28</v>
+      </c>
+      <c r="H44" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I44" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F45" t="s">
-        <v>577</v>
-      </c>
-      <c r="G45">
+        <v>501</v>
+      </c>
+      <c r="G45" t="str">
         <f>菜单!$E$44</f>
-      </c>
-      <c r="H45">
+        <v>iam_menu-44</v>
+      </c>
+      <c r="H45" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I45" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="F46" t="s">
-        <v>577</v>
-      </c>
-      <c r="G46">
+        <v>501</v>
+      </c>
+      <c r="G46" t="str">
         <f>菜单!$E$45</f>
-      </c>
-      <c r="H46">
+        <v>iam_menu-45</v>
+      </c>
+      <c r="H46" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I46" t="s">
-        <v>588</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-iam-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-iam-menu.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\choerodon\choerodon-monitor\src\main\resources\script\db\init-data\hzero_monitor\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F074EA-7F70-4B4D-BC1E-3A1CB29FF18D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,19 +19,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="622">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -56,7 +49,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -69,7 +61,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -88,7 +79,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -107,7 +97,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -126,7 +115,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -158,7 +146,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -177,7 +164,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -196,7 +182,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -218,7 +203,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -239,7 +223,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -260,7 +243,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -281,7 +263,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -302,7 +283,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -314,7 +294,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -333,7 +312,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -345,7 +323,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -364,7 +341,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -383,7 +359,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -402,7 +377,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -421,7 +395,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -469,7 +442,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -488,7 +460,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -507,7 +478,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -526,7 +496,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -538,7 +507,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -557,7 +525,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -576,7 +543,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -596,7 +562,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -615,7 +580,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -635,7 +599,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -654,7 +617,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -666,7 +628,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -685,7 +646,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -704,7 +664,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -728,7 +687,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -747,7 +705,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -766,7 +723,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -785,7 +741,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -804,7 +759,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -816,7 +770,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -835,7 +788,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -846,7 +798,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -867,7 +818,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -878,7 +828,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -897,7 +846,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -916,7 +864,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -940,7 +887,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -959,7 +905,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -979,7 +924,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -999,7 +943,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1019,7 +962,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1040,7 +982,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1060,7 +1001,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1095,7 +1035,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1116,7 +1055,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1128,7 +1066,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1147,7 +1084,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1168,7 +1104,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1187,7 +1122,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1200,7 +1134,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1219,7 +1152,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1238,7 +1170,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1257,7 +1188,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1272,7 +1202,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1291,7 +1220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1310,7 +1238,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1329,7 +1256,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1348,7 +1274,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1364,7 +1289,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1374,7 +1298,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1393,7 +1316,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1409,7 +1331,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1419,7 +1340,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1438,7 +1358,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1453,7 +1372,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1472,7 +1390,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1491,7 +1408,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1511,7 +1427,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1535,7 +1450,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1554,7 +1468,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1573,7 +1486,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1593,7 +1505,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1614,7 +1525,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1625,7 +1535,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1635,7 +1544,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1647,7 +1555,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1666,7 +1573,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1685,7 +1591,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1704,7 +1609,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1724,7 +1628,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1743,7 +1646,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1762,7 +1664,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1782,7 +1683,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1801,7 +1701,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1820,7 +1719,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1839,7 +1737,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1859,7 +1756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1871,7 +1767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1882,7 +1777,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1892,7 +1786,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1904,7 +1797,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1923,7 +1815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1935,7 +1826,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1954,7 +1844,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1974,7 +1863,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2701,6 +2589,87 @@
     <t>hzero.site.hmnt|hzero.site.hmnt.op-audit|hzero.site.hmnt.op-audit.audit-query|hzero.site.hmnt.op-audit.audit-query.ps.default</t>
   </si>
   <si>
+    <t>iam_menu-52</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager</t>
+  </si>
+  <si>
+    <t>管理</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>iam_menu-53</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.platform-overview</t>
+  </si>
+  <si>
+    <t>平台概览</t>
+  </si>
+  <si>
+    <t>PTGL</t>
+  </si>
+  <si>
+    <t>poll</t>
+  </si>
+  <si>
+    <t>/iam/platform-overview</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager|choerodon.code.site.manager.platform-overview</t>
+  </si>
+  <si>
+    <t>iam_menu-54</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.platform-overview.ps.default</t>
+  </si>
+  <si>
+    <t>平台概览默认权限集</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager|choerodon.code.site.manager.platform-overview|choerodon.code.site.manager.platform-overview.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-55</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager</t>
+  </si>
+  <si>
+    <t>iam_menu-57</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager.overview</t>
+  </si>
+  <si>
+    <t>组织概览</t>
+  </si>
+  <si>
+    <t>ZZGL</t>
+  </si>
+  <si>
+    <t>/iam/org-overview</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager|choerodon.code.organization.manager.overview</t>
+  </si>
+  <si>
+    <t>iam_menu-56</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager.overview.ps.default</t>
+  </si>
+  <si>
+    <t>组织概览默认权限集</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager|choerodon.code.organization.manager.overview|choerodon.code.organization.manager.overview.ps.default</t>
+  </si>
+  <si>
     <t>菜单权限</t>
   </si>
   <si>
@@ -2725,45 +2694,87 @@
     <t>iam_menu_permission-9</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data-config-line.enableOrDisable</t>
+  </si>
+  <si>
     <t>iam_menu_permission-10</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data-config-line.list</t>
+  </si>
+  <si>
     <t>iam_menu_permission-11</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data-config-line.update</t>
+  </si>
+  <si>
     <t>iam_menu_permission-12</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data-config.create</t>
+  </si>
+  <si>
     <t>iam_menu_permission-13</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data-config.detail</t>
+  </si>
+  <si>
     <t>iam_menu_permission-14</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data-config.list</t>
+  </si>
+  <si>
     <t>iam_menu_permission-15</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data-config.update</t>
+  </si>
+  <si>
     <t>iam_menu_permission-16</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data-config.updateSingle</t>
+  </si>
+  <si>
     <t>iam_menu_permission-17</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-relationship.createRel</t>
+  </si>
+  <si>
     <t>iam_menu_permission-18</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-relationship.deleteRel</t>
+  </si>
+  <si>
     <t>iam_menu_permission-19</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-relationship.listDataOperation</t>
+  </si>
+  <si>
     <t>iam_menu_permission-20</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data.exportAuditData</t>
+  </si>
+  <si>
     <t>iam_menu_permission-21</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data.selectAuditData</t>
+  </si>
+  <si>
     <t>iam_menu_permission-22</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data.selectAuditDataDetail</t>
+  </si>
+  <si>
     <t>iam_menu_permission-23</t>
   </si>
   <si>
@@ -2773,12 +2784,21 @@
     <t>iam_menu_permission-24</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document-log.detail</t>
+  </si>
+  <si>
     <t>iam_menu_permission-25</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document-log.list</t>
+  </si>
+  <si>
     <t>iam_menu_permission-26</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document-log.summary</t>
+  </si>
+  <si>
     <t>iam_menu_permission-27</t>
   </si>
   <si>
@@ -2788,42 +2808,81 @@
     <t>iam_menu_permission-28</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document.addAuditOp</t>
+  </si>
+  <si>
     <t>iam_menu_permission-29</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document.copy</t>
+  </si>
+  <si>
     <t>iam_menu_permission-30</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document.create</t>
+  </si>
+  <si>
     <t>iam_menu_permission-31</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document.deleteAuditOp</t>
+  </si>
+  <si>
     <t>iam_menu_permission-32</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document.detail</t>
+  </si>
+  <si>
     <t>iam_menu_permission-33</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document.detailOp</t>
+  </si>
+  <si>
     <t>iam_menu_permission-34</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document.list</t>
+  </si>
+  <si>
     <t>iam_menu_permission-35</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document.listAuditOpData</t>
+  </si>
+  <si>
     <t>iam_menu_permission-36</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document.page</t>
+  </si>
+  <si>
     <t>iam_menu_permission-37</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document.remove</t>
+  </si>
+  <si>
     <t>iam_menu_permission-38</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document.saveAuditOpData</t>
+  </si>
+  <si>
     <t>iam_menu_permission-39</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document.update</t>
+  </si>
+  <si>
     <t>iam_menu_permission-40</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-op-config.pageAuditOpConfig</t>
+  </si>
+  <si>
     <t>iam_menu_permission-41</t>
   </si>
   <si>
@@ -2854,24 +2913,45 @@
     <t>iam_menu_permission-47</t>
   </si>
   <si>
+    <t>choerodon-admin.service-route.pageRoutes</t>
+  </si>
+  <si>
     <t>iam_menu_permission-48</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-op-config.create</t>
+  </si>
+  <si>
     <t>iam_menu_permission-49</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-op-config.delete</t>
+  </si>
+  <si>
     <t>iam_menu_permission-50</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-op-config.page</t>
+  </si>
+  <si>
     <t>iam_menu_permission-51</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-op-config.query</t>
+  </si>
+  <si>
     <t>iam_menu_permission-52</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-op-config.update</t>
+  </si>
+  <si>
     <t>iam_menu_permission-53</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-relationship.listOperationData</t>
+  </si>
+  <si>
     <t>iam_menu_permission-54</t>
   </si>
   <si>
@@ -2896,12 +2976,21 @@
     <t>iam_menu_permission-59</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-op-log.export</t>
+  </si>
+  <si>
     <t>iam_menu_permission-60</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-op-log.page</t>
+  </si>
+  <si>
     <t>iam_menu_permission-61</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-op-log.query</t>
+  </si>
+  <si>
     <t>iam_menu_permission-62</t>
   </si>
   <si>
@@ -2920,87 +3009,159 @@
     <t>iam_menu_permission-65</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data-config-line-site.enableOrDisable</t>
+  </si>
+  <si>
     <t>iam_menu_permission-66</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data-config-line-site.list</t>
+  </si>
+  <si>
     <t>iam_menu_permission-67</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data-config-line-site.update</t>
+  </si>
+  <si>
     <t>iam_menu_permission-68</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data-config-site.create</t>
+  </si>
+  <si>
     <t>iam_menu_permission-69</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data-config-site.detail</t>
+  </si>
+  <si>
     <t>iam_menu_permission-70</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data-config-site.list</t>
+  </si>
+  <si>
     <t>iam_menu_permission-71</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data-config-site.update</t>
+  </si>
+  <si>
     <t>iam_menu_permission-72</t>
   </si>
   <si>
     <t>iam_menu_permission-73</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data-site.exportAuditData</t>
+  </si>
+  <si>
     <t>iam_menu_permission-74</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data-site.selectAuditData</t>
+  </si>
+  <si>
     <t>iam_menu_permission-75</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-data-site.selectAuditDataDetail</t>
+  </si>
+  <si>
     <t>iam_menu_permission-76</t>
   </si>
   <si>
     <t>iam_menu_permission-77</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document-site.addAuditOp</t>
+  </si>
+  <si>
     <t>iam_menu_permission-78</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document-site.create</t>
+  </si>
+  <si>
     <t>iam_menu_permission-79</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document-site.deleteAuditOp</t>
+  </si>
+  <si>
     <t>iam_menu_permission-80</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document-site.detail</t>
+  </si>
+  <si>
     <t>iam_menu_permission-81</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document-site.detailOp</t>
+  </si>
+  <si>
     <t>iam_menu_permission-82</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document-site.list</t>
+  </si>
+  <si>
     <t>iam_menu_permission-83</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document-site.remove</t>
+  </si>
+  <si>
     <t>iam_menu_permission-84</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document-site.update</t>
+  </si>
+  <si>
     <t>iam_menu_permission-85</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-op-config-site.pageAuditOpConfig</t>
+  </si>
+  <si>
     <t>iam_menu_permission-86</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-op-config-site.query</t>
+  </si>
+  <si>
     <t>iam_menu_permission-87</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-relationship-site.listOperationData</t>
+  </si>
+  <si>
     <t>iam_menu_permission-88</t>
   </si>
   <si>
     <t>iam_menu_permission-89</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document-log-site.summary</t>
+  </si>
+  <si>
     <t>iam_menu_permission-90</t>
   </si>
   <si>
     <t>iam_menu_permission-91</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document-log-site.detail</t>
+  </si>
+  <si>
     <t>iam_menu_permission-92</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-document-log-site.list</t>
+  </si>
+  <si>
     <t>iam_menu_permission-93</t>
   </si>
   <si>
@@ -3025,21 +3186,39 @@
     <t>iam_menu_permission-99</t>
   </si>
   <si>
+    <t>choerodon-admin-test.service-route-site-level.create</t>
+  </si>
+  <si>
     <t>iam_menu_permission-100</t>
   </si>
   <si>
+    <t>choerodon-admin-test.service-route-site-level.detail</t>
+  </si>
+  <si>
     <t>iam_menu_permission-101</t>
   </si>
   <si>
+    <t>choerodon-admin-test.service-route-site-level.pageRoutes</t>
+  </si>
+  <si>
     <t>iam_menu_permission-102</t>
   </si>
   <si>
+    <t>choerodon-admin.service-route-site-level.create</t>
+  </si>
+  <si>
     <t>iam_menu_permission-103</t>
   </si>
   <si>
+    <t>choerodon-admin.service-route-site-level.detailById</t>
+  </si>
+  <si>
     <t>iam_menu_permission-104</t>
   </si>
   <si>
+    <t>choerodon-admin.service-route-site-level.pageRoutes</t>
+  </si>
+  <si>
     <t>iam_menu_permission-105</t>
   </si>
   <si>
@@ -3064,18 +3243,30 @@
     <t>iam_menu_permission-111</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-op-config-site.create</t>
+  </si>
+  <si>
     <t>iam_menu_permission-112</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-op-config-site.delete</t>
+  </si>
+  <si>
     <t>iam_menu_permission-113</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-op-config-site.page</t>
+  </si>
+  <si>
     <t>iam_menu_permission-114</t>
   </si>
   <si>
     <t>iam_menu_permission-115</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-op-config-site.update</t>
+  </si>
+  <si>
     <t>iam_menu_permission-116</t>
   </si>
   <si>
@@ -3091,9 +3282,27 @@
     <t>iam_menu_permission-120</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-op-log-site.page</t>
+  </si>
+  <si>
     <t>iam_menu_permission-121</t>
   </si>
   <si>
+    <t>choerodon-monitor.audit-op-log-site.query</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-122</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-log-c7n.sitePage</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-123</t>
+  </si>
+  <si>
+    <t>choerodon-monitor.audit-op-log-c7n.organizationPage</t>
+  </si>
+  <si>
     <t>角色</t>
   </si>
   <si>
@@ -3316,6 +3525,12 @@
     <t>iam_role_permission-43</t>
   </si>
   <si>
+    <t>iam_role_permission-44</t>
+  </si>
+  <si>
+    <t>iam_role_permission-45</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -3386,244 +3601,52 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>choerodon-admin.service-route.pageRoutes</t>
-  </si>
-  <si>
-    <t>choerodon-admin-test.service-route-site-level.create</t>
-  </si>
-  <si>
-    <t>choerodon-admin-test.service-route-site-level.detail</t>
-  </si>
-  <si>
-    <t>choerodon-admin-test.service-route-site-level.pageRoutes</t>
-  </si>
-  <si>
-    <t>choerodon-admin.service-route-site-level.create</t>
-  </si>
-  <si>
-    <t>choerodon-admin.service-route-site-level.detailById</t>
-  </si>
-  <si>
-    <t>choerodon-admin.service-route-site-level.pageRoutes</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data-config-line.enableOrDisable</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data-config-line.list</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data-config-line.update</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data-config.create</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data-config.detail</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data-config.list</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data-config.update</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data-config.updateSingle</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-relationship.createRel</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-relationship.deleteRel</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-relationship.listDataOperation</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data.exportAuditData</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data.selectAuditData</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data.selectAuditDataDetail</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document-log.detail</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document-log.list</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document-log.summary</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document.addAuditOp</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document.copy</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document.create</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document.deleteAuditOp</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document.detail</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document.detailOp</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document.list</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document.listAuditOpData</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document.page</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document.remove</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document.saveAuditOpData</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document.update</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-op-config.pageAuditOpConfig</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-op-config.create</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-op-config.delete</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-op-config.page</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-op-config.query</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-op-config.update</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-relationship.listOperationData</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-op-log.export</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-op-log.page</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-op-log.query</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data-config-line-site.enableOrDisable</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data-config-line-site.list</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data-config-line-site.update</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data-config-site.create</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data-config-site.detail</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data-config-site.list</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data-config-site.update</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data-site.exportAuditData</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data-site.selectAuditData</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-data-site.selectAuditDataDetail</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document-site.addAuditOp</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document-site.create</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document-site.deleteAuditOp</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document-site.detail</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document-site.detailOp</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document-site.list</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document-site.remove</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document-site.update</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-op-config-site.pageAuditOpConfig</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-op-config-site.query</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-relationship-site.listOperationData</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document-log-site.summary</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document-log-site.detail</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-document-log-site.list</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-op-config-site.create</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-op-config-site.delete</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-op-config-site.page</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-op-config-site.update</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-op-log-site.page</t>
-  </si>
-  <si>
-    <t>choerodon-monitor.audit-op-log-site.query</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="77">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3660,36 +3683,159 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3711,389 +3857,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4124,8 +3926,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -4226,13 +4214,268 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4241,32 +4484,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4276,93 +4531,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4435,9 +4666,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4695,281 +4923,292 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="10" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="C1" s="87" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="86" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="88" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="89" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="16" t="s">
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="19" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="13" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="21" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="24" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="24" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="24" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="24" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="25" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="86"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="14" t="s">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="86"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="26" t="s">
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D40" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <cols>
+    <col min="5" max="5" width="27.4166666666667" customWidth="1"/>
+    <col min="6" max="6" width="51.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.8333333333333" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="31" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4983,13 +5222,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -5001,10 +5240,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -5025,7 +5264,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="60" t="s">
+      <c r="R7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -5050,7 +5289,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="5:24">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -5103,7 +5342,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="5:24">
       <c r="E9" t="s">
         <v>87</v>
       </c>
@@ -5154,7 +5393,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:24">
       <c r="E10" t="s">
         <v>95</v>
       </c>
@@ -5208,7 +5447,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="5:24">
       <c r="E11" t="s">
         <v>103</v>
       </c>
@@ -5262,7 +5501,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="5:24">
       <c r="E12" t="s">
         <v>110</v>
       </c>
@@ -5316,7 +5555,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="5:24">
       <c r="E13" t="s">
         <v>116</v>
       </c>
@@ -5373,7 +5612,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="5:24">
       <c r="E14" t="s">
         <v>119</v>
       </c>
@@ -5424,7 +5663,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="5:24">
       <c r="E15" t="s">
         <v>125</v>
       </c>
@@ -5481,7 +5720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="5:24">
       <c r="E16" t="s">
         <v>133</v>
       </c>
@@ -7391,47 +7630,362 @@
         <v>84</v>
       </c>
     </row>
+    <row r="52" spans="5:24">
+      <c r="E52" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F52" t="s">
+        <v>285</v>
+      </c>
+      <c r="G52" t="s">
+        <v>286</v>
+      </c>
+      <c r="H52" t="s">
+        <v>286</v>
+      </c>
+      <c r="I52" t="s">
+        <v>287</v>
+      </c>
+      <c r="J52" t="s">
+        <v>220</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>82</v>
+      </c>
+      <c r="M52">
+        <v>10</v>
+      </c>
+      <c r="N52" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>81</v>
+      </c>
+      <c r="R52" t="s">
+        <v>81</v>
+      </c>
+      <c r="S52" t="s">
+        <v>285</v>
+      </c>
+      <c r="T52" t="s">
+        <v>81</v>
+      </c>
+      <c r="V52" t="s">
+        <v>86</v>
+      </c>
+      <c r="X52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="5:24">
+      <c r="E53" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F53" t="s">
+        <v>289</v>
+      </c>
+      <c r="G53" t="s">
+        <v>290</v>
+      </c>
+      <c r="H53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I53" t="s">
+        <v>291</v>
+      </c>
+      <c r="J53" t="s">
+        <v>220</v>
+      </c>
+      <c r="K53" t="str">
+        <f>E52</f>
+        <v>iam_menu-52</v>
+      </c>
+      <c r="L53" t="s">
+        <v>100</v>
+      </c>
+      <c r="M53" t="s">
+        <v>93</v>
+      </c>
+      <c r="N53" t="s">
+        <v>84</v>
+      </c>
+      <c r="O53" t="s">
+        <v>292</v>
+      </c>
+      <c r="P53" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>81</v>
+      </c>
+      <c r="R53" t="s">
+        <v>81</v>
+      </c>
+      <c r="S53" t="s">
+        <v>294</v>
+      </c>
+      <c r="T53" t="s">
+        <v>81</v>
+      </c>
+      <c r="V53" t="s">
+        <v>86</v>
+      </c>
+      <c r="X53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="5:24">
+      <c r="E54" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F54" t="s">
+        <v>296</v>
+      </c>
+      <c r="G54" t="s">
+        <v>297</v>
+      </c>
+      <c r="H54" t="s">
+        <v>297</v>
+      </c>
+      <c r="J54" t="s">
+        <v>220</v>
+      </c>
+      <c r="K54" t="str">
+        <f>E53</f>
+        <v>iam_menu-53</v>
+      </c>
+      <c r="L54" t="s">
+        <v>107</v>
+      </c>
+      <c r="M54" t="s">
+        <v>81</v>
+      </c>
+      <c r="N54" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>81</v>
+      </c>
+      <c r="R54" t="s">
+        <v>81</v>
+      </c>
+      <c r="S54" t="s">
+        <v>298</v>
+      </c>
+      <c r="T54" t="s">
+        <v>81</v>
+      </c>
+      <c r="V54" t="s">
+        <v>86</v>
+      </c>
+      <c r="X54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="5:24">
+      <c r="E55" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G55" t="s">
+        <v>286</v>
+      </c>
+      <c r="H55" t="s">
+        <v>286</v>
+      </c>
+      <c r="I55" t="s">
+        <v>287</v>
+      </c>
+      <c r="J55" t="s">
+        <v>80</v>
+      </c>
+      <c r="K55" t="s">
+        <v>81</v>
+      </c>
+      <c r="L55" t="s">
+        <v>82</v>
+      </c>
+      <c r="M55" t="s">
+        <v>81</v>
+      </c>
+      <c r="N55" t="s">
+        <v>84</v>
+      </c>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55" t="s">
+        <v>81</v>
+      </c>
+      <c r="R55" t="s">
+        <v>81</v>
+      </c>
+      <c r="S55" t="s">
+        <v>300</v>
+      </c>
+      <c r="T55" t="s">
+        <v>81</v>
+      </c>
+      <c r="V55" t="s">
+        <v>86</v>
+      </c>
+      <c r="X55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="5:24">
+      <c r="E56" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F56" t="s">
+        <v>302</v>
+      </c>
+      <c r="G56" t="s">
+        <v>303</v>
+      </c>
+      <c r="H56" t="s">
+        <v>303</v>
+      </c>
+      <c r="I56" t="s">
+        <v>304</v>
+      </c>
+      <c r="J56" t="s">
+        <v>80</v>
+      </c>
+      <c r="K56" t="str">
+        <f>E55</f>
+        <v>iam_menu-55</v>
+      </c>
+      <c r="L56" t="s">
+        <v>100</v>
+      </c>
+      <c r="M56" t="s">
+        <v>93</v>
+      </c>
+      <c r="N56" t="s">
+        <v>84</v>
+      </c>
+      <c r="O56" t="s">
+        <v>292</v>
+      </c>
+      <c r="P56" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>81</v>
+      </c>
+      <c r="R56" t="s">
+        <v>81</v>
+      </c>
+      <c r="S56" t="s">
+        <v>306</v>
+      </c>
+      <c r="T56" t="s">
+        <v>81</v>
+      </c>
+      <c r="V56" t="s">
+        <v>86</v>
+      </c>
+      <c r="X56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="5:24">
+      <c r="E57" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F57" t="s">
+        <v>308</v>
+      </c>
+      <c r="G57" t="s">
+        <v>309</v>
+      </c>
+      <c r="H57" t="s">
+        <v>309</v>
+      </c>
+      <c r="J57" t="s">
+        <v>80</v>
+      </c>
+      <c r="K57" t="str">
+        <f>E57</f>
+        <v>iam_menu-56</v>
+      </c>
+      <c r="L57" t="s">
+        <v>107</v>
+      </c>
+      <c r="M57" t="s">
+        <v>81</v>
+      </c>
+      <c r="N57" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>81</v>
+      </c>
+      <c r="R57" t="s">
+        <v>81</v>
+      </c>
+      <c r="S57" t="s">
+        <v>310</v>
+      </c>
+      <c r="T57" t="s">
+        <v>81</v>
+      </c>
+      <c r="V57" t="s">
+        <v>86</v>
+      </c>
+      <c r="X57" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="B107" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.0833333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.8333333333333" customWidth="1"/>
+    <col min="7" max="7" width="50.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="E4" s="38" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7443,154 +7997,154 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="E7" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>287</v>
+      <c r="F7" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="H7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8">
       <c r="E8" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="F8" t="str">
         <f>菜单!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G8" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="H8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="5:8">
       <c r="E9" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="F9" t="str">
         <f>菜单!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G9" t="s">
-        <v>520</v>
+        <v>319</v>
       </c>
       <c r="H9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="5:8">
       <c r="E10" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="F10" t="str">
         <f>菜单!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G10" t="s">
-        <v>521</v>
+        <v>321</v>
       </c>
       <c r="H10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="5:8">
       <c r="E11" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="F11" t="str">
         <f>菜单!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G11" t="s">
-        <v>522</v>
+        <v>323</v>
       </c>
       <c r="H11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="5:8">
       <c r="E12" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="F12" t="str">
         <f>菜单!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G12" t="s">
-        <v>523</v>
+        <v>325</v>
       </c>
       <c r="H12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="5:8">
       <c r="E13" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="F13" t="str">
         <f>菜单!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G13" t="s">
-        <v>524</v>
+        <v>327</v>
       </c>
       <c r="H13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="5:8">
       <c r="E14" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="F14" t="str">
         <f>菜单!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G14" t="s">
-        <v>525</v>
+        <v>329</v>
       </c>
       <c r="H14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="5:8">
       <c r="E15" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="F15" t="str">
         <f>菜单!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G15" t="s">
-        <v>526</v>
+        <v>331</v>
       </c>
       <c r="H15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="5:8">
       <c r="E16" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="F16" t="str">
         <f>菜单!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G16" t="s">
-        <v>527</v>
+        <v>333</v>
       </c>
       <c r="H16" t="s">
         <v>81</v>
@@ -7598,14 +8152,14 @@
     </row>
     <row r="17" spans="5:8">
       <c r="E17" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="F17" t="str">
         <f>菜单!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G17" t="s">
-        <v>528</v>
+        <v>335</v>
       </c>
       <c r="H17" t="s">
         <v>81</v>
@@ -7613,14 +8167,14 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="F18" t="str">
         <f>菜单!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G18" t="s">
-        <v>529</v>
+        <v>337</v>
       </c>
       <c r="H18" t="s">
         <v>81</v>
@@ -7628,14 +8182,14 @@
     </row>
     <row r="19" spans="5:8">
       <c r="E19" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="F19" t="str">
         <f>菜单!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G19" t="s">
-        <v>530</v>
+        <v>339</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
@@ -7643,14 +8197,14 @@
     </row>
     <row r="20" spans="5:8">
       <c r="E20" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="F20" t="str">
         <f>菜单!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G20" t="s">
-        <v>531</v>
+        <v>341</v>
       </c>
       <c r="H20" t="s">
         <v>81</v>
@@ -7658,14 +8212,14 @@
     </row>
     <row r="21" spans="5:8">
       <c r="E21" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="F21" t="str">
         <f>菜单!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G21" t="s">
-        <v>532</v>
+        <v>343</v>
       </c>
       <c r="H21" t="s">
         <v>81</v>
@@ -7673,14 +8227,14 @@
     </row>
     <row r="22" spans="5:8">
       <c r="E22" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="F22" t="str">
         <f>菜单!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G22" t="s">
-        <v>533</v>
+        <v>345</v>
       </c>
       <c r="H22" t="s">
         <v>81</v>
@@ -7688,14 +8242,14 @@
     </row>
     <row r="23" spans="5:8">
       <c r="E23" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="F23" t="str">
         <f>菜单!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G23" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="H23" t="s">
         <v>81</v>
@@ -7703,14 +8257,14 @@
     </row>
     <row r="24" spans="5:8">
       <c r="E24" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="F24" t="str">
         <f>菜单!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G24" t="s">
-        <v>534</v>
+        <v>349</v>
       </c>
       <c r="H24" t="s">
         <v>81</v>
@@ -7718,14 +8272,14 @@
     </row>
     <row r="25" spans="5:8">
       <c r="E25" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="F25" t="str">
         <f>菜单!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G25" t="s">
-        <v>535</v>
+        <v>351</v>
       </c>
       <c r="H25" t="s">
         <v>81</v>
@@ -7733,14 +8287,14 @@
     </row>
     <row r="26" spans="5:8">
       <c r="E26" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="F26" t="str">
         <f>菜单!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G26" t="s">
-        <v>536</v>
+        <v>353</v>
       </c>
       <c r="H26" t="s">
         <v>81</v>
@@ -7748,14 +8302,14 @@
     </row>
     <row r="27" spans="5:8">
       <c r="E27" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="F27" t="str">
         <f>菜单!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G27" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="H27" t="s">
         <v>81</v>
@@ -7763,14 +8317,14 @@
     </row>
     <row r="28" spans="5:8">
       <c r="E28" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="F28" t="str">
         <f>菜单!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G28" t="s">
-        <v>537</v>
+        <v>357</v>
       </c>
       <c r="H28" t="s">
         <v>81</v>
@@ -7778,14 +8332,14 @@
     </row>
     <row r="29" spans="5:8">
       <c r="E29" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="F29" t="str">
         <f>菜单!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G29" t="s">
-        <v>538</v>
+        <v>359</v>
       </c>
       <c r="H29" t="s">
         <v>81</v>
@@ -7793,14 +8347,14 @@
     </row>
     <row r="30" spans="5:8">
       <c r="E30" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="F30" t="str">
         <f>菜单!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G30" t="s">
-        <v>539</v>
+        <v>361</v>
       </c>
       <c r="H30" t="s">
         <v>81</v>
@@ -7808,14 +8362,14 @@
     </row>
     <row r="31" spans="5:8">
       <c r="E31" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="F31" t="str">
         <f>菜单!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G31" t="s">
-        <v>540</v>
+        <v>363</v>
       </c>
       <c r="H31" t="s">
         <v>81</v>
@@ -7823,14 +8377,14 @@
     </row>
     <row r="32" spans="5:8">
       <c r="E32" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="F32" t="str">
         <f>菜单!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G32" t="s">
-        <v>541</v>
+        <v>365</v>
       </c>
       <c r="H32" t="s">
         <v>81</v>
@@ -7838,14 +8392,14 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="F33" t="str">
         <f>菜单!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G33" t="s">
-        <v>542</v>
+        <v>367</v>
       </c>
       <c r="H33" t="s">
         <v>81</v>
@@ -7853,14 +8407,14 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="F34" t="str">
         <f>菜单!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G34" t="s">
-        <v>543</v>
+        <v>369</v>
       </c>
       <c r="H34" t="s">
         <v>81</v>
@@ -7868,14 +8422,14 @@
     </row>
     <row r="35" spans="5:8">
       <c r="E35" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="F35" t="str">
         <f>菜单!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G35" t="s">
-        <v>544</v>
+        <v>371</v>
       </c>
       <c r="H35" t="s">
         <v>81</v>
@@ -7883,14 +8437,14 @@
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="F36" t="str">
         <f>菜单!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G36" t="s">
-        <v>545</v>
+        <v>373</v>
       </c>
       <c r="H36" t="s">
         <v>81</v>
@@ -7898,14 +8452,14 @@
     </row>
     <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="F37" t="str">
         <f>菜单!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G37" t="s">
-        <v>546</v>
+        <v>375</v>
       </c>
       <c r="H37" t="s">
         <v>81</v>
@@ -7913,14 +8467,14 @@
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="F38" t="str">
         <f>菜单!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G38" t="s">
-        <v>547</v>
+        <v>377</v>
       </c>
       <c r="H38" t="s">
         <v>81</v>
@@ -7928,14 +8482,14 @@
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>323</v>
+        <v>378</v>
       </c>
       <c r="F39" t="str">
         <f>菜单!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G39" t="s">
-        <v>548</v>
+        <v>379</v>
       </c>
       <c r="H39" t="s">
         <v>81</v>
@@ -7943,14 +8497,14 @@
     </row>
     <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="F40" t="str">
         <f>菜单!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G40" t="s">
-        <v>549</v>
+        <v>381</v>
       </c>
       <c r="H40" t="s">
         <v>81</v>
@@ -7958,14 +8512,14 @@
     </row>
     <row r="41" spans="5:8">
       <c r="E41" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="F41" t="str">
         <f>菜单!$E$28</f>
         <v>iam_menu-28</v>
       </c>
       <c r="G41" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="H41" t="s">
         <v>81</v>
@@ -7973,14 +8527,14 @@
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="F42" t="str">
         <f>菜单!$E$28</f>
         <v>iam_menu-28</v>
       </c>
       <c r="G42" t="s">
-        <v>536</v>
+        <v>353</v>
       </c>
       <c r="H42" t="s">
         <v>81</v>
@@ -7988,14 +8542,14 @@
     </row>
     <row r="43" spans="5:8">
       <c r="E43" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="F43" t="str">
         <f>菜单!$E$31</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G43" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="H43" t="s">
         <v>81</v>
@@ -8003,14 +8557,14 @@
     </row>
     <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="F44" t="str">
         <f>菜单!$E$31</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G44" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="H44" t="s">
         <v>81</v>
@@ -8018,14 +8572,14 @@
     </row>
     <row r="45" spans="5:8">
       <c r="E45" t="s">
-        <v>331</v>
+        <v>388</v>
       </c>
       <c r="F45" t="str">
         <f>菜单!$E$31</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G45" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="H45" t="s">
         <v>81</v>
@@ -8033,14 +8587,14 @@
     </row>
     <row r="46" spans="5:8">
       <c r="E46" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="F46" t="str">
         <f>菜单!$E$31</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G46" t="s">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="H46" t="s">
         <v>81</v>
@@ -8048,14 +8602,14 @@
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="F47" t="str">
         <f>菜单!$E$31</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G47" t="s">
-        <v>513</v>
+        <v>392</v>
       </c>
       <c r="H47" t="s">
         <v>81</v>
@@ -8063,14 +8617,14 @@
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="F48" t="str">
         <f>菜单!$E$31</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G48" t="s">
-        <v>550</v>
+        <v>394</v>
       </c>
       <c r="H48" t="s">
         <v>81</v>
@@ -8078,14 +8632,14 @@
     </row>
     <row r="49" spans="5:8">
       <c r="E49" t="s">
-        <v>336</v>
+        <v>395</v>
       </c>
       <c r="F49" t="str">
         <f>菜单!$E$31</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G49" t="s">
-        <v>551</v>
+        <v>396</v>
       </c>
       <c r="H49" t="s">
         <v>81</v>
@@ -8093,14 +8647,14 @@
     </row>
     <row r="50" spans="5:8">
       <c r="E50" t="s">
-        <v>337</v>
+        <v>397</v>
       </c>
       <c r="F50" t="str">
         <f>菜单!$E$31</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G50" t="s">
-        <v>552</v>
+        <v>398</v>
       </c>
       <c r="H50" t="s">
         <v>81</v>
@@ -8108,14 +8662,14 @@
     </row>
     <row r="51" spans="5:8">
       <c r="E51" t="s">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="F51" t="str">
         <f>菜单!$E$31</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G51" t="s">
-        <v>553</v>
+        <v>400</v>
       </c>
       <c r="H51" t="s">
         <v>81</v>
@@ -8123,14 +8677,14 @@
     </row>
     <row r="52" spans="5:8">
       <c r="E52" t="s">
-        <v>339</v>
+        <v>401</v>
       </c>
       <c r="F52" t="str">
         <f>菜单!$E$31</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G52" t="s">
-        <v>554</v>
+        <v>402</v>
       </c>
       <c r="H52" t="s">
         <v>81</v>
@@ -8138,14 +8692,14 @@
     </row>
     <row r="53" spans="5:8">
       <c r="E53" t="s">
-        <v>340</v>
+        <v>403</v>
       </c>
       <c r="F53" t="str">
         <f>菜单!$E$31</f>
         <v>iam_menu-31</v>
       </c>
       <c r="G53" t="s">
-        <v>555</v>
+        <v>404</v>
       </c>
       <c r="H53" t="s">
         <v>81</v>
@@ -8153,14 +8707,14 @@
     </row>
     <row r="54" spans="5:8">
       <c r="E54" t="s">
-        <v>341</v>
+        <v>405</v>
       </c>
       <c r="F54" t="str">
         <f>菜单!$E$33</f>
         <v>iam_menu-33</v>
       </c>
       <c r="G54" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="H54" t="s">
         <v>81</v>
@@ -8168,14 +8722,14 @@
     </row>
     <row r="55" spans="5:8">
       <c r="E55" t="s">
-        <v>342</v>
+        <v>406</v>
       </c>
       <c r="F55" t="str">
         <f>菜单!$E$33</f>
         <v>iam_menu-33</v>
       </c>
       <c r="G55" t="s">
-        <v>343</v>
+        <v>407</v>
       </c>
       <c r="H55" t="s">
         <v>81</v>
@@ -8183,14 +8737,14 @@
     </row>
     <row r="56" spans="5:8">
       <c r="E56" t="s">
-        <v>344</v>
+        <v>408</v>
       </c>
       <c r="F56" t="str">
         <f>菜单!$E$33</f>
         <v>iam_menu-33</v>
       </c>
       <c r="G56" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="H56" t="s">
         <v>81</v>
@@ -8198,14 +8752,14 @@
     </row>
     <row r="57" spans="5:8">
       <c r="E57" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="F57" t="str">
         <f>菜单!$E$33</f>
         <v>iam_menu-33</v>
       </c>
       <c r="G57" t="s">
-        <v>346</v>
+        <v>410</v>
       </c>
       <c r="H57" t="s">
         <v>81</v>
@@ -8213,14 +8767,14 @@
     </row>
     <row r="58" spans="5:8">
       <c r="E58" t="s">
-        <v>347</v>
+        <v>411</v>
       </c>
       <c r="F58" t="str">
         <f>菜单!$E$33</f>
         <v>iam_menu-33</v>
       </c>
       <c r="G58" t="s">
-        <v>513</v>
+        <v>392</v>
       </c>
       <c r="H58" t="s">
         <v>81</v>
@@ -8228,14 +8782,14 @@
     </row>
     <row r="59" spans="5:8">
       <c r="E59" t="s">
-        <v>348</v>
+        <v>412</v>
       </c>
       <c r="F59" t="str">
         <f>菜单!$E$33</f>
         <v>iam_menu-33</v>
       </c>
       <c r="G59" t="s">
-        <v>556</v>
+        <v>413</v>
       </c>
       <c r="H59" t="s">
         <v>81</v>
@@ -8243,14 +8797,14 @@
     </row>
     <row r="60" spans="5:8">
       <c r="E60" t="s">
-        <v>349</v>
+        <v>414</v>
       </c>
       <c r="F60" t="str">
         <f>菜单!$E$33</f>
         <v>iam_menu-33</v>
       </c>
       <c r="G60" t="s">
-        <v>557</v>
+        <v>415</v>
       </c>
       <c r="H60" t="s">
         <v>81</v>
@@ -8258,14 +8812,14 @@
     </row>
     <row r="61" spans="5:8">
       <c r="E61" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="F61" t="str">
         <f>菜单!$E$33</f>
         <v>iam_menu-33</v>
       </c>
       <c r="G61" t="s">
-        <v>558</v>
+        <v>417</v>
       </c>
       <c r="H61" t="s">
         <v>81</v>
@@ -8273,14 +8827,14 @@
     </row>
     <row r="62" spans="5:8">
       <c r="E62" t="s">
-        <v>351</v>
+        <v>418</v>
       </c>
       <c r="F62" t="str">
         <f>菜单!$E$37</f>
         <v>iam_menu-37</v>
       </c>
       <c r="G62" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="H62" t="s">
         <v>81</v>
@@ -8288,14 +8842,14 @@
     </row>
     <row r="63" spans="5:8">
       <c r="E63" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="F63" t="str">
         <f>菜单!$E$37</f>
         <v>iam_menu-37</v>
       </c>
       <c r="G63" t="s">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="H63" t="s">
         <v>81</v>
@@ -8303,14 +8857,14 @@
     </row>
     <row r="64" spans="5:8">
       <c r="E64" t="s">
-        <v>354</v>
+        <v>421</v>
       </c>
       <c r="F64" t="str">
         <f>菜单!$E$37</f>
         <v>iam_menu-37</v>
       </c>
       <c r="G64" t="s">
-        <v>355</v>
+        <v>422</v>
       </c>
       <c r="H64" t="s">
         <v>81</v>
@@ -8318,14 +8872,14 @@
     </row>
     <row r="65" spans="5:8">
       <c r="E65" t="s">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="F65" t="str">
         <f>菜单!$E$37</f>
         <v>iam_menu-37</v>
       </c>
       <c r="G65" t="s">
-        <v>559</v>
+        <v>424</v>
       </c>
       <c r="H65" t="s">
         <v>81</v>
@@ -8333,14 +8887,14 @@
     </row>
     <row r="66" spans="5:8">
       <c r="E66" t="s">
-        <v>357</v>
+        <v>425</v>
       </c>
       <c r="F66" t="str">
         <f>菜单!$E$37</f>
         <v>iam_menu-37</v>
       </c>
       <c r="G66" t="s">
-        <v>560</v>
+        <v>426</v>
       </c>
       <c r="H66" t="s">
         <v>81</v>
@@ -8348,14 +8902,14 @@
     </row>
     <row r="67" spans="5:8">
       <c r="E67" t="s">
-        <v>358</v>
+        <v>427</v>
       </c>
       <c r="F67" t="str">
         <f>菜单!$E$37</f>
         <v>iam_menu-37</v>
       </c>
       <c r="G67" t="s">
-        <v>561</v>
+        <v>428</v>
       </c>
       <c r="H67" t="s">
         <v>81</v>
@@ -8363,14 +8917,14 @@
     </row>
     <row r="68" spans="5:8">
       <c r="E68" t="s">
-        <v>359</v>
+        <v>429</v>
       </c>
       <c r="F68" t="str">
         <f>菜单!$E$37</f>
         <v>iam_menu-37</v>
       </c>
       <c r="G68" t="s">
-        <v>562</v>
+        <v>430</v>
       </c>
       <c r="H68" t="s">
         <v>81</v>
@@ -8378,14 +8932,14 @@
     </row>
     <row r="69" spans="5:8">
       <c r="E69" t="s">
-        <v>360</v>
+        <v>431</v>
       </c>
       <c r="F69" t="str">
         <f>菜单!$E$37</f>
         <v>iam_menu-37</v>
       </c>
       <c r="G69" t="s">
-        <v>563</v>
+        <v>432</v>
       </c>
       <c r="H69" t="s">
         <v>81</v>
@@ -8393,14 +8947,14 @@
     </row>
     <row r="70" spans="5:8">
       <c r="E70" t="s">
-        <v>361</v>
+        <v>433</v>
       </c>
       <c r="F70" t="str">
         <f>菜单!$E$37</f>
         <v>iam_menu-37</v>
       </c>
       <c r="G70" t="s">
-        <v>564</v>
+        <v>434</v>
       </c>
       <c r="H70" t="s">
         <v>81</v>
@@ -8408,14 +8962,14 @@
     </row>
     <row r="71" spans="5:8">
       <c r="E71" t="s">
-        <v>362</v>
+        <v>435</v>
       </c>
       <c r="F71" t="str">
         <f>菜单!$E$37</f>
         <v>iam_menu-37</v>
       </c>
       <c r="G71" t="s">
-        <v>565</v>
+        <v>436</v>
       </c>
       <c r="H71" t="s">
         <v>81</v>
@@ -8423,14 +8977,14 @@
     </row>
     <row r="72" spans="5:8">
       <c r="E72" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="F72" t="str">
         <f>菜单!$E$39</f>
         <v>iam_menu-39</v>
       </c>
       <c r="G72" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="H72" t="s">
         <v>81</v>
@@ -8438,14 +8992,14 @@
     </row>
     <row r="73" spans="5:8">
       <c r="E73" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="F73" t="str">
         <f>菜单!$E$39</f>
         <v>iam_menu-39</v>
       </c>
       <c r="G73" t="s">
-        <v>566</v>
+        <v>439</v>
       </c>
       <c r="H73" t="s">
         <v>81</v>
@@ -8453,14 +9007,14 @@
     </row>
     <row r="74" spans="5:8">
       <c r="E74" t="s">
-        <v>365</v>
+        <v>440</v>
       </c>
       <c r="F74" t="str">
         <f>菜单!$E$39</f>
         <v>iam_menu-39</v>
       </c>
       <c r="G74" t="s">
-        <v>567</v>
+        <v>441</v>
       </c>
       <c r="H74" t="s">
         <v>81</v>
@@ -8468,14 +9022,14 @@
     </row>
     <row r="75" spans="5:8">
       <c r="E75" t="s">
-        <v>366</v>
+        <v>442</v>
       </c>
       <c r="F75" t="str">
         <f>菜单!$E$39</f>
         <v>iam_menu-39</v>
       </c>
       <c r="G75" t="s">
-        <v>568</v>
+        <v>443</v>
       </c>
       <c r="H75" t="s">
         <v>81</v>
@@ -8483,14 +9037,14 @@
     </row>
     <row r="76" spans="5:8">
       <c r="E76" t="s">
-        <v>367</v>
+        <v>444</v>
       </c>
       <c r="F76" t="str">
         <f>菜单!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G76" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="H76" t="s">
         <v>81</v>
@@ -8498,14 +9052,14 @@
     </row>
     <row r="77" spans="5:8">
       <c r="E77" t="s">
-        <v>368</v>
+        <v>445</v>
       </c>
       <c r="F77" t="str">
         <f>菜单!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G77" t="s">
-        <v>569</v>
+        <v>446</v>
       </c>
       <c r="H77" t="s">
         <v>81</v>
@@ -8513,14 +9067,14 @@
     </row>
     <row r="78" spans="5:8">
       <c r="E78" t="s">
-        <v>369</v>
+        <v>447</v>
       </c>
       <c r="F78" t="str">
         <f>菜单!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G78" t="s">
-        <v>570</v>
+        <v>448</v>
       </c>
       <c r="H78" t="s">
         <v>81</v>
@@ -8528,14 +9082,14 @@
     </row>
     <row r="79" spans="5:8">
       <c r="E79" t="s">
-        <v>370</v>
+        <v>449</v>
       </c>
       <c r="F79" t="str">
         <f>菜单!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G79" t="s">
-        <v>571</v>
+        <v>450</v>
       </c>
       <c r="H79" t="s">
         <v>81</v>
@@ -8543,14 +9097,14 @@
     </row>
     <row r="80" spans="5:8">
       <c r="E80" t="s">
-        <v>371</v>
+        <v>451</v>
       </c>
       <c r="F80" t="str">
         <f>菜单!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G80" t="s">
-        <v>572</v>
+        <v>452</v>
       </c>
       <c r="H80" t="s">
         <v>81</v>
@@ -8558,14 +9112,14 @@
     </row>
     <row r="81" spans="5:8">
       <c r="E81" t="s">
-        <v>372</v>
+        <v>453</v>
       </c>
       <c r="F81" t="str">
         <f>菜单!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G81" t="s">
-        <v>573</v>
+        <v>454</v>
       </c>
       <c r="H81" t="s">
         <v>81</v>
@@ -8573,14 +9127,14 @@
     </row>
     <row r="82" spans="5:8">
       <c r="E82" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="F82" t="str">
         <f>菜单!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G82" t="s">
-        <v>574</v>
+        <v>456</v>
       </c>
       <c r="H82" t="s">
         <v>81</v>
@@ -8588,14 +9142,14 @@
     </row>
     <row r="83" spans="5:8">
       <c r="E83" t="s">
-        <v>374</v>
+        <v>457</v>
       </c>
       <c r="F83" t="str">
         <f>菜单!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G83" t="s">
-        <v>575</v>
+        <v>458</v>
       </c>
       <c r="H83" t="s">
         <v>81</v>
@@ -8603,14 +9157,14 @@
     </row>
     <row r="84" spans="5:8">
       <c r="E84" t="s">
-        <v>375</v>
+        <v>459</v>
       </c>
       <c r="F84" t="str">
         <f>菜单!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G84" t="s">
-        <v>576</v>
+        <v>460</v>
       </c>
       <c r="H84" t="s">
         <v>81</v>
@@ -8618,14 +9172,14 @@
     </row>
     <row r="85" spans="5:8">
       <c r="E85" t="s">
-        <v>376</v>
+        <v>461</v>
       </c>
       <c r="F85" t="str">
         <f>菜单!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G85" t="s">
-        <v>577</v>
+        <v>462</v>
       </c>
       <c r="H85" t="s">
         <v>81</v>
@@ -8633,14 +9187,14 @@
     </row>
     <row r="86" spans="5:8">
       <c r="E86" t="s">
-        <v>377</v>
+        <v>463</v>
       </c>
       <c r="F86" t="str">
         <f>菜单!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G86" t="s">
-        <v>578</v>
+        <v>464</v>
       </c>
       <c r="H86" t="s">
         <v>81</v>
@@ -8648,14 +9202,14 @@
     </row>
     <row r="87" spans="5:8">
       <c r="E87" t="s">
-        <v>378</v>
+        <v>465</v>
       </c>
       <c r="F87" t="str">
         <f>菜单!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G87" t="s">
-        <v>579</v>
+        <v>466</v>
       </c>
       <c r="H87" t="s">
         <v>81</v>
@@ -8663,14 +9217,14 @@
     </row>
     <row r="88" spans="5:8">
       <c r="E88" t="s">
-        <v>379</v>
+        <v>467</v>
       </c>
       <c r="F88" t="str">
         <f>菜单!$E$45</f>
         <v>iam_menu-45</v>
       </c>
       <c r="G88" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="H88" t="s">
         <v>81</v>
@@ -8678,14 +9232,14 @@
     </row>
     <row r="89" spans="5:8">
       <c r="E89" t="s">
-        <v>380</v>
+        <v>468</v>
       </c>
       <c r="F89" t="str">
         <f>菜单!$E$45</f>
         <v>iam_menu-45</v>
       </c>
       <c r="G89" t="s">
-        <v>580</v>
+        <v>469</v>
       </c>
       <c r="H89" t="s">
         <v>81</v>
@@ -8693,14 +9247,14 @@
     </row>
     <row r="90" spans="5:8">
       <c r="E90" t="s">
-        <v>381</v>
+        <v>470</v>
       </c>
       <c r="F90" t="str">
         <f>菜单!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G90" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="H90" t="s">
         <v>81</v>
@@ -8708,14 +9262,14 @@
     </row>
     <row r="91" spans="5:8">
       <c r="E91" t="s">
-        <v>382</v>
+        <v>471</v>
       </c>
       <c r="F91" t="str">
         <f>菜单!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G91" t="s">
-        <v>581</v>
+        <v>472</v>
       </c>
       <c r="H91" t="s">
         <v>81</v>
@@ -8723,14 +9277,14 @@
     </row>
     <row r="92" spans="5:8">
       <c r="E92" t="s">
-        <v>383</v>
+        <v>473</v>
       </c>
       <c r="F92" t="str">
         <f>菜单!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G92" t="s">
-        <v>582</v>
+        <v>474</v>
       </c>
       <c r="H92" t="s">
         <v>81</v>
@@ -8738,14 +9292,14 @@
     </row>
     <row r="93" spans="5:8">
       <c r="E93" t="s">
-        <v>384</v>
+        <v>475</v>
       </c>
       <c r="F93" t="str">
         <f>菜单!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G93" t="s">
-        <v>574</v>
+        <v>456</v>
       </c>
       <c r="H93" t="s">
         <v>81</v>
@@ -8753,14 +9307,14 @@
     </row>
     <row r="94" spans="5:8">
       <c r="E94" t="s">
-        <v>385</v>
+        <v>476</v>
       </c>
       <c r="F94" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G94" t="s">
-        <v>386</v>
+        <v>477</v>
       </c>
       <c r="H94" t="s">
         <v>81</v>
@@ -8768,14 +9322,14 @@
     </row>
     <row r="95" spans="5:8">
       <c r="E95" t="s">
-        <v>387</v>
+        <v>478</v>
       </c>
       <c r="F95" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G95" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="H95" t="s">
         <v>81</v>
@@ -8783,14 +9337,14 @@
     </row>
     <row r="96" spans="5:8">
       <c r="E96" t="s">
-        <v>388</v>
+        <v>479</v>
       </c>
       <c r="F96" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G96" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="H96" t="s">
         <v>81</v>
@@ -8798,14 +9352,14 @@
     </row>
     <row r="97" spans="5:8">
       <c r="E97" t="s">
-        <v>389</v>
+        <v>480</v>
       </c>
       <c r="F97" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G97" t="s">
-        <v>343</v>
+        <v>407</v>
       </c>
       <c r="H97" t="s">
         <v>81</v>
@@ -8813,14 +9367,14 @@
     </row>
     <row r="98" spans="5:8">
       <c r="E98" t="s">
-        <v>390</v>
+        <v>481</v>
       </c>
       <c r="F98" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G98" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="H98" t="s">
         <v>81</v>
@@ -8828,14 +9382,14 @@
     </row>
     <row r="99" spans="5:8">
       <c r="E99" t="s">
-        <v>391</v>
+        <v>482</v>
       </c>
       <c r="F99" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G99" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="H99" t="s">
         <v>81</v>
@@ -8843,14 +9397,14 @@
     </row>
     <row r="100" spans="5:8">
       <c r="E100" t="s">
-        <v>392</v>
+        <v>484</v>
       </c>
       <c r="F100" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G100" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="H100" t="s">
         <v>81</v>
@@ -8858,14 +9412,14 @@
     </row>
     <row r="101" spans="5:8">
       <c r="E101" t="s">
-        <v>393</v>
+        <v>486</v>
       </c>
       <c r="F101" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G101" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="H101" t="s">
         <v>81</v>
@@ -8873,14 +9427,14 @@
     </row>
     <row r="102" spans="5:8">
       <c r="E102" t="s">
-        <v>394</v>
+        <v>488</v>
       </c>
       <c r="F102" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G102" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="H102" t="s">
         <v>81</v>
@@ -8888,14 +9442,14 @@
     </row>
     <row r="103" spans="5:8">
       <c r="E103" t="s">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="F103" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G103" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="H103" t="s">
         <v>81</v>
@@ -8903,14 +9457,14 @@
     </row>
     <row r="104" spans="5:8">
       <c r="E104" t="s">
-        <v>396</v>
+        <v>492</v>
       </c>
       <c r="F104" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G104" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="H104" t="s">
         <v>81</v>
@@ -8918,14 +9472,14 @@
     </row>
     <row r="105" spans="5:8">
       <c r="E105" t="s">
-        <v>397</v>
+        <v>494</v>
       </c>
       <c r="F105" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G105" t="s">
-        <v>398</v>
+        <v>495</v>
       </c>
       <c r="H105" t="s">
         <v>81</v>
@@ -8933,14 +9487,14 @@
     </row>
     <row r="106" spans="5:8">
       <c r="E106" t="s">
-        <v>399</v>
+        <v>496</v>
       </c>
       <c r="F106" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G106" t="s">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="H106" t="s">
         <v>81</v>
@@ -8948,14 +9502,14 @@
     </row>
     <row r="107" spans="5:8">
       <c r="E107" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="F107" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G107" t="s">
-        <v>355</v>
+        <v>422</v>
       </c>
       <c r="H107" t="s">
         <v>81</v>
@@ -8963,14 +9517,14 @@
     </row>
     <row r="108" spans="5:8">
       <c r="E108" t="s">
-        <v>401</v>
+        <v>498</v>
       </c>
       <c r="F108" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G108" t="s">
-        <v>559</v>
+        <v>424</v>
       </c>
       <c r="H108" t="s">
         <v>81</v>
@@ -8978,14 +9532,14 @@
     </row>
     <row r="109" spans="5:8">
       <c r="E109" t="s">
-        <v>402</v>
+        <v>499</v>
       </c>
       <c r="F109" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G109" t="s">
-        <v>561</v>
+        <v>428</v>
       </c>
       <c r="H109" t="s">
         <v>81</v>
@@ -8993,14 +9547,14 @@
     </row>
     <row r="110" spans="5:8">
       <c r="E110" t="s">
-        <v>403</v>
+        <v>500</v>
       </c>
       <c r="F110" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G110" t="s">
-        <v>562</v>
+        <v>430</v>
       </c>
       <c r="H110" t="s">
         <v>81</v>
@@ -9008,14 +9562,14 @@
     </row>
     <row r="111" spans="5:8">
       <c r="E111" t="s">
-        <v>404</v>
+        <v>501</v>
       </c>
       <c r="F111" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G111" t="s">
-        <v>583</v>
+        <v>502</v>
       </c>
       <c r="H111" t="s">
         <v>81</v>
@@ -9023,14 +9577,14 @@
     </row>
     <row r="112" spans="5:8">
       <c r="E112" t="s">
-        <v>405</v>
+        <v>503</v>
       </c>
       <c r="F112" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G112" t="s">
-        <v>584</v>
+        <v>504</v>
       </c>
       <c r="H112" t="s">
         <v>81</v>
@@ -9038,14 +9592,14 @@
     </row>
     <row r="113" spans="5:8">
       <c r="E113" t="s">
-        <v>406</v>
+        <v>505</v>
       </c>
       <c r="F113" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G113" t="s">
-        <v>585</v>
+        <v>506</v>
       </c>
       <c r="H113" t="s">
         <v>81</v>
@@ -9053,14 +9607,14 @@
     </row>
     <row r="114" spans="5:8">
       <c r="E114" t="s">
-        <v>407</v>
+        <v>507</v>
       </c>
       <c r="F114" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G114" t="s">
-        <v>578</v>
+        <v>464</v>
       </c>
       <c r="H114" t="s">
         <v>81</v>
@@ -9068,14 +9622,14 @@
     </row>
     <row r="115" spans="5:8">
       <c r="E115" t="s">
-        <v>408</v>
+        <v>508</v>
       </c>
       <c r="F115" t="str">
         <f>菜单!$E$49</f>
         <v>iam_menu-49</v>
       </c>
       <c r="G115" t="s">
-        <v>586</v>
+        <v>509</v>
       </c>
       <c r="H115" t="s">
         <v>81</v>
@@ -9083,14 +9637,14 @@
     </row>
     <row r="116" spans="5:8">
       <c r="E116" t="s">
-        <v>409</v>
+        <v>510</v>
       </c>
       <c r="F116" t="str">
         <f>菜单!$E$51</f>
         <v>iam_menu-51</v>
       </c>
       <c r="G116" t="s">
-        <v>386</v>
+        <v>477</v>
       </c>
       <c r="H116" t="s">
         <v>81</v>
@@ -9098,14 +9652,14 @@
     </row>
     <row r="117" spans="5:8">
       <c r="E117" t="s">
-        <v>410</v>
+        <v>511</v>
       </c>
       <c r="F117" t="str">
         <f>菜单!$E$51</f>
         <v>iam_menu-51</v>
       </c>
       <c r="G117" t="s">
-        <v>343</v>
+        <v>407</v>
       </c>
       <c r="H117" t="s">
         <v>81</v>
@@ -9113,14 +9667,14 @@
     </row>
     <row r="118" spans="5:8">
       <c r="E118" t="s">
-        <v>411</v>
+        <v>512</v>
       </c>
       <c r="F118" t="str">
         <f>菜单!$E$51</f>
         <v>iam_menu-51</v>
       </c>
       <c r="G118" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="H118" t="s">
         <v>81</v>
@@ -9128,14 +9682,14 @@
     </row>
     <row r="119" spans="5:8">
       <c r="E119" t="s">
-        <v>412</v>
+        <v>513</v>
       </c>
       <c r="F119" t="str">
         <f>菜单!$E$51</f>
         <v>iam_menu-51</v>
       </c>
       <c r="G119" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="H119" t="s">
         <v>81</v>
@@ -9143,14 +9697,14 @@
     </row>
     <row r="120" spans="5:8">
       <c r="E120" t="s">
-        <v>413</v>
+        <v>514</v>
       </c>
       <c r="F120" t="str">
         <f>菜单!$E$51</f>
         <v>iam_menu-51</v>
       </c>
       <c r="G120" t="s">
-        <v>587</v>
+        <v>515</v>
       </c>
       <c r="H120" t="s">
         <v>81</v>
@@ -9158,55 +9712,93 @@
     </row>
     <row r="121" spans="5:8">
       <c r="E121" t="s">
-        <v>414</v>
+        <v>516</v>
       </c>
       <c r="F121" t="str">
         <f>菜单!$E$51</f>
         <v>iam_menu-51</v>
       </c>
       <c r="G121" t="s">
-        <v>588</v>
+        <v>517</v>
       </c>
       <c r="H121" t="s">
         <v>81</v>
       </c>
     </row>
+    <row r="122" spans="5:8">
+      <c r="E122" t="s">
+        <v>518</v>
+      </c>
+      <c r="F122" t="str">
+        <f>菜单!E54</f>
+        <v>iam_menu-54</v>
+      </c>
+      <c r="G122" t="s">
+        <v>519</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="5:8">
+      <c r="E123" t="s">
+        <v>520</v>
+      </c>
+      <c r="F123" t="str">
+        <f>菜单!E57</f>
+        <v>iam_menu-56</v>
+      </c>
+      <c r="G123" t="s">
+        <v>521</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <cols>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="20.8333333333333" customWidth="1"/>
+    <col min="7" max="7" width="25.3333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="45" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9218,12 +9810,12 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>415</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>416</v>
-      </c>
-      <c r="E7" s="66" t="s">
+        <v>522</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -9232,76 +9824,76 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>417</v>
+        <v>524</v>
       </c>
       <c r="J7" t="s">
-        <v>418</v>
-      </c>
-      <c r="K7" s="68" t="s">
+        <v>525</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>419</v>
-      </c>
-      <c r="M7" s="69" t="s">
-        <v>420</v>
-      </c>
-      <c r="N7" s="70" t="s">
-        <v>421</v>
+        <v>526</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="O7" t="s">
-        <v>422</v>
+        <v>529</v>
       </c>
       <c r="P7" t="s">
-        <v>423</v>
+        <v>530</v>
       </c>
       <c r="Q7" t="s">
-        <v>424</v>
+        <v>531</v>
       </c>
       <c r="R7" t="s">
-        <v>425</v>
+        <v>532</v>
       </c>
       <c r="S7" t="s">
-        <v>426</v>
+        <v>533</v>
       </c>
       <c r="T7" t="s">
-        <v>427</v>
+        <v>534</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>428</v>
-      </c>
-      <c r="W7" s="71" t="s">
-        <v>429</v>
+        <v>535</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="X7" t="s">
-        <v>430</v>
+        <v>537</v>
       </c>
       <c r="Y7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>432</v>
+        <v>539</v>
       </c>
       <c r="F8" t="s">
-        <v>433</v>
+        <v>540</v>
       </c>
       <c r="G8" t="s">
-        <v>434</v>
+        <v>541</v>
       </c>
       <c r="H8" t="s">
-        <v>435</v>
+        <v>542</v>
       </c>
       <c r="I8" t="s">
-        <v>436</v>
+        <v>543</v>
       </c>
       <c r="J8" t="s">
         <v>220</v>
@@ -9337,30 +9929,30 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>435</v>
+        <v>542</v>
       </c>
       <c r="V8" t="s">
-        <v>435</v>
+        <v>542</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>437</v>
+        <v>544</v>
       </c>
       <c r="F9" t="s">
-        <v>438</v>
+        <v>545</v>
       </c>
       <c r="G9" t="s">
-        <v>439</v>
+        <v>546</v>
       </c>
       <c r="H9" t="s">
-        <v>440</v>
+        <v>547</v>
       </c>
       <c r="I9" t="s">
-        <v>441</v>
+        <v>548</v>
       </c>
       <c r="J9" t="s">
         <v>80</v>
@@ -9396,27 +9988,27 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>440</v>
+        <v>547</v>
       </c>
       <c r="V9" t="s">
-        <v>440</v>
+        <v>547</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>442</v>
+        <v>549</v>
       </c>
       <c r="F10" t="s">
-        <v>443</v>
+        <v>550</v>
       </c>
       <c r="G10" t="s">
-        <v>444</v>
+        <v>551</v>
       </c>
       <c r="H10" t="s">
-        <v>445</v>
+        <v>552</v>
       </c>
       <c r="J10" t="s">
         <v>80</v>
@@ -9453,22 +10045,22 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>446</v>
+        <v>553</v>
       </c>
       <c r="V10" t="s">
-        <v>445</v>
+        <v>552</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>438</v>
+        <v>545</v>
       </c>
       <c r="Y10" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -9476,36 +10068,36 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>449</v>
-      </c>
-      <c r="E12" s="73" t="s">
+        <v>555</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="74" t="s">
-        <v>450</v>
-      </c>
-      <c r="G12" s="75" t="s">
-        <v>451</v>
+      <c r="F12" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="H12" t="s">
-        <v>452</v>
+        <v>559</v>
       </c>
       <c r="I12" t="s">
-        <v>453</v>
-      </c>
-      <c r="J12" s="76" t="s">
-        <v>454</v>
+        <v>560</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>561</v>
       </c>
       <c r="K12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11">
       <c r="E13" t="s">
-        <v>455</v>
+        <v>562</v>
       </c>
       <c r="F13" t="str">
         <f>角色权限!$E$9</f>
@@ -9516,21 +10108,21 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H13" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I13" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J13" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="5:11">
       <c r="E14" t="s">
-        <v>459</v>
+        <v>566</v>
       </c>
       <c r="F14" t="str">
         <f>角色权限!$E$10</f>
@@ -9541,21 +10133,21 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H14" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I14" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J14" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="5:11">
       <c r="E15" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
       <c r="F15" t="str">
         <f>角色权限!$E$9</f>
@@ -9566,21 +10158,21 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H15" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I15" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J15" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="5:11">
       <c r="E16" t="s">
-        <v>461</v>
+        <v>568</v>
       </c>
       <c r="F16" t="str">
         <f>角色权限!$E$10</f>
@@ -9591,13 +10183,13 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H16" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I16" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J16" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K16" t="s">
         <v>81</v>
@@ -9605,7 +10197,7 @@
     </row>
     <row r="17" spans="5:11">
       <c r="E17" t="s">
-        <v>462</v>
+        <v>569</v>
       </c>
       <c r="F17" t="str">
         <f>角色权限!$E$9</f>
@@ -9616,13 +10208,13 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H17" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I17" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J17" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K17" t="s">
         <v>81</v>
@@ -9630,7 +10222,7 @@
     </row>
     <row r="18" spans="5:11">
       <c r="E18" t="s">
-        <v>463</v>
+        <v>570</v>
       </c>
       <c r="F18" t="str">
         <f>角色权限!$E$10</f>
@@ -9641,13 +10233,13 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H18" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I18" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J18" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K18" t="s">
         <v>81</v>
@@ -9655,7 +10247,7 @@
     </row>
     <row r="19" spans="5:11">
       <c r="E19" t="s">
-        <v>464</v>
+        <v>571</v>
       </c>
       <c r="F19" t="str">
         <f>角色权限!$E$9</f>
@@ -9666,13 +10258,13 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H19" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I19" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J19" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K19" t="s">
         <v>81</v>
@@ -9680,7 +10272,7 @@
     </row>
     <row r="20" spans="5:11">
       <c r="E20" t="s">
-        <v>465</v>
+        <v>572</v>
       </c>
       <c r="F20" t="str">
         <f>角色权限!$E$10</f>
@@ -9691,13 +10283,13 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H20" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I20" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J20" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K20" t="s">
         <v>81</v>
@@ -9705,7 +10297,7 @@
     </row>
     <row r="21" spans="5:11">
       <c r="E21" t="s">
-        <v>466</v>
+        <v>573</v>
       </c>
       <c r="F21" t="str">
         <f>角色权限!$E$10</f>
@@ -9716,13 +10308,13 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H21" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I21" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J21" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K21" t="s">
         <v>81</v>
@@ -9730,7 +10322,7 @@
     </row>
     <row r="22" spans="5:11">
       <c r="E22" t="s">
-        <v>467</v>
+        <v>574</v>
       </c>
       <c r="F22" t="str">
         <f>角色权限!$E$9</f>
@@ -9741,13 +10333,13 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H22" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I22" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J22" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K22" t="s">
         <v>81</v>
@@ -9755,7 +10347,7 @@
     </row>
     <row r="23" spans="5:11">
       <c r="E23" t="s">
-        <v>468</v>
+        <v>575</v>
       </c>
       <c r="F23" t="str">
         <f>角色权限!$E$10</f>
@@ -9766,13 +10358,13 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H23" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I23" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J23" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K23" t="s">
         <v>81</v>
@@ -9780,7 +10372,7 @@
     </row>
     <row r="24" spans="5:11">
       <c r="E24" t="s">
-        <v>469</v>
+        <v>576</v>
       </c>
       <c r="F24" t="str">
         <f>角色权限!$E$9</f>
@@ -9791,13 +10383,13 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H24" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I24" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J24" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K24" t="s">
         <v>81</v>
@@ -9805,7 +10397,7 @@
     </row>
     <row r="25" spans="5:11">
       <c r="E25" t="s">
-        <v>470</v>
+        <v>577</v>
       </c>
       <c r="F25" t="str">
         <f>角色权限!$E$10</f>
@@ -9816,13 +10408,13 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H25" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I25" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J25" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K25" t="s">
         <v>81</v>
@@ -9830,7 +10422,7 @@
     </row>
     <row r="26" spans="5:11">
       <c r="E26" t="s">
-        <v>471</v>
+        <v>578</v>
       </c>
       <c r="F26" t="str">
         <f>角色权限!$E$9</f>
@@ -9841,13 +10433,13 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H26" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I26" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J26" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K26" t="s">
         <v>81</v>
@@ -9855,7 +10447,7 @@
     </row>
     <row r="27" spans="5:11">
       <c r="E27" t="s">
-        <v>472</v>
+        <v>579</v>
       </c>
       <c r="F27" t="str">
         <f>角色权限!$E$10</f>
@@ -9866,13 +10458,13 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H27" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I27" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J27" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K27" t="s">
         <v>81</v>
@@ -9880,7 +10472,7 @@
     </row>
     <row r="28" spans="5:11">
       <c r="E28" t="s">
-        <v>473</v>
+        <v>580</v>
       </c>
       <c r="F28" t="str">
         <f>角色权限!$E$9</f>
@@ -9891,13 +10483,13 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H28" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I28" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J28" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K28" t="s">
         <v>81</v>
@@ -9905,7 +10497,7 @@
     </row>
     <row r="29" spans="5:11">
       <c r="E29" t="s">
-        <v>474</v>
+        <v>581</v>
       </c>
       <c r="F29" t="str">
         <f>角色权限!$E$10</f>
@@ -9916,13 +10508,13 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H29" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I29" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J29" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K29" t="s">
         <v>81</v>
@@ -9930,7 +10522,7 @@
     </row>
     <row r="30" spans="5:11">
       <c r="E30" t="s">
-        <v>475</v>
+        <v>582</v>
       </c>
       <c r="F30" t="str">
         <f>角色权限!$E$9</f>
@@ -9941,13 +10533,13 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H30" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I30" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J30" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K30" t="s">
         <v>81</v>
@@ -9955,7 +10547,7 @@
     </row>
     <row r="31" spans="5:11">
       <c r="E31" t="s">
-        <v>476</v>
+        <v>583</v>
       </c>
       <c r="F31" t="str">
         <f>角色权限!$E$10</f>
@@ -9966,13 +10558,13 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H31" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I31" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J31" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K31" t="s">
         <v>81</v>
@@ -9980,7 +10572,7 @@
     </row>
     <row r="32" spans="5:11">
       <c r="E32" t="s">
-        <v>477</v>
+        <v>584</v>
       </c>
       <c r="F32" t="str">
         <f>角色权限!$E$9</f>
@@ -9991,13 +10583,13 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H32" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I32" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J32" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K32" t="s">
         <v>81</v>
@@ -10005,7 +10597,7 @@
     </row>
     <row r="33" spans="5:11">
       <c r="E33" t="s">
-        <v>478</v>
+        <v>585</v>
       </c>
       <c r="F33" t="str">
         <f>角色权限!$E$10</f>
@@ -10016,13 +10608,13 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H33" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I33" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J33" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K33" t="s">
         <v>81</v>
@@ -10030,7 +10622,7 @@
     </row>
     <row r="34" spans="5:11">
       <c r="E34" t="s">
-        <v>479</v>
+        <v>586</v>
       </c>
       <c r="F34" t="str">
         <f>角色权限!$E$10</f>
@@ -10041,13 +10633,13 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H34" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I34" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J34" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K34" t="s">
         <v>81</v>
@@ -10055,7 +10647,7 @@
     </row>
     <row r="35" spans="5:11">
       <c r="E35" t="s">
-        <v>480</v>
+        <v>587</v>
       </c>
       <c r="F35" t="str">
         <f>角色权限!$E$10</f>
@@ -10066,13 +10658,13 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H35" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I35" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J35" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K35" t="s">
         <v>81</v>
@@ -10080,7 +10672,7 @@
     </row>
     <row r="36" spans="5:11">
       <c r="E36" t="s">
-        <v>481</v>
+        <v>588</v>
       </c>
       <c r="F36" t="str">
         <f>角色权限!$E$9</f>
@@ -10091,13 +10683,13 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H36" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I36" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J36" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K36" t="s">
         <v>81</v>
@@ -10105,7 +10697,7 @@
     </row>
     <row r="37" spans="5:11">
       <c r="E37" t="s">
-        <v>482</v>
+        <v>589</v>
       </c>
       <c r="F37" t="str">
         <f>角色权限!$E$10</f>
@@ -10116,13 +10708,13 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H37" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I37" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J37" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K37" t="s">
         <v>81</v>
@@ -10130,7 +10722,7 @@
     </row>
     <row r="38" spans="5:11">
       <c r="E38" t="s">
-        <v>483</v>
+        <v>590</v>
       </c>
       <c r="F38" t="str">
         <f>角色权限!$E$9</f>
@@ -10141,13 +10733,13 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H38" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I38" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J38" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K38" t="s">
         <v>81</v>
@@ -10155,7 +10747,7 @@
     </row>
     <row r="39" spans="5:11">
       <c r="E39" t="s">
-        <v>484</v>
+        <v>591</v>
       </c>
       <c r="F39" t="str">
         <f>角色权限!$E$10</f>
@@ -10166,13 +10758,13 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H39" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I39" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J39" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K39" t="s">
         <v>81</v>
@@ -10180,7 +10772,7 @@
     </row>
     <row r="40" spans="5:11">
       <c r="E40" t="s">
-        <v>485</v>
+        <v>592</v>
       </c>
       <c r="F40" t="str">
         <f>角色权限!$E$8</f>
@@ -10191,13 +10783,13 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H40" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I40" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J40" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K40" t="s">
         <v>81</v>
@@ -10205,7 +10797,7 @@
     </row>
     <row r="41" spans="5:11">
       <c r="E41" t="s">
-        <v>486</v>
+        <v>593</v>
       </c>
       <c r="F41" t="str">
         <f>角色权限!$E$8</f>
@@ -10216,13 +10808,13 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H41" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I41" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J41" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K41" t="s">
         <v>81</v>
@@ -10230,7 +10822,7 @@
     </row>
     <row r="42" spans="5:11">
       <c r="E42" t="s">
-        <v>487</v>
+        <v>594</v>
       </c>
       <c r="F42" t="str">
         <f>角色权限!$E$8</f>
@@ -10241,13 +10833,13 @@
         <v>iam_menu-49</v>
       </c>
       <c r="H42" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I42" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J42" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K42" t="s">
         <v>81</v>
@@ -10255,7 +10847,7 @@
     </row>
     <row r="43" spans="5:11">
       <c r="E43" t="s">
-        <v>488</v>
+        <v>595</v>
       </c>
       <c r="F43" t="str">
         <f>角色权限!$E$8</f>
@@ -10266,54 +10858,110 @@
         <v>iam_menu-51</v>
       </c>
       <c r="H43" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="I43" t="s">
-        <v>457</v>
+        <v>564</v>
       </c>
       <c r="J43" t="s">
-        <v>458</v>
+        <v>565</v>
       </c>
       <c r="K43" t="s">
         <v>81</v>
       </c>
     </row>
+    <row r="44" spans="5:11">
+      <c r="E44" t="s">
+        <v>596</v>
+      </c>
+      <c r="F44" t="str">
+        <f>E8</f>
+        <v>iam_role-8</v>
+      </c>
+      <c r="G44" t="str">
+        <f>菜单!E54</f>
+        <v>iam_menu-54</v>
+      </c>
+      <c r="H44" t="s">
+        <v>563</v>
+      </c>
+      <c r="I44" t="s">
+        <v>564</v>
+      </c>
+      <c r="J44" t="s">
+        <v>565</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11">
+      <c r="E45" t="s">
+        <v>597</v>
+      </c>
+      <c r="F45" t="str">
+        <f>E8</f>
+        <v>iam_role-8</v>
+      </c>
+      <c r="G45" t="str">
+        <f>菜单!E57</f>
+        <v>iam_menu-56</v>
+      </c>
+      <c r="H45" t="s">
+        <v>563</v>
+      </c>
+      <c r="I45" t="s">
+        <v>564</v>
+      </c>
+      <c r="J45" t="s">
+        <v>565</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <cols>
+    <col min="7" max="7" width="21.3333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="52" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10325,66 +10973,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>489</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>490</v>
-      </c>
-      <c r="E7" s="78" t="s">
+        <v>598</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="79" t="s">
-        <v>491</v>
-      </c>
-      <c r="G7" s="80" t="s">
-        <v>454</v>
+      <c r="F7" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>561</v>
       </c>
       <c r="H7" t="s">
-        <v>492</v>
+        <v>601</v>
       </c>
       <c r="I7" t="s">
-        <v>418</v>
+        <v>525</v>
       </c>
       <c r="J7" t="s">
-        <v>493</v>
+        <v>602</v>
       </c>
       <c r="K7" t="s">
-        <v>494</v>
+        <v>603</v>
       </c>
       <c r="L7" t="s">
-        <v>495</v>
+        <v>604</v>
       </c>
       <c r="M7" t="s">
-        <v>496</v>
+        <v>605</v>
       </c>
       <c r="N7" t="s">
-        <v>497</v>
+        <v>606</v>
       </c>
       <c r="O7" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>499</v>
+        <v>608</v>
       </c>
       <c r="F8" t="s">
-        <v>500</v>
+        <v>609</v>
       </c>
       <c r="G8" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="H8" t="s">
         <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>502</v>
+        <v>611</v>
       </c>
       <c r="J8" t="s">
-        <v>503</v>
+        <v>612</v>
       </c>
       <c r="K8" t="s">
-        <v>503</v>
+        <v>612</v>
       </c>
       <c r="M8" t="s">
         <v>84</v>
@@ -10396,7 +11044,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -10404,33 +11052,33 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>504</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>505</v>
-      </c>
-      <c r="E10" s="82" t="s">
-        <v>506</v>
-      </c>
-      <c r="F10" s="83" t="s">
-        <v>507</v>
-      </c>
-      <c r="G10" s="84" t="s">
-        <v>508</v>
-      </c>
-      <c r="H10" s="85" t="s">
-        <v>509</v>
+        <v>613</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>618</v>
       </c>
       <c r="I10" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9">
       <c r="E11" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F11" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G11" t="str">
         <f>菜单!$E$8</f>
@@ -10441,15 +11089,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9">
       <c r="E12" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F12" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G12" t="str">
         <f>菜单!$E$9</f>
@@ -10460,15 +11108,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I12" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9">
       <c r="E13" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F13" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G13" t="str">
         <f>菜单!$E$10</f>
@@ -10479,15 +11127,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I13" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
       <c r="E14" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F14" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G14" t="str">
         <f>菜单!$E$11</f>
@@ -10498,15 +11146,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I14" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F15" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G15" t="str">
         <f>菜单!$E$12</f>
@@ -10517,15 +11165,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I15" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F16" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G16" t="str">
         <f>菜单!$E$13</f>
@@ -10536,15 +11184,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F17" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G17" t="str">
         <f>菜单!$E$29</f>
@@ -10555,15 +11203,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F18" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G18" t="str">
         <f>菜单!$E$30</f>
@@ -10574,15 +11222,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F19" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G19" t="str">
         <f>菜单!$E$31</f>
@@ -10593,15 +11241,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F20" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G20" t="str">
         <f>菜单!$E$32</f>
@@ -10612,15 +11260,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I20" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F21" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G21" t="str">
         <f>菜单!$E$33</f>
@@ -10631,15 +11279,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I21" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F22" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G22" t="str">
         <f>菜单!$E$34</f>
@@ -10650,15 +11298,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F23" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G23" t="str">
         <f>菜单!$E$35</f>
@@ -10669,15 +11317,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I23" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F24" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G24" t="str">
         <f>菜单!$E$36</f>
@@ -10688,15 +11336,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I24" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F25" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G25" t="str">
         <f>菜单!$E$37</f>
@@ -10707,15 +11355,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I25" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F26" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G26" t="str">
         <f>菜单!$E$38</f>
@@ -10726,15 +11374,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I26" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F27" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G27" t="str">
         <f>菜单!$E$39</f>
@@ -10745,15 +11393,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I27" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F28" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G28" t="str">
         <f>菜单!$E$47</f>
@@ -10764,15 +11412,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I28" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F29" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G29" t="str">
         <f>菜单!$E$48</f>
@@ -10783,15 +11431,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F30" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G30" t="str">
         <f>菜单!$E$49</f>
@@ -10802,15 +11450,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F31" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G31" t="str">
         <f>菜单!$E$50</f>
@@ -10821,15 +11469,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I31" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F32" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G32" t="str">
         <f>菜单!$E$51</f>
@@ -10840,15 +11488,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I32" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F33" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G33" t="str">
         <f>菜单!$E$14</f>
@@ -10859,15 +11507,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I33" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F34" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G34" t="str">
         <f>菜单!$E$15</f>
@@ -10878,15 +11526,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I34" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F35" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G35" t="str">
         <f>菜单!$E$18</f>
@@ -10897,15 +11545,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I35" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F36" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G36" t="str">
         <f>菜单!$E$19</f>
@@ -10916,15 +11564,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I36" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F37" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G37" t="str">
         <f>菜单!$E$26</f>
@@ -10935,15 +11583,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I37" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F38" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G38" t="str">
         <f>菜单!$E$40</f>
@@ -10954,15 +11602,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I38" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F39" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G39" t="str">
         <f>菜单!$E$41</f>
@@ -10973,15 +11621,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I39" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F40" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G40" t="str">
         <f>菜单!$E$42</f>
@@ -10992,15 +11640,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I40" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F41" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G41" t="str">
         <f>菜单!$E$43</f>
@@ -11011,15 +11659,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I41" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F42" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G42" t="str">
         <f>菜单!$E$46</f>
@@ -11030,15 +11678,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I42" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F43" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G43" t="str">
         <f>菜单!$E$27</f>
@@ -11049,15 +11697,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I43" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F44" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G44" t="str">
         <f>菜单!$E$28</f>
@@ -11068,15 +11716,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I44" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F45" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G45" t="str">
         <f>菜单!$E$44</f>
@@ -11087,15 +11735,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I45" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="F46" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
       <c r="G46" t="str">
         <f>菜单!$E$45</f>
@@ -11106,12 +11754,12 @@
         <v>iam_label-8</v>
       </c>
       <c r="I46" t="s">
-        <v>512</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-iam-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-iam-menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="622">
   <si>
     <r>
       <rPr>
@@ -3610,10 +3610,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3683,10 +3683,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3699,67 +3699,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3771,16 +3721,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3795,9 +3744,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3811,32 +3826,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3860,13 +3854,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -3879,12 +3866,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3934,7 +3915,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3946,127 +4035,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4084,19 +4065,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4108,7 +4089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4215,6 +4196,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4230,31 +4220,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4283,17 +4259,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4318,10 +4299,10 @@
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4330,19 +4311,19 @@
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4351,115 +4332,115 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5175,8 +5156,8 @@
   <sheetPr/>
   <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView topLeftCell="D40" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="F40" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -7656,7 +7637,7 @@
         <v>82</v>
       </c>
       <c r="M52">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N52" t="s">
         <v>84</v>
@@ -7816,8 +7797,6 @@
       <c r="N55" t="s">
         <v>84</v>
       </c>
-      <c r="O55"/>
-      <c r="P55"/>
       <c r="Q55" t="s">
         <v>81</v>
       </c>
@@ -7863,8 +7842,8 @@
       <c r="L56" t="s">
         <v>100</v>
       </c>
-      <c r="M56" t="s">
-        <v>93</v>
+      <c r="M56">
+        <v>0</v>
       </c>
       <c r="N56" t="s">
         <v>84</v>
@@ -9766,7 +9745,7 @@
   <sheetPr/>
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
